--- a/기사데이터/토스/엑셀파일/news(토스, 2023.09.01~2023.09.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.09.01~2023.09.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023.09.09.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>막내 토스 반란, 인터넷은행·증권 판도 흔든다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000947610?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[머니S리포트-더 커진 ICT 공룡 '네카토' 공습②] 토스뱅크, 3분기 흑자전환 기대… 카카오뱅크, 주담대 규제 발목[편집자주]빅테크는 메기가 아닌 공룡이었다. 빅테크 네카토(네이버페이·카카오페이·토스)가 발톱을 꺼내 레거시금융(전통금융)을 할퀴고 있다. 빅테크 간편결제액이 급증세를 보이면서 지급결제시장을 주도해 온 신용카드사들을 위협 중이다. 빅테크들은 기술력과 편의성을 앞세워 보험에 이어 은행, 증권업계에서도 영토 확장에 여념이 없다. 빅테크에 기존 금융사들과 동일한 규제를 적용해야 한다는 목소리도 커지고 있다. 기울어진 운동장에선 공정 경쟁이 불가능하단 이유에서다.홍민택 토스뱅크 대표이사가 5일 오전 서울 영등포구 여의도동 콘래드 서울에서 열린 토스뱅크 전월세자금 대출 기자간담회에서 상품설명을 하고 있다./사진=장동규 기자 ◆기사 게재 순서①네카토 페이에 따라 잡힌다?… 카드업계 초비상②막내 토스 반란, 인터넷은행·증권 판도 흔든다③'빅테크 공룡' 네카토 보험 비교·추천 곧 출범… 파장은? ④20세기 금산분리, 은행 '이자장사' 비난 속에 공회전ICT(정보통신기술) 금융 메기, 토스가 금융권 후발주자로 두각을 나타내고 있다. '3번째 인터넷은행' 토스뱅크는 올해 2분기 적자 폭을 줄이며 흑자 달성 기대감을 높이고 토스증권은 해외주식시장 점유율 20%를 차지하는 등 성장세를 보인다.카카오가 은행(카카오뱅크)업과 증권(카카오페이증권)업에서 고전하는 사이에 네이버는 네이버페이의 종합 금융플랫폼 도약을 선언하며 바짝 뒤를 쫓는 모양새다. 혁신 기술을 내세운 네카토가 치열한 경쟁을 벌이며 금융권 판도를 흔들고 있다. ━토뱅 홍민택 "비이자이익 확대"… 카뱅 규제 발목 ━토스뱅크는 지난 2분기 당기순손실 104억원으로 지난해 2분기 당기순손실 619억원보다 손실 규모를 6분의 1로 줄였다. 당기순손실은 전 분기(-280억원)에 비해선 3분의 1 수준으로 감소했다. 토스뱅크의 실적이 개선된 이유는 여신 사업의 안정적인 성장이다. 지난 2분기말 토스뱅크의 여신잔액은 10조460억원으로 처음 10조원을 넘어섰다. 지난해 2분기(4조3000억원)와 비교하면 1년 만에 2.4배 규모로 불어났다.  토스뱅크는 올 3분기 흑자 달성이 가능하다는 전망이 나온다. 지난 2017년 출범한 케이뱅크와 카카오뱅크가 흑자 전환에 각각 5년, 3년이 걸린 것과 비교하면 단기간 눈에 띄는 실적 개선이다. 최근 토스뱅크는 전·월세보증금 대출 출시하며 여신사업 확장에 드라이브를 걸었다. 신용대출만 취급한 토스뱅크가 본격적으로 여신 포트폴리오 다각화에 나섰다는 평가다. 토스뱅크가 선보인 전·월세 보증금 대출은 일반, 청년, 다자녀 특례 등 세 가지 종류다. 대출자의 소득과 부채 규모를 따져 임차 보증금의 88% 한도로 최대 2억2200만원까지 대출해준다. 금리는 지난 5일 연 3.32~5.19%다. 홍민택 토스뱅크 대표는 향후 주택담보대출 시장 진출을 예고하며 흑자 전환에 자신감을 내비쳤다. 홍 대표는 지난 5일 전·월세 보증금 대출을 출시하며 "중저신용자를 포용하고 충당금을 쌓으면서 이익을 증명했다"며 "전·월세 보증금 대출을 기반으로 주담대 진출을 준비, 해외 진출 기회가 있는지 활발하게 보고 있다"고 말했다. 이어 그는 "하반기 규모의 성장과 이익 성장을 지속할 것으로 기대한다"고 말했다. 올 상반기 1838억원의 최대 실적을 거둔 카카오뱅크는 금융당국의 규제 암초를 만났다. 금융감독원은 지난 4일부터 7일까지 카카오뱅크의 현장점검을 진행했다. 카카오뱅크의 주담대 잔액이 지난해 말 13조2960억원에서 6월 말 17조3220억원으로 4조260억원(30.3%) 불어나는 등 급격한 성장을 보여 연체율 우려가 커지고 있어서다. 카카오뱅크의 2분기 연체율(1개월 이상 원리금 연체)은 0.33%에서 0.52%로 019%포인트 커졌다. KB국민·신한·하나·우리 등 4대 은행의 2분기 연체율이 0.24%인 것을 감안하면 두배 높은 수준이다. 카카오뱅크는 최근 대주주인 카카오가 SM엔터 시세 조종 의혹으로 자본시장법 위반 혐의로 금융감독원과 검찰 수사를 받고 있어 대주주 리스크도 커졌다. 카카오는 카카오뱅크의 지분 27.2%를 보유한 최대주주다. 카카오가 자본시장법 위반으로 벌금형 이상의 형사 처벌을 받으면 카카오뱅크 대주주 적격성에 문제가 생길 수 있다. 앞서 카카오뱅크는 지난 5월 카카오의 자본시장법 위반 조사로 마이데이터 신사업의 허가 심사가 보류된 바 있다. 최정욱 하나증권 연구원은 "카카오뱅크는 금융당국이 가계대출 속도 조절을 주문하면서 향후 성장률이 둔화될 개연성이 있다"면서도 "3분기 대출 성장률은 10%를 상회할 것"이라고 내다봤다.━적자 폭 줄인 토스증권, 네이버페이 격돌━증권업계에선 토스증권의 약진 속에 카카오페이증권의 고전이 이어지고 있다. 토스증권의 올해 상반기 매출액은 964억6252만원으로 전년 동기대비 91.4% 늘었다. 반면 카카오페이증권의 매출액은 378억6451만원으로 같은기간 24.0% 증가하는 데 그쳤다.  두 증권사의 실적을 가른 배경은 위탁매매 수수료다. 토스증권의 올 상반기 수수료 수익은 409억2993만원으로 전년 대비 91.5% 성장했지만 카카오페이증권의 수수료수익은 31억7668만원에 그쳤다. 토스증권의 상반기 영업손실과 당기순손실은 각각 39억8590만원, 40억2825만원으로 집계됐다. 실적이 이익으로 돌아서진 못했지만 지난해 상반기 영업손실(168억6166만원), 당기순손실(168억7458만원) 폭을 크게 좁혔다. 카카오페이증권는 마이너스 성적이 지속됐다. 올 상반기 카카오페이증권의 상반기 영업손실은 254억6834만원으로 지난해 동기대비 8.8% 손실이 늘었다. 당기순손실도 239억6066만원에서 247억5805만원으로 적자 폭이 3.3% 증가했다.토스증권의 해외주식 위탁매매 시장점유율은 20%를 돌파한 가운데 카카오페이증권은 7%에 그친 것으로 알려졌다. 금융투자업계 전문가들은 후발주자 카카오페이증권이 수익을 내기까지 초기 투자 부담이 불가피하다는 전망을 내놓는다. 임희연 신한투자증권 연구원은 "토스증권이 1년 먼저 시장을 선점해 카카오페이증권이 빠른 시간 안에 격차를 축소하기 어려워 보인다"며 "MTS(모바일거래시스템) 관련 프로모션 비용이 늘면서 수수료손익 증가가 제한적"이라고 내다봤다. 인공지능(AI) 서비스로 중무장한 네이버페이는 간편결제 서비스를 앞세워 부동산·증권을 아우르는 종합 금융 플랫폼으로 거듭난다는 포부다. 앞서 네이버페이는 지난 6월 개시된 마이데이터 서비스인 '내 자산'을 중심으로 결제·금융상품·증권·부동산 등 5개 탭으로 구성된 네이버페이 인터페이스 개편을 진행했다. 네이버페이 결제와 금융상품 검색, 증권·부동산에서 시작되는 사용자 동선에 금융상품 비교·추천을 연결하고 상품 가입 후 금융·실물자산을 관리하는 구성이다.올해 안에 네이버페이는 증권에서 종목 조회 후 바로 증권사로 연결해 주식 주문을 할 수 있는 간편연결 서비스를 출시할 계획이다. 박상진 네이버페이 대표는 "네이버페이 증권은 1000만 이상 월간활성사용자(MAU) 서비스"라며 "종목 검색부터 투자, 관리까지 원스톱으로 이어지는 차별화된 사용자 경험을 제공하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스뱅크 대표 "주택담보대출, 해야 하지만 거시경제 환경 등 맞아야"</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005567571?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>홍민택 대표 5일 '전·월세 대출 상품' 출시 발표"주담대 다각 검토 중이지만 아직은…차별화 가치 중요""전·월세 대출은 실거주 성격 가계대출 증가와 관련 없어"[이데일리 정병묵 기자] 홍민택 토스뱅크 대표이사가 주택담보대출(주담대) 출시 시기를 다각도로 검토하고 있다고 말했다. 토스뱅크는 카카오뱅크, 케이뱅크 등 인터넷전문은행 3사 중 유일하게 주담대를 취급하고 있지 않다.홍민택 토스뱅크 대표이사가 5일 오전 서울 여의도 콘래드호텔에서 발표하고 있다.(사진=정병묵 기자)홍 대표는 5일 오전 서울 여의도 콘래드호텔에서 ‘전·월세 대출 상품 출시’ 기자간담회를 열어 “(주담대의) 구체적인 출시 시점은 미정”이라면서도 “후발주자로서 현 사용자들이 갖고 있는 문제를 기존 사업자들과 다른 방식으로 풀어 내 가치를 낼 수 있느냐가 관건인데 주담대도 이러한 고민을 통해 진행하고 있다”고 밝혔다. 이어 “주담대는 많은 국민이 받고 있고 시장도 매우 크며 (토스도) 해야 하는 서비스이지만 거시경제 환경 등이 잘 맞아야 출시가 가능할 것”이라며 “오늘 선보인 전·월세 대출도 준비는 이미 돼 있었는데 여러 상황을 고려하다 보니 하반기에 발표하게 됐다”라고 덧붙였다.금융당국이 가계대출 폭증 원인 중 하나로 인터넷 은행의 대출을 지목한 점에 대해선 전·월세 대출은 성격이 다르다고 선을 그었다.홍 대표는 “전·월세 보증금 대출과 주담대는 근본적으로 다르다”라며 “주담대는 담보가치 상승에 기대하는 자산에 투자하는 성격이 있지만 전·월세 대출은 최대 만기 2년에 보증금을 실거주 목적으로 대출해주는 것”이라고 언급했다.이어 “여전히 2030 청년 거주는 심각한 사회 문제로 전세지킴이보증 등 안정적 거주를 위한 기회라고 생각. 그럼에도 금융기관으로서 시장에서 우려하고 있는 가부 증가는 면밀히 보고 있다. 대출 실행속도 등을 고려해 진행할 예정한편 3분기 실적 전망은 긍정적으로 봤다. 홍 대표는 “지난 7월 출시 22개월 만에 월 당기순익이 발생하기 시작했다. 회원수가 700만명을 돌파하고 여신 규모가 신용대출만으로 10조 이상 성장했기 때문”이라며 “중저신용자를 포용하면서 충당금을 쌓고 이익을 낸 점이 고무적이며 3분기나 하반기에도 이런 규모의 성장과 이익 성장을 지속할 것”이라고 기대했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"최대 2.22억" 토스뱅크, 전월세보증금 대출 출시…전세지킴보증 도입</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007029286?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>집주인 재산 변동 사항 생길 경우 '등기변동알림'도  "인터넷은행 최초 다자녀 특례 대출 도입"(토스뱅크 제공) /뉴스1(서울=뉴스1) 김정현 기자 = 토스뱅크가 최대 2억2200만원까지 대출해주는 전월세보증금 대출을 선보인다고 5일 밝혔다. 인터넷은행 최초로 비대면 전세보증금반환보증 서비스도 도입했다.이번 토스뱅크의 전월세보증금대출은 △전세지킴보증 △등기변동알림 △다자녀 특례 대출 등으로 구성된 '토스뱅크 케어'를 도입한 것이 특징이다.토스뱅크 측은 "토스뱅크 케어는 고객이 겪는 어려움을 토스뱅크가 함께 고민하고 풀어나간다는 의미를 담았다"고 설명했다.먼저 주택금융공사(HF)와 손잡고 인터넷은행 최초로 도입한 '전세지킴보증'은 가입자들이 대출을 받은 후 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 '전세보증금반환보증'도 신청할 수 있도록 했다. 토스뱅크 전세보증금반환보증은 비대면 서비스 최초로 단독주택, 빌라, 다가구주택까지 전세지킴보증 보장 범위를 넓혔으며, 최저 연 0.02~0.04%의 보증료를 적용했다. 토스뱅크는 연말까지 전세지킴보증에 가입한 사람에게는 최대 10만원의 보증료를 지원하는 프로모션도 진행한다.'등기변동알림'은 집주인과의 계약이 체결된 이후 내가 살고 있거나, 살게 될 집에 변동사항이 생길 경우 토스 애플리케이션(앱)을 통해 푸시 알림을 제공하는 서비스다.토스뱅크 측은 "등기변동알림 서비스는 부동산 권리 조사 서비스 기업인 ㈜리파인과 함께 무료로 제공한다"며 "집주인 변동부터 담보 대출 실행, 가압류 등 내가 사는 집을 둘러싼 변화를 한 눈에 알 수 있게 됨으로써 세입자의 발빠른 대응이 가능해질 것"이라고 강조했다.또 토스뱅크 전월세보증금대출은 인터넷은행 최초로 '다자녀 특례 대출'을 도입했다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 사람이 대상이며 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다.일반 대출은 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로 최대 2억2200만원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다. 청년의 경우, 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로, 최대 2억원의 대출이 이뤄진다.토스뱅크 관계자는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다"며 "'첫 독립을 위한 보금자리', '첫 신혼집', '사회에 첫 발을 내딛은 공간' 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[특징주]엔비티, 올해 매출 1300억원 전망…'강세'</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005314356?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>엔비티기 상승하고 있다. 올해 실적이 전년 대비 20% 이상 늘어날 것이라는 증권사 전망이 영향을 끼친 것으로 보인다.엔비티는 14일 오후 1시32분 기준 전거래일 대비 180원(2.76%) 오른 6710원에 거래됐다.DS투자증권은 엔비티에 대해  올해 매출액이 전년 동기 대비 20% 이상 늘어난 1300억원을 기록할 것으로 전망했다. 신규 제휴사 카카오톡과의 사업 성과에 따라 전망치를 상회하는 실적 성장도 가능할 것이라는 설명이다.장지혜 DS투자증권 연구원은 "엔비티는 총 70개 주요 플랫폼사와 제휴를 바탕으로 월간 사용자수 증가, 참여율 상승 등을 바탕으로 성장을 이어갈 것"이라며 "특히 올해 새롭게 제휴를 맺은 카카오톡 이용자 참여율에 따라 기대치를 상회할 수 있다"고 밝혔다. 이어 "네이버웹툰, 네이버페이, 토스, 카카오톡 등 각 사업분야 1등 업체를 주요 제휴사로 확보하며, 애디슨 오퍼월 이용자 수가 매년 증가 추세에 있다"고 전했다.그는 애디슨 오퍼월 이용자 수는 지난 2019년 260만명으로 시작해 지난해 1000만명을 기록했고, 올해는 1300만명까지 증가할 것으로 전망했다. 또 주요 제휴사 글로벌 서비스에서 엔비티 오퍼월 모델 도입을 통한 해외 실적 확대 가능성도 긍정적으로 평가했다.장 연구원은 "해당 제휴사 글로벌 월간 사용자수는 1.8억명에 달하고 광고단가가 높은 북미 시장에 본격적으로 진출해 실적 성장이 기대된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>보험사-핀테크 주도권 다툼… ‘보험 비교 서비스’ 반쪽 되나</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003392356?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>내년 초 출시 앞두고 기싸움 팽팽고객 데이터 주고받는 방식 쟁점표준 API 가닥… 막판 진통 전망보험업계 “특약까지 확인 가능”핀테크 “고객 정보 산출 어려워”수수료율 문제 등 사사건건 충돌출시 난항… 소비자 편익은 뒷전내년 초 온라인 보험 비교·추천 서비스 출시를 앞두고 상품 판매 업체인 보험사와 플랫폼 업체인 네이버페이와 카카오페이, 토스 등 빅테크사 간의 기싸움이 팽팽하다. 양측 간 주도권 다툼이 치열해지면서 소비자 편익은 뒷전이 되는 것 아니냐는 우려가 나온다.11일 보험업계에 따르면 보험업계와 핀테크업계는 최근 온라인 보험 비교·추천 서비스에서 고객 데이터를 주고받는 규격인 응용프로그래밍인터페이스(API) 방식을 놓고 대립하고 있다. 보험 비교·추천 서비스는 금융당국에서 지정한 핀테크업체에서 실손보험, 자동차보험, 여행자보험 등을 비교하고 가입까지 가능하게 하는 서비스다. 금융위원회는 지난 7월 네이버페이, 카카오페이, 뱅크샐러드, 비바리퍼블리카(토스) 등 11개사를 보험상품 비교·추천 서비스를 운영할 수 있는 혁신금융서비스로 지정했다.API는 플랫폼사가 보험사로부터 제공받는 보험료·특약 등의 데이터라고 할 수 있다. 보험사는 플랫폼별 요구 정보를 맞추기 위한 개발 시간과 비용이 늘어난다는 이유 등으로 정보통신 규격을 하나로 통일화한 표준 API 방식을 고집해 왔다. 반면 빅테크 등 플랫폼사는 서비스 정확성과 차별화 등을 위해 회사별로 다른 정보 항목인 개별 API 도입을 주장해 왔다.입장 차가 좁혀지지 않자 결국 생명·손해보험협회와 한국핀테크산업협회가 각 업계를 대표해 논의를 진행했다. 보험협회 측은 금융당국에 표준 API를 도입하는 쪽으로 합의했다는 의견을 전달했으나 핀테크 측은 아직 합의한 바 없다는 입장이다.보험업계 관계자는 “표준 API를 도입하더라도 소비자가 보험사별 상품과 조건을 모두 확인할 수 있도록 특약까지 포함한 정보를 제공하면 맞춤별 상품 정보를 충분히 보여 줄 수 있다”고 말했다. 빅테크 업계 관계자는 “표준 API를 하되 개별로 필요한 정보는 사업자 간 정하면 될 일”이라면서 “플랫폼에서 제공한 정보와 막상 보험사에서 확인한 정보가 다르다면 플랫폼 서비스가 외면 받을 수밖에 없다”며 개별 API 도입 필요성을 주장했다.양측은 이달 중 업무협약을 통해 최종 API 방식을 정할 예정인데 막판까지 진통이 예상된다.양측이 갈등을 빚은 것은 처음이 아니다. 보험업계가 핀테크 플랫폼에 지급할 수수료를 놓고 양측이 맞서 왔는데, 본격적인 업무 협약을 진행하면서 수수료율 문제가 또다시 불거질 수 있다. 플랫폼에 탑재될 보험상품군 중 자동차보험, 실손보험을 넣을지 말지도 쟁점 중 하나였는데 결국 포함하는 쪽으로 일단락됐다.보험업계와 핀테크업체들이 사사건건 대립하는 데는 결국 양측의 주도권 싸움이 근본 원인이라는 지적이 나온다. 보험업계는 보험 비교·추천 서비스를 통한 가입자들이 늘어나면 자칫 빅테크에 종속될 수 있다는 우려가 크다. 금융산업으로 발을 넓히고 있는 빅테크 업체들은 금융사로부터 기회가 될 때 최대한 정보를 확보해야 하는 입장이다.금융업계 관계자는 “이르면 올해 안에 서비스가 출시될 것으로 기대했는데 보험업계와 핀테크 업계 간의 이견으로 출시가 이미 내년 초로 늦어지고 있다”면서 “업계 간 이익보다는 소비자 편익을 최우선으로 두고 사업을 추진해야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>모비데이즈 주최 마케팅·애드테크 컨퍼런스 맥스서밋2023 성료</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005568514?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>모비데이즈 주최 2023 맥스서밋 문전성시600여개 기업 참여...풍성한 인사이트 공유디지털 애드테크 전문 기업 모비데이즈(363260)(대표이사 유범령)가 주최한 마케팅·애드테크 컨퍼런스인 ‘맥스서밋(Max Summit) 2023’이 성황리에 마무리됐다.모비데이즈는 지난달 31일에서 이달 1일 양일간 서울 서초구 양재동 엘타워에서 제 9회 맥스 서밋을 개최했다. 마케팅 및 애드테크 분야 최대 행사로 꼽히는 맥스서밋에 올해 600여개 기업이 참여했고, 총 23개 세션에서 52명의 연사가 참여했다. 이번 주제는 ‘What is the next momentum?’으로 위기 상황 속에서도 기회를 찾고 돌파구와 성장 모멘텀을 찾아 나가는 다양한 기업들의 인사이트와 전략들을 살펴보는 시간을 가졌다.특히 분야별 유력 기업이 다수 참여한 덕에 올해 최신 마케팅 트렌드를 점검하고 독자적 마케팅 노하우를 공유하는 각 세션이 풍성하게 채워졌다는 평가가 나온다. 모비데이즈와 유기적인 관계를 맺고 있는 구글, 메타, 토스, 틱톡, 몰로코 등 업계를 대표하는 빅미디어 기업들과 금융, 게임, 여행 등 각 산업군을 대표하는 기업들이 다수 참여했다.각 세션에 이어 진행된 네트워킹 파티에서는 다양한 업계의 참석자들 간 비즈니스를 논하는 기회와 향후 발전 방향성, 업계 흐름을 전망하는 시간도 가졌다.행사 마지막 날에는 올해 각 산업군에서 마케팅 인사이트를 제공해준 기업을 선정하는 ‘맥스 어워즈 시상식’이 진행됐다. 금융, 커머스, 모빌리티, 여행 등 총 16개 부문에서 CJ더마켓, 불스원, 나무증권, KB국민카드, 카카오뱅크, 여기어때 등이 수상했다.이광수 모비데이즈 마케팅사업 부문 대표는 “시간내 참여해주신 모든 분들이 업계를 선도하고 발전할 수 있게 만드는 원동력인 것 같다”며 “앞으로 모비데이즈는 맥스서밋과 같이 유의미한 행사의 개최를 통해 업계의 성장과 발전을 위해 더욱 노력할 것”이라고 소감을 전했다.한편 본 행사에는 애드저스트, 몰로코, 토스, 틱톡, 앱스플라이어, 팀 맥소노미, AB180, NNT, 피처링, 빅인사이트, TNK팩토리, 크몽, 크리마,  data.ai , 이벤터스, RevX, 브이리뷰, 카페24, 루나소프트, SAP코리아, 모비두, 아이보스 등 국내외 유수의 기업들이 후원사로 참여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[DD퇴근길] 외국 관광객 3천만 유치 에어비앤비 '정답'…개인정보법 확 바뀐다</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002156052?sid=004</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>디지털데일리가 퇴근 즈음해서 읽을 수 있는 [DD퇴근길] 코너를 마련했습니다. 하루동안 발생한 IT 이슈들을 퇴근길에서 가벼운 마음으로 읽을 수 있도록 요약했습니다. 전체 기사는 ‘디지털데일리 기사 하단의 관련뉴스(아웃링크)’에서 확인할 수 있습니다.소니인터렉티브엔터테인먼트 그란 투리스모 [ⓒ소니인터랙티브엔터테인먼트]“게이머 출신 카레이서 나올 만했네”…VR2로 즐긴 ‘그란 투리스모 7’‘그란 투리스모’는 이미 콘솔 레이싱 게임 역사 한 획을 그은 시리즈로 유명합니다. 게임만큼 유명한 건 바로 게임을 시작할 때 재생되는 오프닝 무비지요. 이는 자동차에 조금이라도 관심이 생겼다면, 교과서처럼 봐도 좋을 영상으로 꼽히기도 합니다. 그란 투리스모를 통해 일반 게이머에서 카레이서 선수로 거듭난 실화도 유명한데요. 오는 20일 영화로도 개봉되는 만큼, 시리즈 최신작인 그란 투리스모 7를 PlayStation®VR2(이하 PS VR2)로 즐겨봤습니다.모든 게임이 마찬가지겠지만, 그란 투리스모는 특히 주변 기기에 충실할수록 더욱 재밌게 즐길 수 있는 레이싱 게임이었습니다. 특히 PS VR2로만 만날 수 있는 ‘HDR 톤 매핑’과 시선 트래킹 기능을 이용한 포비티드 렌더링(시선 방향을 고해상도로 표현하는 기술)으로 더욱 실감나는 주행을 펼칠 수 있었는데요. 나만의 드림카를 가상현실(VR) 쇼룸에서 둘러보고 앉아보는 체험도 꽤 흥미로웠습니다. 현실에선 절대 찍을 수 없는 레이싱 포토까지 촬영 가능했는데요. 나만의 드림카로 전 세계 어디서나 경쾌한 질주를 꿈꾸고 있다면 VR 게임을 통해 간접적으로 느껴보는 것도 충분히 좋은 경험이 될 것으로 보이네요.음성원 에어비앤비 동북아시아 지역 커뮤니케이션 총괄이 5일 미디어 라운드 테이블에서 발표하고 있다.외국인 관광객 3000만명 유치 가능할까…에어비앤비 대답은정부가 K-관광 콘텐츠를 발굴해 오는 2027년까지 외국인 관광객 수를 3000만명으로 2배가량 늘리겠다고 선언한 가운데, 글로벌 여행 커뮤니티 플랫폼 에어비앤비가 공유숙박 활성화를 위한 제도적 개선 필요성을 피력했습니다. 정부가 목표한 외국인 관광객 규모를 수용하려면, 숙박시설 공급을 현재의 2배 이상 수준으로 늘려야 한다는 전문가 지적이 이어진다는 이유에서죠.음성원 에어비앤비 동북아시아 지역 커뮤니케이션 총괄은 5일 서울시 중구에서 미디어 라운드 테이블을 열고 “정부의 외국인 관광객 3000만명 유치 목표 달성을 위협하는 것은 숙소 공급 문제”라며 “에어비앤비만이 유일한 솔루션”이라고 강조했습니다.음성원 총괄은 지난 2017년 사드 이슈로 중국인 단체 관광객이 끊긴 데 이어, 코로나가 유행하면서 기존 호텔들이 경영난을 겪었던 사례를 제시하며 “단순히 호텔을 새로 지어 숙소 공급량을 늘리는 방식은 변하는 수요를 유연히 대처할 수 없다는 측면에서 해법이 될 수 없다”고 말했죠. 이미 있는 공간을 손쉽게 숙소로 바꿀 수 있는 공유 숙박업이 가장 빠르게 숙소 공급을 늘릴 방법인 만큼, 이를 활성화할 제도가 선행돼야 한다는 것이 음 총괄 생각인데요.특히 음 총괄은 불법 공유숙박업체 문제를 플랫폼들과 논의하려면 공유숙박업 등록 요건에 대한 진입장벽부터 낮추려는 제도 개선이 병행돼야 한다는 입장입니다. 음 총괄은 “전체 숙박업과 관련된 제도가 6개 법안에 25개 제도가 있다”며 “이들 법에서 요구하는 것들은 공적인 영역에서도 관리하기 힘들어하는 영역”이라고 호소했습니다.9월 5일 오전 서울 종로구 정부서울청사에서 열린 국무회의 모습 ⓒ연합뉴스전면 개정 개인정보보호법, 9월15일 시행된다개정 개인정보보호법이 9월15일 시행됩니다. 2011년 설립 이후 정부 주도의 첫 번째 전면 개정인데요, 이를 위한 시행령 개정안도 5일 국무회의에서 의결됐습니다. 개인정보를 처리하는 과정에서 준수해야 할 사항에 대한 많은 변화가 예고된 만큼 기업 및 기관의 개인정보 처리자들은 법 준수를 위해 개정사항을 면밀히 살펴야 할 것으로 보입니다.개인정보위는 개정법이 실질적인 국민 권익을 보호하고 현장의 규제 개선 요청을 반영한 결과라고 말했습니다. 개인정보 침해가 발생할 경우 분쟁조정의 범위를 확대한 데 더해 코로나19와 같은 공공의 안전을 위해 개인정보를 수집‧이용‧제공할 경우 개인정보 안전조치가 이뤄지도록 한다는 내용이 포함된 것을 사례로 들었는데요. 드론‧자율주행차 등 이동형 영상정보처리기기에 대한 법체계도 마련했습니다.개정법의 핵심 내용 중 하나인 개인정보 전송요구권은 시행일이 달리 적용됩니다. 2년의 유예기간을 두고 2025년3월 시행될 예정인데요. 마이데이터 확산을 위한 표준 마련 및 안정성 확보 등 논의를 이어간다는 방침입니다.5일 오전 서울 여의도 국회의원회관에서 공공데이터법 개정안 관련 토론회가 열렸다. [ⓒ디지털데일리]10년만에 달라지는 '공공데이터법'…디플정위 "정책 기반 강화될 것"디지털플랫폼정부위원회가 공공데이터법 개정안에 대해 환영의 뜻을 밝혔습니다. 다만 시행령 등을 통해 구체성이 강화돼야 한다고 주장했습니다. 행정안전부는 법률이 조속히 개정될 수 있도록 적극적으로 협력한다는 계획입니다.이승현 디지털플랫폼정부위원회 플랫폼데이터혁신국장은 5일 오전 열린 토론회에서 "데이터의 활용과 공유를 고려하지 않은 낡은 법제도와 관행은 인공지능(AI)·데이터 시대에 부합하지 않는다"며 "이번 개정안을 토대로 디지털플랫폼정부 구현을 위한 정책 기반이 강화될 것"이라고 밝혔습니다.행안부는 공공데이터법 개정안이 시행되면 국민의 데이터 이용권이 대폭 확대될 것으로 예상된다며 조속히 법률이 개정될 수 있도록 협조한다는 계획입니다. 하인호 행안부 공공데이터정책과장은 "이번 개정안은 현행법 제정 이후 데이터환경의 변화와 정책적 한계를 극복하기 위한 대안이 반영됐다"며 "개정안이 시행되면 국민과 기업이 새로운 부가가치와 비즈니스를 창출하는 생태계가 빠르게 조성될 것"이라고 말했습니다.이번 공공데이터법 개정안에는 공공데이터 제공·이용 저해요인 평가제도 도입 근거와 공공데이터 개방을 고려한 정보시스템 구축 의무, 공공데이터 품질인증제도의 근거 등이 신설됐습니다. 또한 공공데이터의 민간활용도를 높이기 위해 데이터의 가명처리 및 원천데이터 개방이 어려운 경우 진위 확인 정보 제공 등 공공데이터의 적극적인 제공 근거도 신설됐습니다.바디프랜드 안마의자 ‘팔콘’바디프랜드 “경쟁사 대비 R&amp;D 12배 격차…’팔콘’ 1·2인가구 빈틈 파고든다”“끊임없는 기술개발과 최근 5년간 1000억원의 과감한 연구개발 투자를 통해 차별화된 기술을 꾸준히 고객들에게 선사하겠다. 팔콘은 컴팩트한 사이즈와 로보워킹 기술을 통해 늘어나는 1, 2인가구에게 큰 사랑을 받을 수 있는 제품이다.”지성규 바디프랜드 부회장은 5일 서울 바디프랜드 도곡타워 본사 1층에서 개최한 론칭 간담회에서 디자인, 성능, 가성비를 모두 만족시키는 기술집약적 제품 ‘팔콘(Falcon)’과 관련해 이같이 말했습니다.‘팔콘’은 두 다리가 독립적으로 구동되는 로보워킹 테크놀로지를 접목한 콤팩트 사이즈 안마의자입니다. 핵심 기술인 로보 모드 작동 시 두 다리가 독립적으로 움직이며 기존에는 자극하기 힘들었던 코어 근육까지 마사지해주죠. 목·어깨, 허리·엉덩이, 발·다리 등 부위별 케어, 근육을 이완시켜주고 몸을 편안하게 하는 헬스 케어, 음악과 함께하는 멘탈 케어, 몸 상태에 맞춰 마사지하는 매일 케어 등 총 27개 자동 마사지 프로그램이 준비됐습니다. 가격은 297만원.지 부회장은 “과감한 연구개발 투자를 통해 바디프랜드에 걸맞는 최고 핵심 기술을 바탕으로 국내는 물론 전세계 글로벌 시장까지 나아가려고 한다”라며, “올해 출시한 제품들이 선풍적이 인기를 끌면서 제2의 도약을 체감하고 있다”고 말했습니다.이어, “대한민국 대표 헬스케어 기업으로 우뚝서겠다”고 강조하기도 했죠.토스뱅크가 전월세보증금 대출을 5일 선보였다. ⓒ토스뱅크토스뱅크, 전월세보증금대출 출시…전세보증금반환보증 원스톱 신청토스뱅크가 5일 전월세보증금 대출을 선보였습니다. 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입했습니다. 토스뱅크가 이날 출시한 전월세보증금대출은 ‘토스뱅크 케어’를 도입한 것이 가장 큰 특징인데요. 토스뱅크 케어는 ‘전세지킴보증’, ‘등기변동알림’, ‘다자녀 특례 대출’ 등 총 3가지로 구성됐습니다.특히 다자녀 특례 전월세보증금대출은 인터넷은행 최초로 시행하며 고객 선택권을 강화해 관심이 쏠리고 있는데요. 미성년 자녀수가 2명 이상인 고객이 대상으로 임차보증금의 88% 한도로 최대 2억원까지 대출이 이뤄집니다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다는 것이 특징이죠. 금리는 최저 3.32%, 최고 5.19% 수준입니다.차세대소형위성2호 관측사진누리호 탑재 KAIST 위성, 세계 곳곳 관측영상 공개KAIST는 누리호 3차 주탑재 위성인 차세대소형위성 2호에 대한 초기 운영을 완수했다고 밝혔습니다. 차세대소형위성 2호는 지난 5월25일 오후 6시24분 누리호에 실려 발사된 후 고도 550km 궤도에 안착했는데요. 이후 3개월 동안 초기 운영을 통해 위성 본체, 탑재체, 지상국 전반에 걸친 기능 점검과 시스템 안정화 및 탑재체 시험 관측을 모두 수행했습니다. 특히 KAIST 인공위성연구소는 주 탑재체인 ‘영상레이다(SAR)’로 전 세계 여러 곳을 시험 촬영하는 데 성공하고, 대표적인 시험 관측 영상을 공개했는데요.영상에는 설악산 국립공원과 새만금남극 세종기지 일대, 부산, 제주도와 한라산 국립공원 일대를 비롯해 호주 시드니와 미국 나이아가라 폭포, 라스베가스 시가지와 샌프란시스코 등 세계 곳곳의 모습이 담겨있습니다. 영상레이다는 전파를 지상으로 쏜 후 지상에서 산란돼 되돌아온 전파를 수신해 신호처리를 통해 영상을 얻기 때문에 주·야간 빛의 영향을 받지 않으며 기상 상황과 관계없이 지상관측을 수행할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>'과잉대출 유발' 50년만기 주담대 최다 판매는 NH농협은행</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001299799?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>자료사진금융당국이 과잉 대출의 주범으로 꼽는 50년 만기 주택담보대출(주담대)을 가장 많이 신규 취급한 곳은 NH농협은행인 것으로 확인됐습니다. 금융감독원이 더불어민주당 오기형 의원실에 제출한 자료에 따르면 8월 말 기준 50년 만기 주담대 신규 취급액은 총 8조3천억원이었으며 이 가운데 농협은행이 2조8천억원으로 전체의 33.7%를 차지했습니다. 하나은행은 1조7천억원으로 전체의 20.5%를 차지했고, 이들 은행의 취급액이 전체 50년 만기 주담대 신규 취급액의 절반을 넘을 정도로 집중됐습니다. 연령별로 보면 40~50대가 4조7천억원으로 전체의 57.1%를 차지해 압도적으로 많았고 30대 이하도 2조5천억원을 빌려 29.9%를 차지했습니다.  60대 이상에도 50년 만기 주담대가 1조1천억원 판매된 걸로 나타났습니다. 50년 만기 주담대는 지난해 10월 SC제일은행과 12월 광주은행이 도입했으며 올해 들어 상반기에 수협과 대구은행, 전북은행이 잇따라 취급하기 시작했습니다. 특히 총부채원리금상환비율(DSR) 규제를 우회해 많은 대출을 받을 수 있다는 입소문이 나자 7~8월에 농협은행, 하나은행 등 은행들이 줄줄이 뛰어들면서 가계 대출 급증을 유발했다는 게 금융당국의 설명입니다. 이와 관련해 금감원은 은행 등을 대상으로 대출 만기 설정 등과 관련한 행정 지도에 나섰으며 관련 규정을 개정할 방침입니다. 또 은행권의 가계대출 실태 점검에 나서 오는 22일까지 국민은행, 신한은행, 우리은행, 하나은행, 농협은행, 수협은행, 카카오뱅크, 케이뱅크를 들여다보기로 했습니다. 이어서 다음달 11일부터 26일까지는 기업은행, 대구은행, 부산은행, 경남은행, 광주은행, 전북은행, SC제일은행, 토스뱅크의 대출 규제 준수 여부 등을 점검할 예정입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>국내은행 2분기 부실채권비율 1분기와 동일···인터넷은행 가장 높아</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003246691?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>국내은행 부실채권 신규발생 및 정리 추이(단위 : 조원). 금융감독원 제공국내은행의 올 2분기 부실채권비율이 1분기와 같은 수준인 것으로 나타났다. 인터넷전문은행은 시중은행이나 지방은행보다 부실채권비율이 높았고 특히 토스뱅크는 전 분기보다 0.22%포인트 증가한 1.26%로 전체 은행 중 가장 높았다.금융감독원은 3일 국내은행의 6월 말 부실채권(고정이하여신)비율은 0.41%로 올 1분기나 지난해 2분기와 같았다고 밝혔다.국내은행의 올 2분기 총여신은 2564조1000억원으로 전분기보다 23조4000억원 늘었다. 부실채권은 4조원이 새로 발생하고 3조9000억원이 정리돼 1분기보다 1000억원 증가한 10조5000억원이었다.부실채권 정리는 매각 1조3000억원, 대손상각 1조원, 여신 정상화 8000억원, 담보 처분을 통한 여신 회수 5000억원 등이었다.은행별 고정이하여신비율은 시중은행이 0.25%로 전분기보다 0.01%포인트 늘었다. 지방은행은 0.02%포인트 높아진 0.48%였다. 인터넷은행은 0.69%로 3개월 전보다 0.03%포인트 증가했다.인터넷은행 중에서도 토스뱅크의 고정이하여신비율이 1.26%로 대상 은행 20곳 중 가장 높았다. 유일하게 1%대를 기록했고 전분기 대비 증가 폭도 0.22%포인트로 가장 컸다.토스뱅크 관계자는 “(2021년 11월부터) 영업을 시작한 신생 은행으로서 올 2분기부터 부실채권 매각과 대손상각을 본격화했다”면서 “전월세대출 등 부실률이 낮은 상품을 곧 출시할 예정이라 부실채권비율이나 연체율은 점점 하향 안정화할 것”이라고 말했다.케이뱅크는 0.04%포인트 상승한 0.98%, 카카오뱅크는 0.01%포인트 낮아진 0.42%였다.부문별로 보면 기업여신, 가계여신, 신용카드채권의 2분기 부실채권비율이 각각 0.49%, 0.24%, 1.27%였다. 기업여신의 부실채권비율은 전분기보다 0.01%포인트 낮아졌지만, 가계여신과 신용캐드채권은 각각 0.02%포인트와 0.07%포인트 상승했다.부실채권에서 총대손충당금잔액이 차지하는 비율인 대손충당금적립률은 올 2분기 226.4%로 나타났다. 옛 대우조선해양(현 한화오션) 관련 대손충당금 1조2000억원이 환입돼 1분기 말(229.9%)보다 3.5%포인트 하락했다. 지난해 2분기 대손충당금적립률은 205.6%였다.금감원 관계자는 “국내은행의 부실채권비율은 전분기말과 유사한 수준을 유지하며 전반적으로 양호한 수준을 기록했고 대손충당금적립률도 대우조선 충당금 환입에도 역대 최고 수준을 유지하고 있다”면서도 “중국 부동산시장 불안, 미국 국채 금리 상승 등 대외 불확실성 확대에 대비해 건전성 관리를 선제적으로 강화할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>고객 마음을 훔치는 법 … 데이터 깊은 곳에 숨어있다</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005182887?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>정교한 디지털 마케팅하려면보유한 1차 데이터론 점점 한계외부 데이터 확보해 캐물어야한층 진화한 인사이트 나와잠자기 직전까지 본 휴대폰을 일어나자마자 다시 만지기 시작한다. 클릭하고 넘기고 내리고 돌리고 밀고 수많은 동작이 자연스럽게 이어진다. 사람들의 데이터가 디지털 세상에 족적을 남기는 순간이다. 세계 인구가 80억명이라면 얼마나 많은 데이터가 쌓이고 사라질까?글로벌 마케팅 브랜드는 자체적으로 고객 데이터를 수집·통합·분석·활용할 수 있는 고객데이터플랫폼(CDP) 도입을 서두르고 있다. 그들이 제공하는 상품·서비스에 따라 수집하는 내부 데이터 품질과 양에 차이가 있다.예를 들어 커머스 또는 카드사는 고객의 거래가 많기 때문에 고객의 거래 행태(특히 결제) 같은 다양한 정보를 수집할 수 있다. 하지만 고가 상품(자동차·가전)을 판매하는 브랜드는 결제 횟수가 적어 결제 행태와 관련된 고객 정보가 그만큼 많지 않다.이러한 내부 데이터의 한계를 극복하고 데이터를 잘 다룰 수 있는 브랜드가 되기 위해서는 외부 데이터가 필요하다. 내부 데이터와 외부 데이터를 통합적으로 분석하면 고객에 관해 더 유효한 인사이트를 얻을 수 있기 때문이다.하지만 곧 일부 외부 데이터가 제한된다. 개인정보 보호 정책과 맞물려 진행되는 애플이나 구글의 움직임은 외부 데이터를 자주 활용했던 마케터에게 재료와 도구를 바꿀 수밖에 없게 만들 것이다. 광고 캠페인에서 매체의 효율 관리나 타깃 확장에 큰 영향을 줄 것이다.이러한 정세에서 내부 데이터 확보가 상대적으로 유리한 아마존 같은 대형 리테일 미디어는 애플이나 구글의 움직임에도 디지털 광고 생태계에서 중요한 광고 채널이 될 것이다. 메가 트래픽에서 수집되는 데이터를 통해 타깃 소비자의 특성, 관심사, 페르소나가 명확하게 정의된다면 광고 효율은 반 이상 확보하고 시작하는 것이다. 아마존이 '구매 확률이 높은 고객 표적화 전략'으로 광고 사업 매출이 대폭 오르는 것은 이 같은 맥락에서 해석될 수 있다. 국내에서도 네이버·카카오 외에 메가 트래픽 서비스가 속속 등장하고 있다. 쿠팡·토스 같은 서비스는 광범위하게 확보한 사용자 데이터를 기반으로  다양한 광고·타기팅 기법을 개발 중이다.광고회사도 브랜드 요구에 지속적으로 대응하려면 데이터 역량이 더 필요한 때다. 브랜드의 판단을 지원하려면 당연히 데이터를 기반으로 제안하고 설득하고 의사결정을 받아야 한다. 브랜드가 자체적으로 보유한 1차 데이터뿐만 아니라 디지털 세상에 있는 다양하고 합법적인 2차, 3차 외부 데이터도 필요하다. 이러한 데이터를 수집부터 분류·학습·변환·분석까지 하는 솔루션이 요구되며, 이 데이터를 광고 캠페인 활동에 끊김 없이 연결되도록 설계하고 실행하는 전문가가 필요하다. 글로벌 대형 광고회사(마스터 에이전시)가 디지털회사(자회사)를 인수해 브랜드에 대한 다양한 서비스를 트랜스포메이션하는 것도 이러한 배경 때문이다. 이와 같은 이유로 이노션도 최근 디지털 마케팅사 '디플랜360'을 인수했다. 이로써 이노션은 크리에이티브와 브랜딩, 퍼포먼스 마케팅은 물론 독자적 미디어·데이터 전문 비즈니스 역량까지 확보할 수 있게 됐다.마케터가 직접 하던 매체 효율 최적화 작업도 이제 머신러닝이 대신하고 있다. 브랜드가 원하는 경험을 소비자의 초개인화된 경험으로 연결하는 생성형 인공지능(AI) 기반 광고도 나왔다. 마치 자율주행차와 같다. 운전자(마케터)는 주행 목적(캠페인 목표)과 주행 경로(광고 소재)만 입력하면 최종 목적지에 도착한다. 이제 브랜드는 디지털 세상에서 확보하고 분석한 인사이트를 바탕으로 데이터 자체에 다시 집요하게 질문해 더욱 진화한 인사이트를 유도해야 한다. [김성훈 이노션 미디어본부 디지털솔루션팀장]</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>코인 '대형 악재' 오나…"FTX, 13일부터 2600억 푼다"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012082990?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>솔라나, FTX 매도 예고에 8% 급락[뉴욕=AP/뉴시스]코인 거래소 FTX 설립자 샘 뱅크먼-프리드가 11일(현지 시간) 뉴욕 맨해튼 연방 법원에 출두하고 있다. 그는 이날 보석 조건을 위반한 혐의로 보석이 취소돼 수감됐다. 2023.8.12.[서울=뉴시스]이지영 기자 = 지난해 파산한 글로벌 코인거래소 FTX의 대규모 매각 소식이 예정돼 눈길을 끈다. FTX가 보유한 코인 규모만 4조원이 넘는다는 점에서 매도 압력에 의한 대형 악재로 번지는 것 아니냐는 우려가 나온다.11일 업계에 따르면 FTX가 오는 13일(현지시간) 법원에서 자산 처분 승인을 받을 가능성이 점쳐진다. FTX는 승인 이후 일주일마다 최대 2억달러(2663억원) 규모의 가상자산을 판매할 예정이다.이번 매각은 채권자에게 갚을 자금을 마련하기 위함이다. 앞서 FTX는 지난달 24일 열린 청문회에서 30억달러(3조9915억원) 규모의 가상자산을 판매해 자금을 조달하겠다고 밝힌 바 있다.업계는 이 여파로 시장이 출렁일 수 있음을 지적했다. 대량의 자금이 시장에 유통되면서 하방 압력을 가할 수 있다는 점에서다. 특히나 최근 비트코인 등 주요 가상자산 가격이 횡보 중인 상황이라 해당 충격에 더 휘청일 수 있다는 전망도 제기된다.가상자산 애널리스트 더 디파이 인베스터는 9일(현지시간) X(구 트위터)를 통해 "FTX 자산 처분 승인에 따라 이번 주부터 FTX발 매도 압력이 발생할 가능성이 높다"고 진단했다.실제로 FTX가 보유 중인 것으로 알려진 특정 가상자산은 이미 큰 폭으로 하락한 상태다. 이번 소식을 악재로 반영한 결과로 풀이된다.더 디파이 인베스터가 공유한 자료에 따르면 FTX가 가장 많이 보유 중인 가상자산은 솔라나(9103억원 규모)다. 이날 오후 4시 코인마켓캡 기준 솔라나는 전주 대비 8.08% 빠지고 있다.FTX가 솔라나 다음으로 많이 들고 있는 가상자산(규모)은 ▲FTT(7030억원) ▲비트코인(2749억원) ▲스테이블코인(3256억원) 등이다. 이외에 이더리움과 리플, 앱토스, 도지코인, 폴리곤, 트론 등을 보유하고 있다. 솔라나는 FTX 사업 성과에 따라 가격이 출렁여 왔다. FTX 자회사 알라메다리서치의 투자를 받았다는 점에서 FTX 관련 코인으로 분류됐기 때문이다. 앞서 지난해 11월 FTX 파산 사태 당시 솔라나는 36달러에서 10달러 밑으로 급락한 바 있다. 한편 FTX는 이번 매각에 따른 잠재적 급락세를 막기 위해 마이크 노보그라츠 갤럭시 디지털 최고경영자(CEO)를 자문역으로 선임할 예정이다. 갤럭시 디지털은 글로벌 가상자산 자산운용사로 자산 관리 분야에서 전문 경험을 갖춘 곳이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>9월 수출도 감소…‘상저하고’ 빨간 불 外 [한강로 경제브리핑]</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003854427?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>이달 들어 10일까지 반도체와 대중국 수출 부진이 계속되면서 수출이 약 8% 감소했다. 정부가 “수출이 플러스로 전환될 것”이라고 예고했던 4분기를 앞두고도 수출 감소세가 지속되고 있는 셈이다. 국제유가 오름세에 따른 물가 불안, 중국 경기 불안 여파 등 대내외 불확실성도 여전해 정부의 ‘상저하고’(상반기 저조 하반기 반등) 전망에 빨간불이 켜지고 있다는 분석이다.     세계일보는 12일자 지면에서 이와 함께 움츠러든 은행권의 50년 주택담보대출(주담대) 판매, 호실적을 기록하고 있는 자동차보험 업계 등의 소식을 다뤘다.       ◆9월 수출 7.9% 급감…11개월째 감소     관세청에 따르면 9월1~10일 수출액(통관 기준 잠정치)은 148억6000만달러로 작년 같은 기간보다 7.9% 줄었다. 수출 감소는 전년 동월 대비 기준 지난해 10월부터 지난달까지 11개월째 지속되고 있다.     수출입 현황을 품목별로 보면 반도체 수출이 1년 전보다 28.2% 줄었다. 반도체 수출은 월간 기준 지난달까지 13개월 연속 감소하고 있다. 석유제품(-14.0%), 자동차부품(-15.1%), 정밀기기(-16.6%), 컴퓨터 주변기기(-46.5%) 등도 부진했다. 반면 승용차(32.4%), 철강제품(4.0%), 무선통신기기(5.6%), 선박(52.4%), 가전제품(14.6%) 등은 수출이 증가했다.     이달 1~10일 수입액은 165억400만달러로 집계돼 전년 같은 기간 대비 11.3% 줄었다.     이에 따라 수출액에서 수입액을 제외한 무역수지는 16억4400만달러 적자를 기록했다. 지난달 1~10일 무역수지(-30억1000만달러)보다는 적자 폭이 줄었다. 지난달 무역수지는 8억7000만달러 흑자로 석 달 연속 흑자를 기록한 바 있다. 올해 들어 누적된 무역수지 적자는 254억2000만달러로 집계됐다.     수출 부진이 좀처럼 개선되지 않으면서 정부의 ‘상저하고’ 전망에도 경고등이 켜진다. 실제 이달 초순 조업일수를 고려한 일평균 수출액은 14.5% 감소했는데, 이는 8월1~10일 일평균 수출 감소폭(-15.3%)과 비슷한 수준이다. 앞서 정부는 이번 달에 무역수지가 흑자를 기록하고 4분기에 수출이 플러스로 전환될 것이라고 전망한 바 있다. 추경호 부총리 겸 기획재정부 장관은 지난 4일 “9월에는 무역수지 흑자기조와 함께 수출 감소폭이 추가로 완화될 것으로 예상된다”면서 “4분기 중에는 수출이 플러스 전환될 것으로 기대된다”고 밝혔다.     하지만 사우디아라비아·러시아의 공급 감축 연장 등의 영향으로 국제유가 오름세가 지속되는 등 물가 불안이 다시 고조되는 가운데 중국 부동산 기업의 금융 불안 등 대외 불확실성도 여전해 하반기 성장세를 장담하기 이르다는 분석이다. 한국개발연구원(KDI)은 최근 발표한 ‘경제동향 9월호’에서 반도체 수출 감소세 둔화에도 물가 불안, 중국발 위험 요인을 거론하며 “경기 부진이 완화되는 흐름이 일부 제약될 가능성이 존재한다”고 밝힌 바 있다.        서울 시내 은행 모습. 뉴스1    ◆당국 ‘눈총’에 쪼그라든 50년 주담대     금융권에 따르면 NH농협은행에 이어 하나은행도 오는 14일부터 현행 주담대 최장 만기를 40년으로 제한한다고 밝히면서 5대 시중은행 중 50년 주담대를 취급하는 은행은 KB국민은행, 신한은행, 우리은행 등 세 곳만 남게 됐다.     금융감독원 등 당국이 급증하는 가계부채 원인으로 DSR(총부채원리금상환비율) 규제 회피 목적의 50년 주담대를 지목하자 은행권이 잇따라 자진해 판매를 거둬들인 것이다. 하나은행은 7월 초부터 해당 상품을 판매하기 시작했지만 2개월여 만에 다시 만기를 축소했다. NH농협은행도 7월5일부터 50년 만기 주담대를 2조원 특판 형식으로 출시했으나 2개월도 채 되지 않은 지난달 말 판매를 종료했다. IBK기업은행도 지난 8일부터 해당 상품 판매를 중단했다. 보험업계도 이달 초 일제히 50년 주담대의 문을 닫았다.     다른 시중은행도 50년 만기 주담대에 자체 조건을 내걸고 있다. KB국민은행은 당국의 요청을 받은 지난 1일부터 해당 상품의 산정 만기를 40년으로 제한했다. 신한은행은 50년 만기 주담대에 대해 출시 시점부터 만 34세 나이 제한을 뒀다. 우리은행은 아무런 제약 없이 50년 주담대를 이용할 수 있으나, 은행권 움직임에 맞춰 관련 검토에 들어갔다.     금융당국은 인터넷은행으로 주담대 수요가 몰리자 이와 관련해서도 가계대출 현장 점검에 착수한 상태다. 양정숙 더불어민주당 의원실에 따르면 카카오뱅크와 케이뱅크 등 인터넷은행의 8월 말 주담대 잔액은 23조3829억원으로 2개월 전(21조158억원) 대비 11.3% 늘었다. 이 기간 5대 시중은행의 주담대 잔액이 0.7% 늘어난 것에 비하면 급격한 증가세다. 5대 시중은행 대비 최대 0.5%포인트 이상 금리가 낮아 대환대출 수요가 몰렸기 때문이란 설명이다. 최근 전·월세 보증금 대출을 출시한 토스뱅크도 내년에 주담대 상품을 출시할 것으로 예상돼 인터넷은행의 주담대 비중은 더욱 높아질 전망이다.     이에 금감원은 인터넷은행이 폭발적으로 주담대를 늘리는 과정에서 비대면 여신 심사가 소홀히 이뤄졌을 가능성이 있다고 보고, 관련 절차를 살펴보고 있다. 아울러 금융당국은 인터넷은행의 50년 주담대와 관련된 사안에 대해서도 점검 중이다.       ◆올 상반기 자동차보험 3년 연속 흑자     금융감독원은 올해 상반기 자동차보험 사업실적 결과 상반기 자동차 보험 손익이 5559억원으로 1년 전보다 706억원 감소했다고 밝혔다. 2021년 상반기, 지난해 상반기에 이어 3년째 흑자다. 준비금 기준으로 추정한 투자손익을 포함한 자동차 총 손익(보험손익+투자손익)은 7805억원으로 전년 동기 대비 1877억원 감소했지만 역시 흑자를 기록했다.      발생손해액을 경과보험료로 나눈 손해율은 올해 상반기 78%로 지난해 동기(77.1%)보다 0.9%포인트 올랐다. 금융감독당국은 손해율이 오르긴 했으나 안정적인 모습을 보인다고 평가했다. 금감원은 신종코로나바이러스 감염증(코로나19) 사태의 ‘엔데믹’(endemic·일상적 유행) 이후 이동량 증가 등으로 손해율이 상승하긴 했으나 코로나19 이전과 비교하면 여전히 낮은 수준이라고 설명했다.      상반기 자동차보험 매출액은 10조6385억원으로 전년 동기(10조3731억원) 대비 2654억원 증가했다. 가입 대수가 지난해 상반기 기준 2451만대에서 올해 상반기 2510만대로 2.6% 상승하는 등 가입 대수가 늘어난 것이 주원인으로 분석된다. 삼성화재, 현대해상, KB손해보험, DB 손해보험 등 대형보험사 위주의 과점 구조는 계속되어 이들 4개 대형보험사의 시장점유율은 85.2%, 지난해 동기 대비 0.3%포인트 올랐다. 대형사 외 8개 보험사 중에서는 온라인 전업사인 캐롯손해보험만이 1.3%에서 1.6%로 0.3%포인트 올랐다.      금감원 관계자는 “하반기에도 손해율이 상반기와 같이 안정적으로 유지될 경우 영업실적을 기초로 하여 공정하고 합리적인 보험료 조정이 이뤄질 수 있도록 하고 보상기준을 합리화하는 등 제도개선을 추진할 계획”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객 선택권 높인 ‘스위치 캐시백’ 서비스 선봬</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314589?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>토스뱅크 체크카드, 이달 1일~내년 1월말까지 새로워진 서비스 제공결제 3번 마다 최대 3000원 ‘행운형’, 고객이 원하는 브랜드 영역에서 최대 500원 ‘집중형’, 브랜드 무관하게 결제마다 받는 ‘어디서나형’으로 고객 선택권 넓혀토스뱅크 “‘혜택, 내가 직접 선택’ 선언하며 고객 선택권은 높이고 재미까지 모두 고려” ◆…토스뱅크는 \'스위치 캐시백\'으로 혜택과 재미를 함께 잡은 서비스를 선보이며 달라진 \'토스뱅크 체크카드\'를 선보인다. 이미지=토스뱅크 제공토스뱅크는 '스위치 캐시백'으로 혜택과 재미를 함께 잡은 서비스를 선보이며 달라진 '토스뱅크 체크카드'를 선보인다고 1일 밝혔다.   토스뱅크는 이번 리브랜딩과 함께 '스위치 캐시백' 서비스를 선보이며 '이벤트 캐시백'을 새로 도입했다. 이벤트 캐시백은 결제 3번마다 최대 3000원의 캐시백 혜택을 제공하는 '행운 캐시백'을 시작으로 여러 가지 캐시백 서비스를 제공할 방침이다.   또한 자주 쓰는 8개 영역 20여 개 브랜드에서 최대 500원을 돌려받는 '집중 캐시백', 고객이 고민할 필요없이 모든 결제마다 받는 '어디서나 캐시백'을 더했다.   토스뱅크는 체크카드 최초로 선보인 결제 즉시 현금이 통장에 들어오는 고객 경험은 그대로 유지하면서도 고객의 선택권을 한층 강화했다. 고객들은 자신에게 맞는 캐시백 혜택을 선택, 서비스를 이용할 수 있다. 토스뱅크는 이번 리브랜딩의 캐치프레이즈로 '혜택, 내가 직접 선택'을 선언했다.   토스뱅크는 이번 체크카드 리브랜딩과 함께 자신에게 적합한 혜택을 스스로 선택할 수 있는 '스위치 캐시백' 서비스를 선보였다. 고객들의 높은 호응을 받고 있는 즉시 캐시백이라는 큰 틀은 유지하면서, 세 가지 캐시백 중 한 가지 혜택을 고객이 직접 선택할 수 있게 한 서비스다.   '이벤트 캐시백'은 토스뱅크가 최초로 선보인 서비스로 고객들의 니즈와 재미를 고려한 캐시백 서비스를 통해 체크카드 경험을 한 단계 새롭게 했다.   첫 번째 이벤트 캐시백인 '행운 캐시백'은 고객들이 총 3번의 결제가 이뤄질 때마다 최대 3000원의 캐시백 행운 뽑기가 가능하다. 이는 일종의 확률형 캐시백(최소 지급 금액 10원)으로 고객의 재미까지 고려했다. 이 같은 이벤트 캐시백은 고객의 니즈를 고려한 기획을 거쳐 시즌마다 새롭게 다가갈 예정이다.   '집중 캐시백'은 고객이 자주 사용하는 8개 영역 20여개 브랜드에서 캐시백을 집중 제공하는 서비스다. 영화관, 구독서비스(OTT) 등으로 확장됐던 브랜드 영역은 이번 리브랜딩과 함께 구독 서비스에서는 '유투브 프리미엄'을 더했으며, 헬스/뷰티 영역을 새롭게 추가했다. 고객은 자신이 선택한 영역에서 1만원 이상 결제시 500원을, 1만원 미만 결제시 100원을 제공한다. 소비패턴에 따른 고객 선호도가 높은 영역은 대중교통&gt;편의점&gt;택시&gt;커피&gt;기타 순으로 나타났다.   '어디서나 캐시백'은 고객의 고민과 불편을 최소화 한 서비스다. 브랜드, 장소와 무관하게 결제 순간마다 캐시백을 받을 수 있도록 했다. PC방은 물론 마트, 스티커 사진 기계 등 모두 포함돼 고객들은 매 결제 순간마다 '내가 어디에서 결제해야 할지' 고민할 필요가 없다. 5000원 이상 결제시 100원을, 5000원 미만 결제시 1%의 캐시백을 제공한다.   이번 캐시백 혜택은 올 9월 1일부터 내년 1월 말까지 진행된다. 고객들은 원하는 캐시백 혜택을 1일 1회, 월 최대 5회까지 변경할 수 있다. 원하는 때에 미리 캐시백 혜택을 변경할 경우 상황별 '맞춤형' 혜택도 이용할 수 있다.   해외 결제 혜택은 고객이 이용하는 캐시백 프로모션과 무관하게 적용된다. 해외이용금액 2% 캐시백과 해외 ATM 현금인출 수수료 면제 혜택이다. 단 해외ATM 이용의 경우 건당 $3의 인출수수료가 면제 대상이다.    토스뱅크는 체크카드 리브랜딩과 함께 '혜택, 내가 직접 선택'을 캐치프레이즈로 내걸었다. 결제 즉시 통장에 돈이 들어오는 토스뱅크 체크카드만의 차별화된 고객 경험과 함께, 혜택을 스스로 고를 수 있다는 점을 강조했다.    기존 카드사들의 경우 고객들이 결제할 때마다 혜택 적용 여부를 확인해야 하거나 혜택에 따른 할인이나 포인트가 적립됐는지도 일일이 살펴야 했다. 토스뱅크는 이 같은 고객 불편 요소를 과감히 없애며 체크카드 즉시 캐시백 혜택을 선보였고 고객의 혜택 체감도를 높였다. 고객의 선택권을 높임으로써 상황과 필요에 따른 혜택을 누릴 수 있도록 했고, 고객의 소비 행태에 따른 캐시백 설계와 재미 요소까지 더했다.   토스뱅크 관계자는 "이번 토스뱅크 체크카드 리브랜딩은 고객의 선택권을 높이면서 혜택과 편리함, 재미까지 모두 고려하며 기획됐다"며 "새롭게 선보인 캐시백 혜택이 고객들에게 보다 각광받는 서비스가 되길 기대하며 앞으로도 고객의 실생활과 맞닿은 체크카드 혜택을 지속적으로 추가해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표 "공동대출·외환·아이 서비스 조만간 출시"</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007029746?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>"주담대, 구체적 출시계획·시점 정해지지 않아…시장환경도 고려해야"홍민택 토스뱅크 대표가 출범 23개월을 맞아 조만간 공동대출·외환 서비스·아이 서비스 등 세 가지 서비스를 선보이겠다고 밝혔다. 2023.09.05./뉴스1 ⓒNews1 김정현 기자(서울=뉴스1) 김정현 문혜원 기자 = 홍민택 토스뱅크 대표가 출범 23개월을 맞아 조만간 공동대출·외환 서비스·아이 서비스 등 세 가지 서비스를 선보이겠다고 밝혔다. 오는 2024년 하반기 출시가 기대됐던 주택담보대출 출시에 대해서는 구체적으로 잡힌 시점이 없다며 말을 아꼈다.5일 홍 대표는 서울 여의도에서 열린 '토스뱅크 전월세보증대출 기자간담회'에서 "토스뱅크는 출범 23개월만에 가입자 755만명, 수신 21조5000억원, 여신 10조500억원 등 굉장한 양적성장의 성취를 만들어내고 있다"며 "특히 "가입자 중 80%가 실제 계좌를 사용하는 활성 유저로, 이같은 성공에 힘입어 7월 월 당기순이익 흑자를 달성했다"고 말했다.홍 대표는 이날 수신과 여신, 결제 세 가지 분야에서 토스뱅크가 각각 준비 중인 △공동대출 △외환 서비스 △토스뱅크 아이 서비스 등도 공개했다먼저 공동대출은 토스뱅크의 고도화된 신용 평가 모형과 심사 전략을 활용해 지방은행들과 함께 하는 상생 모델인 '공동대출'은 토스뱅크와 제휴은행이 각각 50%를 담당해 대출을 실행하는 상품이다.또 환전과 해외 결제, 해외 송금, 외화통장·환전, 해외주식 연계계좌 등 외환 관련 서비스에서도 토스뱅크만의 해결책으로 제공할 수 있는 서비스를 준비하고 있다고 설명했다.홍 대표는 "외국환 거래 라이센스를 취득해 준비를 시작한지 오래된 서비스 중 하나"라며 "외화를 바꾸고 사용하는 과정을 단순한 형태로 간편히 제공하는 것을 목적으로 준비하고 있다"고 설명했다.마지막으로 소개한 아이 서비스에 대해 "부모가 아이를 위한 계좌를 개설을 하거나 금융상품을 개설하기 위해서는 복잡한 서류들을 가지고 영업점에 가셔야만 했다"며 "이 모든 과정을 토스 애플리케이션(앱) 안에서만 해결할 수 있도록 비대면으로 구현할 것"이라고 강조했다. 아이 서비스에 대해 구체적으로 통해 부모가 아이의 미래를 위해서 오랜 기간 목돈을 마련할 수 있도록 '적금 상품'을 출시 하고, 아이 스스로 계좌 및 적금을 사용하거나 체크카드를 발급할 수 있도록 해 건전한 금융 습관을 기를 수 있도록 하는 포괄적인 서비스를 준비 중이라고 덧붙였다.홍 대표는 토스뱅크에서 이날 출시한 전월세보증대출 상품의 다음 단계로 여겨지는 주택담보대출 상품에 대해서는 "구체적으로 공유할 수 있는 출시 계획이나 시점은 확정되지 않았다"며 "이미 많은 국민들께서 사용 중인 서비스라 시장도 크고, 전략적인 가치와 시장 환경이 준비돼 있을 때 출시할 수 있을 거라고 생각 중이다"라는 입장을 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>롯데카드, 토스모바일 통신요금 할인 카드 출시</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012069583?sid=101</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 남정현 기자 = 롯데카드가 알뜰폰 사업자인 토스모바일의 통신요금을 할인해주는 카드 '토스모바일 X 로카'를 출시했다고 5일 밝혔다.이 카드는 토스모바일 통신요금 자동이체 시 월 최대 2만5000원을 할인해 준다. 연회비는 국내전용, 해외겸용(마스터) 2만원이다. 롯데카드 관계자는 "고물가 시대에 통신비를 아끼려는 고객이 많아짐에 따라 알뜰폰을 찾는 수요도 점차 증가하는 추세"라며 "토스 앱을 통해 쉽고 간편하게 가입할 수 있는 토스모바일 요금제를 더욱 부담 없는 가격에 이용할 수 있도록 이번 상품을 출시했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>서울 9월분 토지·주택 재산세 4.8조…전년보다 4441억 줄어</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007046191?sid=102</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>개별공시지가·주택공시가격 상승 영향강남구 9087억 '최고'…도봉구 396억 '최저'서울 송파구 롯데월드타워 서울스카이에서 바라본 강남구 아파트 단지. (뉴스1 DB, 기사와 관련 없음) ⓒ News1 박세연 기자(서울=뉴스1) 윤다정 기자 = 서울시는 올해 9월분 토지 및 주택에 대한 재산세 422만건, 4조806억원을 확정해 지난 11일부터 납세자에게 고지서를 발송했다고 13일 밝혔다.재산세는 과세기준일인 매년 6월1일 현재 과세물건 소유자에게 7월과 9월에 부과된다. 7월에 주택 2분의 1과 건축물, 항공기, 선박에 대해 부과하고, 9월에 토지와 나머지 주택 2분의 1에 대해 부과한다.납부 기한은 9월30일까지다. 다만 올해 9월30일이 토요일이고 10월2일이 임시공휴일로 지정돼 10월4일까지 납부할 수 있다. 납부 기한을 넘기면 3%의 가산금을 추가로 부담해야 한다.이번 9월에 부과한 재산세는 지난해 9월보다 3만건 증가했으나 4441억원(9.8%)이 감소했다.상업건물 부속토지 등 토지분은 78만2000건에 2조6495억으로, 전년 대비 1만1000건 증가했으나 세액은 1541억원 감소했다. 주택분은 344만3000건에 1조4311억원으로 전년 대비 2만건 증가했으나 세액은 2900억원 감소했다.재산세가 감소한 것은 재산세 과세표준이 되는 개별공시지가가 5.5% 하락하고 주택공시가격은 공동주택 17.3%, 개별주택 7.4%씩 각각 하락했기 때문이다.2023년 공시가격 산정 시 2020년 수준 현실화율 적용 등으로 공시가격 변동률이 전년 대비 대폭 하락했다.1세대 1주택자는 공정시장가액비율을 완화 적용하면서 주택공시가격 9억원 이하 보유자에게는 0.05%포인트(p) 인하하는 특례세율까지 추가 적용해 실질적인 세 부담이 경감된다.자치구별 부과 현황을 보면 강남구가 9087억원으로 가장 많고 서초구 4861억원, 송파구 3435억원 순이다. 가장 적은 구는 도봉구로 396억원이었으며 이어 강북구 402억원, 중랑구 527억원 순이다.시는 자치구별 재산세 세수 격차를 해소하기 위해 올해 징수하는 재산세 중 1조6782억 원을 '공동재산세'로 편성해 재산세 납기가 끝나는 다음 달 말에 25개 자치구에 균등하게 배분할 예정이다.서울시는 납세자가 납부기한 내에 편리하게 납부할 수 있도록 다양한 납부 편의 시책을 제공하고 있다.종이고지서는 1회만 발송되기 되기 때문에 납부기한을 놓칠 수 있는데 전자송달을 신청하면 납부기한이 임박한 시점에 다시 한번 전자송달을 받을 수 있다. 전자송달 신청 시 알림톡을 함께 신청하면 전자송달과 별도로 문자알림을 받을 수 있다.8월 말까지 전자송달과 자동납부(은행계좌, 신용카드) 중 한 가지만 신청한 경우 건당 800원, 둘 다 신청한 경우 건당 1600원이 공제된다.외국인 납세자들은 고지서에 동봉된 번역 안내문으로 고지정보를 확인할 수 있다.시각장애인 및 시력저하자는 고지서에 표시된 음성변환 코드를 스마트폰 전용 앱이나 음성변환 전용기기로 스캔하면 고지정보에 대한 안내를 받을 수 있다. 또한 시각장애인 2178명에게는 별도의 점자 안내문을 고지서에 동봉했다.재산세는 서울시 이택스(ETAX, 인터넷 홈페이지), 서울시 STAX(스마트폰), 카카오페이·네이버페이·페이코·토스·신한카드·하나카드 등 간편결제사 앱, 전용 계좌, QR코드, 은행 현금인출기(CD/ATM) 또는 무인공과금기, ARS 등을 통해 납부할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023.09.09.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[한반도 브리핑] 김정은, 모레 러시아 찾을 듯…北 9·9절 열병식</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000618596?sid=100</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>&lt;출연: 이경희 연합뉴스TV 기자&gt;[앵커] 한주간의 한반도 정세와 외교안보 이슈를 다시 한 번 정리해보는 토요일 대담코너 '한반도 브리핑'입니다. 이번 주에는 북한과 러시아가 4년 만에 정상회담을 조율하고 있는 것으로 알려지면서 관심을 모았습니다.특히 회담 핵심 의제가 양국의 무기 거래, 더 나아가 군사 협력이 될 것으로 예상되면서 한미일에 맞서는 북중러 대립이 새로운 국면에 진입할 수 있다는 분석이 나오는데요.이런 가운데 북한은 정권수립일 9.9절을 맞아, 심야에 올해 3번째 열병식을 진행했습니다.오늘은 외교안보, 국제 분야 취재하는 이경희 기자와 함께 한반도 정세를 둘러싼 이슈 살펴보겠습니다. 안녕하세요. 오늘 짚어볼 주요 내용들부터 정리해주시죠.[기자] 이번 주 북한 관련 최대 이슈는 북러 정상회담 관련 소식이라고 할 수 있겠습니다. 전쟁 중 무기난을 겪는 러시아와 식량난 타개와 함께 핵, 미사일 기술을 바라는 북한, 양측의 이해관계가 맞아 떨어지는 가운데 급속도로 밀착하는 모습입니다.북한과 러시아가 4년만에 정상회담을 조율 중인 것으로 알려졌는데요. 오는 12일 블라디보스토크 극동연방대에서 만날 가능성이 유력하게 제기되고 있는데 양측 모두 공식 발표는 아직 하지 않고 있습니다. 북한이 오늘 9월9일, 75주년 정권수립일을 맞아 심야 열병식을 진행했습니다. 지난 2월 인민군 창건 기념일과 7월 6·25 정전협정 체결일에 이어 올해만 벌써 3번째 열병식입니다.북한이 정권 수립 75주년에 맞춰 수중에서 핵 공격이 가능한 첫 전술핵공격잠수함을 공개했습니다. 북러 군사협력이 가속화하는 가운데 김정은 위원장은 핵추진잠수함 개발에도 박차를 가하겠다고 말했습니다.[앵커] 전해주신 대로 김정은 북한 국무위원장이 이르면 내주 초 러시아를 찾아 푸틴 대통령과 4년 만에 정상회담을 할 것이라는 외신 보도가 나왔는데요. 관련해서 구체적인 움직임이 확인된 게 있나요? [기자]네, 뉴욕타임즈는 현지시간 지난 4일 김정은 북한 국무 위원장이 이달 중 러시아를 찾을 가능성이 있다면서 내일부터 13일까지 블라디보스토크에서 열리는 동방경제포럼 기간에 북러 정상회담이 열릴 가능성이 있다고 보도했는데요.날짜를 특정하진 않았지만 푸틴 대통령이 매번 포럼 본회의에 참석해 연설해왔다는 점에서 본회의가 예정된 12일에 회담이 열리지 않겠느냐는 관측이 유력하게 제기됐습니다. 이후 일본 매체 보도를 통해 러시아 정부 당국자가, 동방경제포럼이 열리는 극동연방대학을 포함해서 회담 장소를 조율하고 있다고 밝히면서 개최 가능성에 힘이 실렸는데요.그러나 아직 북한에서도 러시아에서도 공식 발표는 나오지 않고 있습니다.다만 블라디보스토크 현지 관계자들 사이에선 러시아 측이 내부적으로 김 위원장이 전용 열차를 타고 모레, 11일에 블라디보스토크역에 도착해 리무진으로 갈아탄 뒤 동방경제포럼이 열리는 극동연방대학교로 이동하는 방문 일정에 대비하고 있다는 얘기가 나옵니다. 4년 전과 같은 경로입니다.[앵커] 4년 전에 구체적으로 어떤 경로를 이용했는지도 잠시 소개해주시죠[기자]네, 2019년 4월 김 위원장은 방탄 열차, 태양호를 타고 1,100km를 달려 블라디보스토크로 향했습니다.정확한 출발지는 공개하지 않았지만 평양에서 함흥으로 이동해 출발한 것으로 추정됐습니다. 이른 새벽 출발해 오전 10시 40분쯤 북러 접경 지역인 하산에서 환영행사를 가진 뒤 블라디보스토크 역에는 오후 6시쯤 도착했는데요.김 위원장은 2019년 2월 북미 정상회담을 위해 베트남 하노이로 갈 때도 전용열차를 이용했을 정도로 격추 위험이 있는 비행기 보다는 육로 이동을 선호하는 모습을 보여왔습니다.통상 외국에서 회담이 열리면 일주일 전쯤 김 위원장의 의전 담당으로 잘 알려진 김창선 북한 국무위원회 부장이 사전답사를 하지만 아직 블라디보스토스에서 김 부장의 모습은 포착되지 않고 있는데요. 4년 전에 한번 왔던 경로인 만큼 사전답사를 생략했을 가능성이 거론됩니다.[앵커] 회담이 성사된다면 김정은 위원장과 푸틴 대통령이 만나는 건 이번이 두 번째죠. 그 전에도 북러 정상 회담은 여러 차례 있었지만 이번 회담이 특히 주목 받는 건 본격적인 군사협력의 신호탄으로 받아들여지기 때문이죠?[기자] 그렇습니다. 미 정부 당국자는 김 위원장이 러시아와의 무기 거래 협상을 정상급에서 논의하길 희망한다는 정보를 확보했다고 밝혀서 이번 회담 핵심 의제가 무기 거래가 될 것임을 시사했습니다.러시아는 우크라이나 전쟁 장기화로 무기 부족 사태를 겪고 있고 그렇기 때문에 북한으로부터 탄약과 무기를 공급받길 기대하는 상황인데요.특히 최근 대반격에 나선 우크라이나가 여러 전선에서 조금씩 전진하며 의미 있는 성과를 내기 시작했단 점에서 푸틴 대통령 입장에선 더욱 마음이 급할 것이란 관측이 나옵니다. 북한 무기들은 옛 소련제가 많아서 러시아 무기 시스템과 호환이 가능하다는 점에서 러시아 입장에선 더더욱이 유용할 수 있는데요. 이와 관련해 러시아 전문가들 사이에선 북한이 러시아에 탄약을 대량 공급하고 러시아는 식량 공급과 일련의 군사기술 이전 가능성을 열어줄 것이란 관측이 나옵니다.일각에서는 북한이 러시아군 지원을 위해 우크라이나에 의용군을 파견하는 문제도 논의될 수 있다는 전망까지 나옵니다.[앵커] 무기거래가 성사되면 한미일, 북중러 대결 구도가 본격화하면서 동북아 정세가 격랑으로 빠져들 것이란 우려가 커지고 있는데요. 이 때문에 미국은 연일 북한을 향해 무기 거래에 나서면 후과를 치르게 될 것이라는 경고 메시지를 연일 보내고 있죠?[기자]그렇습니다. 뉴욕타임즈 보도가 나온 이후 매일 공개적으로 경고 메시지를 보내고 있다고 해도 과언이 아닌데요.미국은 무기 거래가 명백한 유엔 제재 위반임을 강조하면서 후과를 예고하고 있습니다.&lt;제이크 설리번 / 백악관 국가안보보좌관&gt; "러시아가 다른 나라의 영토를 정복하려 식량 창고와 난방 인프라 등을 공격하는데 무기를 제공하는 건 북한에 좋은 영향을 미치지 않을 것입니다. 국제사회에서 대가를 치르게 될 것입니다."무기 거래를 시작으로 본격적인 북중러 군사협력으로 이어질 것을 우려하는 건데요.한미일이 연합 훈련을 정례화하기로 한 것에 맞서 북중러 연합훈련으로 군사 협력을 강화할 가능성도 제기됩니다.실제 이번 주 정보당국에서 지난 7월 북한을 찾은 러시아 국방장관이 김정은 위원장에게 북중러 연합훈련을 공식 제의했다는 언급이 나오기도 했습니다.&lt;유상범 / 국회 정보위 국민의힘 간사(지난 5일)&gt; "국정원에서는 쇼이구 국방장관이 북한을 방문해서 김정은을 면담할 당시에 (북중러) 연합훈련에 대한 공식 제의가 있었던 것으로 파악을 한다는…."미국의 북한 전문가들은 북한이 러시아에 무기를 넘겨주면 러시아가 우크라이나에서 전쟁을 더 길게 끌 수 있게 되고 이에 대한 보상으로 러시아가 북한에 탄도 미사일과 핵잠수함 기술을 넘긴다면 북한이 이른바 핵개발의 마지막 퍼즐을 맞출 수 있게 될 것으로 보고 있습니다.그렇게 되면 유럽과 동아시아 모두에서 미국의 전략적 이익에 큰 위협이 될 것이란 우려를 제기하고 있습니다.[앵커] 이런 가운데 북한은 오늘 정권수립일 9.9절을 맞아 심야에 대대적인 열병식 행사가 열었죠. 올해만 벌써 3번째 열병식이죠?[기자]그렇습니다. 어제 평양 김일성광장에서 민간무력 열병식이 열렸는데요.건군절인 2월 8일과 정전협정 체결 70주년인 7월 26일에 이어서 3번째로 열병식을 연 것입니다. 북한이 1년에 세 차례나 열병식을 개최하는 건 극히 이례적으로, 그만큼 내부 결속이 시급하기 때문이란 분석이 나옵니다.다만 이번 열병식은 민간무력 열병식인만큼 정규군이 아닌 우리의 예비군 격인 노농적위군과 경찰 격인 사회안전군이 동원됐고 대륙간탄도미사일 같은 전략무기도 등장하지 않았습니다.김정은 위원장은 딸 김주애와 함께 열병식을 지켜봤는데요. 별도의 연설은 하지 않았습니다.[앵커] 중국은 지난 7월에 이어 이번에도 대표단을 파견하며 결속을 과시했는데 러시아는 대표단까지는 파견하지 않았죠? 북러 정상회담과 연관이 있을까요?[기자]네, 중국은 류궈중 국무원 부총리를 단장으로 하는 대표단을 파견했는데요.5년 전 70주년 행사 때 파견한 리잔수 중국 전국인민대표회의 상무위원장에 비해 급은 낮아졌습니다.이를 두고 북,러가 밀착하는 가운데 중국은 일정 정도 거리를 두려는 의도라는 분석도 나오기도 했는데요.그러나 류 부총리가 과학기술 관료 출신의 경제 전문가라는 점에서 북중 간 경제협력 논의에 초점을 맞추려는 측면이란 평가도 있습니다.러시아는 이번엔 대표단 없이 협주단만 파견했는데요. 북러가 밀착하는 분위기 속에서 대표단을 보내지 않는다는 건 이례적인 결정이란 점에서 정상회담을 앞두고 있는 상황이 고려된 것으로 풀이됩니다.[앵커] 한편 북한은 75주년 9.9절을 앞두고 첫 전술핵공격잠수함도 공개했죠? [기자]네, 정권 수립 75주년에 맞춰 수중에서 핵 공격이 가능한 첫 전술핵공격잠수함 '김군옥영웅함'을 공개했는데요.지난 6일 열린 진수식에 김정은 국무위원장도 참석했습니다.이번에 공개된 잠수함은 기존 디젤 엔진 잠수함에 잠수함발사탄도미사일, SLBM 발사관을 장착한 것일 뿐, 핵추진 잠수함은 아닙니다.하지만 수중에서 은밀히 기동해 전술핵탄두를 탑재한 SLBM을 기습 발사할 경우 우리 군에는 분명한 위협이 될 수 있다는 평가입니다.김 위원장은 진수식 연설에서 핵추진잠수함 개발에도 더 큰 박차를 가하겠다는 의지를 밝혔는데 북러 정상회담 등 양국 군사협력을 통해 핵잠수함 기술 이전을 노리는 것 아니냐는 분석이 나옵니다. [앵커] 신냉전이라는 말이 나올 만큼 국제질서가 급변하고 있는 가운데 한반도 정세도 격랑으로 빠져드는 모습입니다.오늘 한반도 브리핑 여기서 마치겠습니다. 수고하셨습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>75개사 511명 채용 ‘부산 우수기업 채용박람회’ 열린다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005066843?sid=102</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 최근 구인난을 겪고 있는 조선·뿌리산업 및 서비스업종 등 강소기업의 빈일자리에 인재채용을 지원하고 청년층 등 일자리를 찾는 지역 구직자에게 다양한 취업기회를 제공하는 채용박람회가 열린다.   부산고용노동청은 부산중소벤처기업청, 부산지방보훈청, 부경대학교 등과 공동으로 오는 6일 부경대 실내체육관에서‘2023년 부산 우수기업 채용박람회’를 개최한다고 4일 밝혔다.   이번 행사에서는 부산권역 강소기업 및 전략산업 선도기업 등 75개사에서 총 511명을 채용할 예정이다.    ▲부산고용노동청. 연합뉴스주요 기업으로는 조선업종에서 ㈜태웅, 선보공업㈜, ㈜에스앤더블류 등이 참가하고 자동차 및 항공기부품을 제조하는 뿌리산업 관련기업으로는 ㈜이원솔루텍, 케이피항공산업㈜ 등에서 기술·기능 인력을 채용한다.   서비스업종에서는 파라다이스호텔부산, ㈜조선호텔앤리조트, ㈜아난티코브 등에서는 객실·조리·하우스키핑 등 인력을 채용할 예정이다.   채용면접 행사 외에도 다채로운 부대행사도 함께 개최된다. 참가기업이 60초 내외 짧은 영상으로 기업 및 구인내용을 소개하고 기업 인사담당자가 적합 인재 선발을 위해 참석 구직자와 질의응답을 진행하는 ‘취업 토크 콘서트’를 진행한다. 또 YBM 토스·COS·MOS 무료응시권 배부, 증명사진 촬영, 커피쿠폰 제공 미션 등도 제공할 예정이다.   행사 참가를 원하는 구직자는 별도 절차없이 이력서, 자기소개서 등을 지참하고 당일 행사 현장을 방문하면 된다. 참가 기업 현황은 채용박람회 누리집에서 사전에 확인할 수 있다.   양성필 부산고용노동청장은 “최근 부산지역 청년층 실업률이 상승하는 등 일자리 상황이 어려운 가운데 개최되는 이번 행사가 지역 청년 등 구직자들에게 취업할 수 있는 좋은 기회가 되기를 바란다”면서 “앞으로도 부산지역 우량기업을 발굴하고 적시에 인재를 채용할 수 있도록 지원해 나가겠다”라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>원티드랩, '카카오벤처스 패밀리 전용관' 운영</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305241?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>잠재력 높은 초기 스타트업?우수 인재 간 매칭 지원HR테크 기업 원티드랩이 카카오벤처스와 함께 '카카오벤처스 패밀리 전용관'(이하 전용관)을 운영한다고 15일 밝혔다. 잠재력을 높이 평가받고 있는 초기 스타트업과 우수 인재 매칭을 통해, 기업-구직자 간 동반 성장을 지원한다는 취지다.카카오벤처스는 초기 스타트업 전문 벤처캐피탈이다. 주요 투자 영역은 소프트웨어 및 ICT 기반 서비스, 딥테크, 디지털 헬스케어, 게임 등이며 당근, 루닛, 한국신용데이터 등 250여개 기업에 투자를 진행했다. 지난해 기준 누적 투자액은 3천200억원 이상이다.이번 전용관에는 카카오벤처스의 주요 패밀리사 10여곳이 참여한다. ▲웰니스 스타트업 '가지랩' ▲캐주얼 게임 개발사 '드리모' ▲AI 기반 3D 콘텐츠 생성 솔루션 전문기업 '리콘랩스' ▲카툰 렌더링 게임 개발사 '브이에이게임즈' ▲AI 학습데이터 플랫폼 '셀렉트스타' ▲디지털 패브릭 소싱 플랫폼 '스와치온' ▲비대면 도서공유서비스 운영사 '스파이더랩' ▲의료 데이터 플랫폼 기업 '제이앤피메디' ▲고객 데이터 분석 솔루션 기업 '프라이데이즈랩' ▲반려동물 고객관리 서비스 운영사 '프릿지크루' 등이다.원티드랩X카카오벤처스, ‘카카오벤처스 패밀리 전용관’ 운영전용관에는 ▲경영 기획 ▲개발 ▲디자인 ▲마케팅 등 다양한 직군에 걸쳐 40여개의 채용공고가 열린다. 경영 기획 직군에서는 프로덕트 오너(PO), 프로덕트 매니저(PM) 등을 모집하며, 개발 직군에서는 프론트엔드 및 백엔드 개발자, 데이터 사이언티스트 등을 채용한다. 디자인 직군에서는 프로덕트 디자이너, 3D 애니메이터 등을 모집하며, 마케팅 직군에서는 마케팅 매니저, 해외 마케팅 전략 담당자 등을 모집한다.카카오벤처스 관계자는 "이번 원티드랩과 협업을 통해 우수한 역량은 물론 도전 정신을 가진 인재들이 카카오벤처스 패밀리에 합류할 것으로 기대한다"며 "앞으로도 패밀리사가 회사의 성장에 오롯이 집중할 수 있도록 전폭적인 지원을 아끼지 않을 것"이라고 말했다.원티드랩 관계자는 "이번 전용관에서 원티드 유저들이 미래의 유니콘으로 발전할 우수한 기업을 만나고, 이들과 함께 성장할 수 있는 기회를 얻기 바란다"면서 "앞으로도 구직자의 커리어 성장과 기업의 우수 인재 채용을 도울 수 있는 다양한 활동을 선보일 것"이라고 밝혔다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근(구 당근마켓) ▲라인 ▲무신사 ▲오늘의집 ▲직방 ▲토스CX ▲힐링페이퍼(강남언니) 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 보다 자세한 참여 안내는 네이버 검색창에서 '잡테크 커넥팅 데이즈'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>라임·옵티머스 ‘무풍지대’…중소형證, 리테일 강화 드라이브</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002746314?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>유진·한화·유안타·현대차, 투자자 유치에 서비스 경쟁력 강화부동산 PF 리스크 만회 필요…대형사 투자자 이탈 기회 ‘주목’서울 여의도 증권가 전경. ⓒ연합뉴스[데일리안 = 황인욱 기자] 증권가에 라임·옵티머스 재조사 후폭풍이 거세나 중소형 증권사들은 리테일 부문을 강화하며 조용히 경쟁력을 다지고 있다. 사모펀드 사태로 곤혹을 치루고 있는 판매사 대부분이 대형사로 중소형사와 직접적인 관련은 없어서다.부동산 프로젝트파이낸싱(PF) 리스크에 따른 투자은행(IB) 부문 수익 감소로 리테일 부문 점유율이 관건으로 떠오른 가운데 사모펀드 사태가 중소형사 약진의 계기가 될지 주목된다.6일 증권업계에 따르면 유진투자·한화투자·유안타·현대차증권 등 중소형 증권사들이 최근 리테일 서비스를 강화하며 개인투자자 유치에 돌입했다.유진투자증권은 프라이빗 뱅커(Private Banker·PB)가 오프라인 고객 자산관리와 투자 상담시에 활용할 용도로 챗(Chat)GPT 기반의 지원 플랫폼 개발에 착수했다. 인공지능(AI) 관련 전문성을 적극 활용해 종합자산관리 경쟁력을 강화하고 차별화된 투자 서비스를 제공하겠다는 의도에서다.투자자를 모으기 위한 움직임도 적극적이다. 영업점 내방 고객을 대상으로 수도권 지역 맛집 정보를 제공하는 등 콘텐츠를 개발해 현장을 찾을 유인을 제공하는 한편 국내·해외주식 입고 행사도 진행해 타사 고객을 끌어들이기 위한 노력도 분주하다.한화투자증권도 이달 입고 행사를 진행하며 투자자를 데려오기 위한 경쟁에 뛰어 들었다. 이와 함께 비대면 종합계좌 개설시 혜택을 부여해 신규 고객도 함께 끌어모으겠다는 계획을 내비쳤다.투자 유치와 함께 리테일 부문을 강화해 장기 고객으로 남기겠다는 의지도 보이고 있다. 한화투자증권은 최근 토스뱅크와 협업해 토스뱅크 애플리케이션(앱)에서 한화투자증권 계좌를 개설하고 장외 채권을 매수할 수 있는 서비스를 개시했다. 하반기 신입사원 공채도 진행해 리테일 사업 확장을 위한 포석에도 나섰다.국내 지점 56곳으로 한국투자증권에 이어 국내에서 6번째로 많은 지점을 가진 유안타증권은 일본 주식 거래 서비스를 선보이며 외형 확장에 나섰다. 일본 주식 거래 고객을 대상으로 수수료 혜택 등을 제공하며 급증세를 보이고 있는 ‘일학개미(일본주식에 투자하는 개인투자자)’를 확보하기 위해 적극 움직이겠다는 신호를 보였다.유안타증권 리테일 사업부는 개인투자자 수요에 맞춰 새로운 해외시장 발굴 및 서비스 출시를 지속하겠다는 계획이다.현대차증권은 디지털 고객 자산관리를 위 디지털 PB센터를 신설해 주목 받고 있다. 이 센터는 기존 오후 5시까지였던 상담 시간을 오후 9시까지로 확대해 운영하는데 투자자들은 늦은 시간에도 투자 전문가들로 구성된 디지털 PB로부터 투자 정보와 보유 포트폴리오 상담 등을 받을 수 있다.현대차증권은 디지털 종합자산관리계좌(CMA) 개설시 혜택을 주는 행사도 진행하며 신규 서비스를 이용할 투자자 유인에 나서고 있다.이복현 금융감독원장이 지난 4일 국회 정무위원회에서 의원들의 질의에 답변하고 있다. ⓒ연합뉴스중소형 증권사들이 리테일 부문 강화 배경으로 IB 업황 리스크 지속이 지목된다. 부동산 프로젝트 파이낸싱(PF)발 우려로 리테일 부문에서 만회할 필요성이 있다는 평가다.나이스신용평가에 따르면 올해 6월 말 기준 국내 25개 증권사의 국내외 부동산금융 위험노출액(익스포져)은 47조6000억원에 달하나 부동산시장 회복세가 지연됨에 따라 투자 익스포져가 여전히 회수되지 않고 있다.사모펀드 사태로 대형사를 중심으로 투자자 이탈 우려가 나오고 있는 현재 상황은 중소형사들에게는 오히려 기회가 될 수 있다는 관측이 나온다. 중소형사들이 입고 행사 등을 진행하고 있는 것도 이와 무관치 않다는 평가다.이예리 나이스신용평가 선임연구원은 “부동산 금융을 중심으로 외형을 확대해온 중소형사는 부동산을 제외한 타 사업 기반이 상대적으로 열위하다”며 “감내 가능한 손실 규모가 적은 것으로 판단한다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>토스뱅크, '목돈 굴리기'에서 삼성증권 채권상품 소개</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012075171?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스]이주혜 기자 = 토스뱅크는 '목돈 굴리기' 서비스에서 삼성증권의 토스뱅크 연계 종합매매계좌를 개설하고 삼성증권이 판매 중인 채권 상품을 만날 수 있다고 7일 밝혔다. 삼성증권의 종합매매계좌는 국내를 포함한 해외 주식, 채권, 펀드 등에 투자할 수 있는 계좌다. 만 19세 이상의 한국 거주 내국인은 누구나 개설이 가능하다. '목돈 굴리기' 서비스는 토스뱅크가 시장 내 경쟁력 있는 상품을 자체 선별해 소개하는 서비스다. 국내 대형 증권사들이 입점해 있다. '목돈 굴리기'를 통해 소개한 금융투자상품은 이달 현재 3조원에 달한다. 토스뱅크 이용자들은 삼성증권에서 판매 중인 채권 상품도 '목돈 굴리기'에서 만날 수 있다. 현재 소개 중인 채권 상품들은 키움캐피탈, 메리츠캐피탈, 롯데글로벌로지스로 각각 연 6.17%, 연 5.6%, 연 4.74%의 수익률(6일 세전 기준)을 제공한다.  토스뱅크는 이번 제휴를 기념해 삼성증권 최초 신규고객이 종합매매계좌를 개설하면 30일까지 개설 축하금 5000원을 토스뱅크 통장으로 지급한다. 국내 주식을 거래하면 수수료 혜택 평생 제공 및 해외 주식 수수료 우대도 신청일로부터 1년간 제공한다. 해외주식 대상 혜택 별도 신청시 투자지원금 지급, 거래 축하지원금 지급 등 다양한 혜택도 제공한다. 삼성증권 최초 신규 종합매매계좌 개설 고객이 계좌 개설 후 해외주식 투자지원금을 신청하면 즉시 20달러를 지급한다. 신청일 기준 5영업일까지 지원금을 미국주식 매수금으로 사용할 수 있다. 이후에는 환전 및 출금도 가능하다. 거래 축하지원금은 최대 80달러를 지급하고 최초 이벤트 신청시 선택한 계좌로만 받을 수 있다. 토스뱅크 관계자는 "'목돈 굴리기' 서비스에 국내 대형 증권사들의 입점이 확대됨에 따라 고객 선택권을 더욱 넓혀가고, 고객 자산 증식에 기여할 수 있도록 노력할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>막 오른 인뱅 전월세대출 경쟁…어디가 유리하나</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012072519?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>토뱅, 금리 낮아…앱에서 전세지킴보증 신청카뱅 한도 최대 5억…케뱅, 고정금리 제공 *재판매 및 DB 금지[서울=뉴시스]이주혜 기자 = 카카오뱅크와 케이뱅크에 이어 토스뱅크가 전월세보증금 대출 상품을 출시하면서 인터넷전문은행 3사의 전월세대출 경쟁의 막이 올랐다. 인터넷은행들은 고객을 끌어모으기 위해 금리와 한도, 편의성 등을 차별점으로 내세우고 있다.6일 금융권에 따르면 토스뱅크는 전날 전월세보증금 대출을 출시했다. 카카오뱅크와 케이뱅크에 이어 인터넷은행 3사 중 마지막으로 전월세대출 취급을 시작한 것이다. 인터넷은행들은 일반 및 청년(만 34세 이하) 전월세대출을 제공한다. 이날 기준 대출금리는 ▲카카오뱅크 일반 연 3.362~4.376%, 청년 연 3.692~4.206% ▲케이뱅크 일반 연 3.67~6.48%, 청년 연 3.66%~4.17% ▲토스뱅크(5일 기준) 일반 연 3.32~5.19%, 청년 연 3.42~4.06%다. 토스뱅크의 금리가 상대적으로 낮다.토스뱅크는 전월세대출에 다자녀 특례 대출을 도입했다. 미성년 자녀 수가 2명 이상인 고객이 대상이다. 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다. 금리는 일반 전월세대출과 같은 연 3.32~5.19%다.아울러 전월세보증금대출을 받은 후 토스뱅크 앱에서 전세보증금반환보증도 신청할 수 있도록 편의성을 높였다. 최저 연 0.02~0.04%의 보증료를 적용, 보증료 부담도 최소화했다. 연말까지 전세지킴보증 가입 고객을 대상으로 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. *재판매 및 DB 금지카카오뱅크에서는 최대 5억원까지 전월세보증금 대출을 받을 수 있다. 일반 전월세대출의 한도는 최대 2억2200만원, 청년의 경우 2억원까지다. 카카오뱅크가 7월 출시한 SGI 전월세보증금 대출은 전월세보증금의 최대 80% 한도 이내에서 최대 5억원까지 대출이 가능하다. 수도권은 7억원 이하, 수도권 외 지역은 5억원 이하로 제한됐던 임대차보증금 제한도 없다. 금리는 이날 기준 연 3.652~4.917%다.케이뱅크는 일반, 청년 전세대출 외에 고정금리 전세대출을 제공한다. 지난 3월 고정금리 전세대출 상품을 출시했다. 금리는 이날 기준 연 3.94%다. 대출기간 동안 금리가 고정돼 이자비용 관리를 계획적으로 할 수 있다는 게 장점이다. 단일금리이기 때문에 일반 전월세대출의 최저 금리를 받지 못하는 고객의 경우 고정금리를 선택해 더 낮은 금리를 적용받기도 한다. 케이뱅크는 가을 이사철을 앞두고 전세대출 한도조회 및 고정금리 전세대출 실행 고객을 위한 이벤트도 진행하고 있다.  *재판매 및 DB 금지인터넷은행들은 금리와 한도 외에도 대출자들이 안심할 수 있도록 관련 서비스를 시행하고 있다. 케이뱅크와 토스뱅크는 세입자가 거주 주택의 등기 변동을 알 수 있는 등기부등본 변동 알림 서비스를 제공한다. 카카오뱅크도 해당 서비스를 준비 중이다.케이뱅크의 '우리집 변동알림'은 당행에서 전세대출을 받지 않은 고객도 이용이 가능하다. 토스뱅크의 '등기변동알림'은 알림만으로 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>퓨어스토리지, ‘퓨어//액셀러레이트 2023 서울’ 12일 개최</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304070?sid=105</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>퓨어스토리지는 오는 12일 한국에서 ‘퓨어//액셀러레이트 2023 서울’ 컨퍼런스를 개최한다고 5일 밝혔다.‘퓨어//액셀러레이트’는 최신 IT 트렌드와 현대적 데이터 경험에 대한 퓨어스토리지만의 인사이트 및 최신 데이터 솔루션들을 소개하는 퓨어스토리지의 연례 컨퍼런스다. 올해는 하이브리드 방식으로 온라인과 시그니엘 서울에서 오프라인으로 진행된다.행사 오프닝 기조연설에서는 퓨어스토리지의 에이제이 싱 최고제품책임자(CPO)가 미래를 위한 데이터센터의 비전과 전망에 대해 소개하고, 이어지는 세션에서 퓨어스토리지의 에이미 파울러 부사장 겸 플래시블레이드 사업부 총괄이 지속 가능하고, 인공지능(AI)에 최적화된 올플래시 데이터센터 구축 전략에 대한 인사이트를 공유한다.퓨어스토리지의 솔루션을 도입한 토스뱅크와 삼성전자가 패널토크에 참여해 데이터 운영 혁신 사례와 컨테이너 혁신 사례를 공유할 예정이다. 퓨어스토리지의 파트너사인 시스코, 빔 등이 함께 하는 심층 세션도 진행된다. 제품 시연, 업계 전문가들과의 네트워킹, 온라인 및 오프라인 참석자들을 위한 다양한 경품 이벤트 등을 진행할 계획이다.퓨어스토리지코리아 유재성 사장은 "AI 시대에 접어들면서 데이터를 통찰력으로 전환하는 역량이 향후 기업 경쟁력을 가리는 척도가 됐다"며 "올플래시 데이터센터 구축 전략을 비롯해 퓨어스토리지 전문가들과 각 분야 IT 리더들이 소개하는 신기술 트렌드를 살펴보고, 퓨어스토리지 솔루션을 도입해 비즈니스를 혁신한 고객 성공사례 등 유익한 세션들을 통해 데이터의 가치를 극대화하기 위한 통찰력과 영감을 얻는 시간이 되길 바란다"고 강조했다.온라인 행사는 기업 고객 및 파트너사라면 누구든 등록 페이지에서 신청 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>"판 꾸린 실물자산 토큰화, 금융판도 바꿀 것"</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004937049?sid=105</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[ABCD 뉴프론티어] 김경업 오픈에셋 대표블록체인 기반 한은 디지털화폐·한투증 STO 구축속도·안정성 다잡아 호평 "금융계의 코스콤 될 것"[편집자주] 4차 산업혁명의 핵심인 인공지능(AI)·빅데이터(Bigdata)·클라우드(Cloud) 기술로 디지털전환(DX)을 선도하는 강소 기업들을 조명합니다.김경업 오픈에셋 대표 / 사진제공=오픈에셋"웹2 기반의 기존 금융 시스템에 블록체인 기술을 접목, 더 나은 금융 환경을 제공하는 것을 목표로 합니다. 증권업계의 코스콤처럼, 블록체인 기반 금융 인프라 기업이 되겠습니다."김경업 오픈에셋 대표(사진)의 얘기다. 오픈에셋은 오는 15일, 한국투자증권과 함께 진행한 STO(토큰증권) 사업 종료를 보고한다. 한국투자증권이 블록체인 기반 시스템을 구축한 국내 최초의 증권사가 되는데, 그 중심에 오픈에셋이 있다는 얘기다.김 대표를 비롯한 오픈에셋 멤버들은 올해 초까지만 해도 카카오 계열 크러스트유니버스 소속이었으나 지난 4월 퇴사 후 회사를 차렸다. 카카오가 계열사의 블록체인 사업을 클레이튼 재단으로 모두 이관하는 과정에서 오픈에셋이 만들어진 것이다.설립된 지 반년이 채 안됐지만 활동 이력은 가볍지 않다. 지난해 한국은행 주도로 진행된 CBDC(중앙은행 발행 디지털 화폐) 모의실험 연구 사업을 담당한 팀이 김 대표 등 현재의 오픈에셋 멤버들이었다. 당시 모의실험 사업은 중앙은행과 국내 시중은행의 시스템을 블록체인으로 연결해 분산원장 시스템을 구현했을 뿐 아니라 법원 등 정부 기관이 시중에 유통되는 CBDC에 대해 동결·추심명령을 집행할 수 있도록 설계됐다는 점에서 높은 평가를 받았다.한은과 CBDC 모의실험 사업을 수행한 후 곧바로 뛰어든 분야가 STO 사업이다. 자금을 조달하려는 수요기업과 이들에게 자금을 공급하는 투자자 사이의 교량 역할을 하는 증권사를 블록체인 플랫폼에 한 데 묶어 365일 24시간 디지털 자산을 거래할 수 있도록 한 플랫폼 사업이 STO다. 기업은 주식·채권 등 유가증권 뿐 아니라 부동산, 미술품 및 현금흐름이 발생할 수 있는 권리 등 다양한 형태의 자산을 기반으로 토큰을 발행할 수 있고 투자자는 플랫폼 위에서 이를 거래할 수 있다.증권사의 기존 시스템과 블록체인 메인넷을 단순히 API(응용 프로그래밍 인터페이스, 데이터 송수신 방식)로 연결시키는 방식으로 접근해서는 STO 플랫폼을 만들 수 없다는 게 김 대표의 지적이다. 발행, 청약, 배당·이자·분배금 배분 등 개개의 시스템을 이해하고 그에 맞는 블록체인 기술을 적용해야만 한다. 이에 오픈에셋은 처음부터 한국투자증권의 IT부서 관계자들과 함께 플랫폼을 설계했다.김 대표는 "한국투자증권의 플랫폼을 구축하는 사업은 이제 마무리됐고 카카오뱅크, 토스뱅크의 시스템과 어떻게 연계할지 작업을 준비 중"이라고 했다. 한국투자증권의 STO 플랫폼인 'ST프렌즈'에 카카오뱅크, 토스뱅크가 분산원장 파트너로 참여한다. 이 플랫폼 위에서 자금 수요자인 기업과 한국투자증권, 카카오뱅크, 토스뱅크 고객들이 토큰을 통해 자산을 거래할 수 있는 길이 열린다는 얘기다.블록체인의 유일한 단점 중 하나로 꼽히는 게 바로 속도다. 원장이 생성된 후 매번의 거래마다 새로운 정보가 추가적으로 기재되다보니 시간이 갈수록 거래 속도가 느려진다. 김 대표는 이를 클레이튼재단의 블록체인 기술로 해결했다. 김 대표는 "클레이튼의 거래 처리 속도는 4000TPS(초당 4000건의 거래를 해결한다는 의미)에 이르고 이를 기반으로 한은의 CBDC 프로젝트에도 클레이튼 기술을 적용했던 것"이라며 "한국투자증권과의 프로젝트에서도 클레이튼의 기술에 금융사에 필요한 기능을 넣고 자체 개발한 솔루션을 가미해 속도와 안정성을 모두 잡았다"고 설명했다.이 플랫폼에 어떤 기초자산 기반의 토큰을 올릴 것인지는 향후 규제 상황이 어떻게 될지, 또 한국투자증권이 얼마나 매력적인 상품을 올릴지에 달렸다. 김 대표는 "지금까지는 블록체인 플랫폼에서 내재가치가 없는 토큰만 거래됐지만 이젠 블록체인 기술을 통해 토큰으로 만들어진 실물자산이 활발히 거래될 것"이라며 "웹2 기반 기존 금융 시스템과 웹3를 잇는 역할을 하고 싶다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>블록체인 입힌 ‘그랑사가’ 호평 업고 부활 조준한다</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/396/0000654477?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>‘그랑사가 언리미티드’웹3 PC MMORPG로 재탄생예비 이용자 2차 테스트 성료PVP 전장·클랜 시스템 등 다뤄 아이템·재화 블록체인에 기록획득 랜덤성 결과 공개 투명화소유자·랜덤확률 등 확인 가능‘아이돌&amp;팬’ 시스템도 호응국내 게임 시장에서 파란을 일으키면서 유력 신규 IP(지식재산권)로 부상을 꿈꿨던 모바일 게임 ‘그랑사가’가 PC 온라인으로 플랫폼을 바꿔 재도전한다. 특히 웹3.0으로 대변되는 블록체인 요소를 가미해 최신 트렌드에도 올라탔다.     레이드 시스템    엔픽셀에서 제작한 그랑사가는 지난 2021년 1월 출시되자마자 반짝 인기를 끌었으나, 상승세를 이어가지 못한 채 만족스럽지 않은 성과로 끝났다. 무엇보다 넷마블의 3대 흥행작 중 하나로 꼽히는 모바일 게임 ‘세븐나이츠’를 만든 배봉건·정현호 대표가 2019년 설립한 회사라는 점에서 남달랐던 시장의 기대는 그만큼 더욱 가파르게 식어갔다.  이로 인해 엔픽셀은 내부적으로 체질개선에 돌입했고, IP면에서 잠재력을 인정받은 그랑사가를 곧장 PC MMORPG(다중접속역할수행게임) ‘그랑사가 언리미티드’로 재탄생시키는 절차에 들어갔다.  엔픽셀은 최근 전 세계 8000여명의 예비 이용자가 참가한 가운데 그랑사가 언리미티드의 2차 커뮤니티 테스트를 성황리에 마쳤다. 짧은 기간이었지만 모바일 게임 그랑사가가 시장에서 크게 조명받았고, 개발진의 업력을 향한 신뢰가 고스란히 반영된 덕분이다. 제작진 역시 앞서 올해 4월 진행된 1차 테스트에서 수집된 의견을 십분 채용해 재평가에 공을 들였다. 실제 회사 측은 이번 테스트에 대해 “예비 이용자들의 참여 속에서 플레이 환경을 개선하고 이와 연계한 커뮤니티를 활성화 하기 위해 마련했다”고 설명한다.     프루프 오브 플레이 기술이 접목된 모습    엔픽셀은 그랑사가: 언리미티드를 그랑사가 IP의 부활이라는 근본적인 목표를 넘어 궁극적으로 지향하는 웹3.0 시대의 구심점으로 보고 있다. 극심한 신작 부재 현상을 겪고 있는 PC 온라인 MMORPG 분야에서 경쟁력을 인정받겠다는 각오도 있다.  2차 테스트에서 중점적으로 다룬 의제는 신규 던전과 16인 레이드를 비롯해 PVP(이용자끼리 대결) 전장인 ‘카오스 필드’, ‘클랜’ 시스템 등이었다. 개발진들은 이용자들과 던전 공략과 커뮤니티 활동에 동참해 실시간 소통하면서 의견을 수용했다.  또한 주요 특징 중 하나인 ‘프루프 오브 플레이’(Proof of Play) 기술로는 그랑사가: 언리미티드만의 경제 생태계를 알렸다. 이 기술은 게임 내 주요 아이템과 재화를 블록체인에 기록하고, 아이템 획득의 랜덤성 결과를 투명하게 공개하는 것을 의미한다. 이로써 게임 내 수요에 따라 중요 아이템의 획득 난이도가 결정되고, 이용자들은 아이템의 공급량이나 공급 시점, 소유자, 랜덤 확률 등을 수시로 검색·확인할 수 있다.     호평을 받은 아이돌&amp;팬 시스템    여기에 엔픽셀은 사전에 SBT(Soul Bound Token, 소울 바운드 토큰)를 발급받은 전 세계 인플루언서 100명이 ‘아이돌’로 참여해 팬덤과 함께 여러 콘텐츠를 만들 수 있는 ‘아이돌&amp;팬’ 시스템을 선보이면서 호응을 얻었다. 한 테스트 참가자는 “오랜만에 정통 MMORPG의 본연의 재미를 느낄 수 있었다”며 “개발자들과 게임 안에서 파티를 맺고 다양한 이벤트를 즐길 수 있는 특별한 경험이었다”고 말했다.  엔픽셀은 테스트 기간 동안 집계된 피드백과 의견을 적극 검토해 완성도를 더욱 끌어올린 후 웹3.0 기반 게임 생태계 ‘메타픽셀’(METAPIXEL)로 그랑사가: 언리미티드를 정식 발매할 예정이다. 메타픽셀은 레이어1(Layer-1) 블록체인 네트워크인 앱토스(Aptos)를 기초로 구축된다. 엔픽셀은 2022년 11월 앱토스와 최초로 게임 부문 파트너십을 체결했다.  한편, 엔픽셀은 그랑사가 IP와는 별도로 차기작 ‘크로노 오디세이’를 완성하고 있다. 크로노 오디세이는 특수 조직 이드리긴의 일원들이 12명의 신들에게 대항해 거대한 전쟁을 벌이는 판타지 MMORPG다. 내년 초 시장에 시판될 것으로 보인다.  크로노 오디세이는 근래 우리 게임 시장에서 확산하고 있는 ‘콘솔 플랫폼 지향’ 현상과 맥이 닿는다. PC 온라인(스팀 포함)과 더불어 플레이스테이션5와 엑스박스 시리즈 X·S로 나온다. 콘솔 플랫폼이 PC 온라인이나 모바일 플랫폼에 비해 상대적으로 영상과 음향의 품질이 뛰어나다는 점에서 크로노 오디세이가 구현할 시각·청각적 화려함에 대한 예상치도 상향되고 있다. 엔픽셀은 북미와 유럽, 일본 등 여전히 콘솔 플랫폼이 주력인 시장을 중심으로 외연 확장을 노린다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>청약당첨 결과도 토스에서?…예산 2배 된 이 위원회, 칸막이 깬다 [팩플]</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003305553?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>고진 대통령 직속 디지털플랫폼정부위원회 위원장이 4일 서울 중구 세종대로 한국프레스센터 서울클럽에서 디지털플랫폼정부위원회 1주년 기념 출입기자 간담회를 하고 있다. 뉴스1       출범 1주년을 맞은 디지털플랫폼정부위원회가 디지털플랫폼정부(DPG) 구현에 속도를 내고 있다. 지난 1년 간 과제를 발굴하고 로드맵을 짰다면, 앞으로는 시민들이 체감할 수 있는 성과 창출에 나선다는 계획이다. 관련 예산도 1조원 가까이 편성됐다.     ━   무슨 일이야      디지털플랫폼정부위원회는 4일 서울 중구 한국프레스센터에서 기자간담회를 열고 지난 1년간의 성과와 계획 및 내년도 정부 예산안을 발표했다. DPG는 윤석열 정부의 핵심 ICT(정보통신기술) 정책이다. 고진 디지털플랫폼정부위원회 위원장은 “2023년은 위원회 출범 전에 예산이 편성되어 있어 저희 철학대로 예산을 만들었다고 보기는 어렵다”며 “내년 예산은 DPG 실현 계획을 바탕으로 편성돼, 이를 충실하게 구현할 수 있는 원년이 될 것”이라고 말했다. 내년 DPG 예산은 9262억원으로. 올해(4192억원)보다 2배 이상 많다.      DPG의 기틀이 되는 ‘하나의 정부’ 사업에는 1951억원의 예산이 배정됐다. 하나의 정부란 정부 시스템을 클라우드 네이티브(설계부터 클라우드 기술을 적용해 작고 유연한 구조와 단절 없는 서비스를 구현) 방식으로 바꾸고, 민간 기업이 개발한 초거대AI를 정부의 대국민 서비스에 활용하는 것. 예산 규모가 가장 큰 ‘민관이 함께하는 성장 플랫폼’ 사업엔 올해(2343억원)의 2배 이상인 5065억원을 투입해 공장 설립 원스톱 인허가 서비스, 디지털서비스 개방, 디지털트윈 경쟁력 강화 등을 추진한다.     ━   그래서, 뭐가 달라졌나?    ① 실손보험 간편청구 물꼬    고 위원장은 시민들이 체감할 수 있는 프로젝트를 발굴했다는 점을 성과로 꼽았다. 10년 이상 답보 상태였던 실손보험 간편청구 제도를 개선한 게 대표적이다. 위원회는 실손보험 서류를 소비자가 일일이 병원에서 받아 보험사에 제출할 필요 없이, 병원과 보험사가 직접 연계해 처리할 수 있게 한 보험업법 개정에 앞장섰다. 개정안은 14년 만에 국회 정무위원회 문턱을 넘은 가운데 본회의 통과를 앞두고 있다. 의료기관과 보험사 간 데이터 직접 연계는 2024년 말 시행을 목표로 준비 중이다.    ② 청약은 토스에서, SRT는 카카오T에서    DPG에서 ‘디지털 플랫폼’의 의미는 크게 둘이다. 그동안 사일로(Siloㆍ조직 내 부서간 장벽)에 막혀 있던 정부 부처 간 데이터를 잇는 플랫폼이자, 민·관이 만나 협력하는 플랫폼을 뜻한다. 이를 위해 위원회는 시민들이 민간 플랫폼 서비스에서 정부의 디지털 서비스도 이용할 수 있도록 공공의 문을 열고 있다. 지난 5월부터는 한국부동산원이 운영하는 ‘청약홈’과 금융 앱 토스를 연계했다. 2030세대가 많이 쓰는 토스에서 청약 신청을 할 수 있게 된 것. 고 위원장은 “내년에는 청약 당첨 결과 조회까지 민간 앱에서 가능하도록 할 것”이라고 말했다. 6월부터는 SRT 기차 승차권도 카카오T, 네이버 등 앱에서 가능하도록 개방했다.       ━   ‘하나의 정부’ 가능할까      간담회에서 고 위원장은 “DPG에 가장 중요한 건 시민들이 체감할 수 있는 변화를 만드는 것”이라며 “그러려면 사일로를 깨고 부처 간 소통이 활발해아 한다”고 말했다. 위원회는 DPG가 구현되면 ‘구비 서류 제로화’도 가능할 거라고 본다. 예를 들어 민원인이 인감증명 같은 서류를 따로 낼 필요 없이 필요한 경우 공무원이 정부 시스템에 접속해 확인하는 식이다. 그러려면 한 번 입력한 정보가 여러 기관과 부처에 모두 공유되어야 한다. 하지만 부처별로 DPG 주도권을 놓고 눈치 싸움 중이라 부처 간 데이터 장벽이 여전히 높은 편이다.       제도적인 걸림돌도 있다. 현재는 특정 부처가 개인 또는 기업의 정보를 가져다 쓸 때 고유 목적 외에는 데이터 활용이 어렵다. 예외 조항이 있지만, 데이터를 획득한 목적 사업 이외의 사업에 활용하는 건 원칙적으로 막혀 있다. 디지털플랫폼정부위원회 관계자는 “예외 조항의 범위를 넓히는 방안에 대해 감사원과 논의 중”이라고 설명했다.      ━   앞으로는      위원회는 행정부 간 협업 뿐 아니라 사법부와의 데이터 공유도 적극 추진할 계획이다. 고 위원장은 “디지털플랫폼정부위원회 출범 때부터 행정부와 사법부 간 칸막이 해소가 목표였다”고 설명했다. 사법부에 있는 가족관계증명서를 PDF가 아닌 데이터로 공유하는 방안이 먼저 추진된다. 그동안은 PDF로만 공유돼 행정부에서 담당자가 일일이 텍스트로 입력해야 했다. 고 위원장은 “대법원에서는 이미 데이터화를 완료했고 연내 행정부 시스템과 연계하도록 할 것”이라며 “이를 통해 연말부터는 주택 청약 신청 시 적격 여부를 사전에 확인할 수 있다. 청약 당첨 후 뒤늦게 부적격 판정을 받는 일은 사라질 것”이라고 말했다.      공공부문에서 초거대AI를 활용하기 위한 방안도 마련 중이다. AI가 단전ㆍ단수 데이터를 토대로 복지 사각 대상자에게 전화를 걸어 지원 필요성과 지원 방식 등을 확인하거나, 통신사 기지국 정보를 활용해 실시간으로 밀집 위험 상황을 예측ㆍ분석하는 사업을 연내에 추진한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>“소중한 전세보증금, 업계 최저 보증료로 안전하게” 토스뱅크표 전월세보증금 대출 나왔다</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005067742?sid=101</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>전월세대출에 ‘토스뱅크 케어’ 도입HF와 손잡고 ‘전세지킴보증’ 적용해 보증료↓집주인 재산 변동마다 앱으로 '등기변동알림'전세대출은 실거주 목적...“주담대와 성격 달라”지방은행과 협업한 ‘공동대출’ 출시 예고도 홍민택 토스뱅크 대표가 5일 서울 영등포구에서 열린 '전·월세보증금대출 출시 기자간담회'에서 경영 성과를 발표하고 있다. 토스뱅크는 이날 전월세보증금 대출을 출시하며 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 도입했다. 토스뱅크 제공. [파이낸셜뉴스]그간 신용대출만 취급해 온 토스뱅크가 인터넷은행 중 가장 후발주자로 전월세보증금대출을 출시했다. 보증료율을 타행 대비 6분의 1수준까지 낮춘 '전세지킴보증'을 도입하고 등기부등본을 열람하지 않아도 집주인의 재산 정보 변동이 생기면 자동으로 알려주는 '등기변동알림'을 통해 ‘편리함’과 ‘안전함’을 모두 잡겠다는 전략이다. 다만 전월세보증금 대출을 통해 여신 포트폴리오 강화에 나섰음에도 향후 주택담보대출 출시 시점은 ‘미정’이라는 입장이다.     ■“편리하고 안전하게” 전세지킴보증·등기변동알림 도입 5일 토스뱅크는 전월세보증금대출을 출시하면서 '전세지킴보증' 서비스를 도입해 고객들이 전월세보증금 대출을 받은 후 전세보증금반환보증도 한번에 신청할 수 있게 했다. 반환보증은 전세계약 종료 시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다.   토스뱅크는 보증료 절감을 위해 주택금융공사(HF)와 손잡고 최저 연 0.02~0.04%의 보증료를 적용키로 했다. 이에 전세보증금이 2억원인 청년 고객이 2년간 부담해야 할 반환보증의 비용은 8만원 수준이다. 토스뱅크는 올 연말까지 전세지킴보증 가입 고객을 대상으로 보증료를 최대 10만원까지 지원할 예정이다. 전세지킴보증 보장 범위도 단독주택, 빌라, 다가구주택 등까지 넓혔다.   전월세보증금 상품 개발을 담당한 박신건 토스뱅크 프로덕트오너(PO)는 “비대면 신청의 편리함뿐 아니라 대출받고 나서도 내 보증금을 안전하게 관리할 수 있는 것이 타행과의 차별성”이라며 “기존 고객들이 가입하던 반환보증보다 6배 이상 저렴한 만큼 편리하고 부담없이 안전한 금융생활을 할 수 있을 것”이라고 설명했다.   토스뱅크는 '등기변동알림'도 도입해 집주인의 재산상 정보 변동이 생길 때마다 토스앱을 통해 푸시 알림을 제공한다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집 혹은 살게 될 집에 변동사항이 생길 경우 알림이 제공되는 방식이다.     ■자녀 2명 이상이면 ‘다자녀 대출’ 적용    토스뱅크 전월세보증금 대출은 고객의 소득과 나이, 가족 구성원의 유무에 따라 일반·청년·다자녀특례로 구성됐다.   우선 인터넷은행 최초로 도입한 '다자녀 특례 대출'은 미성년 자녀수가 2명 이상인 고객이 대상이다. 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 가능하다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다.   일반 고객의 경우 누구나 신청할 수 있는 상품으로, 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 가능하다. 소득과 부채 비중 등은 적용된다. 금리는 최저 3.32%에서 최고 5.19%다.   청년의 경우 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90% 한도로 최대 2억원의 대출이 이뤄진다. 금리는 최저 3.42%, 최고 4.06%이다.     ■주담대 진출 시기는 미정...“‘공동대출’ 출시할 것” 이날 토스뱅크는 전월세보증금대출을 통해 20·30 청년들의 거주문제를 해결할 수 있다고 강조하면서도 주택담보대출 출시 시점에 대해서는 구체적인 답변을 피했다. 홍민택 토스뱅크 대표는 "20·30 청년의 거주 문제는 심각한 사회문제이고 전월세보증금대출은 이를 해결할 기회"라며 "주담대 시장은 진출해야 하는 시장이고 이미 많은 국민이 주택 구입 목적으로 대출받고 있다"며 "다만 구체적인 시기는 결정되지 않았고 전략적 가치와 시장 환경이 갖춰졌을 때 출시할 것"이라고 말했다.   이어 홍 대표는 "전월세보증금대출은 주담대와 달리 만기도 상대적으로 짧고 실제 거주의 목적에 맞춘 실수요에 집중된 상품"이라고 강조했다. 최근 금융당국이 가계대출 급증의 원인으로 인터넷은행의 주담대 확장을 꼽은 상황에서 전월세대출이 투자목적이 강한 주담대와 성격이 다르다는 입장을 공고히 한 것이다. 그러면서도 홍 대표는 “금융기관으로서 시장에서 우려하는 가계부채 증가 등을 면밀하게 보고 있고 대출실행 속도 등 종합적으로 고려하면서 진행할 것"이라고 말했다.   한편 홍대표는 향후 지방은행과 함께 상생하는 ‘공동대출’ 서비스를 출시할 예정이라고 밝혔다. 이어 환전·해외결제·송금 등 ‘외환 서비스’와 부모가 어린 자녀의 은행 계좌 및 출금서비스에 가입할 수 있도록 돕는 ‘아이 서비스’도 앱에서 100% 비대면으로 구현하기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023.09.09.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>'빅테크 공룡' 네카토 보험 비교·추천 곧 출범… 파장은?</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000947612?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[머니S리포트- 더 커진 ICT 공룡 '네카토' 공습③] 득일까? 실일까?… 복잡해진 셈법[편집자주]빅테크사들은 메기가 아닌 공룡이었다. 빅테크 네카토(네이버페이·카카오페이·토스)가 발톱을 꺼내 레거시금융(전통금융)을 할퀴고 있다. 빅테크 결제액이 급증세를 보이는 반면 기존 신용카드사 거래액은 감소세다. 빅테크들은 기술력과 편의성을 앞세워 보험에 이어 은행, 증권업계에서도 영토 확장에 여념이 없다. 빅테크에 기존 금융사들과 동일한 규제를 적용해야 한다는 목소리도 커지고 있다. 기울어진 운동장에선 공정 경쟁이 불가능하단 이유에서다.핀테크사들이 보험 비교추천서비스를 앞세워 보험시장에서 영향력을 행사할 전망이다./그래픽=이미지투데이 ◆기사 게재 순서①'○○페이'에 따라 잡힌다?… 카드업계 초비상②막내 토스 반란, 인터넷은행·증권 판도 흔든다③'빅테크 공룡' 네카토 보험 비교·추천 곧 출범… 파장은? ④20세기 금산분리, 은행 '이자장사' 비난 속에 공회전네이버와 카카오, 토스 등 빅테크사들이 내년 1월 온라인 보험 비교·추천 서비스를 앞세워 보험시장에서 영향력을 행사한다. 지난해 8월 제2차 금융규제혁신회의에서 금융위원회가 해당 서비스를 혁신금융서비스로 지정해 규제를 풀겠다고 밝힌 이후 10개월 만이다. 온라인 보험 비교·추천서비스는 금융소비자가 여러 보험사 상품을 비교하고 알고리즘으로 추천 받아 가입할 수 있는 시스템이다.  서비스 제공 주체인 빅테크업체의 입김이 거셀 수밖에 없는 구조다. 금융위원회도 온라인 보험 비교·추천서비스를 밀어주고 있다.   지난 7월19일 금융위는 정례회의를 열고 온라인 보험 비교·추천서비스를 혁신금융서비스로 신규 지정했다. 해당 서비스에는 네이버, 카카오, 토스, 뱅크샐러드, 에스케이플래닛, NHN페이코, 쿠콘, 핀다, 핀크, 해빗팩토리, 헥토데이터 등 11개 핀테크업체가 참여한다.  이 같은 온라인 보험 비교·추천서비스를 바라보는 시선은 엇갈린다. 소비자 입장에선 보험 가입 편의성·투명성이 높아지는 장점을 누릴 수 있다. 반면 보험사들 입장에서는 온라인 보험 비교·추천서비스를 통한 보험 가입자들이 늘어나면 중장기적으로 보험사들이 빅테크에 종속될 것으로 우려하고 있다.  ━ 빅테크 온라인 보험 비교·추천서비스, 보험다모아와 다른 점은?━올 하반기 보험권에서 이슈 중 하나는 빅테크업체의 온라인 보험 비교·추천서비스다. 여기에는 담보구성이 표준화돼 있고 온라인 판매 비중이 높은 단기보험(여행자·화재보험 등), 자동차보험, 실손보험, 저축성보험(연금제외), 펫보험, 신용보험 등이 담긴다.   그동안 보험권에서 다양한 보험상품을 비교하는 온라인 서비스가 없었던 건 아니다. 2015년 11월부터 손해·생명보험협회가 운영하는 보험다모아가 대표적이다. 보험다모아에서는 자동차보험 등 8개 범주의 보험상품 가격을 비교할 수 있다.   하지만 보험다모아는 소비자의 선택권 확대에 일조하지 못했다는 평가가 지배적이다. 보험다모아는 보험상품 비교 기준을 대부분 특정 연령·성별·직업으로 설정해 개인 맞춤형 보험 비교가 사실상 불가능했다.    보험사별 공통된 항목만 제공하는데다 개별 특약 반영도 불가해 사실상 서비스가 유명무실하다는 비판도 있었다. 반면 빅테크의 온라인 비교·추천 서비스를 시행하면 어떤 플랫폼에서든 자신의 조건에 최적화된 보험사의 상품을 추천받을 수 있게 된다. 온라인 보험 비교·추천 서비스에는 표준 API(Application Programming Interface)를 적용해 정보 통신 규격을 하나로 통일화했다.   API는 데이터 제공자와 플랫폼의 각 프로그램이 상호 통신하는 방법을 정의한 일종의 출입구 역할을 하는 문서다. 양사 간 통신규격이 통일된 방식이 표준 API, 고객 정보양식 등의 정보 전송방식이 각사별로 상이한 방식이 개별 API다.   표준API를 적용하면서 온라인 보험 비교·추천 서비스는 개별 보험사 특약도 제공할 수 있다. 이를 통해 플랫폼에서 정보 누락 없이 모든 보험사의 상품 비교·조회가 가능해지고 소비자 편익도 충분히 살린다는 주장이다.  보험사 입장에서도 자사 상품 판매를 늘릴 수 있는 기회로 활용할 수 있다. 특히 중소 보험사 위주로 빅테크의 서비스를 적극 활용할 가능성이 크다. 브랜드 인지도가 낮은 보험사들은 빅테크 플랫폼을 판매를 끌어올릴 계기로 삼을 수 있기 때문이다.  ━보험사들, 빅테크 경계하는 이유 ━다만 보험 비교·추천 서비스가 활성화 할 경우 빅테크들이 보험사에 과도한 수수료, 시책비 등을 요구해 결국 보험료 인상으로 이어질 것이란 우려도 있다.배달플랫폼 앱이 생기면서 음식값, 배달료 등 소비자 비용 부담이 커졌듯 보험 비교·추천 서비스 도입으로 빅테크에 지급하는 수수료 때문에 보험료가 오를 수 있다는 의미다.  보험사 자체 온라인 CM(다이렉트) 채널에서 판매된 상품은 수수료가 '0'원이다. 보험사 자체 홈페이지를 통해 금융소비자가 스스로 보험상품을 설계하고 가입하기 때문이다. 하지만 빅테크 플랫폼을 한 번 거치면 이에 따른 비교·추천 수수료로 5%를 부과한다.   이를테면 연간 자동차보험 시장 규모가 20조원인 점을 감안했을 때 연간 4000억원 가량이 수수료로 지급되는 것이다. 결국 보험사 입장에선 추가적인 비용을 부담하는 만큼 소비자에게는 가격 인상이 불가피하다는 지적이 나온다.  김동겸 보험연구원 연구위원은 "보험상품 비교·추천서비스가 CM(사이버마케팅) 채널 활성화에 영향을 미칠 가능성은 크다"라며 "다만 플랫폼사와 보험사가 제휴를 통해 비교·추천서비스를 제공하는 것이기 때문에 보험사의 참여정도나 전략에 따라 성패가 갈릴 수 있다"고 말했다.  한상용 금융연구원 연구위원은 "선택의 폭이 넓어진다는 점에서 소비자가 얻게될 혜택은 분명 존재한다"면서도 "보험사들의 수수료 부담이 결국 중장기적으론 소비자들의 보험료 부담으로 전가될 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>도전! 스마트폰으로 교통비 벌기</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003133542?sid=105</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>출처: 연합뉴스지난 8월 12일부터 서울 버스 기본 요금이 오르면서, 버스로 출퇴근하는 직장인들은 그야말로 ‘울상’을 짓고 있습니다. 서울 시내버스와 마을버스 기본요금은 300원씩 올라 각각 1500원과 1200원이 됐습니다. 광역버스 기본 요금은 무려 700원이나 오른 3000원이 됐고요.그야말로 “정말 월급 빼고 다 올랐다”는 푸념이 절로 나와요. 자연스럽게 많은 이들이 고물가 시대 속 소중한 ‘한 푼’을 모을 수 있는 앱에 주목하고 있습니다. ‘앱테크(앱 +재테크)’라는 분류로 따로 불릴 정도죠. 이런 앱은 각종 미션에 참여하면 현금성 포인트를 제공합니다. 대부분 10원~100원대의 포인트를 적립해주죠.그런데, 앱에 따라 꽤 오랜 시간을 들여야 하고 복잡한 질문에 답해야 하는 것도 많아요. 하지만 바쁜 현대인에 시간은 금입니다. 반복되는 일상 속에서 조금의 노력만으로 앱에서 포인트를 모은다면 하루 동안 얼마를 벌 수 있을지 궁금해졌습니다. 모든 걸 사용해볼 순 없으니 온라인에서 언급량이 많은 것을 위주로 추려봤어요. 그래서 선정한 앱은 모니모, 토스, 알뜰교통카드 앱, 캐시워크에요. 목표는 앱으로 퇴근할 때 교통비라도 벌어보는 겁니다.◆ 기상: 일찍 일어나는 새가 젤리 하나 더 받는다출처: 모니모 앱 캡쳐눈을 뜨기 힘든 아침 7시. 힘겹게 팔을 뻗어 시끄럽게 울리는 알람을 껐습니다. 이후 기상 미션에 참여하고자 ‘모니모’부터 켰어요. 모니모는 삼성이 만든 삼성통합금융앱인데요. 앱에서는 삼성생명, 삼성증권, 삼성카드, 삼성화재 등 삼성금융사의 거래현황과 상품 가입 서비스를 이용할 수 있어요. 또 토스처럼 계좌 송금과 개인 자산 관리 기능, 각종 미션을 통해 현금성 포인트를 얻는 기능도 있어 삼성금융판 ‘슈퍼앱’이라고 볼 수 있습니다.현금성 포인트를 얻으려면 앱 출석체크와 앱에서 제공하는 각종 챌린지와 이달의 미션을 수행하면 돼요. 저는 출석체크를 비롯해 기상챌린지와 걷기 챌린지에 참여하고 있는데요. 아침에 일어나 기상미션에 참여하려면 ‘더보기 ▷ 젤리 챌린지 ▷ 지금 진행 중인 챌린지’에 들어가 ‘기상 인증’을 누르면 됩니다. 동시에 혜택 ▷ 이벤트에서 출석 체크도 진행해 총 2개의 젤리를 받았습니다.모니모는 기상 챌린지는 오전 7시 30분까지 참여 가능하다. 가까스로 챌린지에 성공했다.젤리는 모니모에서 제공하는 포인트의 단위로, 이걸 현금으로 전환할 수 있어요. 현금으로 전환하면 보통 일반 젤리 1개당 10~20원 대의 금액이 랜덤으로 제공돼요. 저 역시 기상 미션으로 받은 젤리로 34원, 출석체크로 받은 젤리를 전환해 18원을 받았습니다.이달의 미션을 모두 성공하거나, 한 달 동안 빠짐없이 출석 체크를 하면 ‘스페셜 젤리’라는 걸 주는데요. 스페셜 젤리는 한 번에 몇 천원씩 주기 때문에 더 많은 돈을 모으고 싶다면, 모니모 미션에 꾸준히 참여하는 게 중요해요. 또 삼성생명, 삼성카드, 삼성증권, 삼성화재 등 삼성 금융 상품을 가입한 개수가 많을수록 젤리 교환 시 리워드 머니에 더 높은 가중치가 곱해져 현금으로 제공돼요. 제 경우엔 2개의 삼성 금융 상품을 가입해서, 기존 리워드 머니에 1.2배의 가중치를 곱해 현금으로 교환할 수 있었습니다.※ 중간 누적 금액: 52원◆ 출근길: 알뜰교통카드 마일리지 적립은 필수, 만보기는 여러 개출처: 알뜰교통카드 앱 캡쳐집을 나서면서 잊지 않고 해야 하는 것, 바로 알뜰교통카드 마일리지 적립을 위한 ‘출발’ 버튼을 누르는 겁니다. 사실 교통비가 오르기 전인 지난해부터 알뜰교통카드를 애용해왔는데요. 카드사마다 혜택은 상이하지만, 대게 알뜰교통카드는 청구 할인을 통해 10~15%의 교통비 절감 효과를 누릴 수 있습니다. 여기에 알뜰교통카드 마일리지 적립까지 한다면 경우에 따라 최대 30%까지 교통비를 아낄 수 있어요.알뜰교통카드 마일리지는 출퇴근 시 도보로 이용한 거리를 합산해 일정 금액을 현금으로 적립해주는 제도에요. 출발지에서 승차 정류소까지의 걷는 거리와 하차 정류장에서 도착지까지의 걷는 거리를 합산해 최대 800m까지 반영됩니다. 800m 미만을 걸었을 때는 거리에 비례해서 마일리지를 적립해줘요. 만 19~34세 청년은 우대 마일리지가 적립돼 마일리지를 더 많이 받을 수 있는데요. 이때, 사용한 대중교통비에 따라 2000원 미만일 때는 350원, 2000~3000원일 때는 500원, 3000원 이상일 때는 650원을 지급합니다.스마트폰 홈 화면에 알뜰교통카드 위젯을 설정해두면 출도착 버튼을 깜빡하지 않고 누르는 데 도움이 된다.집이 버스 정류장이 가까워서, 최대 금액을 받기 위해 한 정거장 더 걸어가서 탔습니다. 늦게 집을 나선 것만 아니라면 크게 어려운 일은 아닙니다. 건강도 챙길 수 있고요. 이후 회사에 도착해 알뜰 교통 카드 ‘도착’ 버튼을 눌렀어요. 바로 적립액이 확인되지 않는 단점이 있지만, 별 오류만 없다면 아마 350원이 적립될 거예요.걷는 동안 캐시워크와 토스 만보기도 걸음 수를 반영해 ‘열일’하고 있었는지, 회사에 도착하니 벌써 1000보가 넘었더라고요. 그래서 토스 1000보 보상액 10원, 캐시워크 1000~2000보 보상액 각각 13원, 15원(랜덤으로 제공됨)을 받았습니다. 모니모는 5000보부터 젤리를 주기 때문에 아직 받진 못했어요.※ 중간 누적 금액: 440원◆ 점심시간: 커피 한 잔의 여유 즐기며, 미션 참여하기토스 이번주 미션에 참여하고 받은 포인트다. 여기에 매일 참여할 수 있는 쿠팡 방문 미션까지 해서 총 230원을 받았다.점심을 먹고 무료한 오후. 이제 토스에서 제공하는 다양한 미션에 참여할 시간이에요. 토스는 ‘이번 주 미션’에 참여했습니다. 이번 주 미션에서는 대부분 앱을 처음 다운로드하는 이들에게 포인트를 주거나, 인스타그램, 유튜브를 팔로우하는 형식의 미션이 제공돼요. 이외에도 서비스 회원가입이나 계좌 개설 등의 미션도 있었는데, 개인 정보를 제공해야 하는 건 참여하지 않았어요.이번 주 미션 중 야놀자 앱 깔기 미션은 이미 사용 중인 앱이라 참여할 수 없었어요. 최초 사용자에게만 포인트를 지급하는 미션이었기 때문이에요. 이런 식으로 참여할 수 있는 걸 추리니, 참여 가능한 미션은 2개였어요. 여기에 별도로 매일 참여할 수 있는 쿠팡 방문하고 10원 받기 미션도 참여해 총 230원을 받았습니다.※ 중간 누적 금액: 670원◆ 퇴근길 ~ 퇴근 후 자기 전: 운동하며 만보 달성, 자기 전 퀴즈로 마무리정신 없이 걷다보니 캐시워크 10000보에 달성했다. 퇴근 때도 출근 때와 동일하게, 알뜰교통카드 앱을 사용해 마일리지 적립을 잊지 않았습니다. 최대 금액을 받기 위해 역시나 집과 가장 가까운 정류장에 내리지 않고, 일부러 한 정거장 먼저 내려서 조금 더 걸었어요. 이번에도 별문제가 없다면, 350원이 적립될 겁니다.※ 중간 누적 금액: 1020원모니모와 토스 만보기로 얻은 포인트.현재까지 누적액으로는 이제 마을버스도 타지 못해요. 그래서 원래 퇴근 후 걷기 운동을 하는 만큼 만보를 채워서 단 몇 십원이라도 받아보자 싶었습니다. 운동하고 나니, 10000보가 채워졌고 토스에서 5000보, 10000보 달성 보상 총 30원, 모니모에서 5000보 이상 달성해 젤리 1개를 받고 현금 21원으로 바꿨어요.캐시워크에서도 잊고 있던 3000보 달성 3차 출석 체크 버튼을 눌러 13포인트를 받았고, 10000보를 달성하니 보물상자 100개가 생겨 추가 포인트 100포인트를 적립했습니다. 하지만 여전히 누적 포인트는 1184원으로, 제 목표인 교통비까지 달성하지 못했죠.캐시워크에선 위와 같이 포인트를 제공하는 '돈 버는 퀴즈'를 진행한다.그래서 자기 전에 캐시워크 ‘돈 버는 퀴즈’와 ‘행운룰렛’에 참여했습니다. 캐시워크는 퀴즈가 너무 많다는 생각이 들 정도로 다양한 퀴즈에 참여할 수 있는데, 심지어 정답도 인터넷 기사로 제공됩니다. 그래서 생각보다 빠른 시간 안에 많은 퀴즈를 처리할 수 있어요. 결론적으로 돈 버는 퀴즈로 464포인트, 행운룰렛으로 추가 40포인트를 얻어 총 504포인트를 적립했습니다.※ 최종 누적 금액: 1688원이제 서울 시내버스 한 번 정도는 탈 수 있는 금액은 모았습니다. 긴 시간을 들인 것도 아니고 그저 일상 생활하면서 터치 몇 번만 했을 뿐인데, 돈이 쌓이니 뿌듯하더라고요. 바꿔 말하면, 평소 생활하면서 조금만 주의를 기울이면 그냥 얻어갈 수 있는 돈이 이만큼이나 된다는 겁니다. 자연스러운 내 일상이 소소한 보상으로 돌아오는 경험을 하고픈 분들이라면 크게 어려운 게 아니니, 지금부터 하나둘 챙겨보면 좋을 것 같습니다.테크플러스 이수현 기자 (tech-plus@naver.com)</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023.09.08.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>"MTS 먹통"…토스증권, 올해 전산 장애 '최다'</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012077871?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>토스·신한·카카오페이證 순[서울=뉴시스] 박은비 기자 = 매년 증권사 전산 오류 사고가 증가하고 있는 가운데 올해 가장 많은 장애가 발생한 곳은 토스증권인 것으로 나타났다.8일 김한규 더불어민주당 의원실이 금융감독원에 제출받은 증권사 홈트레이딩시스템(HTS)·모바일트레이딩시스템(MTS) 장애 건수에 따르면 국내 증권사 28곳에서 올해 1월부터 7월까지 전산 오류 사고가 총 55건 발생했다.연간 추이를 살펴보면 지난 2019년(48건), 2020년(49건), 2021년(60건), 지난해(68건) 등 해마다 증가 추세다.올해 들어 가장 많은 전산 오류가 발생한 증권사는 토스증권(9건)으로 지난해(14건)에 이어 장애 건수가 가장 많았다. 이에 고객들의 민원도 뒤따랐다. 토스증권 공시에 따르면 올해 상반기 동안 접수된 민원 19건 중 4건이 전산 장애 관련 민원이다. 나머지 15건은 매매, 상품 판매와 관련 없는 기타 민원으로 분류됐다.토스증권 다음은 신한투자증권(7건), 카카오페이증권(6건) 순이다. 이베스트투자증권(4건), 대신·미래에셋·한국투자증권(3건), DB·KB·SK·메리츠·삼성·키움·한화투자증권(2건), NH·다올·SI·유안타증권(1건)도 뒤를 이었다.다만 이번 집계는 전자금융감독규정 73조에 따라 금융사로부터 받은 장애보고를 기준으로 작성한 것으로 전산장비 과부하, 프로그램 오류 등 소비자 피해가 없는 경미한 단순장애도 포함됐다.같은 기간 BNK·IBK·부국·상상인·신영·유진·케이프·하이투자증권에서는 관련 사고가 1건도 발생하지 않은 것으로 조사됐다.토스증권 관계자는 "정보기술(IT) 인력 확충 등을 진행하고 있으며 올해부터 내년까지 시스템 안정화와 가용성 확보를 위한 투자가 이어질 것"이라며 "투자자들의 편의를 위해 최선을 다할 계획"이라고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>4%→2%, 금리에 박해진 인터넷은행…대출금리는 올리고, 예금금리는 낮추고[머니뭐니]</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002191882?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사 오피스 모습.[각 사 제공][헤럴드경제=김광우 기자] 최고 4%대까지 올랐던 인터넷은행들의 파킹통장 금리가 2%대로 털썩 주저앉았다. 주택담보대출의 금리 매력도도 떨어지면서 인터넷은행들이 여·수신 분야 모두에서 경쟁력이 악화되고 있다. 올 상반기 준수한 이익을 달성했던 인터넷은행들이 하반기에는 이같은 실적 상승세를 유지할 수 없을 거라는 전망이 나오는 이유다.최고 4%였던 파킹통장 금리 2%로 하락…수신 성장세 ‘주춤’3일 금융권에 따르면 1일 기준 카카오뱅크·케이뱅크·토스뱅크 등 인터넷전문은행 3사의 파킹통장 금리는 각각 연 2.1%, 2.3%, 2.0% 등으로 집계됐다. 이는 최대 4% 수준에 달했던 지난해 말과 비교해 크게 떨어진 수치다. 인터넷은행들은 지난해 하반기부터 파킹통장 상품의 금리 경쟁력을 강화하며 수신고 확보에 주력해왔다.서울 한 저축은행의 예금 안내문 앞을 시민이 지나가고 있다.[연합]예컨대 지난해 12월 토스뱅크는 파킹통장 ‘토스뱅크 통장’의 최고금리를 연 4%로 설정한 바 있다. 5000만원 아래로는 연 2.3% 금리를 제공했지만, 5000만원 이상 금액에 대해서는 연 4% 금리를 적용했다. 케이뱅크 또한 지난해 12월 파킹통장 ‘플러스박스’ 금리를 연 3%까지 인상했다.하지만 올해 들어 채권금리 안정화와 함께 파킹통장 금리도 줄곧 하락세를 나타냈다. 2분기 들어 다시금 시장금리가 상승세로 돌아섰지만, 인터넷은행들은 꾸준히 파킹통장 금리를 인하했다. 이는 1분기 큰 규모의 이자비용을 투입해 수신잔액을 쌓은 은행들이 서서히 속도 조절에 나선 영향이다. 금융권 관계자는 “경쟁이 치열해지고 이자비용이 늘어나면, 수익성을 좌우하는 대출금리 산정에도 영향을 미칠 수밖에 없다 보니 불가피한 선택을 한 것”이라고 말했다.서울 한 거리에 주요 시중은행의 ATM기기가 설치돼 있다.[연합]여기다 저축은행들이 잇따라 파킹통장 금리를 인상함에 따라 인터넷은행의 입지가 좁아진 측면도 있다. 올 2분기 유동성 확보 필요성이 커진 저축은행들은 수신금리를 인상하며 자금 확보에 나섰다. OK저축은행과 다올저축은행 등에서는 최고 4%의 파킹통장 금리를 제공하고 있다.이에 따라 인터넷은행의 수신 성장세는 급격히 하락했다. 올 2분기 말 기준 인터넷은행의 수신 잔액은 82조4700억원으로 전분기(78조8000억원)와 비교해 3조6700억원 증가했다. 이는 지난 1분기 증가폭(17조3000억원)과 비교해 5분의1 수준으로 떨어진 수치다. 심지어 토스뱅크의 2분기 말 기준 수신잔액은 21조5000억원으로 전분기(22조원)와 비교해 5000억원가량 줄었다.3%대 주담대 사라지고 대출 문턱도 높아져서울 한 시중은행의 대출 안내문 앞을 시민이 지나가고 있다.[연합]아울러 인터넷은행의 1분기 실적 성장을 주도했던 요인인 대출금리 매력도는 점차 하락하고 있다. 최저 3%대 중반까지 내려갔던 인터넷은행의 주담대 고정금리는 지난달 들어 일제히 4%대로 올라섰다. 준거금리로 활용되는 은행채 금리가 지난달 최고 4.4%대까지 상승한 영향이다.사정이 이렇다 보니 주요 시중은행들에도 금리 매력도가 뒤지고 있다. 이날 기준 5대 은행의 고정형 주담대 최저금리는 아직 3% 후반대에 머물러 있다. 여기다 가계대출 확대를 막으려는 금융당국의 움직임도 여신 성장세에 걸림돌로 작용했다. 실제 당국이 인터넷은행 비대면 주담대를 가계부채 급증 원인 중 하나로 지적한 뒤, 카카오뱅크는 주담대 대상자 조건을 무주택 세대로 제한하는 등 대출 문턱을 높였다.인터넷은행, “서비스 다각화로 돌파구 찾을 것”서울 한 시중은행 앞을 시민이 지나가고 있다.[연합]올 상반기 인터넷은행 3사는 전년 동기(452억원)와 비교해 4배가량 늘어난 1705억원의 순이익을 거두는 등 실적 ‘고공행진’을 기록했다. 적자폭을 이어오던 토스뱅크는 분기 기준 최초의 흑자 전환을 전망하기도 했다. 하지만 여·수신 모두에서 성장세 둔화 신호가 나타나며, 인터넷은행의 하반기 실적에도 ‘비상등’이 켜졌다.다만 인터넷은행들은 당국에서 요구하는 중저신용자 대출 등 역할에 집중하면서도, 서비스 다각화 전략을 통해 호실적을 유지할 수 있다는 입장이다. 실제 최근 인터넷은행들은 각종 모임 내 비용 관리를 위해 개설할 수 있는 ‘모임통장’ 등 수신 상품을 개발하며 고객 확보에 주력하고 있다. 여신 영역도 확대된다. 케이뱅크는 하반기 오토론(자동차담보대출) 출시를 기획하고 있으며, 토스뱅크도 이달 전월세담보대출 출시를 기획 중이다.인터넷은행 관계자는 “최근 인터넷은행들의 파킹통장 금리가 다소 인하됐지만, 고객수는 꾸준히 늘고 있다”며 “특히 하반기 여신성장에 대한 우려가 많지만, 시중은행들과 차별화된 서비스를 제공하는 등 발전하고 있기 때문에 실적 유지 또한 큰 문제가 없을 거라고 보고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[오!머니] 토스 '만보기' 개편된다고?… 혜택 변화 따져보니</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000948336?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>사진=이미지투데이 대표적 앱테크 서비스 토스의 '만보기 서비스'가 개편된다. 토스는 내일(14일)부터 일부 사용자들에게 달라진 서비스를 순차적으로 적용한 뒤 오는 10월 중 전체 사용자에게 선보일 예정이다.2019년 7월 출시된 토스 만보기는 사용자 휴대폰에서 측정된 걸음수와 위치 정보를 통해 걷기 보상 혜택을 얻을 수 있는 서비스다. 1000걸음, 5000걸음을 완료하면 각각 10원씩 얻을 수 있으며 1만보를 걸으면 20원을 얹어주는 식으로 토스에서 지정하는 장소에 가면 하루 최대 140원까지 모을 수 있다.거금은 아니지만 '짠테크(아끼는 의미의 '짠'과 '재테크'의 합성어)'족들의 지지를 얻으며 지난해 누적 사용자 400만명을 돌파하기도 했다. 토스를 '국민 앱'으로 키운 핵심 서비스기도 하다.개편되는 토스 만보기 서비스./사진=토스 앱 캡처 토스는 '서비스 수혜 고객 범위 확대', '동기부여 요소 강화'에 집중해 만보기 서비스를 개편했다는 설명이다.이 일환으로 2021년 9월 선보인 '방문 미션' 기능도 없앴다. 편의점, 드러그스토어 등 토스가 지정한 특정 장소에 사용자가 방문할 경우 포인트를 얹어 주는 기능이지만 도서 산간 지역에 거주해 미션 수행에 어려움을 겪는다는 사용자 목소리를 반영했다.토스 관계자는 "일부 지역에서 방문 미션을 전혀 수행할 수 없다는 고객의 목소리를 적극 반영해 더 이상 유지 하지 않기로 결정했다"며 "이를 통해 도서 산간이나 해외 등에서도 토스의 만보기 서비스 혜택을 받을 수 있는 고객의 범위가 더욱 확대될 것으로 기대한다"고 말했다.포인트를 받는 방법도 달라진다. 기존엔 1000걸음에 10원, 5000걸음에 10원 등 정해진 걸음수에 따라 포인트를 얻을 수 있었지만 앞으로는 토스가 제시하는 목표 걸음수를 도달할 경우 포인트가 제공된다. 걸을수를 채우면 깃발이 나오고 깃발을 누르면 포인트를 받는 식이다. 포인트는 랜덤으로 제공된다.사용자가 포인트를 얻는 기회를 더 늘렸다는 게 토스의 설명이다. 기존엔 하루 최대 3번 포인트를 얻을 수 있었지만 총 7번으로 확대했으며 포인트를 받을 수 있는 하루 최대 걸음수 역시 1만보에서 2만보로 변경된다. 이에 따라 사용자가 하루에 얻을 수 있는 최대 리워드는 현재 140원에서 개편 후 1000원으로 상향된다.이외에도 현재 '만보기' 메뉴에서 '현재 걸음수'를 눌러야만 확인할 수 있는 '걸음수 분석' 서비스는 만보기 화면 앞으로 배치된다.토스 관계자는 "고객이 만보기를 통해 건강해지는 즐거움을 얻는 것에 착안해 단순한 걸음수보다는 더 동기부여 받고 건강해질 수 있는 방안을 강구했다"고 말했다.사진=토스 앱 캡처</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>대출 증가 속 국내은행 2분기 BIS 자본비율 개선</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003852075?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>올해 2분기 국내은행의 국제결제은행(BIS) 기준 자기자본비율 수치가 개선된 것으로 나타났다. BIS 자기자본비율은 은행의 건전성을 측정하는 지표로, 국내은행들은 2분기 자본 증가분이 대출 증가분보다 많아지면서 이런 결과를 냈다.         서울 여의도 금융감독원 모습. 뉴스1    4일 금융감독원이 발표한 ‘2023년 6월 말 은행지주회사와 은행 BIS 기준 자기자본비율 현황’에 따르면 국내은행 총자본비율은 15.62%로 1분기(15.61%)보다 0.01%포인트 상승했다. 같은 기간 보통주자본비율은 12.9%에서 12.98%로 0.08%포인트, 기본자본비율은 14.26%에서 14.27%로 0.01%포인트 상승했다. 자기자본비율은 은행의 자기자본을 대출이나 지급보증과 같은 위험자산으로 나눈 비율이다. 비율이 낮을수록 자본이 취약한 은행인 셈이다. 금감원은 대출증가 등으로 위험가중자산이 1.7% 늘어났지만, 분기순이익 시현, 후순위채 발행 등으로 자본도 1.8% 늘어나면서 자본비율이 소폭 상승했다고 설명했다.     금융당국은 은행권에 BIS 총자본비율을 13% 이상 유지하라고 권고한다. 6월말 현재 모든 국내은행이 규제비율을 상회한 것으로 나타났다. 토스뱅크(12.76%)는 올해까지는 규제 수준이 낮은 바젤Ⅰ을 적용받아 완충 자본, 단순기본자본비율 규제가 적용되지 않는다. 총자본 증가율이 위험가중자산 증가율을 웃돈 5개 은행·은행 지주(씨티·산업·수출입·KB·DGB)는 전 분기 말 대비 총자본비율이 상승했다. 반면 모든 인터넷은행(카카오·토스·케이)를 포함해 12개 은행은 (수협·SC제일·JB·BNK·우리·IBK기업·하나·신한·NH농협)은 총자본비율이 하락했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>오마카세·호캉스 즐기는 MZ…50만원도 못 갚고 있다</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005314399?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>인터넷전문銀 비상금 대출 연체 200억연체액 중 70%는 2030세대가 빌려가금리 인상으로 연체금은 계속 증가 중인터넷전문은행의 비상금대출 연체금이 200억원에 달하는 것으로 나타났으며, 이 금액의 70%는 20·30세대가 대출한 것으로 집계됐다.14일 국회 정무위원회 소속 윤영덕 더불어민주당 의원이 카카오뱅크·토스뱅크·케이뱅크 등 인터넷 은행 3개 사로부터 받은 자료에 따르면 지난달 기준 인터넷 은행 3사의 비상금대출 연체 잔액은 200억원이었다. 연체 잔액 가운데 69.9%(139억원)를 20·30세대가 빌려 간 것으로 나타났다.문제가 되는 것은 최근 금리 인상으로 인해 연체금이 증가하고 있다는 점이다.2020년부터 비상금 대출을 판매한 카카오뱅크는 3년 만에 연체액이 25억원에서 175억원으로 7배 가까이 증가했다. 토스뱅크와 케이뱅크의 비상금대출 연체액은 각각 12억원, 13억원이다.[이미지출처=연합뉴스]지난해 말 연체액이 카카오뱅크 98억 8800만원, 케이뱅크 5억 4700만원, 토스뱅크 4억 8800만원이었던 점을 고려하면 8개월 사이 두 배 가까이 많아진 셈이다.연령별로 보면 20·30세대가 모두 절반 이상을 차지했다. 카카오뱅크 175억원 중 123억원(71%), 토스뱅크 12억원 중 8억 5500만원(71%), 케이뱅크 13억원 중 7억 8200만원(60%) 등이다.인터넷은행 3사의 비상금대출 전체 잔액은 2조 6603원이었다. 이 가운데 카카오뱅크의 비율이 86.7%(2조 3069억원)로 가장 높았다. 토스뱅크와 케이뱅크의 잔액은 각각 1908억원, 1625억원이었다.인터넷은행은 50만원에서 300만원까지 빌릴 수 있는 비상금대출 상품을 취급하고 있다. 서울보증보험을 통한 일종의 보증 보험 방식이기 때문에 이 보증서를 받을 수 있는 개인은 대출을 받을 수 있다. 대출 문턱이 낮은 만큼 20·30세대, 주부 등 신용 이력이 적은 신 파일러들이 주로 찾는다. 또 인터넷은행의 공격적인 마케팅과 더불어 손쉽게 이용할 수 있는 점 때문에 비상금대출을 찾는 고객은 계속 증가하고 있다.비상금대출은 서류 제출과 심사를 간단히 하는 방식으로 대출을 집행하다 보니 비상금대출 금리는 높은 편이다. 13일 기준 금리는 카카오뱅크 연 4.795~15.00%, 토스뱅크 연 6.24~15.00%, 케이뱅크 연 6.01~15.00%이다. 추가로 연체한 경우 대출한 금리에 3%가 더 붙는다.윤 의원은 "손쉬운 대출에 사회 초년생들의 연체가 증가하고 있어 이에 대한 경각심이 필요하다"면서도 "한편으로는 고금리·고물가에 경기침체까지 우려되는 만큼 정부 차원에서 정교하고 선별적인 금융지원정책이 필요하다"라고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>인뱅 전월세대출 경쟁 불붙었다… 3% 금리에 최대 5억, 반환보증 서비스까지</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000929646?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>토뱅, 전월세보증금대출 시장 진출카뱅·케뱅도 5억 한도·고정금리 등 차별화시중은행 대비 낮은 금리 제공인터넷전문은행, 보증대출 늘려 건전성↑그래픽=손민균        토스뱅크가 인터넷전문은행 중 마지막으로 전월세보증금대출 상품을 내놓으면서 인터넷전문은행의 전월세대출 경쟁에 불이 붙었다. 인터넷전문은행은 전월세대출 시장에 진출해 여신 포트폴리오를 강화하고 건전성 관리에 나서겠다는 전략을 세웠다.6일 은행권에 따르면 토스뱅크는 전날 한국주택금융공사(HF)의 보증을 활용한 전월세보증금대출을 출시한다고 밝혔다. 앞서 인터넷전문은행 중 전월세대출을 가장 먼저 출시한 곳은 카카오뱅크다. 카카오뱅크는 지난 2018년 HF의 보증을 활용한 전월세보증금대출 상품을 출시했다. 이어 케이뱅크는 지난 2021년 HF 보증을 활용한 전세대출 상품을 출시했다.인터넷전문은행 3사(카카오·케이·토스) 전월세대출은 크게 ▲일반 ▲청년으로 구성됐다. 일반의 경우 임차보증금의 80~88% 한도로 최대 2억2200만원의 대출이 이루어진다. 청년의 경우 임차보증금의 90% 한도로 최대 2억원의 대출이 나온다. 대출금리의 경우 지난 5일 기준 ▲카카오뱅크 일반 3.36~4.38%, 청년 3.69~4.21% ▲케이뱅크 일반 3.67~6.48%, 청년 3.66~4.17% ▲토스뱅크 일반 3.32~5.19%, 청년 3.42~4.06%다.토스뱅크 전월세대출 특징은 은행권 최초 다자녀 특례 대출을 도입한 점이다. 다자녀 특례 대출은 미성년 자녀 수가 2명 이상인 고객이 대상이다. 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 나온다. 다자녀 특례 대출 대상은 소득이나 부채 수준과 무관하게 대출 한도와 보증료 우대를 받을 수 있다. 대출금리는 일반과 같은 3.32~5.19%다.아울러 토스뱅크는 전세지킴보증 서비스를 통해 고객의 편의성을 높였다. 고객은 전월세보증금대출을 받은 후 토스뱅크 애플리케이션(앱) 내에서 전세보증금반환보증을 한 번에 신청할 수 있다. 따로 보증기관에 보증금반환보금을 신청하는 번거로움을 없앴다. 보증료 역시 저렴하다. 그간 고객은 수십만원에 달하는 보증료를 부담해야 했지만 토스뱅크는 HF와 함께 최저 연 0.02~0.04%의 보증료를 적용해 비용을 최소화했다.카카오뱅크 전월세대출 특징은 대출한도가 최대 5억원이라는 점이다. 카카오뱅크는 지난 7월 SGI전월세보증금 대출을 출시했다. 이 상품은 전월세보증금의 최대 80% 한도 이내에서 최대 5억원까지 대출이 가능하다. 대출금리는 전날 기준 3.65~4.92%다.케이뱅크 전세대출은 고정금리를 취급하고 있는 것이 특징이다. 최근 금융 당국은 가계부채 관리를 위해 정책적으로 고정금리 대출을 장려해 은행권에서 고정금리를 낮게 책정하고 있다. 고정금리 대출 상품은 금리 인상기 차주(돈 빌린 사람)의 이자 부담을 낮추는 효과가 있다. 실제 케이뱅크 전세대출 금리는 기준금리 3.91%에 가산금리는 0.02%가 더해져 3.93% 수준이다.일러스트=손민균        최근 인터넷전문은행이 전월세대출 시장에 진출하는 데는 여신 포트폴리오를 다각화와 건전성을 관리하기 위해서다. 인터넷전문은행은 신용대출 규모를 늘리면 그만큼 중·저신용자들에게 신용대출을 더 많이 내줘야 한다. 한해 중·저신용자 비중 목표치가 정해져 있기 때문이다. 그러나 중·저신용자 대출이 증가하면 그만큼 부실채권도 늘어나 연체율이 높아져 건전성이 악화한다.그러나 전월세대출과 같은 보증금대출은 HF, SGI 등 보증기관이 대출을 보증하는 만큼 발급한 보증서를 통해 대출금을 회수할 수 있어 리스크 관리가 쉽다. 이 때문에 신용대출에 비해 상대적으로 안정적인 대출로 평가된다.인터넷전문은행은 금리 경쟁력을 무기로 전세대출 시장에서도 영업을 확대할 것으로 보인다. 대출금리는 기준금리에 은행별 가산금리가 더해져 정해지는데 인터넷전문은행은 비대면으로만 영업하는 만큼 판관비를 아껴 가산금리를 낮출 수 있기 때문이다. 실제 전날 기준 4대 시중은행(KB국민·신한·하나·우리)의 변동형 전세대출 평균 금리가 3.84~5.36%인 것과 비교하면 인터넷전문은행이 취급하는 전월세대출 금리 하단이 0.52%포인트 낮다.한 인터넷전문은행 관계자는 “인터넷전문은행은 비대면으로 영업하는 만큼 비용 절감을 통해 시중은행보다 금리 경쟁력을 가지고 전월세대출 고객 확보에 나설 것으로 보인다”며 “신용대출 부실화에 따른 위험을 줄이고 여신 포트폴리오를 다각화하기 위해 하반기에는 인터넷전문은행이 전월세대출 신규 고객 확보에 적극적으로 나설 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>300만원 비상금대출 받은 청년층, 연체 급증… 카카오뱅크 7배 급증</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000948905?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>사진=카카오뱅크 2030세대들이 많이 이용하는 인터넷전문은행의 비상금대출이 고금리로 연체가 급증해 관리가 필요하다는 지적이 나왔다.14일 국회 정무위원회 소속 윤영덕 더불어민주당 국회의원이 인터넷은행 3사에서 받은 통계에 따르면 카카오뱅크의 연체금액은 2020년 25억원에서 올 8월 말 175억원으로 급증했다. 3년여만에 약 7배 급증한 것이다.같은 기간 ▲토스뱅크 12억원 ▲케이뱅크 13억원으로 집계됐다. 이로써 인터넷은행 3곳의 누적 연체금액은 200억원을 넘겼다.연령별로 보면 20~30대가 차지하는 비율이 절반을 넘어섰다. 카카오뱅크 175억원 중 123억원(71%), 토스뱅크 12억원 중 8억5500만원(71%), 케이뱅크 13억원 중 7억8200만원(60%) 등으로 나타났다.인터넷은행은 비상금대출 한도를 50만원에서 300만원까지 매기고 있다. 서울보증보험을 통한 일종의 보증 보험 방식인 만큼 이 보증서를 받을 수 있는 개인이 대출을 받을 수 있다.은행들은 신용등급(CB) 1~6등급을 대상으로 비상금 대출을 내주고 있으며 대출 방식은 마이너스통장(한도 대출)이다. 서류 제출과 심사가 간단하다보니 비상금대출의 최고금리는 연 15%에 달해 높은 편이다. 윤 의원은 "손쉬운 대출에 사회 초년생들의 연체가 증가하고 있어 대출에 대한 경각심이 필요하다"며 "고금리, 고물가에 경기침체까지 우려되는 만큼 정부 차원에서 정교하고 선별적인 금융지원정책이 필요하다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>내비 PM 숙박 레저… 티맵-카카오모빌리티 등 ‘슈퍼앱’ 승부수</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003520796?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>내비 1위 티맵 상반기 380억 순손실주력분야 대표 사업자도 적자 허덕“한 플랫폼서 모든 이동 관련 서비스”슈퍼앱 전략으로 수익창출 꾀해국내 대표 모빌리티 플랫폼들이 점차 ‘슈퍼앱’이 되고 있다. 내비게이션, 택시 호출, 차량 공유 등 각기 다른 서비스로 사업을 시작한 이들 기업이 수익성 확대를 위해 대중교통 및 개인 이동수단(PM) 안내 등으로 서비스를 확대하고 있는 것이다.  14일 모빌리티 플랫폼 업계에 따르면 최근 가입자 2000만 명을 돌파한 내비게이션 1위 기업 티맵모빌리티는 올해 상반기(1∼6월) 380억 원의 순손실을 냈다. 지난해 연간 순손실도 1608억 원이었다. 3300만 명이 가입한 1위 택시호출 플랫폼 카카오모빌리티도 지난해 연간 순손실 277억 원을 보인 데 이어 올 상반기도 225억 원의 순손실을 기록했다. 국내 대표 모빌리티 플랫폼들이 각각 주력 시장에서 1위 사업자로 올라선 뒤에도 이익을 내는 데 어려움을 겪고 있는 것이다.  손실 원인 중 하나는 기존 업계와의 갈등 해소 실패다. 대표적으로 카카오모빌리티는 인공지능(AI) 배차 시스템인 ‘스마트호출’의 호출료를 인상하려다 택시 업계의 반발에 부딪히면서 2021년 폐지했다. 현재 카카오모빌리티 앱 ‘카카오 T’의 택시 호출 가운데 무료 서비스인 일반 호출 비중이 약 90%이기 때문에 회사 수익은 미미하다. 게다가 택시 배차 알고리즘을 조작해 가맹 택시에 호출을 몰아줬다는 의혹이 제기되면서 올해 2월에는 공정거래위원회로부터 271억 원의 과징금 부과 조치를 받은 바 있다.  티맵모빌리티는 2002년 SK텔레콤에서 ‘네이트 드라이브’로 내비게이션 서비스를 제공하기 시작할 때부터 무료로 서비스를 제공해 왔다. 광고, 데이터 관련 사업, 차량 내장 내비게이션 사업 등으로 수익화를 시도했지만 계속해서 적자를 기록해 왔다. 그나마 쏘카는 이른바 ‘타다 사태’를 겪은 뒤 타다 운영사이자 쏘카의 자회사였던 VCNC의 지분 60%를 2021년 10월 비바리퍼블리카(토스)에 매각하면서 실적을 개선해 나갔다.  결국 기존 서비스로 수익 창출에 한계를 경험한 모빌리티 플랫폼들은 하나의 플랫폼 안에서 이동에 필요한 모든 서비스를 제공하는 슈퍼앱 전략으로 수익화를 꾀하고 있다. 이미 카카오모빌리티는 대리운전, 내비게이션, 주차, 전기자전거, 킥보드, 기차, 항공 등의 서비스를 적극적으로 연계해 제공하고 있다. 쏘카도 매출의 90%가 카셰어링에서 나오고 있는 가운데 숙박을 연계하는 ‘쏘카스테이’, KTX 예약 등의 서비스를 통해 새로운 수익을 만들어낸다는 계획이다.  최근 티맵모빌리티도 ‘올 뉴 티맵 10.0’을 공개하고 길 안내, 주차, 대리 등 운전자에게 맞췄던 기존 서비스에 대중교통, 공항버스 예약 서비스 등의 기능을 추가했다. 다음 달에는 공유 자전거 서비스를 추가하고, 그동안 축적한 티맵 데이터를 바탕으로 올해 안에 목적지 부근 숙박업소나 레저 활동 정보 제공 및 예약 기능도 도입할 예정이다.  정보기술(IT) 업계 관계자는 “해외 모빌리티 플랫폼이 그렇듯 슈퍼앱으로 자리매김하려는 것은 보편적인 흐름”이라면서도 “서비스를 어떻게 고도화해서 끊김 없는 이동을 만들어내는지가 관건일 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전월세 대출 출시…'다자녀특례', 전세보증보험도 원스톱 가입</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004934085?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>토스뱅크가 전월세보증금 대출을 선보인다고 5일 밝혔다. 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입했다. 토스뱅크의 전월세보증금대출 한도는 최대 2억2200만원(청년 2억원)이다. 아울러 '토스뱅크 케어(Toss Bank Care)'를 도입했다. 토스뱅크 케어는 '전세지킴보증' '등기변동알림' '다자녀 특례 대출' 등 총 3가지로 구성됐다.━전세지킴보증도 원스톱으로 가능하게…보증금 2억 원의 보증료 8만 원에 불과━토스뱅크 케어 첫번째는 '전세지킴보증'이다. 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 함께 가입 신청할 수 있도록 했다. 반환보증은 전세계약 종료시 임대인이 정당한 사유없이 임차인에게 전세보증금 반환하지 않는 경우, 보증기관이 대신 임차인에게 보증금을 지급하는 상품이다.토스뱅크는 주택금융공사(HF)와 손잡고 전세지킴보증을 도입했다. 고객의 혜택을 높이면서, 동시에 보증료를 절감해 고객 부담을 덜었다. HF와 함께 최저 연 0.02~0.04%의 보증료를 적용했다. 동시에 보증대상은 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초로 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 기존 비대면 반환보증이 시세의 명확성을 이유로 아파트, 오피스텔 등 집합건물에만 적용됐던 것에서 나아가 토스뱅크는 고객들의 '내가 살게 될 집'을 선택할 기회를 한층 넓혔다.올 연말까지 전세지킴보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. 가령 보증금이 2억원인 고객이 부담해야 할 보증료는 최저 8만원 수준인데, 고객들은 프로모션 기간에 무료로 가입할 수 있다. ━인터넷은행 최초 '다자녀 특례' 대출 선보여…일반, 청년, 다자녀특례 등 맞춤형 대출 가능━토스뱅크 케어의 두번째는 '다자녀 특례 대출'이다. 인터넷은행 최초로 시행하는 다자녀 특례 대출은 미성년 자녀 수가 2명 이상인 고객이 대상이다. 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다는 것이 특징이다.토스뱅크 전월세보증금대출은 △다자녀 특례 외에 △일반 △청년으로 구성되며, 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다. 일반은 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88% 한도로, 최대 2억2200만 원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다.청년의 경우, 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90% 한도로, 최대 2억원의 대출이 이뤄진다.━등기변동알림으로 불안의 원인이었던 정보의 불투명성 사라져━마지막 토스뱅크 케어는 '등기변동알림'이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 제공하는 서비스다. 집주인과의 계약이 체결된 이후 내가 사는 집에, 혹은 살게 될 집에 변동사항이 생기면 고객에게 알림이 간다.그동안 세입자들을 불안에 떨게 했던 정보의 '불투명성'을 해소하겠다는 의도다. 임차인이 모르는 사이 집주인이 바뀌거나, 집에 가압류가 들어오는 등 집에 등기상 변동은 발생할 수 있지만, 임차인이 직접 등기부등본을 열람하지 않으면 알 수 없다.이 같은 변동을 수시로 알려줌으로써 정보에 대한 투명성을 높인다는 것이다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기부등본을 이미지로도 제공한다.모든 서비스는 토스뱅크가 부동산 권리 조사 서비스 기업인 '(주)리파인'과 함께 무료로 제공한다.토스뱅크 관계자는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다"며 "'첫 독립을 위한 보금자리' '첫 신혼집' '사회에 첫 발을 내딛은 공간' 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>[머니S포토] 전월세자금 대출 출시한 토스뱅크</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000946663?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표이사가 5일 오전 서울 영등포구 여의도동 콘래드 서울에서 열린 토스뱅크 전월세자금 대출 기자간담회에서 상품설명을 하고 있다.토스뱅크 전월세보증금대출은 ▲일반 ▲청년 ▲다자녀특례로 구성됐다. 고객들은 최대 2억2200만 원까지 대출을 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>카뱅 '50년 만기' 주담보, DSR 40년 제한…주담대 속도조절</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003135988?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>카카오뱅크카카오뱅크가 50년 만기 주택담보대출을 최장 40년으로 제한한다. 금융당국 압박에 인터넷뱅크 주담대 사업 확장에 제동이 걸렸다.카카오뱅크에 따르면 이 회사는 13일 신청 건부터 주담대 총부채원리금상환비율(DSR) 산정시 대출기간을 최장 40년으로 제한한다.앞서 금융당국은 13일 50년 만기 주담대 경우 만기는 유지하되 DSR 산정시 만기 40년을 적용해 대출한도를 늘리지 못하는 지침을 은행에 전달했다. 다만, 개별 차주별로 상환능력이 명백히 입증되는 경우에는 50년 만기를 적용할 수 있게 열어뒀는데, 카카오뱅크는 이번 조치에서 아예 40년 이상 산정이 불가능하도록 더 수위가 높은 기준를 적용했다.카카오뱅크는 8월 초부터 인뱅 중 유일하게 50년 만기 주담대를 취급했다. 이후 금융당국이 주담대 증가에 대한 경고음을 계속 내자 8월 말, 만 34세 미만만 50년 만기 상품에 가입할 수 있도록 기준을 바꿨다. 이어 세대합산 기준 2주택 세대까지 허용하던 주택구입자금 주택담보대출 대상을 무주택자로 제한하는 등 연속해서 허들을 높였지만 결국 한달만에 50년 만기 조건을 철회했다. 카카오뱅크는 50년 만기만 폐지하고 만 34세, 무주택 등 나머지 조건은 유지할 예정으로 이 회사 주담대 문턱은 한달 전에 비해 꽤 높아진 셈이다.금융당국은 최근 주담대 성장세가 심상치 않은 이유로 인뱅의 공격적인 영업을 지목했다. 금융감독원은 이달 7일부터 14일까지 카카오뱅크와 케이뱅크 가계대출 현장점검에 나서는 등 압박 수위를 높이고 있다.카카오뱅크가 50년 만기 주담대를 접으며 인뱅의 수익확장 전략은 속도조절이 불가피 할 것으로 보인다. 케이뱅크는 여전히 40년 만기 주담대를, 토스뱅크는 전·월세 대출만 취급 중이다.올 연말까지 신용대출에서 30%(카카오뱅크)~44%(토스뱅크)중저신용자 비중을 맞춰야 하는 인뱅들은 고신용자와 담보가 포진한 주담대를 늘려 건정성을 확보할 계획이었지만 차질이 예상된다. 카카오뱅크는 50년 만기 주담대를 삭제하는 동시에 '전·월세보증금 대출 갈아타기'를 내놓는 등 자구책 마련에 고심하고 있다.금융권과 국회를 종합하면 국내 전체 주담대 잔액 중 인뱅이 차지하는 비율은 2% 남짓에 상당수가 기존 금융권에 빌린 고금리 상품을 갈아타는 대환대출이다. 인뱅 관계자는 “금융당국에서 경고음을 계속내고 있어 더 이상 확장은 어려운 상황”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>[신년사 ZOOM인] 케이뱅크, 성장세 ‘주춤’…타개책 IPO 될까?</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000976824?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>서호성 케이뱅크 은행장. 사진|케이뱅크기업들은 해가 바뀌면서 신년사를 통해 한 해 목표를 세우고 변화를 약속한다. 하지만 이러한 목표와 약속들은 기업 수장들의 변화, 산업 현황, 글로벌 경제상황에 따라 궤를 달리하고 있다. 스포츠서울에서는 신년사를 통해 밝힌 기업들의 한해를 조명하고, 변화를 짚어보고자 한다. 먼저 2023년 상반기 금융사 수장들은 정한 목표와 수행성과는 어떻게 진행되고 있는지 찾아봤다. -편집자주-[스포츠서울 | 홍성효기자] 인터넷전문은행 1호, 선두주자라고 일컬어지던 케이뱅크가 이제는 정체기에 접어들어 성장성마저 우려된다는 평가다. 출범한지 3년차, 케이뱅크는 올해 서호성 케이뱅크 은행장을 통해  △신속한 시장 대응 △위기에 강한 문화 확립 등을 강조하며 위기를 타개해 나갈 것이라 선언하기도 했다.◇ 변화에 빠른 시장 대응 ‘긍정적’, 기업문화 평가 ‘하락’케이뱅크는 올해 상반기는 역성장을 기록했지만, 지난 2분기까지 9분기 연속 흑자를 달성했다. 올해 상반기 케이뱅크는 250억원의 당기순이익을 기록해 지난해 같은기간(457억원)보다 45% 하한 실적을 기록했다. 이는 카카오뱅크, 토스뱅크의 호실적과 대비되는 결과다.이에 따라 케이뱅크의 질적 성장에 대해 금융권 안팎의 우려섞인 시선이 나오고 있다. 서 행장이 강조한 위기 타개와는 궤를 달리하고 있다고 분석되는 이유다.올해 케이뱅크는 신속한 시장 대응을 위해 서비스와 상품을 집중적으로 내놨다. 우선 펌뱅킹 서비스를 인터넷(오픈API) 기반으로 제공했다. 인터넷 기반 펌뱅킹은 제휴사가 별도의 전용회선 구축이나 회선 이용에 따른 비용 부담 없이 펌뱅킹 서비스를 이용할 수 있어 시간과 비용 절약이 가능하다. 이에 펌뱅킹 서비스를 원하는 기업의 은행 제휴가 더욱 쉬워졌다.또한 ‘고정금리 전세대출’, ‘공모주 메이트’, ‘자동차대출 갈아타기’ 등을 인터넷전문은행 최초로 내놨다. 고정금리 전세대출은 변동금리와 달리 대출기간 중 동일한 금리가 적용돼 계획적인 이자 관리가 가능한 비대면 전세대출 상품로 큰 인기를 끌고 있다.지난 5월 출시된 공모주 메이트는 공모주 청약 일정을 한 눈에 확인하고 예상 배정주까지 계산하는 서비스다. 7월말 누적 이용건수가 130만을 돌파하며 케이뱅크 고객수 증가에 큰 영향을 미치고 있다. 또한 4일 자동차대출 갈아타기 상품을 출시하며 자동차 대출 시장에도 진출했다.이 같은 활동들로 인해 케이뱅크의 지난 8월 고객수 900만을 돌파했다. 이는 수신 평균잔액 증가로 이어져, 지난 7월 말 전체 고객 1인당 수신 평균잔액은 지난해 말 대비 26% 증가했다.서호성 행장이 강조한 위기에 강한 문화확립을 위해서는 지난 5월을 ‘Co-끼리 데이’ 기간으로 정하고 사내 행사를 진행했다. ‘Co-끼리 데이’는 평소 업무 진행 시 코워크(Co-work)를 하는 팀끼리 자발적으로 모여 그룹을 형성하고 서로 친목을 다 질 수 있는 행사를 구성해, 자체적으로 운영하는 활동이다.하지만 이 같은 노력에도 불구하고 전·현직자들이 평가한 케이뱅크의 올해 기업만족도는 하락세를 나타내고 있다. 기업 정보 플랫폼 잡플래닛에 따르면 올해 케이뱅크의 기업 만족도는 5점 만점에 3점으로 나타났다.이는 지난해 기록한 3.6점보다 하락한 모습이다. 특히 △복지 및 급여 △업무와 삶의 균형 △사내문화 △승진 기회 및 가능성 △경영진 항목 모두 지난해보다 점수가 낮아졌다.다른 항목에 대한 평가도 하락세다. ‘기업 추천율’의 경우 지난해 58%에서 올해 33%로 내려갔다. 같은 기간 ‘CEO지지율’은 39%에서 22%까지 떨어졌다. ‘성장가능성’ 45%에서 33%로 하락하며 부정적인 기운이 짙은 모습이다.◇ 올해 최대 과제 IPO, 연내 불가능 ‘지배적’서호성 케이뱅크 은행장은 신년사에서 연내에 기업공개(IPO)를 추진하겠다고 밝힌 바 있다. 하지만 연내 상장은 불가능할 것이란 전망이 지배적이다. 지난해 하반기부터 증시 변동성이 커지며 IPO 시장에 대한 투자자들의 반응이 차갑기 때문이다.또한 현재 케이뱅크는 수익성과 성장세가 예년만 못해 시장에서 평가되는 기업가치가 낮아질 가능성이 높다고 평가된다. 아울러 최근 금융당국은 인터넷은행의 주담대 규모 급증을 두고 철저한 현장검사를 예고해 하반기 실적 전망도 밝지 않다.특히 최근에는 국내외 투자자들을 대상으로 프리 IPO 절차에 착수했다고 알려지기도 했다. 프리 IPO란 일반적으로 기관투자자들을 상대로 향후 몇 년 이내에 상장하겠다는 약속을 하고, 투자자들은 상장 때 지분을 다시 매각하는 조건으로 투자하는 방식이다. 일반적으로 프리IPO가 진행되면 가까운 시일에 상장이 진행되지 않는다.서호성 케이뱅크 은행장은 올해 말 임기 만료될 예정이다. 지난 2021년 서 행장이 부임한 이후 케이뱅크는 괄목할 만한 성장세를 기록했다. 하지만 올해 상반기는 IPO 연기, 성장세 둔화 등으로 인해 새로운 차별화 전략이 필요하다고 지적된다.남은 하반기 서 행장의 역할은 무엇보다 중요하다. 케이뱅크는 상반기 정체가 아닌 날아오를 도약의 시기를 만들어야 되는 상황이다. 인터넷전문은행 선주주자로서 하반기 새로운 전략적 마무리가 필요한 때다.shhong0820@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>[인사이드 스토리]진짜 '금융 수퍼앱' 없는 이유는</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019403?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>간편송금에서 시작한 금융앱, 계좌관리 까지차별성 사라진 금융앱…자산관리 기능이 '핵심' 올인원 금융앱 등장 위해선 '법 개정' 필요요즘 금융앱은 참 편합니다. 하나의 앱에서 주요 거래 금융기관의 계좌 현황 및 결제 내역, 송금 등 일상생활에서 사용하는 모든 기능이 모여 있기 때문입니다. 일부 금융회사는 '금융 수퍼 앱' 이라면서 하나의 앱에서 모든 금융생활을 누릴 수 있다고 강조까지 합니다. 하지만 아쉬운 부분도 분명합니다. '알아서 척척' 해주는 똑똑한 기능은 도입되고 있지 않아서입니다. 일부 금융 소비자들은 금융앱에 가장 원하는 부분으로 알아서 자산관리를 해주는 기능을 꼽기도 했습니다.점점 편해지고 똑똑해지는 금융앱, 그러나 진짜 금융소비자들이 원하는 이런 기능이 탑재되지 못하는 이유는 뭘까요? 단순한 기술적인 문제만은 아닙니다. 이에 대해 알아보려고 합니다. 간편송금에서 계좌관리까지 진화하는 금융앱금융권 관계자들은 우리나라의 금융산업이 크게 바뀌게 된 계기중 하나로 간편송금의 등장을 꼽습니다. 굳이 은행을 방문하지 않거나 인터넷 뱅킹, 모바일 뱅킹 등을 사용하지 않아도 쉽게 송금이 된다는 사실에 많은 금융소비자들이 환호했습니다.이제는 은행, 보험, 증권 등 금융권 곳곳에 뿌리를 내린 '토스'가 성장할 수 있었던 것도 간편송금으로 시작해 '편하다'는 입소문을 타고 고객을 끌어모은 것이 결정적이었습니다. 토스 측은 올해 6월 기준 월간활성화 이용자 수(MAU)가 1510만명을 기록했다고 밝혔는데요, 이는 금융권에서 가장 압도적인 숫자입니다. 가장 대중적인 금융앱이 됐다는 얘기입니다.토스의 성장을 눈여겨 본 금융권은 굳게 닫혀있던 금융권에 변화가 필요하다는 것을 직시했습니다. 이에 금융당국은 금융권의 규제 장벽을 서서히 철폐했고, 민간 금융회사는 적극적인 투자로 '편리한 금융생활'을 위한 금융앱을 내놓기 시작했습니다. 규제 해소와 민간 회사의 투자가 서로 시너지를 내면서 우리나라 금융 서비스 환경은 크게 변화했습니다. 화룡점정은 정부가 지난해 본격적으로 시작한 '금융권 마이데이터 산업'입니다. 금융.소비자가 금융정보의 주권을 갖고 이를 잘 활용하기 위해 내 금융정보를 관련 사업자들이 조회할 수 있도록 한 것입니다. 이에 따라서 금융소비자는 자주 사용하는 금융앱에서 사업에 참여하고 있는 금융회사의 계좌 내역, 대출 내역, 결제 내역 등 금융정보를 한 번에 볼 수 있는 시대가 됐습니다.'차별성' 희석된 금융앱 최근 금융앱을 쓰다보면 사용자 인터페이스나 활용 경험이 몇년전에 비해 매우 편해졌다는 것을 충분히 느낄 수 있을겁니다. 하지만 여러 금융앱을 쓰다보면 회사별 특색을 느끼기는 힘들겁니다.예를 들어 현재 주요 은행들의 앱이나 빅테크 기업의 앱을 사용하다보면 제공하는 서비스가 비슷하다는 느낌을 지우기 어려울 겁니다. 실제 대부분의 금융 앱에서 제공하는 서비스는 전 금융권 계좌조회, 간편송금, 타사 금융상품 가입 등 대동소이 합니다. 자연스럽게 금융소비자는 익숙했던 자주 사용하는 앱만을 사용할 겁니다. 금융회사들이 제공하는 자산관리 서비스가 특색이 없다보니 새로운 서비스에 가입해야겠다는 동기부여가 되지 않는 겁니다.'금융 수퍼앱' 등장에 필요한건 '법 개정'최근 하나금융경영연구소에서 내놓은 보고서를 보면 눈에 띄는 대목이 있습니다. 어린 세대들이 금융앱을 결정할 때 '신경쓰지 않아도 자동으로 관리되는 기능'을 가장 선호한다는 조사 내용입니다. 이 조사결과는 1020세대가 주요 사용하는 '유스금융앱'에 한정된 조사결과지만 금융권에서는 연령대를 높여 조사한다 하더라도 자산관리를 알아서 해주는 서비스에 대한 수요가 높을 것으로 보고 있습니다. 즉 '내 자산 정보'를 모두 조회할 수 있도록 하는 권한을 줬으니 이를 '잘 굴려주는 기능'에 대한 수요는 분명하다는 겁니다.금융회사들 역시 이러한 기능을 하루라도 빨리 추가하고 싶어합니다. 그리고 얼마나 안정적으로 자산을 관리해 주느냐는 그 회사의 경쟁력과 차별성으로도 나타날 수 있고 고객을 더욱 끌어모을 수 있으니 관련 기술 개발에도 매진할 태세입니다.하지만 이런 기능이 포함되지 못하는 것은 사실 '법' 때문입니다. 우리나라에서는 자신의 자산 투자를 온전하게 맡기는 '투자일임'에 대한 경계가 분명하기 때문입니다. 관련 법령에 따르면 투자일임업은 증권사, 자산운용사, 투자자문사, 선물회사 등만 가능하도록 해놨습니다.즉 우리가 자주 사용하는 은행 앱이나 빅테크 앱에서 투자를 맡기는 기능은 법적으로 엄격하게 금지돼 있습니다.이같은 법은 금융업 환경 변화에도 적지 않은 영향을 끼쳤습니다. 대표적인 사례가 로보어드바이저로 불리우는 인공지능 투자 서비스 입니다. 이 서비스를 사용할 수 있는 기업은 투자일임업이 가능한 기업뿐 입니다. 고객의 자산을 위임 받아 투자를 해야하기 때문입니다. 로보어드바이저가 막 태동했을때 관련 기업들은 모두 은행과의 제휴를 바탕으로 관련 서비스를 제공하길 희망했지만, 법의 규제에 막혀 증권사로 발길을 돌릴 수밖에 없었습니다. 로보어드바이저가 핵심 금융업권인 은행권이 아닌 증권업계에서 활발하게 사용되는 이유입니다.금융당국 역시 이같은 점을 인지하고 은행 등에게도 투자일임업을 허용해 주는 방안을 검토하고는 있지만 좀처럼 쉽사리 결론은 내리지 못하고 있습니다. 증권업계 등이 투자일임업의 허들을 내리면 '생존'이 힘들다고 내걸면서 결사반대를 외치고 있는 것이 결정적인 이유입니다.단순히 현재 투자일임업을 펼치고 있는 업계와 그렇지 않은 업권과의 밥그릇 싸움이라고 봐서는 안됩니다. 규제가 완화되면 금융소비자 보호가 느슨해진다거나 우리나라 금융산업의 근간인 전업주의가 무너지는 계기가 되어 금융산업 전체가 혼란에 빠질 가능성도 있어서 입니다.금융소비자들의 편리한 금융생활이냐 금융업의 질서유지냐 라는 딜레마에서 올바른 해답은 어디에 있을지 고민해 봐야 하는 시점입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>“이황, 세종대왕, 신사임당 얼굴 본게..” 전자결제 등 몰린 탓, 이러다 신용카드도?</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/661/0000030943?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>전자결제 16%↑.. 하루 1조 이상금융사 서비스 이용, 상대적 부진신용카드 정의 등 법 개정도 필요현금 없이 컴퓨터나 휴대용 단말기 등을 이용하는 전자결제 서비스 실적이 상반기 폭증세를 보였습니다. 개인 휴대전화 등을 통한 간편결제가 하루 평균 8,000억 원을 넘어섰습니다. 온라인 쇼핑 등이 늘고, 간편결제에 편의성이 더해진 것도 실적 증진에 보탬을 줬다는 분석입니다. 그만큼 지폐 등 화폐 사용 빈도는 줄었습니다.신용카드라고 오래갈 상황은 아닌 듯 보입니다.다양한 결제 수단 등장에 부응한 국내 카드사들의 모바일 지갑 활용성 증진도 뒤따라야한다는 주문이 나오고 있습니다.오늘(6일) 한국은행이 발표한 ‘2023년 상반기 전자지급서비스 이용 현황’에 따르면 올 상반기 중 전자지급결제대행(PG) 서비스 이용건수와 규모는 일평균 2,510만 건, 1조 1,845억 원에 이르는 것으로 집계됐습니다. 지난해 같은 기간보다 건수는 8.1%, 금액은 16% 늘었습니다.   주로 온라인쇼핑에 활용되는 전자지급결제대행 서비스는 구매자에게 대금을 받아 판매자에 최종 지급하도록 결제정보를 실시간 송·수신하거나 정산을 대행하는 서비스입니다. 지난해부터 일평균 이용액이 1조 원을 넘었습니다.간편결제 서비스 이용금액은 카카오페이나 네이버페이처럼 전자금융업자 비중이 가장 높았습니다. 삼성전자(삼성페이)나 애플(애플페이) 같은 휴대폰 제조사 비중이 2021년 상반기 22.1%에서 2022년 상반기 23.6%, 올 상반기 25.1%로 상승세이기도 합니다.전자금융업자의 간편결제 서비스 방식 중 선불전자지급 이용실적도 상반기 일평균 2,875만 건, 9,682억 원에 이르면서 전년 대비 각각 8.6%, 20.8% 늘어난 것으로 나타났습니다. 선불전자지급은 카카오페이나 토스 같은 전자거래 플랫폼에 연동된 계좌에 선불금을 미리 충전해 필요할 때 대금을 지급하거나 송금하는 거래방식입니다. 주로 교통요금이나 공공시설 이용료 등에 많이 활용됩니다. 이처럼 전자지급결제의 증가세는 휴대전화와 신용카드를 결합한 간편결제·간편송금 활용이 늘어난데서도 원인을 찾고 있습니다. 상반기 간편결제 서비스 이용액이 8,451억 원으로, 지난해 대비 17% 가까이 늘었고 반기 기준으로 처음 일평균 이용액이 8,000억 원을 돌파했습니다. 일평균 이용건수는 13.4% 증가한 2,628만 건으로 집계됐습니다. 2015년 공인인증서 폐지 이후 도입된 간편결제 서비스는 신용카드 정보를 휴대전화에 미리 저장하면 비밀번호나 지문 등 생체 인식 방식으로 결제할 수 이습니다. 코로나19 이전인 2019년 상반기에 비해 4년 사이에 이용액이 3배 정도 늘어난 것으로 나타났습니다.간편송금은 휴대전화에 충전한 선불금을 전화번호나 소셜네트워크서비스 등을 통해 수취인에게 송금하는 서비스 이용도 늘었습니다. 상반기 간편송금 서비스 이용이 일평균 610만 건, 7,461억 원으로 각각 전년 대비 24.2%, 23.9% 증가했습니다.이에 반해 카드사와 은행과 같은 금융사의 자사 앱을 통한 간편결제 서비스 이용금액 비중은 날로 감소세로 나타났습니다. 지난 2021년 상반기 28.5%였던게 올 상반기 25.7%로 줄었을 정도입니다.결국 전자금융업자나 휴대폰 제조사가 지원하는 간편결제 서비스에 금융사 입지가 밀린다는 얘기로도 풀이됩니다. 때문에 카드사들 역시도 모바일 지갑 등과 같은 디지털 지갑 활용성을 키워야 한다는 지적도 나오고 있습니다. 모바일 앱카드나 생체인증카드, 소액후불결제, BNPL 같은 모바일·디지털기기에 후불 기능을 탑재해 결제를 진행하는 방식입니다.또 현행 신용카드 관련해, 현행 국내 여신전문금융업법상 ‘플라스틱 같은 실물카드 형태의 증표’에 한정해 신용카드 거래(결제대상) 결제를 전제한 법과 제도 등의 개선도 필요하다고 보고 있습니다.한국은행 관계자는 “여신전문금융법상 신용카드 정의가 플라스틱과 같은 전표 방식으로, 또 결제 대상이 가맹점으로만 한정되면, 카드사의 디지털 기반의 카드 업무에 한계가 올 수 밖에 없다”면서 최근 결제 트렌드에 발맞춰 다양한 지불이 가능한 카드결제 시스템 다양화가 필요하다고 주문했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[국민을 위한 국민의 기업] 자유석 셀프검표, 앱 승차권 도입…맞춤형 서비스 ‘스마트 코레일’ 가속</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003307713?sid=103</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>한국철도공사(코레일)      다음 달에 시작되는 KTX 자유석 셀프 검표 시스템을 이용하는 모습(왼쪽)과 코레일톡의 기차역 주차장 정보 확인 화면. [사진 한국철도공사]           한국철도공사(코레일)는 KTX 운영 노하우를 바탕으로 디지털 혁신에 힘을 쏟고 있다. 인공지능과 빅데이터 분석 등 시스템 운영 부문은 물론 QR코드나 간편결제 같은 인프라를 개선하고 있다. 철도서비스의 디지털 전환을 추진하는 ‘스마트 코레일’ 중장기 전략의 일환이다.      다음 달부터 시행할 자유석 셀프검표 시스템이 대표적이다. 저렴하게 열차를 이용하는 대신 빈자리 나기만을 기대해야 하고, 승무원을 기다리느라 푹 쉬지 못했던 정기권 이용자의 가려운 부분을 해소한 맞춤형 서비스다. 최근에는 웹 승차권 발송 서비스 시범운영 계획을 밝혔다. 종이승차권의 디지털 전환을 앞당길 것으로 기대된다.      스마트폰 대중화와 함께 열차 승차권 발권 매체 중 모바일 앱 ‘코레일톡’이 차지하는 비중은 점점 커져 왔다. 2004년 KTX 개통 당시 10%였던 자가발권 비율이 지난해에는 90% 수준에 달했다. 웹 승차권이 도입되면 나머지 10%인 역창구 발매에 의한 종이승차권 비율이 더 줄 것으로 전망된다.      오는 20일부터는 고객이 직접 코레일톡 앱 승차권을 동기화할 수 있는 기능을 제공한다. 변경한 휴대폰에 코레일톡을 재설치하고 로그인하면 기존 구매한 승차권이 흐릿하게 표출(Dim 처리)되는데, 새로고침하면 승차권이 활성화되게 고쳤다.      코레일톡의 진화는 코레일의 디지털 혁신을 보여주는 바로미터로 여겨진다. 2010년 선보인 코레일톡은 다운로드 수 1100만 건 이상의 ‘국민 앱’으로, 열차 승차권은 물론 숙박·대중교통·렌터카·카셰어링·관광택시와 관광지 입장권도 구입할 수 있는 통합예약서비스를 제공한다. ‘열차 승하차 도우미’ ‘서비스 콜’ ‘채팅상담’도 이용할 수 있다. 자연재해나 장애 등으로 열차가 지연되면 코레일톡 푸시 알림이 안내한다. 코레일톡은 열차 승차권 예매 앱을 넘어 연계 교통과 여행 콘텐트를 하나의 모빌리티 플랫폼에서 통합 예약할 수 있는 지능형 철도교통 통합서비스(Raas, Rail as a service)를 지향한다.      코레일은 다양한 간편결제 수단을 도입하고 있다. 2016년 삼성페이를 시작으로 페이코·신한페이·카카오페이·네이버페이·제로페이·토스페이 등으로 확대했다. 외국인 관광객을 위해 위챗과 알리페이에서도 코레일 승차권 예매를 지원한다.      한문희 코레일 사장은 “누구나 손쉽고 간편하게 열차를 이용하실 수 있도록 철도 분야에서 디지털 전환을 가속하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>금감원, 인터넷은행 가계대출 현장 점검 나선다</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002745396?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>서울 여의도 금융감독원 본원 전경. ⓒ뉴시스[데일리안 = 부광우 기자] 금융당국이 인터넷전문은행을 상대로 가계대출 현장 점검에 나선다.3일 금융권에 따르면 금융감독원은 이번 달 4~7일 카카오뱅크를, 11~14일에는 케이뱅크를 대상으로 가계대출 현장 점검을 진행한다.이는 최근 인터넷은행에서 주택담보대출이 너무 빠르게 불어나고 있다는 판단에 따른 대응이다. 이에 따라 주택담보대출을 취급하지 않는 토스뱅크는 이번 현장점검 대상에서 제외됐다.카카오뱅크와 케이뱅크 두 곳에서는 올해 상반기에만 주택담보대출이 5조원 넘게 늘었다. 지난 6월 말 기준 카카오뱅크는 17조3220억원, 케이뱅크는 3조7000억원으로 지난해 말보다 각각 30.3%(4조260억원)와 61.4%(1조4070억원)씩 주택담보대출 잔액이 증가했다.반면 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 주택담보대출 같은 기간 1조7408억원 줄었다.금감원은 인터넷은행의 주택담보대출 심사가 비대면으로 이뤄진다는 데 주목하고 있다. 주택담보대출의 경우 평가 서류가 많은데 심사 시스템이 잘 구현돼있는지 들여다볼 것으로 예상된다.앞서 이복현 금융감독원장은 지난달 "인터넷은행은 신파일러(금융거래 이력 부족자)에게 자금 공급한다는 정책적 목적이 있는데, 지금과 같은 주택담보대출 쏠림이 제도와 합치되는지에 대해 비판적 시각이 있다"며 "이런 것도 점검 대상이 될 것"이라고 언급한 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>애플페이 가세에…간편결제 이용 하루 8천억원대로 17%↑</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014174771?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>상반기 기준…간편송금은 24% 늘어난 7천억원대 규모교통카드 등 포함 선불전자지급 이용금액 일평균 1조원 육박애플페이 출시[연합뉴스 자료사진]    (서울=연합뉴스) 박대한 기자 = 삼성페이와 네이버페이 등에 이어 애플페이가 가세하면서 상반기 간편결제 서비스 하루 이용금액이 8천억원선을 넘어섰다.    카카오페이, SSG페이 등을 통한 간편송금 역시 크게 늘어나면서 일평균 이용금액이 7천억원대를 기록했다.    6일 한국은행이 발표한 '2023년 상반기 중 간편결제·간편송금 서비스 이용 현황'에 따르면 올해 상반기 일평균 간편결제 서비스 이용건수는 2천628만2천건, 이용금액은 8천450억5천만원으로 각각 집계됐다.    이는 전년 동기 대비 건수는 13.4%, 금액은 16.9% 늘어난 수준이다.    제공업자별로 보면 휴대전화 제조사의 간편결제 일평균 이용건수와 금액이 각각 812만6천건과 2천117억9천만원으로 23%와 24.3% 급증한 것으로 나타났다.    기존 삼성페이와 LG페이 등에 이어 지난 3월 애플페이가 국내에서 서비스를 시작한 영향으로 추정된다.    상반기 선불금 기반 간편송금 서비스 이용실적은 일평균 609만6천건, 7천460억7천만원으로 지난해 상반기 대비 24.2%와 23.9% 늘어났다.    간편결제·간편송금은 지난 2015년 3월 공인인증서 의무사용이 폐지된 이후 도입된 것으로 비밀번호, 생체정보(지문, 얼굴) 등의 간편 인증수단을 이용한 결제 및 송금 서비스다.    간편결제는 모바일에 미리 저장해둔 신용카드, 은행계좌 등의 정보 또는 충전한 선불금 등을 이용, 거래 시 비밀번호 입력이나 단말기 접촉만으로 간편하게 결제하는 서비스다.    삼성페이 등 휴대전화 제조사, KB국민은행과 신한카드 등 은행 및 신용카드사들이 주로 제공한다.    간편송금은 모바일을 통해 계좌이체 등의 방법으로 충전한 선불금을 전화번호나 소셜미디어 등을 활용해 수취인에게 송금하는 서비스다.    역시 시중은행과 토스뱅크 등 인터넷은행은 물론 네이버페이와 카카오페이 등 정보기술(IT)업체, SSG페이 등 대형유통업체에서도 간편송금 서비스를 제공하고 있다.삼성페이·네이버페이 협업 서비스 [삼성전자 제공. 재판매 및 DB 금지]    이와 별개로 상반기 선불전자지급 서비스 이용 실적은 하루 평균 2천874만7천건, 9천682억4천만원 규모로 전년 동기 대비 8.6%와 20.8% 증가했다.    선불전자지급은 미리 충전한 돈으로 송금이나 상거래 대금 결제, 교통 요금을 지불하는 것으로, 각종 '페이'와 교통카드, 하이패스카드 등이 모두 해당한다.    상반기 전자지급결제대행(PG) 서비스 이용 실적은 하루 평균 2천510만3천건, 1조1천845억4천만원 규모로 지난해 같은 기간보다 8.1%, 16% 증가했다.    PG서비스는 전자상거래에서 구매자로부터 대금을 받아 판매자에게 최종적으로 지급하도록 결제정보를 송·수신하거나 그 대가를 정산 대행하는 서비스다.    올해 상반기 아파트 관리비, 전기·가스요금 등 각종 이용대금의 수납과 정산을 대행하는 전자고지결제 서비스의 하루 평균 이용건수와 금액은 26만5천건, 663억4천만원으로 전년 동기 대비 10.7%와 18.6% 증가했다.    결제대금예치(에스크로) 서비스 이용건수는 하루 평균 319만7천건으로 1.2% 늘어났지만, 이용금액은 1천544억4천만원으로 1.6% 감소한 것으로 집계됐다.    pdhis959@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>"페이가 대세"…간편결제, 하루 8000억 돌파 역대 최대</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012072770?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>간편결제 이용액 일평균 8451억…1년새 16.9%↑삼성페이 등 휴대폰제조사 결제액 2000억 넘어[그래픽=뉴시스] 상반기중 전자지급서비스 현황. [서울=뉴시스]남주현 기자 = 코로나19 이후 비대면 온라인 거래가 확대되면서 삼성페이와 네이버페이 등 간편결제 서비스 이용 금액이 하루 평균 8000억원을 넘어서는 등 사상 최대를 기록했다.6일 한국은행이 발표한 '2023년 상반기중 전자지급서비스 이용 현황'에 따르면 올 상반기 간편결제 서비스 이용금액은 일평균 8451억원으로 지난해 상반기보다 16.9% 증가했다. 반기 기준으로 간편결제 이용금액이 8000억원을 돌파한 것은 이번이 처음이다. 이용건수는 13.4% 증가한 2628만건으로 집계됐다. 간편결제 이용금액과 이용건수 모두 2016년 관련 통계 작성 이후 역대 최대를 기록했다.간편결제서비스는 신용카드 정보를 휴대전화에 미리 저장하고 공인인증서 없이 비밀번호나 지문인식 등 방법으로 간편하게 결제하는 서비스로 코로나19 팬데믹 이전인 2019년 상반기에는 2876억원에 불과했으나 4년 새 약 3배 늘었다.이 가운데 삼성페이와 LG페이, 애플페이 등 휴대폰 제조사 비중은 2021년 상반기 22.1%에서 지난해 상반기 23.6%로 늘었고, 올해 상반기는 25.1%로 높아졌다. 금액으로 환산하면 올 상반기 2121억원으로 2년새 1.7배 뛴 셈이다.간편송금 서비스 이용금액도 일평균 7461억원으로 전년에 비해 23.9% 증가했다. 이용건수는 610만건으로 24.2% 늘었다. 간편송금은 휴대전화에 충전한 선불금을 전화번호나 소셜네트워크서비스 등을 통해 송금하는 서비스다.한은 관계자는 "코로나19에 비대면 결제가 늘었고, 지난해부터 마이데이터 서비스 시행 이후 간편송금 서비스 이용이 확대된데 기인한다"고 말했다. 마이테이터 서비스는  금융기관별 자산을 한곳에 모아 보여주고 금융상품을 추천해 주는 것으로 토스가 대표적이다. [서울=뉴시스] 김근수 기자 = 애플의 근거리무선통신(NFC) 결제 서비스 '애플페이' 시행 첫 날인 21일 오전 서울 강남구 GS25 역삼홍인점에서 한 소비자가 결제를 하고 있다. 2023.03.21. ks@newsis.com전자지급결제대행(PG) 서비스의 상반기 이용액은 일평균 1조1845억원으로 전년동기에 비해 16.0% 증가했다. 2008년 관련 통계 작성 이후 반기 기준으로 사상 최대 규모다. 이용건수는 2510만건으로 8.1% 증가했다. PG서비스는 전자상거래에서 구매자로부터 대금을 수취해 판매자에게 최종적으로 지급될 수 있도록 지급결제정보를 송·수신하거나 그 대가를 정산 대행 또는 매개하는 서비스로 주로 온라인쇼핑에서 활용된다. 선불전자지급수단 이용금액과 이용건수는 일평균 9682억원, 2875만건으로 전년동기대비 각각 20.8%, 8.6% 증가했다. 선불전자지급수단은 계좌 연동을 통해 미리 충전한 선불금으로 상거래 대금이나 교통요금을 지급 및 송금 서비스로 교통카드를 비롯해 네이버페이 머니 충전 등이 해당된다. G마켓과 11번가 등 오픈마켓에서 거래 확정 후 결제대금을 판매자에게 제공하는 유형의 결제대금예치 서비스(에스크로) 이용금액은 일평균 1544억원으로 전년동기에 비해 1.6% 감소했다. 이용건수는 319만건으로 0.5% 줄었다.아파트 관리비나 전기·가스 요금  납부를  이메일·앱 등을 통해 전자 방식으로 발행하고, 대금 정산을 대행하는 전자고지결제 서비스 이용액은 663억원으로 전년동기에 비해 18.6% 늘었다. 이용건수는 26만5000건으로 10.7% 증가했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>'9900만원 환불' 100만원짜리 1억원에 산 아빠의 꼼수.."자금세탁입니다"</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005567582?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>금감원, 전금업권 검사·점검 결과자금세탁 통로 악용 가능성 높은데전문인력 많아야 5~6명...1명이 겸임하기도[이데일리 서대웅 기자] 간편결제가 자금세탁 통로로 악용될 가능성이 높은 것으로 나타났다. 간편결제사업자 등 전자금융업자가 보유한 자금세탁방지(AML) 인력은 회사별로 많아야 5~6명에 불과했다.금융감독원은 5개 대형 전금업자에 대한 현장검사, 이들 업자를 포함한 20개사를 대상으로 한 서면점검 결과를 5일 발표했다. 금감원은 △전자금융업은 회사별 자체망을 이용해 자금 이동경로 추적이 어렵고 △보유한도(200만원)는 있으나 거래한도가 없어 자금이체가 제한없이 가능하며 △비대면 거래 방식에 따라 정확한 고객정보 확인이 어려워, 전금업이 자금세탁 통로로 악용될 소지가 있다고 밝혔다.실제로 가상계좌 무통장입금 결제 방식을 활용한 자금세탁 시도 사례가 있었다. 물품 구매시 간편결제사가 제공한 가상계좌에 제3자가 거액을 입금하고, 구매자가 나머지 금액을 환불받는 식이다. 예컨대 100만원짜리 물품을 자녀가 구매하는데 부모가 가상계좌에 1억원을 입금하고 9900만원을 자녀 계좌로 환불받으면 증여 효과가 발생한다. 금감원 관계자는 “증여세를 탈세하는 것도 자금세탁에 해당돼 관련법 위반으로 처벌받을 수 있다”고 했다.(자료=금융감독원)전금업자가 제휴하지 않은 가상자산(코인) 결제대행업체에 이용당할 소지가 있는 것으로도 나타났다. 상품 구매자가 해외 코인 결제대행업체에 코인을 전송하고 코인 업체가 구매자 가상계좌에 돈을 입금하는 형태다. 국내에선 가상자산으로 물품 구매가 불가능한 허점을 노린 것으로, 가상자산 사업자가 지켜야 할 ‘트래블룰’을 회피할 수 있다.이처럼 자금세탁 위험에는 노출돼 있지만 AML 체계는 허술한 것으로 드러났다. 금감원 검사 및 점검 결과 토스, 카카오페이(377300), 네이버페이와 같은 대형 업체들의 AML 전문인력 수는 회사별로 5~6명에 불과했다. 중소형 업체는 1~2명이 다른 업무와 겸임하고 있었다. 금감원은 “AML 업무에 대한 경영진 인식이 낮고, 전문인력·조직 부족, 전사적 업무체계 미흡 등 전반적인 AML 내부통제 기능 제고가 필요한 상황”이라고 지적했다.금감원은 이번 점검결과 미흡사항이 확인된 회사에 대해선 경영진의 확약서 제출 등을 통해 실질적인 개선이 완료될 때까지 후속관리에 나설 계획이다. 오는 8일엔 전금업권을 대상으로 AML 내부통제 워크숍을 개최한다. 업계 전반의 AML 인식 제고, 업무역량 강화, 업권에 특화된 AML 체계 확립을 유도한다는 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>‘118조원’ 예금주 모시기…증권사까지 뛰어들었다</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003249057?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>만기 돌아오는 정기예금 겨냥은행권, 4%대 상품 잇단 출시증권계는 5%대 발행어음 내놔최근 만기가 도래하는 100조원대 정기예금을 유치하기 위해 시중은행들과 저축은행업계가 4%대 예금을 잇따라 출시한 가운데 인터넷은행들과 증권사까지 예금 유치 전쟁에 가세하고 있다.13일 케이뱅크는 ‘코드K 정기예금’ 12개월 이상 금리를 연 4%로 0.2%포인트 인상했다. 은행연합회 소비자포털에 따르면 현존하는 예금 상품 중 최고금리(우대금리) 조건 없이 유일하게 기본금리가 4%대인 상품이다.케이뱅크는 2주 전 가입한 고객도 인상된 금리를 적용하는 ‘금리보장서비스’도 제공하고 있다. 가입 후 2주 이내 금리가 오르면 기존 상품을 중도해지하지 않고도 금리가 소급된다.토스뱅크도 만기일이 아닌 가입일에 먼저 이자를 지급하는 ‘먼저 이자 받는 정기예금’을 출시해 예금 유치에 나서고 있다. 이날 토스뱅크는 출시 170일 만에 예치액 4조원, 총 이자 630억원에 도달했다고 밝혔다.인터넷은행에서 고객 몰이에 나서자 종전에 4%대 특판을 일제히 내놓던 시중·저축은행과의 경쟁도 치열해질 것으로 전망된다. 한국은행에 따르면 앞으로 3개월(9~11월)간 만기가 돌아오는 정기예금 규모는 118조원에 달한다.금융당국은 은행업권으로 ‘역(逆)머니무브’ 현상이 가속화되자 은행들에 예금금리 인상 자제를 권고하기도 했다. 5대 시중은행(KB국민·신한·하나·우리·NH농협은행)들의 지난달 말 기준 정기예금 잔액은 844조9671억원으로 4월부터 5개월 연속 증가세를 보였다.증권사들도 최근 정기예금 유치를 위해 연 5%대 발행어음을 내놓고 있다. 한국투자증권은 6개월물 연 5.2% 발행어음 상품을 최근 특판해 모두 소진했다. KB증권도 이달 11일부터 27일까지 개인 신규 및 휴면 고객을 대상으로 12개월물 연 5% 금리(6개월물 연 4.5%)로 특판 상품을 판매하고 있다. 발행어음은 증권사가 자체 신용으로 발행하는 1년 이내 단기금융상품이다. 자기자본 4조원 이상 초대형 증권사(IB) 중 인가업체만 발행할 수 있기 때문에 부실 위험이 비교적 낮다. 은행과 달리 가입 조건이 없지만 예금자보호 대상은 아니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023.09.02.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>[르포] 한 자리 모인 82개 핀테크·금융사·협력업체, 유쾌하고 치열한 사흘 간 여정 마쳤다</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005066173?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>'코리아 핀테크 위크' 2023 성료 역대 최대 규모 오프라인 행사 부스 전시 통해 각종 이벤트 진행·신기술 소개도핀테크가 미래 선도하려면 규제 완화와 홍보 '관건' 지난 8월 30일~9월 1일 서울 동대문구 동대문디자인플라자(DDP)에서 '코리아 핀테크 위크 2023' 행사가 개최됐다. 사진=김예지 기자 [파이낸셜뉴스]    "이렇게 많은 금융사를 한번에 만나서 서비스를 소개할 수 있는 기회가 많지 않죠. 대기업과 스타트업을 불문하고 모든 기업들이 한 자리에 모일 수 있는 자리는 1년에 딱 한번, 이 행사(코리아 핀테크 위크)뿐이라고 생각합니다. (김홍근 페어리 CBO)  "핀테크가 미래를 선도하려면 많이 만나야 하는 것 같습니다. 저희가 서비스를 제공하면서 실제로 만나는 고객들이 저희 앱에 대해서도 인지하지 못하시는 경우가 많았거든요. 이런 상황이 개선되려면 핀테크 업체가 고객과 많이 만날 수 있는 자리가 있어야 하는 것 같습니다. (김태윤 담비 마케팅PR섹션 리더)  "핀테크 시장은 당연히 우상향할 겁니다. 그러나 업권이 더 커지기 위해서는 정부·금융기관·핀테크 플레이어들이 합심해서 판을 끌고 나가는 게 필요하다고 보기 때문에, 규제 혁파가 이뤄져야 한다고 생각합니다. (핀다 관계자) 지난 8월 30일부터 9월 1일까지 사흘 간 서울 동대문구 동대문디자인플라자(DDP)에서 개최된 '코리아 핀테크 위크 2023' 행사는 '미래'와 '협력'이라는 두 가지 단어로 요약된다. '핀테크계의 손흥민'을 꿈꾸며 금융IT기술, B2B서비스, 금융상품 추천·중개, 간편결제·송금 등 다양한 섹터에서 총출동한 50개의 핀테크 기업들과 5대 금융지주를 포함한 8개 금융사, 국내 지자체·각국 핀테크 협회 등 24개 협력 기관들이 한자리에 모여 고객·기업인들과 피부로 소통했고, 미래를 논의했다. 사흘 간 열린 뜨거운 현장을 기자가 직접 찾았다.     접근성 개선… 고객 유치와 협업 '두 마리 토끼' 잡았다   일반인·기업인 관람객들이 30일 서울 동대문구에서 열린 코리아 핀테크 위크 2023 행사에 참가해 부스 설명을 듣고 있다. 사진=김예지 기자 '코리아 핀테크 위크 2023'은 올해로 5회차를 맞은 대규모 핀테크 박람회다. 금융위원회와 한국핀테크지원센터가 주관하는 행사로, DDP 아트홀 전관과 컨퍼런스홀을 대관했는데 행사장 어느 곳 하나 붐비지 않는 장소가 없었다. 특히 핀테크관과 금융관은 오전 10시부터 오후 6시까지 고등학생부터 중장년층 참관객들의 방문이 잇따르며 북새통을 이뤘다.   빅테크인 네이버페이·카카오페이·비바리퍼블리카(토스) 외에도 대출비교플랫폼 '핀다', 온라인투자연계금융사 리딩플러스·데일리펀딩, 주택담보대출 전문비교플랫폼 서비스를 개발한 베스트핀과 뱅크몰, '보험 선물하기' 서비스를 출시한 인슈어테크 기업 쿠프파이맵스, 아파트 조각투자 플랫폼 '그래이집' 출시를 준비 중인 브릭베이스, 간편결제사 페이민트, B2B 서비스형 소프트웨어(SaaS) 스타트업 페어리, 중금리 대출·투자 연계 플랫폼 8퍼센트 등 여러 분야의 핀테크 기업이 핀테크 부스 전시에 참가했다.    사진=김예지 기자 올해 '코리아 핀테크 위크'의 차별점 중 하나는 접근성이었다. 매년 행사에 참여하고 있는 카카오페이 정주희 팀장은 "코로나19 확산 이후 지난 2020년에서 2021년에는 행사가 비대면으로 진행된 데다가 지난해에는 롯데호텔에서 행사가 진행돼 접근성이 떨어졌었는데, 올해는 DDP에서 오프라인으로 진행되다 보니 기업 관계자뿐 아니라 학생, 일반인 관람객도 많이 보였다"고 설명했다. 실제로 참관객들이 착용하고 다니던 명찰에는 '~고등학교', '~대학교' 등의 학교명이 적혀 있거나 특정 기관명이 명시되지 않은 경우가 다반사였다.   이렇다 보니 핀테크 기업 관계자들에게 이번 행사는 고객 유치와 협업을 위한 '기회'로 작용했다. 이상거래 감지 시스템인 AI-FDS를 홍보했던 핀다 관계자는 "두 마리 토끼를 다 잡으러 왔다"며 "핀테크 앱의 보안 기술력에 대해 의문을 가지고 있는 일반 고객들의 인식을 개선하고, 금융기관과 원활히 제휴하기 위해 보안 솔루션을 전면에 내세웠다"고 언급했다. 개인신용대출과 부동산담보대출 서비스를 제공하는 온투업 플랫폼 오션펀딩의 한지민 대표 또한 "일반인과 기업 관계자를 모두 만나 열심히 하는 모습을 보여드리고 싶었다"며 "행사에 참여하니 설렌다"고 전했다.   실제로 부스에는 일반인 참관객, 기업 관계자들 할 것 없이 다양한 참관객들의 발걸음이 이어졌다. 대학생 김 모씨(21)는 "다들 친절하셔서 모르는 부분에 대해 질문해도 잘 답변해주셨다"며 "부스를 보고 나니 향후 핀테크 관련 계통에 종사하고 싶다는 생각도 들었다"고 전했다.   즉석 컨설팅을 신청해 핀테크 관계자들과 사업 관련 대화를 하는 기업 관계자들의 모습도 눈에 띄었다. 보안 솔루션에 주력하는 미국 정보통신기술기업 클라우드플레어의 황성환 이사는 "이번에 한국 지사를 설립했는데, 향후 성장 가능성이 높은 핀테크 업계에 보안 서비스를 제공할 수 있는지 보기 위해 시장 조사차 나왔다"고 전했다.     "두 손 가득 받은 경품...가방 없이는 못 다니죠"  사진=김예지 기자 각 핀테크 기업은 자사 서비스에 대해 설명하는 것 외에도 이색 이벤트를 열거나 풍선·키링·음식·가방 등 각종 굿즈를 증정하며 '고객 유치'를 위해 적극 나섰다. 카카오페이는 부스를 방문해 카카오페이 앱을 설치하는 선착순 100명의 방문객에게 '춘식이' 풍선과 부채 브로셔를 제공했으며, 리딩플러스는 회원가입만 해도 불닭볶음면 두 봉지를 무료 증정하는 이벤트를 실시했다.   아울러 쿠프파이맵스는 자사 보험 서비스 브랜드인 '어니언' 카카오톡 채널을 추가할 경우 '칼퇴기원', '휴가기원' 등 직장인과 관련된 문구가 새겨진 어니언 캐릭터 키링이나 사이버사고보상보험 등의 서비스를 실제로 이용할 수 있는 쿠폰을 경품으로 내세웠다. 수령한 경품들을 두 손에 다 들 수 없어 토스 부스에서 실시한 '토스 켜고 포인트 받기' 이벤트에 참여한 후 받은 가방에 경품을 차곡차곡 담는 참관객들의 모습도 볼 수 있었다.   '이색 호객행위'와 충실한 설명에 참관객들도 만족하는 모습이었다. 대경생활과학고에 재학 중인 이지연양·오경은양·김지안군(18)은 "학교에서 단체로 마련한 프로그램이라 반강제적으로 오긴 했지만, 행사에 참여해 직접 설명도 듣고 경품도 받으면서 핀테크에 관심이 생겼다"고 말했다.   대전대 핀테크학과에 재학 중인 이채호씨 또한 "핀테크들이 각종 프로그램이나 앱을 만들어내고 확장하는 역량이 있다는 것을 직접 보고, 시민 입장에서 이를 체험해볼 수 있어 만족스러웠다"며 "진로와 관련해 많은 정보를 얻어간다"고 만족감을 표했다   사진=김예지 기자 금융사·빅테크들의 반응도 호의적이었다. 직접 부스를 열고 행사에 참여한 목적을 묻자 신한카드 관계자는 "신한금융그룹의 새로운 기술을 관람객에게 소개하려는 목적도 있지만, 협업도 항상 염두에 두고 있다"고 했고, 카카오뱅크 관계자 역시 "핀테크와 업무협력 관계를 맺고 자사 서비스를 핀테크에 제공하거나 핀테크의 서비스를 카카오뱅크 서비스에 접목시키는 방향을 모두 생각하고 있다"고 전했다.   각 핀테크 부스 관계자들 또한 일반인·기업인 참관객의 높은 관심을 체감했다고 입을 모았다. 기업 간 거래 서비스형 소프트웨어(B2B SaaS) 스타트업 페어리의 김홍근 CBO는 "홍보용 브로셔를 1000부 가지고 왔는데, 사흘간 참관객들에게 나눠주고 나니 20부밖에 안 남았다"며 "각종 기업의 대표급 의사결정권자들을 직접 만나 서비스를 소개할 수 있어 좋은 기회였다"고 만족스러워했다. 할인혜택 서비스 '버찌'를 출시한 강인구 루미글루 대표는 "행사 첫날 명함 400장을 들고 왔는데, 마지막 날인 오늘 30장 정도밖에 안 남았다"며 "새로운 고객 유치, 금융기관과의 협업을 모두 잡아 기쁘다"며 미소를 지었다.     "핀테크가 미래 선도하려면 규제 완화·홍보가 관건"  사진=김예지 기자 '미래의 핀테크와 만나다'가 행사의 슬로건이었던 만큼 각 핀테크·금융사 부스는 신기술 홍보에 만전을 기하는 모습이었다. 네이버페이는 얼굴인식 기술을 바탕으로 한 ‘클로바 페이스사인’ 결제 체험 기회를 제공했고, 카카오페이는 오는 10월 말 선보일 태그 결제(가칭) 서비스를 최초로 공개했다. 이외에 하나금융그룹은 사진을 한 번 촬영하면 본인의 모습을 본딴 가상인간이 만들어지는 기술을 소개했으며, 간편결제·송금 관련 서비스를 제공하는 페이민트는 최근 학원가에서 유용하게 쓰이고 있는 서비스인 '출결선생'과 '결제선생'을 직접 체험하는 기회를 마련했다.   그러나 기업 관계자들과 시민들은 핀테크가 미래를 선도하려면 새로운 서비스를 출시하는 것 외에도 규제 완화가 중요하다고 입을 모았다. 올해로 2회째 코리아 핀테크 위크에 참가한다는 조모씨(55)는 "어차피 기술은 비슷비슷한데, 한국 핀테크가 다른 나라에 비해 경쟁력을 갖추려면 여러 복잡한 규제를 풀어야 한다"고 강조했다. 익명을 요청한 핀테크 기업 관계자 역시 "해외 영업할 때와 한국에서 영업할 때 규제 절차가 확연히 차이난다"며 "우리나라의 금융·IT 관련 규제들이 좀 더 명확화·간소화돼야 우리나라 핀테크가 미래를 선도할 수 있을 것"이라고 촉구했다.   홍보의 중요성도 부각됐다. 핀테크 컨설팅에 종사하고 있다는 남씨(32)는 "핀테크가 성공하려면 홍보가 관건"이라며 "많은 사람들이 서비스를 체험할 수 있는 기회가 늘어나야 한다는 생각"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>"연봉 만족스럽다"…경력직 개발자들 가고 싶은 기업 1위는?</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004890116?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>제조업 선호기업 1등은 삼성전자사진=한경DB경력직 개발자가 선호하는 국내 정보기술(IT) 기업은 1위는 네이버로 나타났다.11일 커리어테크 스타트업 퍼블리가 운영하는 개발자 커뮤니티 ‘커리어리’의 이용자 249명을 대상으로 설문조사한 결과 응답자의 32%가 네이버를 선택했다. 이어 토스(14%), 카카오(10%), 라인플러스(7%), 당근마켓(7%), 배달의민족(6%), 쿠팡(3%) 순서로 응답자가 많았다.네이버 사옥 1784. 사진=네이버 제공제조업 기반으로 성장한 국내 대기업 중 경력직 개발자가 선호하는 기업은 어디인지 조사한 결과, 삼성전자라고 답한 이용자가 33%로 가장 많았으며 SK텔레콤(22%), 현대자동차(9%), LG전자(2%), SSG닷컴(2%)가 뒤를 이었다.경력직 개발자가 선호하는 회사 규모를 묻는 문항에서는 네이버, 토스, 야놀자 등 IT 대기업이나 유니콘 스타트업을 선호한다고 답한 응답자가 54%로 가장 많았다. 시리즈 B 혹은 시리즈 C 투자를 유치하며 본격적인 성장을 시작한 스타트업을 선호한다고 답한 응답자가 12%로 뒤를 이었다. 시리즈 D 이상의 투자를 유치하며 궤도에 오른 스타트업을 선호한다 답한 응답자는 9%, 삼성이나 SK 같은 전통 대기업을 선호하는 응답자는 6%, 시드 혹은 시리즈 A 투자를 유치하며 가능성을 막 인정 받기 시작한 스타트업을 선호하는 응답자는 6%, 창업 단계의 스타트업을 선호하는 응답자는 1%인 것으로 조사됐다.경력직 개발자가 회사를 고를 때 가장 중요하게 보는 요소는 연봉 및 처우라고 답한 응답자가 55%로 가장 많았다. 이어 △개발 및 연구 문화(23%), △회사 규모 및 네임 밸류(9%), △산업 및 도메인(6%) 순으로 뒤를 이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>인터넷은행, 가계대출 눈총에… 홍민택 "전월세대출, 실수요 집중"</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000946675?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표이사/사진=장동규 기자 인터넷은행의 비대면 주택담보대출 상품이 가계대출 급증의 원인으로 지목된 가운데 '전월세보증금대출'을 선보인 홍민택 토스뱅크 대표가 "근본적으로 (주담대와) 성격이 다른 상품"이라며 선을 그었다.홍 대표는 5일 오전 서울 '여의도 콘래드호텔'에서 열린 '토스뱅크 전월세보증금대출' 기자 간담회에 참석해 "주담대는 담보 가치 상승에 기대를 거는 투자 성격이 강한 상품이지만 전월세대출은 최대 만기 2년에 보증금을 거주 목적으로 대출을 내주는 상품이기 때문에 만기도 상대적으로 짧고 실수요에 맞춰진 상품"이라고 설명했다.토스뱅크가 선보인 전월세보증금대출은 인터넷은행 최초로 '전세지킴보증' 외 등기변동알림 서비스를 적용한 게 특징이다. ▲일반 ▲청년 ▲다자녀특례로 구성됐으며 이날 기준 일반·다자녀특례 전월세보증금대출의 금리는 최저 3.32%, 최고 5.19%며 청년 전월세보증금대출의 금리는 최저 3.42%, 최고 4.06%다. 일반·다자녀특례 전월세보증금대출 한도는 2억2000만원, 청년 전월세보증금대출은 최대 2억원까지다.그는 "여전히 2030세대 등 청년의 거주 문제가 심각하고 이런 문제를 해결하는데 토스뱅크가 기여할 수 있는 게 대출 외 전세지킴보증, 등기 알림 등 서비스라고 봤다"면서도 "당국이 우려하는 가계부채 증가세 등을 면밀히 보고 있고 대출 실행 속도 등을 주시할 예정"이라고 부연했다.최근 금융당국은 인터넷은행의 비대면 주담대를 주시하고 있다. 가계대출이 급증한 배경에 인터넷은행의 '주담대 키우기'가 있었다는 이유에서다. 토스뱅크는 카카오뱅크, 케이뱅크 등 다른 인터넷은행과 달리 주담대 상품을 운영하고 있지 않지만 주담대에 포함된 전세대출을 출시한 만큼 상품 개시 시점에 대해 우려의 목소리가 나왔다.홍 대표는 "이미 시장에 좋은 서비스가 있고 후발주자로 서비스를 내놓는 데 있어 가장 크게 고민하는 건 소비자들이 겪고 있는 문제를 기존 사업자들이 해내지 못한 방법으로 어떻게 풀어내느냐"면서 "오늘 선보인 상품 역시 출시 준비는 빠르게 완료됐지만 고객들의 문제를 풀어냄에 있어 추가적으로 시간이 들었다"고 설명했다.이어 "주담대는 당연히 내놔야하는 서비스지만, 출시 시점은 아직 확정된 부분이 없다"며 "시장환경이 준비될 때 출시할 것으로 본다"고 부연했다.홍민택 대표는 또 "연내 ▲공동대출 ▲외환 서비스 ▲토스뱅크 아이 서비스 등을 선보일 예정"이라며 "출범 22개월 만인 지난 7월 기준으로 당기순익이 발생하기 시작했고 3분기나 하반기에도 이런 규모의 성장과 이익의 성장이 지속될 것으로 기대한다"고 자신했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[포토] 토스뱅크, '한경 핀테크대상' 서비스 분야 대상 수상</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004888468?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>한국경제신문사와 한경닷컴이 공동 주최하고 금융위원회 금융결제원 은행연합회 한국핀테크산업협회 코리아스타트업포럼 등이 후원하는 '제8회 한경 핀테크대상 시상식'이 6일 오후 서울 여의도 글래드 호텔에서 열렸다. 서비스 분야 대상을 수상한 토스뱅크의 홍민택 대표이사(오른쪽)가 권대영 금융위원회 상임위원과 포즈를 취하고 있다.올해 8회째는 맞은 '한경 핀테크대상'은 금융기술 혁신에 기여하고 금융산업 발전에 이바지한 금융회사와 핀테크 기업을 표창하기 위해 2016년 제정했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>'초딩 알파세대' 사이에 이 카드가 핫하다며?</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012065910?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>인기 2위는 '쏘영체크카드'…1위 차지한 카드는?부모가 용돈주고, 아이가 기부하고 '이색 기능'도[서울=뉴시스]KB국민카드 '쏘영체크카드' 이미지(사진=KB국민카드 제공)2023.09.01 photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 남정현 기자 = 초등학생에게 가장 인기있는 카드가 '하나 아이부자카드'라는 한 조사결과가 나왔다. 3일 하나금융연구소는 보고서 '잘파세대의 금융 인식과 거래 특징의 이해'를 통해 잘파세대의 지출 수단을 조사한 결과 초등학생의 경우 '하나 아이부자카드'가 23.5%로 가장 높게 나타났다. '쏘영체크카드'가 19.1%로 그 뒤를 이었고, '티머니 카드'가 3위에 올랐다. '틴즈플러스포니카드'와 '유스카드'가 각각 4위에 랭크됐다. '하나 아이부자카드'는 충전된 금액까지만 결제 되는 선불충전카드다. 부모의 휴대폰 앱과 아이 휴대폰 앱을 연동해 사용할 수 있고 부모의 앱에서 바로 아이 카드로 용돈을 충전할 수 있다. 부모는 앱으로 아이가 쓴 용돈을 관리할 수 있고 아이는 돈을 따로 모으거나 용돈 계획을 세우고 기부를 하는 등 기본적인 금융활동을 시작해 볼 수 있다는 장점이 있다. 구체적으로 부모의 경우 용돈주기, 용돈내역 조회, 일하기, 빌려주기 등의 서비스를 이용할 수 있고 자녀는 용돈 사용, 용돈내역 조회, 일하기, 빌리기, 나누기, 불리기 등의 서비스를 이용할 수 있다. '쏘영체크카드'는 일반적인 체크카드와 같다. 청소년 전용 체크카드지만 후불교통 기능을 이용할 수 있다.한 달에 5만원 이상 사용하면 멜론, 유튜브프리미엄·문구점, 독서실·GS25, CU편의점·패스트푸드점·대중교통에서 영역별 1000원씩, 월 최대 5000원까지 5% 할인된다. 발급 가능 연령은 만 12세부터 18세까지다. 토스유스카드 역시 선불충전카드다. 토스유스카드는 토스머니를 충전해서 사용하면 되는데 토스머니를 최대 50만원까지 원하는 만큼 충전할 수 있다.자녀 명의의 휴대폰이 필요하며 만 14세 미만은 보호자 동의가 있어야 한다. 카드 혜택은 없다. 해외 결제는 불가능하며 온라인은 만 14세 이상일 경우 사용이 가능하다. 발급 가능 연령은 만 7세부터 만 17세까지다. 신한카드의 '틴즈플러스포니카드'는 후불교통카드, 영화 현장예매 시 2000원 할인, 롯데월드·서울랜드 자유이용권 50% 할인, 베스킨라빈스·던킨도너츠·KFC·버거킹 5% 캐시백 등을 주요 혜택으로 제공한다. 직전 3개월간 이용금액이 10만원 이상이어야 적용된다. 연회비는 없다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>하루 1만보에 만원씩만 연 11%…고금리에 낚였네</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003305506?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>직장인 고장석(32)씨는 월 100만원씩 부을 적금 상품을 알아보다가 가입을 포기하고 말았다. 최고 연 6~13%대 금리를 준다는 상품에 관심을 가졌지만, 까다로운 우대금리 조건에 실망했다. 고씨는 “실제로는 연 2~3% 이자만 받게 되는 ‘무늬만’ 고금리 상품이 많았고, 가입 금액도 월 30만원 등 제한을 뒀다”고 말했다.      금융사가 ‘최고금리’를 앞세우는 예·적금 특판 상품이 따져보면 ‘미끼’나 다름없다는 지적이 나온다. 까다로운 우대금리 조건을 모두 충족해야만 최고금리를 받을 수 있기 때문이다.      김영옥 기자           가입자가 과제를 수행하는 ‘미션형’ 상품은 달성 가능성을 가늠하기 어렵다는 평이 많다. 웰컴저축은행의 ‘웰뱅워킹적금’은 최대 연 10% 금리를 주지만, 1년에 500만보 넘게 걸어야 최대 우대금리인 연 8%포인트를 받을 수 있다. 365일 동안 매일 약 1만4000보를 걸어야 나오는 수치다.      우리은행의 ‘데일리 워킹 적금’은 최고 금리가 연 11%에 달한다. 하지만 연 10%포인트의 우대금리를 받으려면 입금일마다 ▶1만원 이하 입금 ▶1만보 이상 걷기 ▶우리WON뱅킹에서 인증 ▶마케팅 동의 조건을 지켜야 한다. 우대 조건을 어기면 기본금리인 연 1%만 적용된다. 상품의 계약 기간(6개월)과 가입금액(일 1만원 이하)에도 제한을 뒀다.      김영옥 기자           주변인을 가입시켜야 하는 상품도 있다. KB국민은행의 ‘KB 특별한 적금’은 친구 3명을 같은 적금에 가입시켜야 최고 연 2%포인트의 우대금리를 받을 수 있다. 부산은행의 ‘너만 솔로(Solo)’ 적금은 최고 연 8.9% 금리를 제공하는데, 이 중 5%포인트는 가입 기간 중 결혼해야 받을 수 있다. 적금 가입자 간 결혼 시 0.5%포인트의 추가 우대금리가 있다.      광주은행의 ‘행운적금’은 최고금리가 연 13.5%에 달한다. 여기서 10%포인트가 우대금리이고, 이를 받으려면 행운번호 추첨에서 당첨돼야 한다. 전북은행의 JB카드 재테크 적금(정기적립식)은 카드 실적을 충족해야 우대금리 4%포인트를 받을 수 있다. 이 밖에도 다수 상품이 급여·연금 이체, 카드 실적, 청약 보유 등 우대 조건을 걸었다.      김영옥 기자           이정환 한양대 경제금융학과 교수는 “인터넷은행과의 경쟁이 치열해지고 금융상품이 다양해지는 등 고객 확보가 어려워졌다”며 “금융사에는 전략일 수 있지만, 현실적으로 달성하기 어려운 우대금리는 소비자의 후생을 해치게 된다”고 말했다. 이에 한 시중은행 관계자는 “고금리 상품은 고객에게 금융사와 상품을 알리고, 앱 이용 시간과 빈도 등을 늘리려는 취지”라고 설명했다.      복잡한 조건 없이 최고금리를 지급하는 상품도 늘고 있다. 인터넷전문은행 토스뱅크의 ‘토스뱅크 자유적금’은 12개월 이상 가입하고 매월 자동이체를 하면 최고 연 5% 금리가 적용된다. 케이뱅크의 ‘코드K자유적금’도 우대금리 조건 없이 가입 기간에 따라 연 3.3~4.4% 이자를 준다. OK저축은행은 별도의 우대 조건 없이 연 4.41%의 금리를 제공하는 ‘OK e-안심앱플러스정기예금6’을 내놨다. 상상인저축은행·상상인플러스저축은행도 특별한 우대금리 조건 없이 연 4.2% 금리를 제공하는 상품인 ‘9개월 회전 정기 예금’을 출시했다.      금융당국은 최근 “예·적금 상품의 최고금리를 보고 가입했으나 우대금리를 적용받지 못하는 등 금융사의 사전 안내가 미흡하다는 민원이 지속해왔다”며 “소비자가 오인할 가능성이 큰 금융상품을 점검·개선하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>매출 30%↑ 손실 30% ↓ 토스...공격형 사업 이어간다</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003132656?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>토스토스를 운영하는 비바리퍼블리카가 올 상반기, 전년동기 대비 30% 매출을 늘리고 손실은 30% 줄였다. 쿠팡 이후 국내 두번째 데카콘(기업가치, 100억 달러 이상 스타트업)후보로 평가받는 토스가 연이은 스타트업 가치평가 잔혹사를 피해갈 수 있을지 주목된다.비바리퍼블리카는 상반기 약 6892억원 매출을 올리고 1133억원 순손실을 기록했다. 지난해 같은 기간 기록한 5309억원 매출과 1630억원 순손실에 비해 매출은 29.8% 늘었고 손실은 30.4% 줄인 수치다.비바리퍼블리카 관계자는 “토스증권 등 금융계열사가 선전한 것에 힘 입어 내실을 다졌다”면서 “하반기에도 결제와 광고 분야에서 추가 성과를 기대하고 있다”고 말했다.비바리퍼블리카는 지난해 8조9000억원 기업가치로 시리즈G 투자를 유치하며 데카콘에 바짝 다가섰다. 코로나 이후 주목받았던 스타트업들이 상장을 철회하거나 추가 투자를 유치 못하는 등 풍파를 겪는 와중에 2021년 6월 유치한 시리즈 프리G 투자보다 기업가치를 6000억원 더 높였다.올해 상반기 기준 비바리퍼블리카 단기차입금 규모는 2900억원으로 지난해 2800억원에서 약 100억원 늘었다. 덩치가 늘어나는 것과 비례해 운영을 위해 빌린 돈도 늘어난 것이다. 인수를 추진 중인 쓱(SSG)·스마일페이 인수가 마무리되면, 이를 토스페이로 전환하고 오프라인 결제를 늘리기 위한 마케팅에 자금이 필요하다. 매물로 내놓은 타다 매각이 최근 지지부진하며 하반기 필요한 운영자금 확보는 결국 외부에 기댈 가능성이 높다. 상장 등 기업공개는 여전히 검토 중인 것으로 알려졌지만, 최근 증시가 위축된데다, 이미 기업가치가 높아 쉽지 않다는 지적도 나온다.업계 관계자는 “토스 주 사업 영역에는 기존 금융권은 물론 네이버, 카카오 같은 빅테크 기업이 포진해있기 때문에, 비바리퍼블리카 입장에서는 기업가치를 높이기 위해 계속 대규모 자금을 투입해야 하는 상황”이라면서 “손실을 줄여가고 있다는 것은 긍정적이지만, 기존에 확보한 높은 기업 가치는 부담”이라고 말했다.비바리퍼블리카 관계자는 “상장이나 추가 투자유치와 관련해서는 아직 결정된 것이 없다”면서 “토스뱅크 등 비바리퍼블리카와 연결재무로 잡히지 않는 금융사 실적이 흑자로 돌아서는 등 안정을 되찾고 있고, 플랫폼을 중심으로 한 결제, 광고 등에서 견조한 성과를 낼 것”이라고 말했다.비바리퍼블리카 2022년, 2023년(반기) 실적 추이, 단위:원</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>모비데이즈, 제2회 모비데이즈 영 마케터스 챔피언십 성료</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005567652?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[이데일리 이윤정 기자] 디지털 애드테크(Ad-Tech) 전문 기업 모비데이즈가 주최한 ‘제 2회 모비데이즈 Young Marketers Championship’ 시상식이 성공적으로 마무리됐다.(사진=모비데이즈)시상식은 국내 최대 규모 마케팅·애드테크 컨퍼런스 ‘맥스서밋’에서 개최되었으며, 모비데이즈는 B2B Saas 기업인 ‘크리마’의 후원으로 광고 기획 부문의 최우수상, 우수상, 모비데이즈상을 시상했다.‘Young Marketers Championship’은 마케팅 업계를 선도하는 최고의 전문가 및 실무진과 함께 유망한 대학생 인재들의 참신한 아이디어와 가능성을 공유하는 공모전이다. 대학생들이 업계 전문가를 직접 만나 본인의 역량을 마음껏 펼치고 현재 직면하고 있는 마케팅 이슈에 대한 예비 광고인들의 참신한 아이디어를 발굴하기 위해 기획됐다.이번 공모전은 크리마의 AI 분석 기술을 활용한 브랜드 마케팅 아이디어 제안이라는 주제로 출품작을 접수받아, 현업 실무진과 후원사가 △창의성 △주제 적합성 △논리성 (전달성) △종합 완성도 4가지 항목을 기준으로 2차에 걸쳐 심사를 진행했다.최우수상에는 맛별로 설정한 ‘푸드 컬러’를 활용하여 광고 아이디어를 제안한 ‘무채食의 시대는 끝났다’가, 우수상에는 크리마를 활용하여 오프라인 확장 측면의 기획을 보여준 ‘Crema Creative Match’가, 모비데이즈상에는 크리마의 리뷰 데이터 분석 결과를 활용하여 기존 고객 유지 전략을 소개한 작품이 선정됐다.모비데이즈 관계자는 “공모전을 성료할 수 있도록 적극적으로 참여해 주신 후원사와 대학생에게 감사하다”라며 “대학생들이 모비데이즈 공모전을 통해 본인이 가지고 있는 마케팅 역량을 펼치고 경쟁력 있는 광고인으로 성장해 나갈 수 있는 발판을 마련하겠다. 내년에도 더 좋은 작품으로 많은 지원자와 만나길 바란다”고 말했다.수상작은 모비데이즈 공모전 공식 홈페이지 게시판에서 확인할 수 있다.한편, 공모전 시상식이 진행됐던 ‘Max Summit’은 8월 31일과 9월 1일, 양일에 걸쳐 모비데이즈의 주관 하에 국내외 마케팅 트렌드와 전망을 논의했다. 모비데이즈 관계자는 “토스, 구글, 메타 등의 연사와 500여 개 이상의 기업이 참여한 이번 컨퍼런스를 통해 새로운 변화 속에서 지속 가능한 마케팅 성장 동력에 대해 다양한 인사이트를 얻으셨길 바란다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023.09.10.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>농협은행, 생애주기별 맞춤형 마이데이터 서비스 선보인다</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003134584?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>농협은행이 생애주기별 맞춤형 마이데이터 서비스를 연내에 새롭게 선보인다. 마이데이터 시장에서 네이버파이낸셜, 카카오페이, 토스(비바리퍼블리카) 등 빅테크로 많은 소비자가 몰리는 가운데 은행만이 선보일 수 있는 마이데이터 기반 금융 서비스를 통해 이용자를 확대할 수 있을지 관심이 집중된다.10일 업계에 따르면 농협은행은 마이데이터 API 2.0을 통해 인프라를 고도화하는 동시에 새로운 서비스를 선보이기 위한 시스템 구축에 돌입했다. 한층 고도화된 마이데이터 서비스를 제공해 이용자 편의를 제고한다는 방침이다. 마이데이터는 이용자가 인가를 받은 사업자에게 은행, 카드, 보험 등에 흩어져 있는 금융·신용정보를 제공해 한 번에 관리하며 맞춤형 상품 등을 제공받을 수 있는 서비스다.농협은행은 이번 서비스 고도화로 청년과 중장년 등 각 연령층에서 필요한 서비스들을 선보인다. 우선 마이데이터 기반 학자금대출 관리 서비스를 제공한다. 이용자가 학자금을 시기별로 얼마나 상환해야 하고 이자 납부일이 언젠지 등을 캘린더에 보여주는 서비스가 될 전망이다. 이를 통해 사회 초년생이 된 이용자의 이자 관리 등 안전한 금융 생활을 지원할 수 있을 것으로 관측된다.중장년층에서 관심이 높은 마이데이터 기반 은퇴설계 계산기 서비스도 제공한다. 연금 수령액이나 소비 리포트를 기반으로 은퇴 이후를 예상할 수 있는 서비스다. 예를 들어 70세가 됐을 때 현재 소비 패턴을 기반으로 어느 정도의 소비가 예상되는지, 연금과 자산 등을 감안해 그만큼의 소비를 감당할 수 있을지 등을 확인해 볼 수 있다.더불어 소비통계리포트 서비스도 고도화해 새롭게 선보인다. 단순한 소비 결과만 분석해주는 자료가 아니라 이용자가 자신과 비슷한 연령대와 비교해 자신의 소비 수준이 어느 정도인지 파악할 수 있도록 지원한다. 사회 초년생 등 MZ세대 고객을 마이데이터 서비스로 끌어들일 유인책이 될 전망이다.농협은행뿐만 아니라 은행권에서는 앞으로도 은행 강점인 자산관리·투자·소비 등 전 영역에 걸쳐 마이데이터를 적용한 차별화 서비스가 확산할 전망이다. 기존 금융회사, 빅테크 외에도 수많은 고객과 통신데이터를 보유한 이동통신사도 마이데이터 사업 경쟁자로 뛰어든 가운데 은행권은 본연의 강점과 혁신기술을 융합한 마이데이터 서비스를 본격 확대할 것으로 분석된다.농협은행 관계자는 “앞으로도 마이데이터를 활용한 서비스를 지속 확대해 이용자 맞춤형 서비스를 지원하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>토스뱅크, '최저 연 3.32%' 전월세대출 출시…다자녀 특례도(종합)</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014172004?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>전세지킴보증 가입·등기변동 알림서비스도 연계홍민택 대표 "주담대 진출해야 하지만…구체적인 일정은 아직"발언하는 홍민택 토스뱅크 대표(서울=연합뉴스) 김성민 기자 = 5일 오전 서울 여의도구 콘래드호텔에서 토스뱅크가 연 '전·월세 보증금 대출 미디어 컨퍼런스'에서 홍민택 대표가 경영 성과 발표를 하고 있다. 2023.9.5 ksm7976@yna.co.kr    (서울=연합뉴스) 민선희 기자 = 인터넷전문은행 토스뱅크는 전월세보증금 대출을 출시한다고 5일 밝혔다.     토스뱅크에 따르면 전월세보증금 대출은 일반, 청년, 다자녀특례로 구분되며 고객의 소득, 나이, 가족 구성원 유무에 따라 토스뱅크가 맞춤형으로 제안한다.    일반·다자녀특례 상품은 임차보증금의 88% 한도로 최대 2억2천200만원까지 대출받을 수 있다.    일반은 고객 누구나 신청할 수 있는 상품이며, 다자녀특례는 미성년 자녀 수가 2명 이상인 고객이 대상이다.     다자녀특례의 경우 소득, 부채수준과 무관하게 대출한도와 보증료를 우대한다.    청년은 만 34세 이하 청년이면서 무주택자가 대상이다. 한도는 임차보증금 90% 범위에서 2억원까지다.    이날 기준 대출금리는 일반·다자녀특례가 연 3.32%∼5.19%, 청년이 연 3.42∼4.06% 수준이다.    토스뱅크는 '토스뱅크 케어'를 통해 전세보증금 반환보증 가입, 등기 변동 알림 서비스도 제공한다.     토스뱅크는 올 연말까지 전세지킴보증 가입 고객을 대상으로 최대 10만원까지 보증료를 지원할 예정이다.    홍민택 토스뱅크 대표는 최근 금융당국이 가계대출 급증을 경계하고 있는 가운데 전세대출을 출시한 배경에 대해 "전월세보증대출과 주택담보대출은 근본적으로 상품의 성격이 다르다"며 "전월세보증금 대출은 만기도 상대적으로 짧고, 실수요 위주의 상품"이라고 설명했다.     이어 주담대 출시 계획에 대해서는 "주담대 시장에 진출해야 한다고 생각은 하고 있지만, 아직 구체적인 시기는 결정되지 않았다"고만 답했다.    홍 대표는 이날 향후 계획에 대해 지방은행과의 공동대출, 외환 서비스 등의 출시를 준비 중이라고 밝혔다.     ssun@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>에이비일팔공(AB180), 베트남 공략 시동…게임사 2곳과 `에어브릿지` 공급 계약 체결</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002823351?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>마케팅 테크놀로지 기업 에이비일팔공(AB180, 대표 남성필)이 자체 개발한 통합 광고 성과 측정 및 분석 솔루션 '에어브릿지(Airbridge)'를 앞세워 해외 시장 공략을 본격화한다.에이비일팔공(AB180)은 8월에 베트남 현지 게임 업체 2곳과 '에어브릿지(Airbridge)' 신규 공급 계약을 체결했다고 5일 밝혔다.에이비일팔공(AB180)은 베트남 모바일 앱 시장이 가파르게 성장하고 있으며, 충분한 구매력을 지닌 잠재 고객사들이 많은 것으로 내다봤다. 특히 게임 시장이 매우 크고 성장 가능성 또한 높은 것으로 판단, 게임 업계를 집중 공략해 가시적인 결과를 만들었다. 에이비일팔공(AB180)이 자체 개발한 에어브릿지(Airbridge)는 모바일 앱과 웹을 통합해 사용자의 행동 및 광고 기여도를 측정하고 분석하는 솔루션이다. 모든 광고 성과를 하나의 대시보드에서 통합 분석할 수 있는 것이 특징이다. 특히 머신러닝 기반의 마케팅 성과 순증가분(Incrementality) 분석으로 허수를 제외한 진정한 마케팅 성과를 측정한다. 이외에도 광고 사기 방지 및 탐지 기능, 딥링크 기능, 오디언스 매니저 기능, 마케팅 믹스 모델링(MMM) 기능, 서드파티 툴 연동 등 고도화된 서비스를 제공하는 것도 큰 강점으로 꼽힌다. 여기에 △베트남 현지 파트너십을 통한 판매 네트워크 구축 △현지인 서비스 매니저 채용 △ 현지 기업 마케터 교육 △웨비나 개최 및 참석 △백서(White Paper)와 같은 업계를 조망하는 다양한 전문 콘텐츠 발간 등 적극적인 마케팅과 더불어 언어 소통을 고려한 맞춤 고객 서비스를 강화한 것도 주효했다는 평이다.한편, 에이비일팔공(AB180)은 올해부터 해외 시장 공략에 적극 나서고 있다. 단기간에도 불구하고, 글로벌 수준의 기술력을 바탕으로 베트남을 비롯하여 미국, 중국, 일본, 영국, 프랑스, 사우디아라비아, 말레이시아 등 약 20개국 현지 기업에 에어브릿지(Airbridge)를 판매하고 있다. 베트남 외에 사우디아라비아와 파키스탄도 에이비일팔공(AB180)이 잠재력을 높게 보고 있는 시장이다. 해외 시장에서 빠르게 인지도를 쌓아가며, 게임사를 비롯한 현지 회사들의 솔루션 도입 문의가 급증하고 있다. 남성필 에이비일팔공(AB180) 대표는 "타 경쟁 글로벌 솔루션 대비 우수한 기술력에, 투명한 이용료, 빠른 서비스 대응과 같은 한국 SaaS솔루션이 가진 강점이, 해외 시장에서 의미 있는 성과를 만들어 내고 있는 원동력인 것 같다"라며 "에이비일팔공(AB180)이 해외 시장에서 성공하는, K-사스(SaaS)의 대표 기업이 될 수 있도록 지속적인 투자와 노력을 다할 것"이라고 말했다. 현재 에이비일팔공(AB180)은 GS홈쇼핑, SC제일은행, SK텔레콤, 버거킹, 카카오스타일, 퀸잇, 토스 등 국내 및 글로벌 고객사들에게 에어브릿지(Airbridge)를 비롯한 다양한 마테크 솔루션을 제공하고 있으며, 에어브릿지(Airbridge)를 통해 200여 개국 약 5400만 개의 디바이스에서 발생하는 광고 및 고객 데이터를 실시간 분석하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>미 소비자물가 오름세‥연말 금리인상설 '고개'</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/214/0001299751?sid=104</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>[뉴스투데이]◀ 앵커 ▶미국에서는 다음 주 연준의 기준금리 발표를 앞두고 다시 물가 상승 우려가 나오고 있습니다. 최근 급등한 국제 유가 영향으로 소비자물가지수가 두 달 연속 오름세를 보인 건데 이번에는 기준 금리 동결이 유력하지만, 연말에 금리를 한 번 더 올릴 수도 있습니다.뉴욕에서 강나림 특파원입니다.◀ 리포트 ▶현지시간 13일 미국 노동부가 발표한 8월 미국 소비자물가지수는 작년 같은 기간보다 3.7% 올랐습니다.전문가 전망치를 웃도는 수준인데다 7월 상승률 3.2%와 비교해 상승폭이 가팔라졌습니다.8월 소비자물가지수는 전월과 비교하면 0.6% 올랐는데, 14개월 만에 가장 높은 수준입니다. 물가지수가 두 달 연속 오름세를 보인 가장 큰 이유는 급격히 오른 국제유가 때문입니다.러시아와 사우디아라비아의 감산 여파로 휘발유 가격은 전월보다 10.6% 폭등했습니다.다만, 변동성이 큰 에너지와 식품을 제외한 근원 소비자물가지수는 작년 대비 4.3% 오르는 데 그치며 전달보다 둔화했습니다. 연준이 통화정책을 결정할 때 눈여겨보는 지표인 근원 소비자물가지수가 둔화 흐름을 유지했고, 과열됐던 미국 노동시장도 진정 조짐을 보이고 있기 때문에 당장 금리 인상으로 이어지지는 않을 것으로 보입니다.[필 토스/토스자산관리 최고경영자]"8월 소비자물가지수가 긍정적이진 않지만, 연말까지 남은 기간 동안 연준이 채택할 경제 전망을 바꿀 만큼인 것 같지는 않습니다."시장에서는 다음 주 열리는 통화정책회의에서 연준이 기준금리를 현재 5.25~5.50%로 동결할 것으로 보고 있습니다.11월이나 12월에 연준이 추가로 금리를 인상할 것인지가 관심사인데, 유가 상승이 얼마나 오래 지속될 지가 변수가 될 전망입니다.근원 소비자물가지수가 둔화세를 보인 데 대한 안도와 물가 오름세가 계속될 경우 연준의 긴축 기조가 길어질 수 있다는 우려가 엇갈리면서 뉴욕증시는 혼조세로 마감했습니다. 뉴욕에서 MBC뉴스 강나림입니다.MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000▷ 이메일 mbcjebo@mbc.co.kr▷ 카카오톡 @mbc제보</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>진에어, 온라인 프로모션 ‘진심여행상점’ 오픈</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/468/0000979369?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>국제선 할인코드 넣어, 예매 ‘10% 할인’ 혜택진에어가 온라인 프로모션인 ‘진심여행상점’을 12일 오픈하며 국내 및 국제선 여행객을 위한 다양한 혜택을 마련했다. 사진|진에어[스포츠서울 | 원성윤기자] 진에어가 온라인 프로모션인 ‘진심여행상점’을 12일 오픈했다. 이를 기념해 동남아, 괌, 대만, 마카오 노선 등 국제선 항공권을 예매하는 고객에게 최대 10% 운임 할인을 제공하는 이벤트를 진행한다. 이용객은 홈페이지 화면에 표시된 할인코드(‘JINSIM23W’)를 항공권 결제 단계에서 입력하면 된다.국내선 항공권 예매 고객에게는 토스페이 간편결제 이용 시 적용되는 할인쿠폰이 선착순으로 지급된다. 무료 위탁 수하물(15kg) 서비스는 기본으로 제공되며, 탑승 기간은 오는 28일까지다.이와 더불어 △ 베트남 빈펄 그룹과 협업해 다낭, 나트랑 지역의 호텔 이용 시 레이트 체크아웃 △인천~괌 노선 예매 고객 대상 여행용 파우치 세트 등이 제공되는 응모 이벤트도 진행한다. 진심여행상점 관련 기타 자세한 사항은 진에어 홈페이지를 참조하면 된다.socool@sportsseoul.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>토스뱅크, 연 3%대로 전월세대출…보증금 88% 보증</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000770589?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>전세 지킴 보증·동기 변동 알림·다자녀 특례도토스뱅크가 연 최저 3%대의 전월세 대출을 내놨다. 은행권 최초로 보증금을 80% 이상 보증하고, 보증료율도 다른 은행의 6분의 1 수준까지 낮췄다.토스뱅크는 5일 "일반과 다자녀 고객은 최대 2억원까지 이날 기준 3.42~4.06%로 이용할 수 있다고 밝혔다. 청년 전월세 대출은 만 34세 이하 청년으로 무주택자여야 한다. 임차보증금의 90%까지 최대 2억원 한도로 금리는 이날 기준 3.32%~5.19%다.토스뱅크 전월세대출 이미지. [사진=토스뱅크]토스뱅크 관계자는 "금리는 큰 변동이 없는 한 3%대에서 등락할 것"이라면서 "낮은 금리를 드리기 위해 노력하겠다"고 말했다.토스뱅크는 전월세 보증금 대출에 '토스뱅크 케어'를 포함했다. 토스뱅크 케어는 전세지킴보증·등기변동알림·다자녀 특례 대출로 이뤄졌다.'전세지킴보증'은 고객들이 전월세대출을 받은 후 보증금반환보증을 신청할 수 있도록 했다. 전세사기 피해를 방지하기 위한 대책으로 보증금의 88%까지 보증한다.주택금융공사(HF)에서 80%를 보증하고, 토스뱅크가 8%를 더 해준다. 보증료도 연 0.02~0.04%로 최저 8만원이면 가입할 수 있다. 연말까지 전세보증지킴에 가입하면 최대 10만원까지 보증료를 지원하는 이벤트도 한다.등기 변동 알림과 다자녀 특례도 제공한다. 미성년 자녀가 2명 이상이면 소득이나 부채 수준과 무관하게 대출 한도와 보증료를 우대받는다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>퓨어스토리지, '퓨어//액셀러레이트' 개최…AI 혁신 역량 소개</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0014187596?sid=105</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>MS와 전략적 협력 확대해 '애저 VM웨어 설루션' 개발·공개퓨어스토리지 에이제이 싱 최고제품책임자(CPO) [퓨어스토리지코리아·플레시먼힐러드 제공] (서울=연합뉴스) 홍국기 기자 = 퓨어스토리지는 12일 서울 송파구 잠실동 시그니엘서울에서 연례 콘퍼런스인 '퓨어//액셀러레이트 2023 서울'을 열어 자사 인공지능(AI) 분야 혁신 역량을 소개했다.     2009년 설립된 퓨어스토리지는 데이터 스토리지(저장) 기술·서비스 업체로, 다중 클라우드 환경에서도 저장 공간 운용에 대한 복잡성과 비용을 줄일 수 있는 서비스를 제공한다.    2018년 업계 최초로 AI 인프라 '에이리'(AIRI)를 출시했으며 지난해에는 데이터 스토리지 '플레시블레이드//S'를 내놨다.     현재 퓨어스토리지의 고객사는 1만1천개를 넘는다.    특히 퓨어스토리지는 마이크로소프트(MS) 클라우드 컴퓨팅 플랫폼인 '애저'(Azure)와 함께 클라우드 소프트웨어 분야의 선도 업체 VM웨어의 클라우드를 위한 세계 유일의 외장형 블록 스토리지를 개발했다.    이른바 '애저 VM웨어 설루션'(AVS)은 클라우드 비용 절감, 유연성 확장, 분석 가속화, 데이터 보호 등의 측면에서 장점을 지닌다.     기업의 클라우드 도입이 가속함에 따라 대부분의 회사는 블록 기반 스토리지를 사용하는 VM웨어 환경의 전체나 일부를 클라우드로 옮기고자 하지만, 온프레미스(기업의 자체 설비로 보유·운영하는 서버) 구축과 견줘 일관되지 않은 스토리지 계층 관리와 데이터 증가 탓에 스토리지를 독립적으로 확장해야 했다.     그러나 퓨어스토리지와 마이크로소프트의 협력 확대에 따른 AVS 개발로 이런 장벽을 제거할 수 있게 된 것이다.    퓨어스토리지의 에이제이 싱 최고제품책임자(CPO)는 이날 시그니엘서울에서 열린 미디어브리핑 행사를 통해 마이크로소프트와 전략적 협업을 더욱 확대했다면서 "(AVS는) 궁극적으로 클라우드 서비스를 더욱 빠르고 비용 효율적으로 도입할 수 있도록 지원하는 중요한 이정표가 될 것"이라고 강조했다.    퓨어스토리지 에이미 파울러 부사장(플래시블레이드 총괄)은 "기업의 40%가 AI에 대한 투자를 늘릴 계획이고, 69%가 하나 이상의 AI 프로젝트를 운영 중"이라며 퓨어스토리지의 데이터 스토리지 플랫폼은 효율성, 가용성, 전력 소비 절감 등을 고려해 설계됐다고 설명했다.     퓨어스토리지가 개최하는 연례 콘퍼런스인 이날 행사에는 국내 주요 고객사 약 1천300곳이 등록했으며 토스뱅크와 삼성전자를 비롯한 연사들이 참석했다.퓨어스토리지 에이미 파울러 부사장 [퓨어스토리지코리아·플레시먼힐러드 제공]     redflag@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[10분 뉴스정복] "천재적 아부" 김건희법 논란？</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/047/0002406482?sid=102</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>'한중일' 말고 '한일중'으로 불러달라고? ... 엉망진창 검찰 특수활동비, 공소 시효 1년 남았다 ▲   윤석열(대통령 부부) ⓒ 대통령실 슬로우레터 2023년 9월 15일 (목).1. "천재적 아부", '김건희법' 논란.2. "'한중일' 말고 '한일중'으로 불러달라."3. 뉴스타파와 JTBC 압수수색.4. 엉망진창 검찰 특수활동비, 공소 시효 1년 남았다.5. 이균용 재산리스크, 가볍지 않다.6. 리비아 댐 붕괴 사고, 사망자 2만 명 넘을 수도.7. "바이든은 대선에 나와서는 안 된다."8. 장기 이식 대기자가 기증자의 122배.9. 빅테크 CEO들의 제안, "우리를 규제해 달라."10. "쥐를 잡자", 연봉 2억 원의 '랫 차르'.11. 삼양식품이 아니라 삼양라운드스퀘어.12. 외계인 시신(으로 추정되는 물체)이 공개됐다?13. 젖소 한 마리 1년 수익이 1000원?14. 블랙핑크 제니 인스타 1건이 28억 원.15. 간편한 대출? 20대 청년들 연체가 늘고 있다.16. '구하라법' 아직 통과 안 됐다.17. 판교를 10개 만들어야 한다.18. 재사용 컵? 맥주 병 생각하면 된다.19. 한국 반도체의 골든타임이 끝나간다._________________________________"천재적 아부", '김건희법' 논란.     •    유승민(전 국민의힘 의원)의 말이다. 개 식용 금지법을 '김건희법'으로 부르는 걸 두고 논쟁이 벌어졌다. "대통령을 무슨 신적 존재로 떠받들며 천재적 아부를 하던 자들이 이제는 대통령 부인에게까지 천재적 아부를 한다"고 지적했다.    •    박대출(국민의힘 정책위의장)은 "많은 언론이 쓰는 표현을 정치인이 인용하는 건 자연스러운 일"이라고 반박했다. 국민의힘은 당론으로 추진하겠다는 입장이다.    •    미국에 레이디버드법이 있는데 린든 존슨(전 미국 대통령)의 부인 레이디버드 존슨의 이름을 딴 법이다. 광고와 간판을 규제하고 야생화와 자생 식물을 심도록 하는 도로 미화 관련 법이다.    •    한국일보는 익명의 국민의힘 의원의 말을 인용해 "법안의 취지는 좋지만, 영부인 행보에 당이 뒤따라가는 느낌을 주고 있다"고 지적했다. "당이 용산만 바라보고 여론에는 신경 안 쓰고 있다는 방증"이라는 비판도 나온다.    •    일단 법안 자체는 민주당도 찬성 입장이라 이번 정기국회에서 통과할 가능성이 크다."'한중일' 말고 '한일중'으로 불러달라."    •    "동해를 일본해로 바꾸는데 큰소리도 못치면서 한중일을 한일중으로 바꾼다." 며칠 전 유승민(전 국민의힘 의원)의 말이다.    •    어제 대통령실 관계자가 기자들에게 "중국과 일본 관계를 이야기할 때는 '한일중'으로 해달라"고 말했다.    •    한중일 정상회의냐 한일중 정상회의냐를 두고 논란이 있었는데 윤석열(대통령)은 12일 "한중일"이라고 했다. 대통령실 관계자는 "앞뒤 맥락이 주로 중국의 문제를 이야기하는 단락이었기 때문에 중국을 강조하느라 그랬다"고 설명했다.    •    중국의 기관지 환추스바오는 윤석열이 '한일중'이란 표현을 쓴 걸 두고 "많은 한국인이 이상하게 들었고, 일부 네티즌은 '일한중'이 정확한 순서라고 비꼬았다"고 지적했다. ▲    윤석열(대통령) ⓒ 대통령실 뉴스타파와 JTBC 압수수색.    •    검찰이 뉴스타파 사무실과 취재 기자들 집을 압수수색했다. 윤석열(대통령)의 명예를 훼손했다는 혐의다. 검찰은 뉴스타파가 지난 대선 직전에 내보낸 김만배(화천대유 대주주)의 인터뷰가 허위인 데다 조작됐다고 단정하고 있다.    •    경향신문과 한겨레는 1면 기사로 다뤘는데 조선일보와 중앙일보, 동아일보는 12면에 실었다.    •    뉴스타파는 "윤석열 한 사람의 심기를 보위하려고 검찰이 충성 경쟁에 나섰다"고 반발했다.    •    한겨레는 사설에서 "대통령 개인의 피해를 '대리 보복'하기 위해 검찰권을 동원했다는 비판을 피하기 어려울 것"이라고 지적했다. 경향신문도 사설에서 "대장동 일당의 종잣돈과 '50억 클럽' 시발점이 된 이 사건에서는 부실 수사 의혹이 제기된 검찰도 그 책임에서 자유로울 수 없다"고 지적했다.엉망진창 검찰 특수활동비, 공소 시효 1년 남았다.    •    마침 뉴스타파와 뉴스민, 함께하는시민행동 등이 검찰 특수활동비 지출 내역을 분석한 결과를 공개하기로 한 날이었다. 수사와 기밀활동에 써야 할 특수활동비가 회식비나 격려금 용도로 사용된 정황이 드러났다. 공기청정기 렌탈과 검찰 간부들 기념사진 촬영, 심지어 햄버거 구입 등에 지출한 사실도 확인됐다.    •    뉴스타파에 따르면 상당수 검찰청에서 특수활동비 기록을 무단 폐기한 상태다. 2017년 5월부터 2019년 9월까지 특수활동비 290억 원 가운데 상당 부분이 증빙 없이 현금으로 사용됐거나 그나마 영수증도 판독 불가인 경우가 많았다.    •    공공기록물법 위반 공소시효가 1년 정도 남은 상태다.이균용 재산리스크, 가볍지 않다.    •    다른 사람도 아니고 대법원장 후보자의 일 처리가 너무 부실하다는 평가가 많다. 자녀의 재산 신고를 빠뜨렸고 송금 내역도 공개하지 않았다. '제도가 바뀐 것을 몰랐다', '자녀의 재산이라 사실관계 파악에 제한이 있다'고 해명했다.    •    이균용이 신고한 재산은 72억 원.    •    실제로 이균용이 내린 판결에서도 재산신고를 누락한 정치인에게 당선무효형을 선고한 적도 있다. 재산신고를 다른 사람에게 맡겨 몰랐다는 주장을 받아들이지 않았다. 판결문에서는 "공직자가 부정하게 재산을 늘리는 걸 막고, 공무를 공정하게 집행하기 위한 것"이라고 강조하기도 했다.리비아 댐 붕괴 사고, 사망자 2만 명 넘을 수도.    •    데르나 인구 10만 명 가운데 5분의 1 정도가 실종 또는 목숨을 잃었다.    •    시체를 수습할 인력과 장비가 부족해 전염병 확산도 우려된다. ▲     리비아 대홍수와 댐 붕괴로 인한 데르나 연안의 변화. 전(왼쪽) 후(오른쪽) 모습. ⓒ 알자지라 "바이든은 대선에 나와서는 안 된다."    •    워싱턴포스트 칼럼니스트 데이비드 이그나티우스의 칼럼이다. 바이든의 최대 업적은 트럼프의 재선을 막은 것이고 바이든이 재선에 출마할 경우 그 업적이 무너질 거라는 경고다.    •    AP 여론조사에서는 77%의 미국 국민들이 "바이든이 4년 더 대통령직을 수행하기에 너무 늙었다"고 답변했다. CNN 여론조사에서는 미국인 유권자 46%가 야당에서 누가 나오더라도 바이든보다 낫다고 답변했다.    •    뉴욕타임스도 최근 "지난 대선 때 바이든 대통령의 핵심 지지세력이었던 흑인과 히스패닉 유권자의 지지가 지속해서 줄고 있다"고 지적했다.[해법과 대안.]장기 이식 대기자가 기증자의 122배.    •    장기 기증자가 지난해 405명에 그쳤다. 10년 만에 가장 적다. 대기자는 5만 명이 넘는다. 날마다 대기자 8명이 죽는다.    •    강치영(한국장기기증협회 회장)은 "우리나라 국민은 본인과 내 가족의 몸에서 장기를 떼어내는 것에 대한 거부감과 불안이 크다"면서 "장기 기증자와 그 유족에 대한 국가·사회적 예우가 부족하다 보니 장기 기증에 대한 인식이 좋지 않다"고 지적했다.    •    조선일보는 "한국은 법적으로 '뇌사 장기 기증(DBD)'은 인정하고 있지만 '순환 정지 후 장기 기증(DCD)'은 인정하지 않고 있다"고 지적했다. 뇌사 이전에 (물론 본인의 동의를 전제로) 혈액 순환이 멈추면 장기를 적출할 수 있게 해야 한다는 이야기다. 미국은 '순환 정지 후 장기 기증' 비율이 30%가 넘는다.빅테크 CEO들의 제안, "우리를 규제해 달라."    •    "AI에 대해 우리는 반응적(reactive)이 아닌 적극적(proactive)인 행동을 취해야 한다." 일론 머스크(테슬라 CEO)의 말이다. "자율주행차에 대해 걱정할 것이 아니라, '더 깊은 AI'에 대해 우려를 집중해야 한다"고도 했다.    •    척 슈머(민주당 상원 원내대표)가 만든 AI인사이트포럼이 미국 국회에서 열렸다. AI 규제를 도입하는 방안에 압도적인 공감대(overwhelming consensus)가 형성됐다는 평가다.    •    일론 머스크와 마크 저커버그(메타 CEO)도 오랜만에 만났다. 기자들이 '현피' 가능성을 묻자 머스크는 "그가 원한다면"이라고 말했다."쥐를 잡자", 연봉 2억 원의 '랫 차르'.    •    뉴욕에만 최소 200만 마리의 쥐가 산다. 뉴욕이 연봉 15만 5000달러를 걸고 쥐 박멸을 전담할 설치류경감국장을 뽑았는데 교육공무원 출신 캐슬린 코라디가 900:1의 경쟁률을 뚫고 선발됐다. '청부 살서(殺鼠) 업자'다. 쥐들의 황제, '랫 차르(Rat Czar)'라고도 불린다. 강력한 권한을 부여받은 공직자라는 의미다.    •    "우리가 집중하고 있는 건 '먹이 뺏기'예요. 그동안 맨해튼의 음식점들은 전 세계에서 온 관광객들이 먹다 남은 음식을 아무 고민 없이 길거리에 내놨어요. 쥐에게 밥상을 차려준 거죠." 가장 먼저 한 일이 음식 쓰레기를 내놓는 시간을 오후 4시에서 8시로 늦추도록 했다. "쥐를 '잡는 것'보다 근본적으로 쥐가 살기 힘든 상황을 만드는 데 주력하고 있다"는 이야기다.    •    실제로 쥐가 얼마나 줄었는지 확인하기는 어렵지만 접수 건수가 지난해 같은 기간 대비 15~26% 줄었다. ▲     연설 중인 쥐 황제(‘랫 차르’) 캐슬린 코라디 뉴욕시 설치류경감국장과 뒤편 왼쪽에서 웃고 있는 에릭 애덤스 뉴욕시장. ⓒ 뉴욕시 제공. [오늘의 TMI.]삼양식품이 아니라 삼양라운드스퀘어.    •    60년을 맞아 CI를 바꿨다. 라운드스퀘어는 '음식과학'이라는 의미다.    •    2025년까지 불닭 매출 1조 원을 만들겠다고 선언했다. 지난해에만 불닭볶음면을 6100억 원어치 팔았는데 4800억 원이 해외 매출이다.    •    오너 3세 전병우(전략기획본부장)이 모습을 드러냈다. 2019년 아버지 전인환(회장)이 횡령 혐의로 유죄 판결을 받은 뒤 25세 부장으로 입사했다. ▲     삼양식품의 새로운 CI와 그 의미 설명. 삼양식품 제공.ⓒ 삼양식품 외계인 시신(으로 추정되는 물체)이 공개됐다.    •    페루 나스카 인근 해안에서 발견됐는데 제보자는 탄소 측정 결과 1000년이 넘었다고 주장하고 있다. 멕시코 의회 청문회에서 공개됐다.    •    멕시코 해군 보건과학연구소가 DNA 분석을 했는데 인간과 관련이 없는 게 확실하다는 결론을 내렸다. 섣불리 판단하기에는 이르다. 과거에도 비슷한 사체가 공개된 적 있는데 어린이 미라로 밝혀진 적 있다. ▲     국내 언론 여러 곳에서도 소식을 전한 멕시코 의회의 외계인 청문회.ⓒ JTBC 젖소 한 마리 1년 수익이 1000원?    •    소 키워서 대학 보낸다는 건 옛날이고 공짜로 준다고 해도 가져간다는 사람이 없다. 한국일보가 만난 목장 주인의 말이다. 낙농가 다 죽게 생겼다는 말이 나온다. 실제로 지난해 4600가구로 1년 전보다 133가구가 줄었다.    •    젖소 한 마리 순수익이 153만 원으로 37% 줄었다. 50마리 미만 소규모 농가는 1000원밖에 안 남는다. 사룟값이 오르기도 했지만 우유 소비가 줄면서 우유 제조 업체들이 쿼터를 줄이고 있다.    •    밀크플레이션(우유+인플레이션) 우려 때문에 정부가 가격 억제를 요청했고 밑지는 장사를 하고 있다는 분석이다. 점유율 42%의 서울우유는 원유 가격이 8.8% 올랐는데도 제품 가격은 3%밖에 안 올렸다.블랙핑크 제니 인스타 1건이 28억 원.    •    캘빈클라인이 제니와 콜라보 캠페인으로 6800만 달러의 매출을 만들었다. 마케팅 플랫폼 론치메트릭스 분석이다. 지수가 찍은 디올 영상은 1090만 달러의 임팩트 가치를 만들었다.    •    컨설팅기업 맥킨지에 따르면 미국의 소셜 커머스시장이 지난해 457억 달러에서 2025년 796억 달러까지 늘어날 전망이다. 나스미디어는 한국 인플루언서 커머스 시장도 6조 원에서 28조 원 규모로 늘어날 거란 전망했다.간편한 대출? 20대 청년들 연체가 늘고 있다.    •    20대 이하 비대면 대출 연체금이 587억 원으로 늘었다. 카카오뱅크와 토스뱅크 등 인터넷 은행 3사 집계다. 20대 연체율이 2.4%에 이른다. 대출 규모는 2조4419억 원.    •    비대면 대출은 절차가 간단하지만 금리는 높은 편이다. 평균 7.07%로 시중 은행 금리 5.88%보다 높다.[더 깊게 읽기.] '구하라법' 아직 통과 안 됐다.    •    54년 만에 나타나 아들 사망금을 달라고 요구한 법적인 어머니. 가족들은 차라리 국가에서 환수해 어려운 사람들에게 나눠달라고 하소연했다.    •    부양의무를 다하지 않는 부모의 상속권을 제한하는 민법 개정안, 이른바 구하라법이 2020년 발의됐는데 아직 통과되지 않은 상태다.    •    서영교(민주당 의원) 안은 양육 의무를 다하지 않으면 상속 자격을 제한하는 법이고 법무부 안은 그 판단을 법원이 해야 한다고 본다. 각각 "상속 결격사유 확대"와 "상속권 상실 선고" 제도라고 부른다.    •    서영교안은 "가족 의무를 하지 않으면 혈연이라도 가족이 아니다"라고 보지만, 법무부안은 "가족이긴 한데 상속받을 자격은 없다"고 보는 차이가 있다.    •    다음은 문소영(중앙선데이 문화전문기자)의 질문이다. "급변하는 사회 속에서 가족의 개념도 재정립할 필요가 있다. 아예 혈연이 아닌 의무 중심 가족 개념으로 가야하는가, 아니면 혈연 중심 개념은 유지하되 의무를 다하지 않으면 권리를 제한해야 하는가." ▲     가족은 무엇으로 어떻게 태어나는가. 혈연관계면 가족인가, 아니면 사랑과 헌신, 책임과 의무가 있어야 가족인가. [가족의 탄생] (김태용, 2006)ⓒ 가족의탄생 [밑줄 쳐 가며 읽은 칼럼.]판교를 10개 만들어야 한다.    •    권순원(숙명여대 경영전문대학원장)의 제안이다.    •    한국은 지난 20년 동안 500시간이 넘는 연간 근로시간을 줄였는데도 여전히 OECD 평균보다 150시간을 더 일한다. 노동시장 은퇴 연령도 가장 늦다(약 72세).    •    판교를 대안으로 꼽은 건 이동이 활발하고 일자리의 질은 균등하기 때문이다. "근로조건 결정도 내부노동시장이 아닌 직무형 외부시장이 규율한다. 그곳에서 희망의 커리어가 생산된다. 10년 내에 '판교' 10개를 만들지 못하면 우리나라는 그야말로 지구상에서 가장 빨리 사라지는 나라가 될 것이다." ▲   판교ⓒ 판교테크노밸리 제공.  재사용 컵? 맥주 병 생각하면 된다.    •    일회용 컵 500개를 만들려면 1500리터의 물이 필요하다. 반면 유리컵 500번 씻을 때는 210리터의 물이면 된다. 환경을 생각하면 재사용이 답이다. 재사용 컵에 대한 불편한 인식이 있지만 맥주나 소주를 마실 때 새 병인지 재사용 병인지 따지지 않는다.    •    유리병 하나를 20회 정도 재사용하면 탄소 배출량이 42.9g으로 일회용 유리병이나 페트병, 알루미늄 캔보다 적다. 20회 이상을 재사용해야 한다는 게 핵심이다. 한국의 공병 반환율은 96.4%에 이른다. 지난해 상반기 기준으로 20억5,200만 병의 음료수병 가운데 19억3500만 병이 되돌아왔다.    •    고금숙(플라스틱프리 활동가)은 "일회용 유리병에 담긴 주스, 박카스, 잼을 파는 대기업이 나선다면, 혹은 정부가 맥주병처럼 병 보증금제를 확대한다면 상황은 달라질 것"이라고 제안했다. ▲     병 크기를 통일한 코카콜라와 펩시.ⓒ 코카콜라와 펩시. 한국 반도체의 골든타임이 끝나간다.    •    "과거의 일본보다 지금의 한국이 훨씬 안 좋다. 한국이 일본을 추월한 것보다 더 빨리 중국이 우리를 넘어설 것이다." 이심기(한국경제신문 부국장)이 만난 반도체 업계 관계자의 이야기다. "핵심은 중국의 추격 속도가 아니라 한국의 자만에 있다"는 이야기다.    •    화웨이가 내놓은 5세대 스마트폰 메이트60 프로가 불러온 충격을 간과해서는 안 된다. 7나노 반도체 양산은 우려할 정도는 아니라는 분위기가 지배적이지만 "시간 문제일 뿐"이라는 관측도 있다.    •    1983년 삼성전자가 무수한 반대를 무릅쓰고 반도체 양산에 도전했을 때 자본, 기술, 인프라 중 가진 것은 아무것도 없었다. 지금 중국은 이 세 가지가 다 있고 시장도 확보돼 있다. 한국이 일본을 따라잡은 것처럼 지금 중국의 자립 의지를 가볍게 봐서는 안 된다는 지적이다. ▲     7나노칩을 탑재한 화웨이 메이트60. ⓒ 화웨이 제공. #슬로우뉴스 #지식토스트 #지식토스트_모닝브리핑</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>가계대출 21개월만에 최대폭 증가… 당국, 인터넷銀 현장점검</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003518487?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>8월 5대銀, 한달새 1조5912억 늘어‘50년 주담대’는 3조4166억 급증연체율 등 은행권 건전성 지표 악화‘주담대 폭증’ 인터넷은행 관리 강화지난달 주요 시중은행의 가계대출 잔액이 1년 9개월 만에 가장 큰 폭으로 늘어난 것으로 나타났다. 부동산 가격 상승에 대한 기대감이 커진 데다, 50년 만기 주택담보대출(주담대)에 대한 규제 소식이 전해지자 ‘막차 수요’가 몰린 결과로 풀이된다.  가계 빚이 급증하는 가운데 은행권 전체 연체율은 1년 전의 두 배로 치솟았다. 가계빚 상황이 심상치 않다고 판단한 금융당국은 50년 주담대 취급 한도를 줄이는 한편 올 상반기(1∼6월)에만 주담대를 5조 원 넘게 늘린 인터넷은행에 대한 현장 점검에 돌입했다.● 가계대출 1년 9개월 만에 상승폭 최대  3일 금융권에 따르면 KB국민, 신한, 우리, 하나, NH농협 등 5대 시중은행의 8월 말 가계대출 잔액은 680조8120억 원으로 전월 말 대비 1조5912억 원 증가했다. 5월(1431억 원), 6월(6332억 원), 7월(9755억 원)보다 증가 폭이 커지면서 넉 달 연속으로 늘었다. 지난달 증가 규모는 2021년 11월(2조3622억 원) 이후 1년 9개월 만에 가장 높은 수준이다. 최근 가계대출이 급증한 건 50년 만기 주담대 수요가 몰렸기 때문으로 풀이된다. 5대 은행의 50년 만기 주담대 판매액은 지난달 31일 기준 4조2823억 원으로 한 달 전에 비해 3조4166억 원 불어났다. 같은 기간 전체 주담대 잔액은 512조8875억 원에서 514조9997억 원으로 2조1122억 원 늘어났다. 50년 만기 주담대가 불티나게 팔리면서 전체 잔액도 증가했다는 얘기다. 50년 만기 주담대가 폭발적으로 늘어난 건 곧 판매가 중단될 수 있다는 시그널이 대출 수요를 자극했기 때문이다. 금융당국이 지난달 50년 만기 주담대를 가계대출 증가의 주범으로 지목하면서 은행들은 해당 상품에 대한 판매를 잠정 중단하기 시작했다. BNK경남은행은 지난달 28일부터 판매를 잠정 중단했고 NH농협은행도 31일까지만 이 상품을 판매했다. 한 시중은행 관계자는 “50년 만기 주담대 상품 판매가 중단된다고 하자 고객들의 문의가 빗발쳤다”며 “금융당국이 더 까다로운 기준을 제시하기 전에 ‘일단 가입하고 보자’는 고객 수요가 많았다”고 말했다. ● 은행권 건전성 지표도 악화… 금융당국 고심 커져 이처럼 가계대출이 4개월 연속 가파르게 증가하는 가운데 은행권의 건전성 지표도 악화돼 부실 우려가 커지고 있다. 7월 말 기준 5대 은행의 평균 대출 연체율은 0.31%로 한 달 전보다 0.02%포인트 높아졌다. 1년 전(0.18%)보다는 0.13%포인트 올랐다. 3개월 이상 연체된 채권의 비율인 고정이하여신비율도 한 달 새 0.25%에서 0.29%로 0.04%포인트 상승했다. 은행권이 건전성 관리를 위해 6월 말부터 부실채권 매각에 적극 나섰지만 7월 들어 연체율이 다시 오름세에 접어든 것이다. 금융당국은 가계부채의 질적 수준을 관리하기 위해 다양한 방안을 내놓고 있다. 우선 50년 만기 주담대의 총부채원리금상환비율(DSR) 산정 만기를 조정하는 식으로 한도를 축소하기로 했다. 금리 상승기에 취약 대출자를 보호하기 위해 마련된 상품이 오히려 대출 규제를 우회하는 수단으로 악용되고 있다는 판단에서다. 당국은 50년 만기 주담대를 40년에 걸쳐 갚는 것으로 가정해 DSR을 산정하는 방식으로 대출 한도를 줄일 계획이다. 금융당국은 또 다주택자의 50년 만기 주담대 가입을 중단하는 방안도 검토 중이다. 최근까지 주담대를 폭발적으로 늘린 인터넷은행에 대한 관리도 강화한다. 금융감독원은 이달 카카오뱅크(4∼7일)와 케이뱅크(11∼14일)에 대한 가계대출 현장 점검을 처음으로 실시한다. 두 인터넷은행의 6월 말 기준 주담대 잔액은 21조220억 원으로 작년 말 대비 5조4360억 원 늘어났다. 같은 기간 5대 은행의 주담대 잔액이 1조7408억 원 줄어든 점과 대비된다. 토스뱅크는 주담대를 취급하지 않아 이번 현장점검 대상에서 빠졌다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인터넷은행 담보대출 총력전…가계 빚 주범 '낙인' 부담백배</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002746305?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>토뱅도 전세 상품 출시…"주담대 준비"인뱅들 모두 연체율 악화에 전략 선회금융당국 고강도 압박…깊어지는 고민토스뱅크 전월세보증금대출 소개 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 인터넷전문은행 가운데 막내인 토스뱅크까지 전세자금 상품을 내놓으면서 인뱅 3사 모두 담보대출을 둘러싼 총력전에 나섰다. 중·저신용자 중심의 영업으로 인해 대출의 질이 악화되자, 비교적 안정적이면서도 포트폴리오를 강화할 수 있는 상품에 눈길을 돌리는 모습이다.다만 금융당국이 가계 빚을 자극하는 원인으로 인터넷은행의 비대면 주택담보대출에 낙인을 찍으면서 부담이 만만치 않을 것으로 보인다.6일 금융권에 따르면 토스뱅크는 이날 '토스뱅크 케어'를 담은 전월세보증금대출을 출시한다고 밝혔다. 상품은 ▲일반 ▲청년 ▲다자녀특례로 구성됐으며 최대 2억2200만원(청년은 2억원 한도)까지 대출을 받을 수 있다. 일반과 청년형 최저 금리는 각각 연 3.32%, 3.42%다.토스뱅크 전세대출의 핵심은 안전성이다. 전세지킴보증, 등기변동알림, 다자녀특례대출로 구성된 토스뱅크 케어를 중심으로 전세사기를 막겠다는 설명이다.토스뱅크는 은행권 상품과 차별화된 주담대도 준비하고 있다. 홍민택 토스뱅크 대표는 이날 기자간담회에서 주담대에 대해 "후발주자로서 현 사용자들이 갖고 있는 문제를 기존 사업자들과 다른 방식으로 풀어 내 가치를 낼 수 있느냐가 관건인데 주담대도 이러한 고민을 통해 진행하고 있다"며 "구체적으로 공유해드릴 수 있는 출시 계획이나 시점은 아직 확정되지 않은 상황"이라고 설명했다.이어 "주담대는 많은 국민이 받고 있고 시장도 매우 크며 해야 하는 서비스이지만 거시경제 환경 등이 잘 맞아야 출시가 가능할 것"이라고 부연했다.박신건 토스뱅크 프로덕트 오너가 5일 서울 여의도 콘래드호텔에서 열린 기자간담회에서 발언하고 있다.ⓒ토스뱅앞서 카카오뱅크와 케이뱅크는 전세대출을 포함한 주담대를 일찌감치 출시해 운영하고 있다. 최근에는 아파트와 빌라 등 주담대 고객을 대상으로 금리 할인 혜택을 펼치며 적극 모객에 나서기도 했다.그 결과 카카오뱅크 올해 2분기 말 전세대출을 포함한 주택 관련 담보대출이 17조3000억원으로 절반(51.0%)을 넘게 차지했다. 특히 아파트 등 주담대 잔액이 5조5000억원으로 1분기 말(2조4000억원) 대비 2배 넘게 증가했다케이뱅크의 전세대출을 포함한 2분기 말 주담대 잔액도 3조6934억원으로 지난해 말 대비 60.7% 증가했다.인터넷은행들이 담보대출을 적극 확대하는 것은 건전성 지표가 나빠진 영향이 크다. 금융당국과 약속한 목표치를 달성하기 위해 중·저신용 대출 공급을 늘린 와중, 금리가 상승하면서 취약차주들의 상환 능력이 떨어지고 연체율이 급등했다.토스뱅크의 지난 6월 말 고정이하여신(NPL)비율은 1.26%로 지난해 같은 달보다 1.13%p포인트(p) 상승했다. 케이뱅크의 NPL비율은 0.98%로 0.38%p, 카카오뱅크의 NPL비율 역시 0.42%로 0.15%p 올랐다. NPL비율은 연체가 3개월 넘은 부실채권 비율을 뜻한다.연체율로 보면 토스뱅크는 6월 말 기준 1.56%로 1년 전보다 1.41%p 높아졌다. 케이뱅크는 0.86%로 0.34%p, 카카오뱅크도 0.52%로 0.19%p 올랐다.하지만 아파트나 주택 등 담보 기반의 대출은 개인 신용대출보다 연체 위험이나 손실 부담이 적다. 신용대출 대비 규모는 크지만 부실이 났을 경우 저당을 잡아놓은 담보로 손실을 충당할 수 있어서다. 전체 대출사업에서 주담대 비중을 높이면 그만큼 연체와 그로인한 손실 부담을 덜 수 있는데다 여신 규모와 포트폴리오도 강화할 수 있어 인터넷은행이 눈을 돌리고 있는 것이다.다만 최근 금융당국이 가계부채 주범으로 주담대와 인터넷은행의 비대면 대출을 지목하면서, 인터넷은행들로서는 주택 관련 담보대출 확대에 눈치가 보이는 상황이다.금감원은 지난 4일부터 인터넷은행을 대상으로 가계대출 현장 점검을 섰다. 주담대를 공격적으로 늘리면서 그 과정에서 여신 심사 부실이나 총부채원리금상환비율 우회는 없었는지 확인하겠다는 방침이다. 4~7일에는 카카오뱅크, 11~14일에는 케이뱅크의 점검이 예정된 것으로 알려졌다.홍 대표는 이날 금융당국이 가계대출 급증 경계하는 시점에 관련 대출 상품을 내놓은 데 대해 "주담대는 결과적으로 담보가치 상승을 기대하며 자산에 대한 투자로 보는 인식이 강한 반면에 전월세대출은 만기가 짧고 거주목적에 맞춰진 실수요를 위한 상품이라 근본적으로 다르다"고 해명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>고진 디플정위원장 "인감증명 발급없이 부동산 등기신청"</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0012067835?sid=105</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>디지털플랫폼정부위, 출범 1주년 기자간담회 개최부위원장직 신설·DPG 엑스포·초거대AI 실증 등 추진[서울=뉴시스] 황준선 기자 = 고진 디지털플랫폼정부위원회 위원장이 4일 오전 서울 중구 프레스센터에서 열린 디지털플랫폼정부위원회 출범 1주년 기념 기자간담회에서 발언하고 있다. 2023.09.04. hwang@newsis.com[서울=뉴시스]윤정민 기자 = 디지털플랫폼정부위원회가 행정부와 사법부 간 칸막이 해소를 올해 안에 마무리한다. 사법부가 보유한 가족관계증명서 등을 기존 PDF가 아닌 데이터 방식으로 행정부에 공유하도록 해 국민이 기관 제출용으로 일일이 서류를 발급하는 일이 줄어들 전망이다. 아울러 인감 증명서 제출 없이 부동산 전자 등기를 신청할 수 있도록 하는 등 연간 3000만여건에 달하는 인감 증명 발급 건수를 대폭 줄인다.아울러 위원회는 내년도 디지털플랫폼정부 예산(9262억원)이 올해(4192억원)보다 약 121% 증액 편성된 만큼 위원회의 효과적인 운영과 관련 부처들과의 업무 조율 등 추진력을 확보하기 위해 부위원장직 신설을 추진한다.고진 디지털플랫폼정부위원장은 4일 오전 서울 중구 서울외신기자클럽에서 열린 디지털플랫폼정부위원회 출범 1주년 기념 기자간담회에서 "디지털플랫폼정부 구현을 위한 과제들이 본격적인 궤도에 올랐다. 내년이 디지털플랫폼정부 구현 원년"이라며 이같이 밝혔다.이날 고 위원장은 지난해 9월 위원회 출범 후 그동안의 성과와 현재 진행 중인 과제, 향후 계획 등을 소개했다."행정부-사법부 칸막이 연내 해소…서류 제출 없는 관공서비스 시초될 것"</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>토스뱅크, 토스뱅크 케어 담은 ‘전월세보증금대출’ 출시</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314870?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>◆…토스뱅크 전월세보증금대출 박신건 PO (프로덕트 오너). 사진=토스뱅크 제공토스뱅크가 전월세보증금 대출을 선보인다. 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입함에 따라 고객들의 '전세사기' 등 피해구제까지 빠르게 개선될 수 있을 것으로 보인다.   5일 선보이는 전월세보증금대출은 '토스뱅크 케어(Toss Bank Care)'를 도입한 것이 가장 큰 특징이다. 토스뱅크 케어엔 '토스뱅크가, 고객이 겪는 어려움을, 함께 고민하고 풀어나간다'는 의미가 담겼다. '전세지킴보증' '등기변동알림' '다자녀 특례 대출' 등 총 3가지로 구성됐다.   ▲일반 ▲청년 ▲다자녀특례로 구성된 토스뱅크 전월세보증금대출을 통해 고객들은 최대 2억2200만 원까지 대출을 받을 수 있다.   토스뱅크 케어 첫번째는 '전세지킴보증'이다. 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 것이 특징이다. 반환보증은 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다. 고객들은 토스뱅크에서 대출과 함께 보증에 가입하는 경험을 누릴 수 있다.   그동안 고객들은 '깜빡했다, 몰랐다, 비싸다' 등의 이유로 반환보증을 신청하지 않는 경우가 적지 않았다. 이 때문에 전세사기 등 피해를 겪고도 구제받지 못하는 등 특히 2030세대의 피해가 컸다. 토스뱅크는 대학생 사회초년생 신혼부부들의 꿈과 희망이 담겨야 할 보금자리가 감당하기 힘든 피해로 다가올 수 있다는 현실에 착안, 서비스를 기획했다.   토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. 고객의 혜택을 높이면서 동시에 보증료를 절감해 고객 부담을 덜었다. 고객들은 그동안 적게는 수십 만원에서 많게는 수백만 원에 달하는 보증료를 부담해야 했지만 토스뱅크는 HF와 함께 최저 연 0.02~0.04%의 보증료를 적용, 고객의 안전을 보장하는 데 들어가는 비용을 최소화 했다.   올 연말까지 전세지킴보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. 가령 보증금이 2억원인 고객의 경우 부담해야 할 보증료는 최저 8만원에 달해 고객들은 프로모션 기간에 무료 가입의 경험을 누릴 수 있다.   동시에 대상은 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 기존 비대면 반환보증이 시세의 명확성을 이유로 아파트, 오피스텔 등 집합건물에만 적용됐던 것에서 나아가 토스뱅크는 고객들의 '내가 살게 될 집'을 선택할 기회를 한층 넓혔다.   두 번째 토스뱅크 케어는 '등기변동알림'이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 제공하는 서비스다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집에 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다.   토스뱅크는 그동안 세입자들을 불안에 떨게 했던 것이 정보의 '불투명성'이라고 봤다. 내가 모르는 사이 집주인이 바뀌거나, 집에 가압류가 들어오는 등의 변화다. 집에 등기상 변동은 발생할 수 있지만 세입자 개개인이 등기부등본을 열람하지 않으면 알 수 없는 사실들이다.   토스뱅크는 이 같은 변동을 수시로 알려줌으로써 정보에 대한 투명성을 높였다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다.   이 모든 서비스는 토스뱅크가 부동산 권리 조사 서비스 기업인 '리파인'과 함께 무료로 제공한다. 집주인 변동부터 담보 대출 실행, 가압류 등 내가 사는 집을 둘러싼 변화를 한 눈에 알 수 있게 됨으로써 세입자의 발빠른 대응이 가능해질 것으로 토스뱅크는 전망했다.     ◆…토스뱅크 전월세보증금대출 출시 기자간담회 홍민택 대표. 사진=토스뱅크 제공토스뱅크 전월세보증금대출은 ▲일반 ▲청년 ▲다자녀특례로 구성됐다. 고객들은 최대 2억2200만원까지 대출을 받을 수 있다.   토스뱅크 케어의 세번째는 '다자녀 특례 대출'이다. 인터넷은행 최초로 시행하며 고객 선택권을 강화했다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 고객이 대상으로 임차보증금의 88% 한도로 최대 2억2200만 원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다는 것이 특징이다.   토스뱅크 전월세보증금대출은 ▲다자녀특례 외에 ▲일반 ▲청년으로 구성되지만, 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다. 일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로, 최대 2억2200만 원까지 대출이 이뤄진다. 단 소득과 부채 비중 등이 적용된다.   청년의 경우 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로 최대 2억원의 대출이 이뤄진다.   이 같은 '맞춤형 대출 제안'에 따라 고객들은 자신에게 최적화 된 대출서비스를 제안받고 상품을 선택할 수 있게 된다. 가령 만 34세 이하이면서 무주택자이지만 자녀를 2명 이상 둔 고객이라면 '청년' '다자녀특례' 상품을 모두 토스뱅크가 제안, 고객 스스로 선택할 수 있다.   토스뱅크 관계자는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다"며 "'첫 독립을 위한 보금자리' '첫 신혼집' '사회에 첫 발을 내딛은 공간' 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>'웹툰 AI 기술 개발' 리얼드로우, 디캠프 디데이 우승</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004232837?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>웹툰 작가 그림체 학습해작가 본인만 쓸 수 있는 AI 기술 개발 중총 7개사 본선 진출···41대1 경쟁률최상규(오른쪽) 리얼드로우 대표가 8월 31일 마포 프론트원에서 열린 디캠프 디데이서 우승을 차지한 기념으로 사진 촬영을 하고 있다. 사진제공=디캠프[서울경제] 은행권청년창업재단 디캠프는 8월 31일 마포 프론트원에서 개최된 디데이에서 리얼드로우가 우승을 차지했다고 1일 밝혔다. 총 288개 기업이 참여한 이번 디데이에는 국내 스타트업 5곳, 해외 스타트업 2곳 등 총 7곳이 본선에 진출하며 41 대 1의 경쟁률을 기록했다.우승을 차지한 리얼드로우는 웹툰 작가의 그림체를 학습해 작가 본인만 쓸 수 있는 AI 기술을 개발하고 있다. 왓챠 및 엔씨소프트 출신의 전문 인력으로 구성됐고 창업 3개월만에 윤민창의투자재단, 스프링캠프로부터 시드투자를 유치했다. 본선에 진출한 다른 스타트업의 사업 모델도 눈에 띈다. 플룸디는 웹캠을 이용한 동작 인식 솔루션 ‘아바킷’을 개발했다. 아바킷은 웹캠만 있으면 표정과 몸짓을 인식해 자신의 아바타를 움직일 수 있게 해준다. 로랩스는 중소기업을 위한 데이터 기반 구매관리 솔루션 ‘에어서플라이’를 운영한다. 사용자가 구매하려는 특정 제품이 노출된 웹주소를 에어서플라이 클라우드 계정에 하나 둘 등록하면 구매 요청부터 비용 증빙까지 원스톱 구매 대행 서비스를 받을 수 있다. 토스뱅크, 오늘의집, 하이퍼커넥트 등 700여 개 스타트업이 에어서플라이를 사용 중이다. 넥스트에디션은 실시간 캠프장 예약 서비스를 제공하면서 쇼핑, 커뮤니티를 한 곳에서 이용할 수 있는 원스톱 캠핑 플랫폼 ‘캠핏’을 운영한다. 테스트뱅크는 디지털 참고서 서비스 ‘쏠브’를 제공한다. 쏠브는 머신러닝 기반 기술을 적용해 문제집 스캔 파일을 자동 채점할 수 있는 형태로 정확하게 변환한다.본사가 싱가포르인 필름플레이스는 개인이나 기업이 등록한 전 세계 영상 촬영지를 소개·추천·대여해 주는 온라인 플랫폼을 운영한다. 현재 대만, 말레이시아, 한국에서 지사를 뒀고 전 세계 40개국에서 6000개가 넘는 브랜드와 파트너십을 맺고 있다. 틱택 또한 싱가포르에 본사를 두고 있는 글로벌 데이터 전문 기업으로 자체 보유한 글로벌 크라우드풀을 통해 AI 학습을 위한 데이터 수집과 가공을 도와주는 서비스를 제공한다.한편 이번 행사는 한국성장금융투자운용이 후원한 가운데 박희덕 트랜스링크인베스트먼트 대표, 권오형 퓨처플레이 대표, 김철우 더벤처스 대표, 송재준 크릿벤처스 대표이사, 원대로 윌트벤처빌더 대표 등이 심사위원으로 참여했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>심상찮은 '위험가중자산' 증가폭… 우리·신한·하나 등 12개 은행, 6월말 기준 '총자본비율' 하락</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002155965?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>- 올 6월말 은행지주회사 및 은행 BIS기준 자본비율 현황(잠정) 결과-씨티, 산업, 수출입, KB, DGB 5개 은행은 전분기말 대비 총자본비율이 상승했다.[디지털데일리 박기록 기자] 국내 은행권의 자본건전성 지표를 나타내는 자본비율은 여전히 양호한 상황이지만 최근 환율･금리가 상승하는 등 금융시장 불확실성이 커지고, 중국 부동산 경기 부진 등 대내외 경제여건도 악화되고 있는 만큼 충분한 자본여력을 확보할 필요가 있다는 분석이 제기됐다.4일 금융감독원에 따르면 올 6월말 기준 국내은행의 BIS기준 보통주자본비율, 기본자본비율, 총자본비율 및 단순기본자본비율은 각각 12.98%, 14.27%, 15.62% 및 6.53%로 나타났다.이는 앞서 전분기(올 3월말 대비) 각각 0.08%p, 0.01%p, 0.01%p 및 0.04%p 상승한 수치다. 해당 기간동안 대출 증가 등으로 위험가중자산이 확대(+37.9조원, +1.7%)됐으나 분기순이익 시현, 후순위채 발행 등으로 자본도 증가(+6.2조원, +1.8%)하면서 자본비율이 소폭 상승했기 때문이란 분석이다.금감원은 올 6월말 현재 모든 국내은행이 규제비율(자본보전완충자본 및 D-SIB 추가자본 포함)을 상회한다고 밝혔다.그러나 내용을 들여다보면 은행권의 부실화를 촉발시킬 수 있는 위험가중자산의 증가폭이 빠르다는 점은 우려되는 대목이다.금감원에 따르면, 이 기간 증가한 위험가중자산(총 37.9조원)은 ▲대출 증가 등으로 신용위험가중자산 증가(+27.5조원), ▲이익 및 내부 운영리스크 손실 확대 등에 따른 운영위험가중자산 증가(+4.5조원), ▲금리·주식 포지션 증가 등에 따른 시장위험가중자산 증가(+5.9조원)등이 주요 원인이다.ⓒ금융감독원▲실제로 '총자본증가율'과 관련, 은행별 편차가 엇갈렸다.금감원에 따르면, 6월말 기준 총자본 증가율이 위험가중자산 증가율을 상회한 5개 은행(씨티, 산업, 수출입, KB, DGB)은 전분기말 대비 총자본비율이 상승했다.반면 같은기간 카카오, 토스, 수협, SC, JB, BNK, 우리, 기업, 하나, 신한, 농협, 케이은행 등 12개 은행은 자본이 소폭 감소하거나 상대적으로 위험가중자산 증가폭이 커져 결과적으로 총자본비율이 하락했다.금감원은 "올 6월말 국내은행의 자본비율은 전분기말 대비 소폭 상승했고, 모든 은행의 자본비율이 규제비율을 상회하는 등 양호한 수준을 유지했다"면서도 "최근 환율･금리가 상승하는 등 금융시장 불확실성이 여전하고 중국 부동산 경기 부진 등 대내외 경제여건도 악화되고 있는 만큼 충분한 자본여력을 확보할 필요가 있다"고 밝혔다.금감원은 대내외 경제 불확실성에도 은행이 본연의 자금중개기능을 충실히 수행할 수 있도록 자본적정성 감독을 강화해 나갈 예정이며, 국내은행의 자본비율 현황을 면밀히 모니터링하고 상대적으로 자본비율이 취약한 은행을 중심으로 자본적정성 관리를 강화할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>주담대 막힌 인터넷은행 '전월세 대출'로 눈 돌린다</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004891568?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>보증금 대출시장 경쟁 격화카카오뱅크 케이뱅크 토스뱅크 등 인터넷전문은행들이 전·월세보증금 대출 시장을 놓고 치열한 경쟁을 벌이고 있다. 금리는 세 은행 모두 비슷한 가운데 비대면 대출로서의 편의성과 안전성을 내세우며 고객 유치에 나섰다. 금융당국이 최근 주택담보대출 축소를 압박하고 있어 인테넷은행들이 실수요자 중심의 전·월세자금 대출 시장으로 눈을 돌리고 있다는 분석이 나온다.카카오뱅크는 13일 비대면 방식으로 전·월세보증금 대출을 대환할 수 있는 ‘전·월세보증금 대출 갈아타기’ 서비스를 출시했다. 이전까지는 카카오뱅크 앱에서 기존 전·월세보증금 대출을 새로 받거나 연장하는 계약만 가능했는데, 앞으로는 보증금이 오르거나 이사를 떠날 때도 비대면 방식의 대환대출이 가능해졌다.카카오뱅크는 이번 서비스를 출시하면서 카카오뱅크 및 다른 은행의 전·월세보증금 대출을 카카오뱅크 대출로 대환할 수 있도록 했다. 인터넷은행 3사 중 당·타행 전·월세보증금 대출의 대환 서비스를 모두 비대면 방식으로 구현한 것은 카카오뱅크가 처음이다.이에 따라 보증금이 오르거나 이사를 떠나 계약서를 다시 써야 할 때 기존 대출을 갚고 다른 은행의 대출을 알아볼 필요가 없어진다. 차주 편의성이 크게 높아지는 것이다. 케이뱅크도 당·타행 전세자금 대출을 비대면으로 대환하는 서비스를 개발하고 있다.최근 가열되고 있는 비대면 전·월세보증금 대출 경쟁에 불을 지핀 곳은 토스뱅크다. 토스뱅크는 지난 5일 처음으로 전·월세보증금 대출을 선보이면서 플랫폼 기업으로서의 편의성뿐만 아니라 안전성을 경쟁력으로 내세웠다. 토스뱅크는 전·월세보증금 대출 신청 직후 앱으로 전세보증금 반환보증까지 한 번에 신청할 수 있는 서비스를 구현했는데, 전세사기로 돈을 떼일 염려를 크게 줄일 수 있기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>인터넷은행 20대 연체 587억원, 1년새 3.7배 증가</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003787854?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>‘비상금 대출’ 등 쉽게 돈 빌리는 상품 연체 늘어							은행에서 돈을 빌린 뒤 제때 갚지 못하는 20~30대가 크게 늘고 있는 것으로 나타났다. 고(高)금리 상황이 길어지고, 경기가 부진하면서 소득 기반이 취약한 청년들의 상환 여력이 악화됐기 때문이다.서울 시내 한 시중은행 앞에 붙어 있는 대출상품 관련 현수막./연합뉴스										14일 더불어민주당 김성주 의원이 금융감독원으로부터 받은 자료에 따르면 20~30대 고객 비중이 높은 인터넷은행 3사(카카오뱅크·케이뱅크·토스뱅크)의 지난 2분기(4~6월) 20대 이하 비대면 대출(개인신용대출) 연체액은 587억원에 달했다. 지난해 2분기(160억원)와 비교해 1년 만에 3.7배로 불어났다. 20대 이하는 연체율도 심각했다. 지난 2분기 연체율이 2.41%로 30대(1.11%), 40대(0.79%), 50대(0.81%) 등 다른 연령대에 비해 2~3배가량 높았다.인터넷은행에서 청년층 연체가 급증하는 것은 인터넷은행 특성상 신용 점수가 비교적 낮아도 모바일 앱을 통해 쉽고 빠르게 돈을 빌릴 수 있기 때문이다. 간단한 서류 심사를 거쳐 최소 50만원에서 최대 300만원을 빌려주는 ‘비상금 대출’이 대표적이다. 금리는 연 5% 안팎에서 최대 연 15% 수준으로 시중은행 신용대출 금리보다 훨씬 높다. 더불어민주당 윤영덕 의원에 따르면 인터넷은행 3사의 지난달 말 기준 비상금 대출 잔액은 2조6603억원으로 2021년 말(1조5513억원)보다 70% 넘게 증가했다. 같은 기간 연체액은 43억원에서 200억원으로 4.7배 늘었다. 특히 전체 연체액에서 20~30대가 차지하는 비율은 70%(약 139억원)나 된다. 김성주 의원이 서민금융진흥원에서 받은 자료에 따르면 정부가 저신용자에게 최대 100만원을 빌려주는 소액 생계비 대출도 지난 3월 말 출시 이후 2개월간 20대 이하의 이자 미납률이 21.7%나 됐다.20~30대 중에는 고용이 불안정하면서 소득 수준이 낮거나 학생인 경우가 많다. 따라서 한번 연체가 발생하면 빚을 감당하지 못하는 상황이 자주 벌어진다. 실제로 올 상반기 20대 이하의 개인 워크아웃 신청자는 4654명으로 2018년 이후 최대를 기록했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>'벽돌택배' 중고사기 당하면 카카오뱅크가 물어준다</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003134867?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 각종 온라인 금융사기로 인한 고객 피해금을 보상해준다. 교묘한 수법의 보이스피싱이나 '벽돌택배' 중고거래 사기까지 포함된다.업계에 따르면 카카오뱅크는 입출금계좌를 보유한 고객을 대상으로 선착순 신청자 6만1607명에게 '금융안심 보험료'를 대납해주기로 했다. 카카오뱅크가 카카오페이손해보험과 체결한 단체보험계약에 따라, 카카오뱅크 고객을 피보험자/수익자로 해 카카오뱅크가 보험료를 전액 대납하는 형태다.금융안심보험은 카카오페이손해보험이 지난해 선보인 새로운 보험상품이다. 보험가입기간 동안 발생한 비대면 온라인 금융사기, 온라인 중고 거래사기에 의한 피해를 한도 이내에서 보상한다. 카카오뱅크를 통해 이번 보험가입 혜택을 받을 경우 향후 6개월 동안 각각 최대 100만원 이내 범위로 보상금을 지급받을 수 있다.세부적으로는 보이스피싱(공공기관/금융기관/지인 등을 가장해 피해자 계좌에서 범행계좌로 이체하게 하는 수법), 스미싱(문자메세지로 불법 웹사이트에 접속하게 한 후 악성코드 설치 등으로 금융정보를 탈취하는 수법), 파밍(피해자 PC를 조작해 가짜 사이트로 유도하는 등의 방법으로 금융정보를 탈취하는 수법) 등 비대면 온라인금융사기 피해가 발생했을 때 실제 금전손실액이 보상 범위다.앞서 카카오뱅크는 지난해 12월 이와 같은 혜택을 만 50세 이상 시니어 고객을 대상으로 한정해 무료로 제공한 바 있다. 모바일 금융 서비스가 낯설고 불안한 시니어 고객들을 위해 안전망을 제공하겠다는 취지였다. 당시 선착순 신청자 19만명을 대상으로 이벤트를 진행했으나 고객 호응에 힘입어 조기 마감됐다. 이와 같은 반응에 힘입어 이번에 혜택 대상을 넓혀 프로모션을 확대 진행 중인 것으로 해석된다.고령자 등 금융소외계층을 대상으로 한 사기범죄가 증가함에 따라 핀테크 업계는 이와 같은 대응 방안을 속속 내놓고 있다.토스의 경우 금융사고 1회 5000만원, 중고사기 1회 50만원까지 보상을 제공하는 '토스 안심보상제'를 지난 2021년부터 제공하고 있다. 토스의 문제로 비롯된 금융피해가 아니더라도 고객에게 우선 보상을 지원한다는 측면에서 관심을 모았다. 올해 4월 기준 해당 제도를 통해 구제받은 피해건수는 1620건, 회복한 피해규모는 약 12억원에 달한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>알뜰폰·OTT '한 배' 탔다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004886653?sid=105</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>웨이브, KT엠모바일과 제휴콘텐츠 공짜로 보는 요금제 출시토종 온라인동영상서비스(OTT) 웨이브가 알뜰폰과 손잡고 특화 요금제를 내놨다. 알뜰폰 업체들이 가격 경쟁에 그치지 않고 결합 서비스를 앞세워 이용자 확보에 나선 모습이다.웨이브는 KT 계열 알뜰폰 사업자인 KT엠모바일과 함께 제휴 요금제를 출시했다고 1일 발표했다. 신규 요금제는 매일 데이터 5기가바이트(GB)를 제공하고 소진 후 5Mbps 속도로 계속 쓸 수 있는 ‘120GB 무제한’(월 4만1900원)과 기본 데이터 11GB와 하루 2GB, 소진 후 3Mbps로 데이터를 쓸 수 있는 ‘91GB 무제한’ 등 2종이다. 음성과 문자는 기본으로 지원한다. 해당 요금제에 가입하면 7900원 상당의 웨이브 베이식 이용권이 매달 제공돼 모바일, PC로 웨이브에서 제공하는 30만 편 이상의 주문형 비디오(VOD)와 100개 이상의 라이브 채널, 영화 6000여 편을 볼 수 있다.전준범 웨이브 비즈니스그룹장은 “최근 모바일 사용 트렌드가 알뜰폰으로 빠르게 이동하고 있다”며 “합리적 데이터 요금에 웨이브까지 함께 이용할 수 있도록 KT엠모바일과 제휴하게 됐다”고 말했다.알뜰폰은 지난 몇 년 동안 값싼 요금제를 앞세워 점유율을 높였지만 최근 들어 멤버십, 제휴 서비스 등 차별화에 나서고 있다. SK텔레콤, KT, LG유플러스 등 통신사로부터 요금제를 구입해 마진을 붙여 매출을 내는 알뜰폰 특성상 저가 요금제 경쟁을 지속하는 게 쉽지 않아서다.KT엠모바일은 웨이브 외에도 온라인 독서 플랫폼 밀리의 서재와 연계한 요금제를 선보였다. 토스 모바일, 티플러스, KG모바일 등은 지난달 CGV 요금제를 내놨다. 신규 가입 고객에게 매달 CGV 영화 관람권 2장과 스낵·음료 2000원 할인권을 준다.카카오 알뜰폰 계열사 스테이지파이브는 데이터 무제한 로밍 서비스를 출시한 데 이어 야놀자와 함께 여행 상품을 결합한 서비스를 내놓을 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>카카오·네이버에 애플까지 가세… 간편결제 이용액 17%↑</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000947078?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>사진=현대카드 올 상반기 네이버·카카오페이 등 간편결제 서비스의 하루 이용금액이 8000억원을 넘어서며 사상 최대치를 기록했다. 올해 3월 애플페이의 국내 서비스 개시도 영향을 미친 것으로 풀이된다.7일 한국은행이 발표한 '2023년 상반기 중 전자지급서비스 이용 현황'에 따르면 상반기 일평균 간편결제 서비스 이용건수는 2628만2000건, 이용금액은 8450억5000만원으로 조사됐다. 1년 전과 비교해 건수는 13.4%, 금액은 16.9% 증가했다.간편결제 서비스 이용금액을 제공업자별로 보면 전자금융업자가 가장 높은 비중을 차지하고 있는 가운데 휴대폰 제조사 비중이 점차 상승했다.네이버페이·카카오페이·토스 등 전자금융업자의 간편결제 건수와 금액은 각각 1462만6000건, 4156억5000만원으로 1년 전과 비교해 10.0%, 14.1% 각각 성장했다.삼성페이·애플페이 등 휴대폰 제조사의 간편결제 건수와 금액은 각각 23.0%, 24.3% 늘어난 812만6000건, 2117억9000만원으로 집계됐다. 올해 3월 애플페이는 국내 서비스를 개시한 바 있다.같은 기간 선불금 기반 간편송금 서비스의 이용건수와 금액은 상반기 609만6000건, 7460억7000만원으로 전년 동기 대비 각각 24.2%, 23.9% 증가했다.한은 관계자는 "이는 2022년 1월 마이데이터 서비스 시행 이후 전자금융업자를 통한금융소비자의 간편송금 서비스 이용이 확대되고 있는 데 기인한다"고 설명했다.전자지급결제대행(PG) 서비스의 상반기 이용액은 일평균 1조1845억원으로 전년 동기 대비 16.0% 증가했다. 2008년 관련 통계 작성 이후 반기 기준으로 사상 최대 규모로 이용건수는 2510만건으로 8.1% 증가했다.PG서비스는 전자상거래에서 구매자로부터 대금을 수취해 판매자에게 최종적으로 지급될 수 있도록 지급결제정보를 송·수신하거나 그 대가를 정산 대행 또는 매개하는 서비스로 주로 온라인쇼핑에서 활용된다.선불전자지급수단 이용금액과 이용건수는 일평균 9682억원, 2875만건으로 전년 동기 대비 각각 20.8%, 8.6% 증가했다. 선불전자지급수단은 계좌 연동을 통해 미리 충전한 선불금으로 상거래 대금이나 교통요금을 지급 및 송금 서비스로 교통카드를 비롯해 네이버페이 머니 충전 등이 해당된다.G마켓과 11번가 등 오픈마켓에서 거래 확정 후 결제대금을 판매자에게 제공하는 유형의 결제대금예치 서비스(에스크로) 이용금액은 일평균 1544억원으로 1년 전과 비교해 1.6% 감소했다. 이용건수는 319만건으로 0.5% 줄었다.아파트 관리비나 전기·가스 요금 납부를 이메일·앱 등을 통해 전자 방식으로 발행하고 대금 정산을 대행하는 전자고지결제 서비스 이용액은 663억원으로 전년 동기와 비교해 18.6% 늘었다. 이용건수는 26만5000건으로 10.7% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>'OO페이' 간편했는데…5년간 부정결제 382건, 14억원</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005307945?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>펜데믹 이후 해킹 더 기승 김성주 의원 "보안 강화해야"20대 회사원 이승준씨는 지난 주말 아침 문자 소리에 잠을 깼다. 핸드폰을 보니 간편결제 문자가 연달아 와있었다. 오전 11시 28분에서 11시 30분 사이 통장에서 4만2000원이 네 번에 걸쳐 결제돼 빠져나갔다는 문자였다. 메일로는 중국어로 된 명세서까지 날아왔다. 이씨는 "은행 체크카드를 간편결제에 연동시켜서 배달시킬 때나 게임할 때 썼는데 갑자기 가입도 안 한 사이트에서 결제가 돼서 너무 황당해 경찰에 바로 신고했다"며 "명의도용 당해서 결제가 된 건데 환불받을 수 있을지 모르겠다"고 했다.최근 5년간 간편결제 서비스 이용이 증가하면서 부정결제 사고 건수가 늘어나고 사고금액도 증가한 것으로 나타났다. 특히 팬데믹이 터진 이후 2020년부터 부정결제 사고금액이 크게 증가했다.국회 정무위원회 소속 김성주 더불어민주당 의원이 금융감독원으로부터 제출받은 자료에 따르면 최근 5년간 간편결제 서비스 부정결제 사고 건수는 총 382건, 사고금액은 총 13억7200만원에 이르는 것으로 나타났다. 부정결제란 개인정보 유출로 인한 명의도용, 해킹 등에 의해 이용자가 결제하지 않았는데도 결제가 이뤄진 것을 말한다.최근 5년간 연도별 간편결제 서비스 사고금액을 살펴보면 2018년에는 4020만원, 2019년에는 7742만원에 그쳤다. 그런데 코로나19 이후인 2020년은 3억 933만원, 2021년 4억 3502만원, 2022년 3억 7054만원으로 사고금액이 큰 폭으로 증가했다. 올해 7월까지만 보더라도 사고금액이 1억 3974만원에 달한다.김성주 더불어민주당 의원./윤동주 기자 doso7@사고금액이 가장 많은 상위 5개 전자금융업자는 NHN페이코(3억 7656만원), 쿠콘(1억 9133만원), 비즈플레이(1억 4408만원), 차이코퍼레이션(1억 3625만원), 롯데멤버스(1억735억원) 순이었다. 사고 건수로는 SSG닷컴(93건), 쿠콘(72건), 비즈플레이(48건), 지마켓(39건), 차이코퍼레이션(38건) 순으로 나타났다.일부 전자금융업자들은 자체적으로 부정결제 피해자들에 대한 선보상 제도를 운영하고 있다. 네이버파이낸셜은 사고금액 1445만원 중 1088만원, 비바리퍼블리카(토스)는 1160만원 중 1015만원, 카카오페이는 2261만원 중 765만원을 선보상으로 지급했다.김 의원은 "한국은행에 따르면 작년 기준 간편결제 서비스 일평균 이용 건수는 2342만건, 이용금액은 7326억원에 이른다"며 "간편결제 서비스 이용이 증가하고 있는 만큼 전자금융업자들과 금융당국이 억울한 피해자가 나오지 않도록 정보 보안을 강화하고 안전장치를 더 철저히 마련해야 한다"고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>롯데카드, 토스모바일 할인 신용카드 출시</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005566606?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>[이데일리 정병묵 기자] 롯데카드가 알뜰폰 사업자인 ‘토스모바일’의 통신요금을 할인해주는 신용카드를 출시했다고 4일 밝혔다.이 카드는 카드 혜택과 프로모션 혜택을 통해 토스모바일 통신요금 자동이체 시 월 최대 2만5000원을 할인해주는 것이 특징이다. 먼저, 카드 혜택으로 발급월부터 24개월 간 지난달 이용금액이 30만·70만·150만원 이상인 경우 월 1만·1만5000·2만원을 할인해준다. 여기에 프로모션 혜택으로 발급월 포함 24개월 동안 이용금액 구간별로 9000·7000·5000원 할인을 추가로 제공한다. 카드 혜택에 프로모션 혜택을 더하면 지난달 이용금액에 따라 월 1만9000·2만2000·2만5000원을 할인 받을 수 있다. 발급월 포함 25개월부터는 지난달 이용금액이 30만원 이상인 경우 7000원 할인 혜택을 받을 수 있다. 프로모션 혜택은 2024년 7월 31일까지 가입한 고객에게 제공되며, 연장 시 재공지된다. 연회비는 국내전용, 해외겸용(마스터) 2만원이다. 카드 신청은 토스 앱과 롯데카드 홈페이지 및 디지로카앱에서 가능하다.롯데카드 관계자는 “고물가 시대에 통신비를 아끼려는 고객이 많아짐에 따라 알뜰폰을 찾는 수요도 점차 증가하는 추세”라며 “토스 앱을 통해 쉽고 간편하게 가입할 수 있는 토스모바일 요금제를 더욱 부담 없는 가격에 이용할 수 있도록 이번 상품을 출시했다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>롯데카드, 토스모바일 통신비 할인해주는 'Toss Mobile X LOCA' 출시</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007026389?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>롯데카드 제공(서울=뉴스1) 한유주 기자 = 롯데카드가 알뜰폰 사업자인 '토스모바일'의 통신요금을 할인해주는 'Toss Mobile X LOCA(토스모바일 X 로카)'를 출시했다고 4일 밝혔다.이 카드는 카드 혜택과 프로모션을 통해 토스모바일 통신요금 자동이체 시 월 최대 2만5000원을 할인해 주는 것이 특징이다. 발급월부터 24개월간 전달 이용금액이 30만·70만·150만원 이상인 경우 월 1만·1만5000·2만원을 할인해준다. 여기에 프로모션 혜택으로 발급월 포함 24개월간 이용금액 구간별로 9000·7000·5000원을 추가 할인한다. 카드 혜택에 프로모션 혜택을 더하면 전달 이용금액에 따라 월 1만9000·2만2000·2만5000원을 할인받을 수 있다. 발급월 포함 25개월부터는 전달 이용금액이 30만원 이상인 경우 7000원 할인 혜택을 받을 수 있다. 프로모션 혜택은 2024년 7월31일까지 가입한 고객에게 제공되며 연장 시 재공지된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>토스뱅크, '목돈 굴리기' 서비스에 삼성증권 채권 상품 소개</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003133273?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>토스뱅크는 삼성증권과 제휴해 '목돈 굴리기' 서비스 상품을 확대한다고 7일 밝혔다.토스뱅크는 삼성증권과 제휴해 '목돈 굴리기' 서비스 상품을 확대한다고 7일 밝혔다.이번 제휴를 통해 토스뱅크 '목돈 굴리기' 서비스에서 삼성증권의 토스뱅크 연계 종합매매계좌 개설이 가능하고, 삼성증권이 판매 중인 채권 상품도 만날 수 있다.삼성증권 종합매매계좌는 국내 포함한 해외 주식, 채권, 펀드 등에 투자할 수 있는 계좌로, 만 19세 이상의 한국 거주 내국인은 누구나 개설이 가능하다.토스뱅크 이용자가 만날 수 있는 채권 상품은 키움캐피탈, 메리츠캐피탈, 롯데글로벌로지스로 각각 연 6.17%, 연 5.6%, 연 4.74%의 수익률을 제공한다.제휴기념 이벤트도 진행한다. 삼성증권 최초 신규고객이 종합매매계좌를 개설하면 이달 말일까지 개설 축하금 5000원을 토스뱅크 통장으로 지급하고, 국내 주식을 거래하면 수수료 혜택 평생 제공 및 해외 주식 수수료 우대도 신청일로 부터 1년간 제공한다.해외주식 대상 혜택 별도 신청시 투자지원금 지급, 거래 축하지원금 지급 등 다양한 혜택도 제공한다.토스뱅크 관계자는 “'목돈 굴리기' 서비스에 국내 대형 증권사들의 입점이 확대됨에 따라 고객 선택권을 더욱 넓혀가고 고객 자산 증식에 기여할 수 있도록 노력할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>“어린이집 짓느니 벌금이 훨씬 싸다” 수년째 버티는 기업들</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001637722?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>작년 설치 미이행 사업장 27곳 공개    “이행강제금 최대 연 2억… 상향해야”“어린이집은 소수의, 운 좋은 사람들이 누리는 복지다. (직장 어린이집을 설치하지 않으면) 벌금을 좀 내야 하지만, 벌금이 훨씬 싸다.”인기 온라인플랫폼 무신사의 최영준 최고재무책임자(CFO)가 최근 직원과의 온라인 미팅에서 한 발언이다. 대기업 출신인 이 임원의 말은 외부로 공개됐고, 파장이 커지자 한문일 무신사 대표는 공개 사과했다.직장 어린이집 설치를 미루는 기업은 비단 무신사뿐만이 아니다. 쿠팡과 컬리, 코스트코 등 대형 유통업체는 물론 한영회계법인 등 이름만 들어도 알만한 기업들은 직장 어린이집 설치 의무를 이행하지 않고 버티고 있다. 벌금을 더 올려서 이런 기업들을 압박해야 할 주무부처인 보건복지부는 뒷짐을 지고 있다. 지난해 합계출산율(여성 1명이 15~49세에 낳을 것으로 기대되는 평균 출생아 수)은 0.78명으로 경제협력개발기구(OECD) 38개 회원국 중 압도적 최하위인 한국의 현주소다.11년째 명단 공개에도 버티는 기업들상시 여성 근로자가 300명 이상이거나 성별무관하게 상시근로자가 500명 이상의 기업은 직장 어린이집 설치가 의무다. 직장 어린이집을 설치하지 않고 지역 어린이집과 위탁 보육을 맺는 방법도 있다.이를 지키지 않으면 명단이 공표된다. 평판이 저해될 것을 우려한 기업들이 설치에 적극적으로 동참할 것이라는 취지에서 제도가 도입됐다. 그러나 11년째 명단 공표에도 직장 어린이집을 설치하지 않고 버티는 기업들이 있다.지난해 직장 어린이집을 설치하지 않아 명단이 공개된 사업장은 27곳이다. 사업장 기준이기 때문에 쿠팡은 물류센터 6곳의 이름을 올렸다. 코스트코, 컬리 등 대형 유통업체, 사교육 대기업 메가스터디와 에듀윌도 포함됐다. 이명박 전 대통령 소유 기업 논란이 일었던 다스와 성공한 스타트업 토스도 직장 어린이집을 갖추지 않은 것으로 드러났다.수년째 명단에 이름을 올린 상습 미이행 기업도 있다. 딜로이트안진회계법인과 코스트코코리아는 2014년부터, 한영회계법인과 다스는 2015년부터 미이행 명단에 포함됐다.이행강제금조차 내지 않아 수억대의 이행강제금이 누적된 곳도 있다. 인재근 더불어민주당 의원이 복지부로부터 제출받은 자료에 따르면, 2021년 6월 기준 이행강제금이 가장 많이 쌓인 곳은 다스였다. 다스는 8억원의 이행강제금을 내지 않았다. 삼정회계법인(6억원), 세진(4억원) 등도 수년간 직장 어린이집을 설치하지 않은 채 버티며 이행강제금도 납부하지 않았다.버티는 게 이득, 복지부는 뒷짐직장 어린이집 설치 의무를 이행하지 않으면 지방자치단체장은 1년에 2회까지 이행 명령을 부과할 수 있다. 그럼에도 설치하지 않으면 1년에 2차례까지, 1회당 1억원 범위 내에서 이행강제금을 부과할 수 있다. 미설치 기간과 사유 등을 고려해 50%까지 가중 부과하는 것도 가능하다. 직장 어린이집 설치 의무 이행 실태조사에 응하지 않은 사업장에도 1억원 이하 과태료가 부과된다.하지만 어린이집 설치에 드는 비용보다 이행강제금이 더 적다. 무신사 사태에서 보듯 기업들은 전 국가적인 저출산 문제보다는 비용절감에 골몰하고 있다.기업들의 변명은 다양하다. 지난해 복지부 실태조사 결과, 직장 어린이집 설치 의무 미이행 기업 116곳 중 54곳은 ‘장소 확보 어려움’을 미이행 사유로 꼽았다. 그 외 설치비용 부담(9곳), 운영 비용 부담(3곳) 등을 핑계로 댔다.이에 이행강제금 납부로 어린이집 설치를 대신할 수 없도록 이행강제금을 상향해야 한다는 지적이 나온다. 연일 합계출산율이 최저치를 갈아치우는 상황에서 육아 인프라 확대를 위한 기업의 노력을 촉구해야 한다는 것이다. 하지만 정부는 이행강제금 상향은 논의하고 있지 않다는 입장이다. 복지부 관계자는 “이행강제금은 연 2회, 매회 최대 1억원까지 매길 수 있으며 다른 이행강제금에 비교해 낮진 않다”며 “이행강제금 상향은 검토하고 있지 않다”고 밝혔다. 노충래 이화여대 사회복지학과 교수는 12일 “누진적으로 이행강제금을 부과하는 등 기업이 부담을 느낄 수 있도록 상향할 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>퓨어스토리지 솔루션 장점?…토스뱅크 "비용은 낮추고, 관리 효율은 높이고"</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002156604?sid=105</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>12일 서울 잠실 시그니엘에서 퓨어스토리지가 연례 콘퍼런스 '퓨어//엑셀러레이트 2023 서울'을 개최했다. [ⓒ디지털데일리][디지털데일리 박세아 기자] 토스뱅크가 퓨어스토리지의 스토리지 솔루션 도입 후 데이터 관리에 필요한 운용 비용은 절감하면서도 관리 수준은 높였다고 밝혔다.12일 서울 잠실 시그니엘에서 열린 퓨어스토리지의 연례 컨퍼런스 '퓨어//액셀러레이트 2023 서울(Pure//Accelerate 2023 Seoul)'에서는 솔루션 활용 데이터 운영 혁신 사례가 공유됐다.토스뱅크는 2022년 1페타바이트(PB) 용량의 퓨어스토리지 솔루션을 도입했다. 토스뱅크는 2021년 출범 후 현재 만 2년이 아직 안된 시점에 고객수 650만명을 확보했다. 여신 잔액은 10조460억원을 기록하고 있다.토스뱅크 박동현 시스템 엔지니어는 "대용량의 데이터를 높은 속도로 검색하고 분석해야하는 엘라서틱 서치 데이터 모드에 1PB급 용량 증설이 필요하다는 요청이 있었다"라며 "이 정도 용량을 '서버'에서 구현하는 게 어렵기 때문에 '외장형 스토리지'를 검토했고, 그 결과 지난해 퓨어스토리지의 쿼드 레벨 셀(QLC) 제품을 도입했다"라고 말했다.QLC 플래시는 용량 최적화된 낸드 메모리 기술이다. 하드 디스크 드라이브(HDD)와 비슷하거나 더 합리적인 테라 바이트 당 비용을 제공한다. QLC는 셀당 4비트를 저장해 트리플 레벨 셀(TLC)보다 더 큰 용량으로 비휘발성 기억장치 익스프레스(NVMe) 성능을 제공한다. 토스뱅크는 회사에 적합한 스토리지 솔루션 도입을 고려할 당시, QLC급을 공급하는 곳은 퓨어스토리지가 유일했다고 전했다.박 엔지니어는 "서버에서 수백 테라바이트(TB), PB급을 구현하기 위해서는 용량 확보를 위해 필요하지도 않은 컴퓨팅 자원을 구입해야 했다"라며 "반면 스토리지는 가용성이 뛰어나서 비용만 충족된다면 훨씬 효율적인 데이터 관리 솔루션이 될 수 있다"라고 언급했다.정보기술에서의 가용성이란 서버, 네트워크 등의 정보 시스템이 장애 없이 정상적으로 요청된 서비스를 수행할 수 있는 능력을 나타낸다. 퓨어스토리지의 QLC플래시 스토리지 제품이 가용성은 높이면서도 비용은 저렴했다 는 설명이다.또 박 엔지니어에 따르면 토스뱅크에서는 라이트(Write) 기준으로 20만 초당입력·출력 명령어 처리 수(IOPS)를 만족할 수 있는 솔루션이 필요했다. 퓨어스토리지 제품은 이를 만족하면서도 입출력(IO) 아키텍처 품질이 타사대비 압도적이었다고 회고했다.IO관점에서 리드(Read)보다는 라이트가 중요하다. 높은 IOPS를 자랑하는 벤더 제품은 많지만, 라이트 성능이 좋은 IO아키텍처를 가진 스토리지는 퓨어스토리지였다는 것이다.이 외에도 '중복제거압축률'이 높아 데이터 절감률 측면에서도 상당히 만족스러웠다는 게 그의 설명이다. 퓨어스토리지는 낸드플래시에 스토리지 운영에 특화된 소프트웨어를 통해 데이터의 중복을 제거하고 압축률을 높인다고 알려져있다. 보통 중복제거압축률이 높으면 저장할 수 있는 데이터 양을 늘릴 수 있다. 결과적으로 기존 스토리지와 같은 용량이어도 더 많은 데이터를 담을 수 있어 비용절감 효과와 함께 전력 사용량 감소에도 영향을 미친다.그는 "퓨어스토리지의 스토리지 솔루션 도입 후 솔리드 스테이트 드라이브(SSD) 장애가 사라졌으며 데브옵스나, IT 인력 등을 절감할 수 있었다"라며 "서버는 메이저 벤더사의 제품들의 품질 편차가 크지 않지만, 스토리지는 제품별 아키텍처가 다양해 차이가 크기 때문에 성능과 가용성, 운용편의성을 모두 만족할 수 있는 스토리지를 선택하는 게 중요하다"라고 언급했다.한편 이번 행사에는 1300여명이 넘는 퓨어스토리지의 국내 주요 고객 및 파트너가 등록했다. 에이제이 싱(Ajay Singh) 퓨어스토리지 최고제품책임자(CPO), 퓨어스토리지 에이미 파울러(Amy Fowler) 부사장 겸 플래시블레이드 사업부 총괄, 토스뱅크와 삼성전자를 비롯한 다양한 연사들이 참여했다.앞서 회사는 올해 6월 미국 라스베이거스에서 연례 콘퍼런스 '퓨어//액셀러레이트 2023'을 개최하고 ▲퓨어//E 제품군 ▲차세대 플래시 어레이//X 및 //C ▲구독형 스토리지 '에버그린//원'에 대한 랜섬웨어 SLA(서비스수준협약) 보증 등을 공개한 바 있다.특히 퓨어//E 제품군 중 플래시블레이드//E는 스케일 아웃 비정형 데이터 스토리지다. 아직까지 비정형 데이터 시장에서 하드디스크 드라이브(HDD)가 강자인 가운데, 비정형 데이터 저장에서도 플래시 전환을 이뤄내겠다는 의지를 담은 제품군이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>링커리어, 신입 구직자 하반기 공채 합격 돕는다</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304867?sid=105</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>베스트 취업자료 모음집·합격 자소서 등 서비스 제공링커리어가 하반기 공개채용 시즌을 맞아 신입 구직자들 취업 경쟁력 제고를 위한 취업 서비스를 지원한다고 12일 밝혔다.회사는 ▲베스트(BEST) 취업자료 모음집(zip) ▲합격 자기소개서 ▲합격후기 ▲공고 달력 등을 통해 취업에 필요한 핵심 정보를 한 번에 제공, 공채에 익숙하지 않은 신입 구직자들에게 유용한 서비스를 제공한다고 설명했다.먼저 베스트 취업자료 모음집 서비스로 공채 대비를 위한 채용 합격 자료를 선보인다. 대기업부터 금융권 등 합격을 위한 합격 자소서부터 면접 후기까지 내용이 포함된 합격 가이드북을 확인할 수 있다. 현재 삼성, SK, 현대 등 하반기 공채가 진행되고 있는 국내 주요 대기업 채용 합격 자료를 확인할 수 있어, 준비 부담을 줄여준다.(사진=링커리어)대기업, 공기업 등 약 1만8천건의 검증된 최신 합격 자소서를 확인할 수도 있다. 신입 구직자라면 누구나 링커리어를 통해 기업, 직무뿐만 아니라 항목과 내용 등이 포함된 자소서를 무료로 이용할 수 있다. 특히 링커리어 공식 홈페이지, 모바일 앱에서 간편하게 참고할 수 있어 자소서 작성에 어려움을 겪는 구직자들에게 도움을 줄 것으로 기대된다.합격후기에서도 실제 합격자 발표 화면을 통해 검증된 신뢰도 높은 후기들을 살펴볼 수 있다. 최신 인적성, 필기 후기와 면접, 신입 합격후기 등 다양한 채용 전형에 대한 후기를 확인할 수 있도록 했다. 업데이트되는 인기 채용 공고를 실시간으로 확인하는 공고 달력 기능도 있다.노은돈 링커리어 대표는 “많은 신입 구직자가 우리 서비스를 이용해 하반기 공채에서 정보를 확인하고 최종 합격할 수 있기를 바란다”고 말했다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근(구 당근마켓) ▲라인 ▲무신사 ▲야놀자 ▲오늘의집 ▲직방 ▲토스CX 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스뱅크, 목돈 굴리기에서 삼성증권 채권상품 소개 개시</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000930130?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>토스뱅크는 목돈 굴리기 서비스에서 삼성증권의 토스뱅크 연계 종합매매계좌 개설과 삼성증권이 판매 중인 채권상품을 개시했다. /토스뱅크 제공        토스뱅크는 목돈 굴리기 서비스에서 삼성증권의 토스뱅크 연계 종합매매계좌 개설과 삼성증권이 판매 중인 채권상품도 만날 수 있다고 7일 밝혔다.삼성증권의 종합매매계좌는 국내를 포함한 해외 주식, 채권, 펀드 등에 투자할 수 있는 계좌로, 만 19세 이상의 한국 거주 내국인은 누구나 개설할 수 있다.목돈 굴리기 서비스는 토스뱅크가 시장 내 경쟁력 있는 상품을 자체 선별해 소개하는 서비스로 국내 대형 증권사들이 입점해 있다.토스뱅크 이용자들은 삼성증권에서 판매 중인 채권 상품도 목돈 굴리기를 통해 만날 수 있다. 현재 소개 중인 채권상품들은 키움캐피탈, 메리츠캐피탈, 롯데글로벌로지스로 지난 6일 기준 각각 연 6.17%, 연 5.6%, 연 4.74%의 수익률을 제공한다.토스뱅크는 이번 제휴를 기념해 삼성증권 최초 신규 고객이 종합매매계좌를 개설하면 이달 말일까지 개설 축하금 5000원을 토스뱅크 통장으로 지급한다. 국내 주식을 거래하면 수수료 혜택 평생 제공 및 해외 주식 수수료 우대도 신청일로부터 1년간 제공한다.해외 주식 대상 혜택도 제공한다. 삼성증권 최초 신규 종합매매계좌 개설 고객이 계좌 개설 후 해외 주식 투자지원금을 신청하면 즉시 20달러를 지급하고 신청일 기준 5영업일까지 지원금을 미국주식 매수금으로 사용 가능하다. 거래 축하지원금은 최대 80달러를 지급하고 최초 이벤트 신청 시 선택한 계좌로 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>국내 은행 상반기 위험가중자산 37.9조 늘어</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000770270?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>카뱅 등 12개 은행 위험가중자산 증가 폭 커국내 은행이 상반기 대출 증가와 시장 리스크로 위험가중자산이 증가했다. 카카오뱅크를 비롯한 12개 은행은 위험가중자산이 늘며 총자본 비율이 하락했다.4일 금융감독원이 발표한 '23.6월 말 은행지주회사 및 은행 BIS 기준 자본비율 현황'에 따르면 상반기 국내은행의 위험가중자산은 37조9000억원(1.7%) 증가했다. 대출 확대로 신용위험가중자산이 4조5000억원 증가하고 금리와 주식 비중이 늘어 시장위험가중자산도 5조9000억원 많아졌다.국내은행 자본비율 현황. [사진=금융감독원]다만 분기 순이익 시현과 후순위채 발행 등으로 자본도 6조2000억원(1.8%) 증가하며 자본비율이 소폭 상승했다. 모든 은행이 규제비율을 웃돌았다. 씨티·산업·수출입·KB·DGB는 총자산 증가율이 더 높았다. 그러나 카카오·토스·수협·SC·BNK·기업·하나·신한·농협·케이뱅크는 총자산보다 위험가중자산이 더 많이 늘었다.국내 은행의 6월 말 보통주자본비율은 12.98%, 기본자본비율은 14.27%, 총자본 비율은 15.62%, 단순기본자본비율은 6.53%다.금감원 관계자는 "국내 은행의 자본비율은 양호한 수준을 유지하고 있으나 금융시장 불확실성이 여전하고 중국 부동산 경기 부진 등 대내외 경제 여건이 악화하고 있어 충분한 자본 여력을 확보할 필요가 있다"며 "자본 적정성 감독을 강화하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>얼굴 들이밀고 밥값…간편결제 이용 일평균 2628만건 ‘최대’</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005182683?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>[사진 제공 = 연합뉴스]지문, 얼굴 등 간편 인증수단을 이용한 삼성페이 등 간편결제 서비스 일평균 이용규모가 올해 상반기 중 2600만건에 8400억원을 넘어선 것으로 나타났다.6일 한국은행이 발표한 ‘2023년 상반기 중 전자지급서비스 이용 현황’에 따르면 올 상반기(1~6월) 간편결제 서비스 일평균 이용건수는 2628만건으로 전년 같은 기간 대비 13.4% 늘어 최대치를 기록했다.이 기간 일평균 이용금액 역시 16.9% 늘어난 8451억원으로 최대 수준을 나타냈다.간편결제 서비스 방식 중 계좌에 연동해 미리 충전한 선불금을 이용한 비중은 꾸준히 증가해 올 상반기 32.7%를 차지했다. 앞서 해당 비중은 2021년 상반기 29.2%, 지난해 상반기 31.2%였다.지난해 1월 마이데이터 서비스 등에 기인해 토스, 카카오페이 등 간편송금 서비스 이용도 크게 늘었다.올 상반기 간편송금 서비스 일평균 이용규모는 610만건에 7461억원으로, 1년 전 같은 기간보다 각각 24.2%, 23.9% 증가해 최대치를 기록했다.한은 관계자는 “마이데이터 서비스 시행으로 금융회사 신용정보에 대한 통합관리의 편의성 제고로 간편송금이 용이해진 결과”라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023.09.08.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>불붙은 인터넷은행 '전월세대출'…어디가 좋을까</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000237429?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>'한도·고정금리·안정성' 등 각 사 전략 달라…금융소비자 선택 폭넓어져인터넷은행 3사 모두 전월세대출 상품을 갖추게 되면서 해당 시장 경쟁이 치열해질 전망이다. /더팩트 DB'전월세보증금대출' 시장을 두고 인터넷은행의 경쟁에 불이 붙을 전망이다. 케이뱅크와 카카오뱅크에 이어 후발주자인 토스뱅크까지 전월세보증금 대출 상품을 꺼내 들면서 각 은행들은 차별화된 전략으로 금융소비자를 공략하겠다는 계획이다.8일 금융권에 따르면 토스뱅크가 지난 5일 전월세보증금 대출을 시장에 선보이면서 인터넷은행 3사 모두 전월세대출 상품을 갖추게 됐다.케이뱅크·카카오뱅크·토스뱅크 모두 전월세보증금 대출 포트폴리오를 갖추면서 이들 간 경쟁은 더욱 치열해질 전망이다. 금융소비자를 사로잡기 위해 이들이 각자 다른 전략을 내세우고 있는 만큼 금융소비자의 선택의 폭이 넓어질 것으로 보인다.우선 인터넷은행 3사 중 대출 한도가 가장 높은 곳은 카카오뱅크다.카카오뱅크는 한국주택금융공사(HF)뿐만 아니라 민간 보증보험도 채택하며 대출 한도를 높였다. 일반 전월세대출의 한도는 통상 최대 2억2200만 원, 청년의 경우 2억 원까지다. 그러나 카카오뱅크가 지난 7월 선보인 'SGI 전월세보증금 대출'의 한도는 5억 원으로 전월세보증금의 최대 80% 한도 이내에서 취급이 가능하다. 수도권은 7억 원 이하, 수도권 외 지역은 5억 원 이하로 제한됐던 임대차보증금 제한도 없다.케이뱅크와 토스뱅크는 모두 HF 보증을 기반으로 하는 상품만 갖추고 있다. 케이뱅크는 임차보증금의 최대 80% 이내, 토스뱅크는 88% 이내다. 토스뱅크의 경우 기존 주금공의 임차보증 80%에 토스뱅크 자체 10%의 신용을 더해 88%를 제공하는 구조다.이에 따라 HF 보증 전세대출로 전셋값이 모자라 다른 대출 등 추가 자금이 필요한 금융소비자의 경우 보다 높은 한도를 부여하는 카카오뱅크의 'SGI 전월세보증금 대출'을 살펴볼 수 있다.금융소비자를 사로잡기 위해 인터넷은행 3사가 각자 다른 전략을 내세우고 있는 만큼 금융소비자의 선택의 폭이 넓어질 것으로 보인다. /더팩트 DB케이뱅크는 유일하게 일반, 청년 전세대출 외에 '고정금리' 전세대출을 제공하고 있다.케이뱅크는 지난 3월 고정금리 전세대출 상품을 출시했다. 금리는 이날 기준 연 3.94%로, 금리 하단은 변동 금리에 비해 상대적으로 높지만, 대출 기간 동안 금리가 고정돼 이자 비용 관리를 계획적으로 할 수 있다는 장점이 있다.특히, 단일금리이기 때문에 일반 전월세대출의 최저 금리를 받지 못하는 고객의 경우 고정금리를 선택해 더 낮은 금리를 적용받기도 한다.토스뱅크는 '안전성'에 초점을 두고 금융소비자를 공략하고 있다.토스뱅크의 전월세대출은 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 것이 특징이다. 반환보증은 전세 계약 종료 시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다.그동안 보증료 부담과 복잡한 가입신청 절차로 고객들이 반환보증을 신청하지 않는 경우가 적지 않았는데, 토스뱅크는 HF와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. 기존 고객들은 적게는 수십만 원에서 많게는 수백만 원에 달하는 보증료를 부담해야 했지만, 토스뱅크는 최저 연 0.02~0.04%의 보증료를 적용해 고객의 안전을 보장하는 데 들어가는 비용을 최소화했다.한 은행권 관계자는 "전세 시장이 회복세를 나타내면서 은행권 경쟁도 더욱 치열해질 것으로 보인다"면서도 "은행끼리의 경쟁은 결국 고객 혜택으로 돌아오게 된다. 각 사별로 차별성이 있는 만큼 고객들은 자신의 상황에 맞게 상품을 잘 비교해 보고 선택하면 된다"고 말했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023.09.13.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>중국 온라인 쇼핑몰이 몰려온다</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000038448?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>종합 쇼핑몰 앱 순위에서 알리익스프레스는 쿠팡, 11번가, G마켓에 이어 4위를 기록했다. photo 알리익스프레스알리익스프레스(AliExpress)가 빠르게 국내 소비자들에게 파고들고 있다. 앱 분석 서비스 와이즈앱이 지난 7월 국내에서 가장 많이 이용한 종합 쇼핑몰 앱을 조사한 결과 알리익스프레스가 쿠팡, 11번가, G마켓 다음으로 4위(476만명)를 차지했다. 중국 기업이 티몬, 위메프, 옥션 등을 모두 제치고 높은 순위를 차지한 것이다.알리익스프레스는 중국 알리바바그룹의 해외직구 플랫폼으로, 자국 소비자가 아닌 다른 국가의 소비자들을 대상으로 운영하는 온라인 쇼핑몰이다. 중국산 상품을 저렴한 가격으로 판매하고 전 세계적으로 배송이 가능해 인기를 끌면서 성장했다.국내에서 2~3년 전까지만 해도 알리익스프레스는 아는 사람들만 이용하는 틈새 서비스였다. 상품값이 싼 대신 품질을 신뢰하기 어렵고, 배송비가 무료인 대신 배송기간이 길고, 문제 발생 시 반품도 쉽지 않아 급하지 않은 소액 물품을 사는 데 이용하는 서비스로 알려져 있었다.그렇게 알음알음 입소문으로 소비자를 늘린 알리익스프레스는 수년 전부터 본격적으로 한국 소비자를 공략하기 시작했다. 특히 지난 3월 배우 마동석을 전속모델로 선정하고, 각종 커뮤니티와 유튜브 등 온라인 공간을 비롯해 지하철, 극장 등 오프라인 공간까지 공격적으로 프로모션을 전개하면서 이용자를 많이 확보했다. 1년 사이에 이용자 수가 약 80% 이상 늘어난 것으로 나타났다.끊임없는 할인 및 프로모션 전략알리익스프레스가 국내에서 큰 인기를 끄는 여러 가지 이유에 대해 살펴보자. 가장 중요한 요소는 바로 가격경쟁력이다. 알리익스프레스에서 파는 상품의 대부분은 중국에서 직접 생산하고 판매하기 때문에 가격이 저렴할 수밖에 없다.특히 알리익스프레스는 할인 및 프로모션에 강하다. 시즌별 할인, 특별 이벤트, 쿠폰 제공, 코인 할인 등 다양한 전략을 사용하여 고객을 유도한다. 광군절(11월 11일)뿐만 아니라 최근에는 천원마트, 꽁돈대첩, 초이스데이, 서머 엔딩 세일 등 끊임없는 할인 및 프로모션을 통해 높은 고객 유입과 재구매율을 유지하고 있다.과거에 알리익스프레스는 싸지만 낮은 품질의 제품을 구매하는 곳이었다. 하지만 최근에는 소위 가성비가 높은 제품들, 즉 가격에 비해 품질이 좋은 제품을 구매하는 곳이 되어가고 있다. 이는 근래 중국의 기술 및 제조 역량이 크게 향상된 결과다. 국제 표준을 준수하는 기업이 늘고 다수의 브랜드가 치열하게 경쟁하는 환경으로 바뀌면서 품질 개선을 가져왔다.각종 전자제품, 패션 및 의류, 홈데코, 뷰티, 자동차 부품, 스포츠용품, 유아용품, 주얼리 등 다양한 제품 라인업은 알리익스프레스가 전 세계적으로 이용되는 이유 중 하나다. 특히 스마트폰, 노트북, 카메라, 오디오 장비, 각종 컴퓨터 부품 등의 카테고리에서 수많은 종류의 제품을 비교하고 싸게 구입할 수 있다는 점은 알리익스프레스가 성인 남성들에게 큰 인기를 끄는 핵심 요인이다.중국 기업이 운영하는 해외직구 플랫폼임에도 알리익스프레스의 사용과 결제는 상당히 간편한 편이다. 해외직구를 처음 해보는 소비자라도 국내 쇼핑몰처럼 이용할 수 있고 결제 수단도 달러 결제뿐만 아니라 네이버페이, 카카오페이, 토스 등 다양한 옵션을 제공한다. 신용카드가 없어도 국내 은행계좌만 있으면 결제가 가능하다.다양한 배송 옵션을 제공하는 것도 장점이다. 알리익스프레스는 여러 배송 업체와 파트너십을 맺고 있어 소비자는 표준배송, 빠른배송, 무료배송 등 여러 배송 옵션 중에서 선택할 수 있다. 배송비는 배송 옵션에 따라 달라지며 대부분의 상품에 배송이 가능하다. 배송비가 붙는다고 해도 국내 택배비보다 저렴한 경우가 많다. 원래 알리익스프레스는 우체국을 통한 국제우편으로 배송했기에 "잊어버리고 있으면 언젠가는 온다"고 할 정도로 배송 기간에 관한 악명이 높았던 서비스다. 하지만 알리익스프레스 및 차이니아오(CaiNiao)가 CJ대한통운과 제휴하면서, 최근에는 주로 CJ대한통운을 통해 국내 배송이 이뤄지며 배송 기간도 대폭 단축된 상태다. 차이니아오는 물류창고 관리, 화물 운송, 국제 운송, 통관 등 물류 서비스를 종합적으로 제공하는 알리바바그룹 산하의 물류 기업이다.계속 영향력 확대되는 중국 쇼핑몰들알리바바그룹의 타오바오(Taobao)는 중국 최대 쇼핑몰로서 알리익스프레스보다 더 다양한 품목의 상품을 팔고 있으며 최신 상품이 가장 먼저 등록되는 곳이다. 국내에서도 타오바오를 통해 직구하는 소비자들이 늘어나고 있다. 타오바오는 중국어 외 다른 언어를 지원하지 않지만 웹브라우저의 번역 기능을 통해 이용할 수 있고 카카오페이로 결제가 가능하다. 배송대행업체를 이용할 때처럼 타오바오 창고에 여러 구매 상품을 모아서 국내로 합배송할 수 있으며, 국제 배송비도 저렴한 편이다.중국에서 초저가 공동구매를 통해 성장한 핀둬둬(Pinduoduo)의 해외판이라 할 수 있는 티무(Temu)의 국내 사용자들도 최근 증가하는 추세다. 티무의 운영사는 핀둬둬의 모회사 PDD홀딩스다. 핀둬둬와 티무의 관계는 타오바오와 알리익스프레스의 관계와 유사하다고 볼 수 있다.티무는 미국에서 슈퍼볼 광고까지 할 정도로 커다란 프로모션을 진행했으며, 지난해 말 아마존과 월마트를 제치고 미국에서 가장 많이 다운로드된 앱으로 선정돼 화제가 되기도 했다. 티무는 지난 7월 한국 배송 서비스를 공식 개시한 후, 대대적인 할인 행사를 진행하는 중이다.하지만 이러한 중국직구의 단점도 적지 않다. 판매자와의 커뮤니케이션 문제, 상대적으로 복잡하고 때로는 불가능할 수도 있는 반품과 환불 정책, 가짜 리뷰와 사기 판매자, 150달러가 넘는 상품에 대한 관세 부담, 중국 기업이기 때문에 걱정되는 개인정보 및 데이터 보호에 대한 우려 등 다양한 문제가 있다.그럼에도 중국직구는 가격에 민감한 소비자들에게 큰 매력으로 작용하고 있다. 특히 최근 국내 경제가 높은 인플레이션으로 인해 생활비와 물가가 많이 올라간 상태인데, 중국직구 플랫폼들이 이를 효과적으로 공략하고 있으며 실제로 전략이 먹히고 있다.국내 전자상거래 업체들은 중국직구의 급속한 성장에 주목하며 대응전략을 마련하고 있으나, 효과적인 방안을 찾지 못해 고심하는 것으로 알려졌다. 만일 마땅한 방안을 찾지 못한다면, 앞으로 중국직구에 시장 점유율을 더욱 양보해야 하는 상황에 직면하게 될 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스뱅크 "전월세보증금대출, 안전·편리함으로 차별화"</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005067815?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>보증료율 경쟁사 6분의 1 수준등기 변동 생길 때마다 앱 알림  토스뱅크가 인터넷은행 중 가장 후발주자로 전월세보증금대출을 출시했다. 보증료율을 타행 대비 6분의 1수준까지 낮춘 '전세지킴보증'을 도입하고 등기부등본을 열람하지 않아도 집주인의 재산 정보 변동이 생기면 자동으로 알려주는 '등기변동알림'을 통해 '편리함'과 '안전함'을 모두 잡겠다는 전략이다.   5일 토스뱅크는 전월세보증금대출을 출시하면서 '전세지킴보증' 서비스를 도입해 고객들이 전월세보증금 대출을 받은 후 전세보증금반환보증도 한번에 신청할 수 있게 했다. 반환보증은 전세계약 종료 시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다.   토스뱅크는 주택금융공사(HF)와 손잡고 최저 연 0.02~0.04%의 보증료를 적용키로 했다. 이에 전세보증금이 2억원인 청년 고객이 2년간 부담해야 할 반환보증의 비용은 8만원 수준이다. 토스뱅크는 올 연말까지 전세지킴보증 가입 고객을 대상으로 보증료를 최대 10만원까지 지원한다. 보장 범위도 단독주택, 빌라, 다가구주택 등까지 넓혔다.   전월세보증금 개발을 담당한 박신건 토스뱅크 프로덕트오너(PO)는 "기존 고객들이 가입하던 반환보증 상품보다 6배 이상 저렴한 만큼 '전세지킴보증'을 통해 부담없이 안전한 금융생활을 할 수 있다"고 설명했다.   토스뱅크는 '등기변동알림'도 도입해 집주인의 재산상 정보 변동이 생길 때마다 앱을 통해 알림을 제공한다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집 혹은 살게 될 집에 변동사항이 생길 경우 알림이 제공되는 방식이다.   토스뱅크는 인터넷은행 최초로 '다자녀 특례 대출'도 도입했다. 미성년 자녀수가 2명 이상인 고객이 대상이며 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 가능하다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다.   한편 토스뱅크는 주택담보대출 출시 시점에 대해서는 구체적인 답변을 피했다. 홍민택 토스뱅크 대표는 "20·30 청년의 거주 문제는 심각한 사회문제이고 전월세보증금대출은 이를 해결할 기회"라며 "주담대 시장은 진출해야 하는 시장이고 이미 많은 국민이 주택 구입 목적으로 대출받고 있다"며 "다만 구체적인 시기는 결정되지 않았고 전략적 가치와 시장 환경이 갖춰졌을 때 출시할 것"이라고 말했다. 이어 홍 대표는 "전월세보증금대출은 주담대와 달리 만기도 상대적으로 짧고 실수요에 집중된 상품"이라고 강조했다. 최근 금융당국이 가계대출 급증의 원인으로 인터넷은행의 주담대 확장을 꼽은 상황에서 전월세대출이 투자목적이 강한 주담대와 성격이 다르다는 입장을 재차 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023.09.10.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[기업기상도] 판로 넓어져 맑은 기업 vs 불상사 맞아 흐린 기업</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000618615?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[앵커] 경기 지표에 먹구름이 잘 걷히지 않고 있습니다. 2분기 국민소득은 줄고 물가는 다시 상승폭이 커졌는데요. 쉽지 않은 경기 형편 속에 한 주 기업들에 어떤 크고 작은 소식 있었는지 기업기상도로 살펴보시죠. 김종수 기자입니다.[기자] 한 주 기업뉴스 리뷰 주간 기업기상도입니다.심상찮은 중국 경기 소식에 금융가의 소위 '9월 위기설'까지 나와 뒤숭숭합니다. 정부는 그럴 일 없다고 잘라 말했는데요. 위기 우려 있으면 신속한 대책으로 환부 도려내기 기대하며 이번주 기업기상도 시작합니다.첫 맑은 기업 농심, 삼양식품, 오뚜기 등 라면기업들입니다. 수출 안돼 다들 힘든데 여긴 딴세상입니다.7월까지 라면 수출이 17% 이상 늘며 5억 달러 넘었습니다. 11개월 째 수출 감소와 정반대인데, 라면 하나로 연 10억 달러 넘을 것 같다죠. K콘텐츠, 정확히는 영화 기생충과 BTS가 수요 급증 일등 공신입니다. 삼양식품은 공장 증설 나섰고, 현지생산 비중 큰 농심은 미국 3공장까지 검토 중입니다.어려운 시절 끼니거리가 이제 K푸드 대표됐습니다. 수출과 성장은 반도체, 자동차만의 몫은 아닙니다. 다음은 삼성전기입니다. 전기차, 자율차 시대 맞아 자동차용 카메라 모듈로 호재 맞았습니다.작년 6월부터 계약 관측 나오더니 "미국 자동차업체와 카메라 모듈 공급 계약을 맺었다"는 공시나왔습니다. 이런 계약은 대상, 액수 잘 안밝히는데, 테슬라란 설 유력하고 공시 뒤 주가도 좀 올랐죠. 스마트폰 외에 또다른 새 동력 등장한 셈입니다.자율주행 수준 높은 전기차 나올수록, 자동차용 카메라 모듈은 더 많이 쓰이겠죠. 1등 업체 잡으면 이 시장 선도할 여지도 커집니다.이제 흐린 기업입니다.카카오뱅크, K뱅크 등 인터넷 전문은행들로 시작합니다. 주택담보대출로 고성장했는데 제동 걸릴 판입니다.바닥 다지기 이어 공격적 영업 나선 두 인터넷은행, 타깃은 주택담보대출입니다. 작년 말 13조원대던 카카오 주담대가 6월 말 17조, 2조3,000억이던 K뱅크는 3조7,000억 됐죠. 5대 은행의 감소와 반대인데, 불황속 가계대출 급증 우려 커지자 금융감독원이 양사 현장 점검 나섰습니다.공격적 영업 중단하란 메시지인데요. 카카오뱅크는 부랴부랴 50년 주택담보대출 연령 제한 뒀고 출시 고려하던 토스뱅크는 "환경이 돼야한다"며 멈칫했습니다.이번엔 CJ그룹 보실까요? 파생금융상품 이용한 계열사 지원 의혹에 공정거래위원회가 조사 나섰습니다.총수익스와프란 파생상품이 있습니다. 증권사 등 투자사가 주식 인수하되 반대쪽이 일정기간내 사주는 구조입니다.주가 손익은 반대쪽에 귀속되고 투자사는 수수료 받아, 주식담보대출 유사한데 계열사 부당지원 악용 소지 있죠. 자금 부족할 때, 지원처럼 보이지 않게 하려고 할 때 동원 가능해서인데, 공정위가 CJ에 이런 의심 간다며 조사 착수했습니다. 지주사, CGV, CJ푸드빌 등이 대상입니다.금융감독원이 5년 전 포착한 사안이라고도 하고 SK도 유사 사안으로 과징금 받은 적 있죠. 결론 기다려보겠습니다.다음은 포스코입니다. 사상 첫 파업 위기 봉착했습니다.포스코 노조가 쟁의발생 가결했습니다. 기본급 13.1% 인상, 자사주 100주 지급 등 23건 내걸었는데, 사측이 기본급 인상 없이 5건만 응해 협상 결렬됐다는 이유에서죠. 포스코 사상 임단협 교섭 결렬은 처음이고, 실제 파업 들어가면 이것도 창사 이래 최초가 됩니다.사측은 협상 복귀 촉구하지만 어찌될지 불투명합니다. 각국 불황에 철강업 실적 부진한 국면이란 점이 부담을 더합니다.마지막은 IT공룡 네이버입니다. 야심차게 내놓은 인공지능 AI에 시장 반응이 차갑습니다.네이버 시가총액이 한 달 새 4조 줄었습니다. 시장에선 두 악재 꼽습니다. 하나는 고금리인데, 고성장 기술주는 다 같은 처지라 특별하지 않죠. 문제는 거액 들인 생성형 인공지능 하이퍼클로버X 입니다. 공개된 지난달 24일 접속자 몰려 답변 지체되거나 오류 나 기대가 꺾인 겁니다.구글도 2월 공개시연에서 생성형 AI 바드가 오답 내는 바람에 주가 급락했었죠. 시작은 미약해도 얼마나 빨리, 완벽하게 고쳐나가냐가 관건입니다.2분기 불황형 무역흑자 덕에 겨우 소폭 성장했다고 하고 3분기도 수출 감소속 불황형 흑자 이어집니다. 반면, 정부는 4분기엔 수출 반등 볼 수 있다고 말합니다. 그리 되기를 바라는 건 저희 기상도만이 아닐 것입니다. 지금까지 주간 기업기상도였습니다.PD 김선호AD 이영은송고 김종수연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>"보증금 걱정 끝" 토스뱅크, 비대면 보증 전월세대출 내놨다</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000946627?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>사진=토스뱅크 토스뱅크가 새로운 주택담보대출을 선보인다. 홍민택 토스뱅크 대표는 5일 서울 여의도 콘래드호텔에서 기자간담회를 갖고 인터넷은행 최초로 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 전월세보증금대출을 출시한다고 밝혔다. 이번 대출 출시로 고객들의 '전세사기' 등 피해구제까지 빠르게 개선될 수 있을 것으로 토스뱅크는 기대 중이다.전월세보증금 대출엔 '토스뱅크 케어'가 적용된 게 핵심이다. 케어 첫번째인 '전세지킴보증'은 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증을 신청할 수 있도록 했다. 반환보증은 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품으로 토스뱅크에서 대출과 함께 보증에 가입할 수 있다.토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. 고객의 혜택을 높이면서 보증료를 절감해 고객 부담을 덜었다. 최저 연 0.02~0.04%의 보증료를 적용했으며 올 연말까지 전세지킴보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다.동시에 대상은 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 기존 비대면 반환보증이 시세의 명확성을 이유로 아파트, 오피스텔 등 집합건물에만 적용됐던 것에서 한 발 더 나아갔다.두 번째 토스뱅크 케어는 '등기변동알림'이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 제공한다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다.세번째 케어는 '다자녀 특례 대출'이다. 인터넷은행 최초로 시행하며 고객 선택권을 강화했다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 고객이 대상으로 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다는 것이 특징이다.토스뱅크 전월세보증금대출은 ▲다자녀특례 ▲일반 ▲청년으로 구성되지만 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다.일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로 최대 2억2200만원까지 대출이 이뤄진다. 다만 소득과 부채 비중 등이 적용된다.청년의 경우 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로 최대 2억원의 대출이 이뤄진다. 이 같은 '맞춤형 대출 제안'에 따라 고객들은 자신에게 최적화 된 대출서비스를 제안받고 상품을 선택할 수 있게 된다. 일반·다자녀특례 전월세보증금대출의 금리는 5일 기준 최저 3.32%, 최고 5.19%며 청년 전월세보증금대출의 금리는 최저 3.42%, 최고 4.06%다.토스뱅크 관계자는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>간편대출 늪에 빠진 청년</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003249366?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>20대 이하 인터넷은행 신용대출587억 연체…전년비 264% 급증은행권 대출, 인뱅 3사가 3분의 1절차 간편하지만 금리는 더 높아인터넷은행에서 20대 고객이 빌리고 갚지 않은 돈이 1년 사이 3배 넘게 늘어난 것으로 나타났다.14일 국회 정무위원회 소속 김성주 더불어민주당 의원실이 금융감독원에서 제출받은 자료에 따르면 지난 2분기 인터넷은행 3사(케이뱅크·카카오뱅크·토스뱅크)의 20대 이하 비대면대출(개인신용대출) 연체금은 587억원에 달하는 것으로 나타났다. 이는 지난해 동기(160억원)와 비교했을 때 264% 급등한 수치다.연체율 측면에서도 20대의 연체율은 2.41%로 전 연령층을 통틀어 가장 높은 것으로 나타났다. 이어 60대 이상(1.91%), 30대(1.11%), 50대(0.81%), 40대(0.79%) 순이다. 인터넷은행의 20대 연체율은 같은 기간 19개 국내 은행의 20대 평균 연체율(1.4%)보다 1%포인트 이상 높다.대출액 규모도 빠르게 늘고 있다. 20대의 대출금액 규모는 같은 기간 1조6548억원에서 2조4419억원으로 7800억원 넘게 늘었다. 은행별로 봤을 때 카카오뱅크가 6562억원에서 1조692억원으로 4000억원 이상 불어났고, 이어 토스뱅크가 5423억원에서 9252억원으로 3800억원 넘게 증가했다.이는 인터넷은행들이 청년층에게 신용대출을 적극적으로 내준 결과물로 풀이된다. 금융권에 따르면 5대 시중은행(KB국민·신한·하나·우리·NH농협)을 포함한 19개 국내 은행에서 20대가 신용대출한 금액은 지난 2분기 기준 7조5000억원으로 이 중 인터넷은행 3사가 차지하는 비중은 32.6%에 달한다.인터넷은행 신용대출은 비대면으로 간편하게 받을 수 있지만, 금리는 상대적으로 높게 형성돼있다. 인터넷은행 3사의 평균 대출금리는 7.07%로 5대 시중은행의 평균 대출금리(5.88%)보다 높은 수준이다.인터넷은행 신용대출을 중심으로 20대 차주의 연체율이 높아지면서 부실 우려도 커지고 있다. 한국은행 경제통계시스템에 따르면 지난해 20대 이하인 청년들의 가구당 평균 신용대출 잔액은 1053만원으로 전년(648만원) 대비 62.5% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>HD현대오일뱅크 “토스페이로 스마트주유하세요”</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003851180?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>HD현대오일뱅크가 보너스카드 앱 ‘카앤’에 토스페이 간편결제 서비스를 도입했다고 1일 밝혔다.     HD현대오일뱅크 주유소 이용 고객은 ‘카앤’ 앱을 통해 스마트주유 시 토스페이로 결제할 수 있다. 스마트주유는 보너스카드 회원이 앱에서 주유비를 선결제하면 리터당 10~20원을 할인해 주는 서비스다.     회사 관계자는 “토스페이 도입으로 주유소 이용고객의 편의성이 높아질 것으로 기대한다”며 “오픈 기념 프로모션으로 다양한 혜택도 제공할 예정”이라고 말했다.     오는 20일까지 카앤 앱에서 토스페이 생애 첫 결제 시 1만원을 즉시 할인 받을 수 있다. 기존 토스페이 고객에게는 5만원 이상 주유시 5000원 할인 혜택을 제공한다. 또한 토스 앱을 통해 HD현대오일뱅크 보너스카드 회원 신규 가입 시 3000원 주유쿠폰을 5000명에게 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전세사기 막는 보증금대출 출시…최저 금리 3.32%</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002746042?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>반환보증 신청 비 연 0.02~0.04%등기변동알림·다자녀특례 상품 선봬토스뱅크 전월세보증금대출 출시 소개 포스터. ⓒ토스뱅크[데일리안 = 김효숙 기자] 토스뱅크가 전월세보증금 대출을 출시한다고 5일 밝혔다. 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷전문은행 최초로 도입함에 따라, 고객들의 전세사기 등 피해구제까지 빠르게 개선될 수 있을 것으로 기대된다.토스뱅크가 이날 출시한 전월세보증금대출은 '토스뱅크 케어'를 도입한 것이 가장 큰 특징이다. '전세지킴보증', '등기변동알림', '다자녀 특례 대출' 등 총 3가지로 구성됐다.전월세보증금대출은 ▲일반 ▲청년 ▲다자녀특례로 구성됐으며 최대 2억2200만원(청년은 2억 한도)까지 대출을 받을 수 있다. 일반과 청년형 최저 금리는 각각 연 3.32%, 3.42%다.토스뱅크 케어 첫번째는 전세지킴보증이다. 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 것이 특징이다. 반환보증은 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다. 고객들은 토스뱅크에서 대출과 함께 보증에 가입하는 경험을 누릴 수 있다.토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. 고객의 혜택을 높이면서, 동시에 보증료를 절감해 고객 부담을 덜었다. 고객들은 그동안 적게는 수십 만원에서 많게는 수백만 원에 달하는 보증료를 부담해야 했지만 토스뱅크는 HF와 함께 최저 연 0.02~0.04%의 보증료를 적용, 고객의 안전을 보장하는 데 들어가는 비용을 최소화 했다.올 연말까지 전세지킴보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. 가령 보증금이 2억원인 고객의 경우 부담해야 할 보증료는 최저 8만원에 달해, 고객들은 프로모션 기간에 무료 가입의 경험을 누릴 수 있다.동시에 대상은 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다.두 번째 토스뱅크 케어는 등기변동알림이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 제공하는 서비스다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집에, 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다.토스뱅크는 권리조사 서비스 리파인과 함께 이 같은 변동을 수시로 알려줌으로써 정보에 대한 투명성을 높였다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다. 집주인 변동부터 담보 대출 실행, 가압류 등 내가 사는 집을 둘러싼 변화를 한 눈에 알 수 있게 됨으로써 세입자의 발빠른 대응이 가능할 것이라는 설명이다.토스뱅크 케어의 세번째는 '다자녀 특례 대출'이다. 인터넷은행 최초로 시행하며, 고객 선택권을 강화했다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 고객이 대상으로, 임차보증금의 88% 한도로 최대 2억2200만 원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다는 것이 특징이다.토스뱅크 전월세보증금대출은 ▲다자녀특례 외에 ▲일반 ▲청년으로 구성되지만, 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다.일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로, 최대 2억2200만 원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다. 청년의 경우, 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로, 최대 2억원의 대출이 이뤄진다.토스뱅크 관계자는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다"며 "첫 독립을 위한 보금자리’ ‘첫 신혼집’ ‘사회에 첫 발을 내딛은 공간’ 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>토스뱅크 ‘인뱅 최초’ 반환보증해주는 전월세 대출</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002192968?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크와 3파전최대 2억200만원...금리 3.32%카카오뱅크 한도는 5억원토스뱅크가 전월세보증금 대출을 내놓으면서 인터넷은행의 전월세 대출 경쟁이 격화될 전망이다. 토스뱅크는 금리 하단을 최저 수준으로 맞춰 전월세대출 수요를 끌어들인다는 포석이다. 여기에 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입했다.▶금리 하단 ‘최저 수준’...경쟁력 있는 금리로 고객 끌어올까=5일 토스뱅크는 최대 2억200만원까지 대출을 받을 수 있는 토스뱅크 전월세보증금대출을 출시했다고 밝혔다. 이 상품은 ▷일반 ▷청년 ▷다자녀특례로 구성되며 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다. 일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로, 최대 2억2200만원까지 대출이 이뤄진다. 일반 대출은 소득과 부채 비중 등이 적용되고, 다자녀특례는 적용되지 않는다. 청년의 경우 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로 최대 2억원까지 대출할 수 있다.눈에 띄는 점은 금리다. 4일 기준 토스뱅크의 일반/다자녀특례 전월세보증금대출의 최저금리는 3.32%로 카카오뱅크(3.363%), 케이뱅크(3.67%)와 비교했을 때 최저수준이다. 청년 전월세보증금대출도 최저금리가 3.42% 나머지 두 은행(3.69%·3.66%)보다 낮았다. 가산금리를 0.37%포인트까지 낮춰 청년들이 최대 금리를 적용 받아도 상대적으로 낮은 4.06%에 대출을 받을 수 있도록 했다.3개 은행 중 가장 늦게 전월세대출을 출시한 만큼 경쟁력 있는 금리를 통해 고객을 끌어오겠다는 계산으로 풀이된다. 특히 전월세대출은 기준금리는 신규코픽스(변동주기 6개월)를 적용하는데, 최근 코픽스가 상승 추세라 고객들은 조금이라도 더 낮은 금리를 찾아 움직이고 있다.다만, 한도 면에서 토스뱅크가 다른 은행을 압도할 수 있을지는 미지수다. 카카오뱅크는 최근 최대 5억원까지 대출해주는 SGI전월세보증금 대출을 출시했는데, 부부 합산 1주택자의 경우에도 최대 3억원까지 빌릴 수 있어 인기를 끌고 있다.▶원스톱으로 전세지킴보증 신청...‘토스뱅크 케어’ 도입=토스뱅크 전월세대출의 또 다른 특징은 ‘토스뱅크 케어’를 도입했다는 점이다. ‘토스뱅크가 고객이 겪는 어려움을 함께 고민하고 풀어나간다’는 의미가 담긴 토스뱅크 케어는 최근 사회적으로 곳곳에서 터진 전세사기를 예방하는 데 방점을 찍었다. ▷전세지킴보증 ▷등기변동알림 등의 시스템이 포함됐다.먼저 전세지킴보증 시스템은 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 것이 특징이다. 반환보증은 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다. 고객들은 토스뱅크에서 대출을 받으며 동시에 보증에 가입할 수 있다.토스뱅크 관계자는 “그동안 고객들은 ‘깜빡했다, 몰랐다, 비싸다’ 등의 이유로 반환보증을 신청하지 않는 경우가 적지 않았다”며 “이 때문에 전세사기 등 피해를 겪고도 구제받지 못하는 등 특히 2030세대의 피해가 컸다. 토스뱅크는 대학생 사회초년생 신혼부부들의 꿈과 희망이 담겨야 할 보금자리가 감당하기 힘든 피해로 다가올 수 있다는 현실에 착안, 서비스를 기획했다”고 설명했다.토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. HF와 함께 최저 연 0.02~0.04%의 보증료를 적용해 보장 비용을 최소화했다는 설명이다.동시에 전세보증 대상도 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 기존 비대면 반환보증이 시세의 명확성을 이유로 아파트, 오피스텔 등 집합건물에만 적용됐던 것과 다른 점이다.두 번째 토스뱅크 케어는 ‘등기변동알림’이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 무료로 제공하는 서비스다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집에, 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다. 변동이 생긴 등기의 매 순간을 이미지로도 제공한다.토스뱅크 관계자는 “그동안 세입자들을 불안에 떨게 했던 것이 정보의 ‘불투명성’이라고 봤다”며 “내가 모르는 사이 집주인이 바뀌거나, 집에 가압류가 들어오는 등 집의 등기상 변동은 발생할 수 있지만 세입자 개개인이 등기부등본을 열람하지 않으면 알 수 없는 사실을 수시로 알려줌으로써 정보에 대한 투명성을 높였다”고 설명했다. 홍승희 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023.09.08.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>[CEO풍향계] '자동차는 전자제품' 조주완…'방산 세일즈' 김동관</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/422/0000618356?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>[앵커]한 주간 기업 최고경영자들 동향을 살펴보는 'CEO풍향계' 시간입니다. 이번주에는 조주완 LG전자 사장과 김동관 한화 부회장 이야기를 김종력, 이은정 기자가 전해드립니다.[기자]조주완 LG전자 사장. 뮌헨 국제모터쇼에 참석해 LG전자가 바라보는 모빌리티 산업과 미래비전 등을 소개했습니다.LG전자는 미래 먹거리로 점찍은 전장분야에 힘을 싣고 있죠. 현재 8조원 수준인 전장부문 매출을 2030년 20조원까지 늘린다는 계획인데요.처음으로 모터쇼 기자회견에 나선 조 사장. "자동차가 정교한 전자제품으로 탈바꿈하고 있는 만큼 70년간 가전사업 노하우를 쌓은 LG전자가 모빌리티 변화를 이끌 것"이라고 말했습니다.이어 헝가리에 전장사업 유럽 전진기지를 세우겠다는 깜짝 발표도 했는데요. 전기차의 심장이라 할 수 있는 파워트레인 핵심 부품들을 생산할 계획이죠.조 사장은 '알파블'이라는 LG전자의 미래모빌리티 테마도 소개했는데요. '모든 것을 가능하게 한다'는 의미인데, LG전자의 모든 기술이 집약된 '알파블' 실물은 내년 1월 미국 라스베이거스에서 열리는 CES에서 공개됩니다.김동관 한화 부회장. 안제이 두다 폴란드 대통령을 만나 방산 세일즈에 나섰습니다.한화그룹은 최근 폴란드에서 열린 국제방위산업전시회에 참가해 방산계열사의 무인수색차량, 폭팔물탐지 및 제거 로봇 등 첨단 무기를 선보였는데요.한화 방산분야를 주도하는 김 부회장. 행사장을 찾은 안제이 두다 폴란드 대통령에게 육해공을 아우르는 한화의 첨단 기술력을 소개했습니다.두다 대통령은 특히 한화오션의 3,000t급 잠수함 장보고함에 관심을 보였는데요. 폴란드가 현재 3000t급 잠수함 3~4척을 신규 도입하는 3조원 규모의 '오르카 프로젝트'를 진행 중이기 때문입니다.김 부회장은 두다 대통령에게 장보고함의 우수한 잠항 능력과 다목적 수직 발사관 등의 기술력을 강조한 뒤, "한화의 육해공 방산 토탈 솔루션이 양국의 우호 증진과 기술 협력에 기여할 수 있을 것"이라고 말했습니다. 최정우 포스코홀딩스 회장. 재임 기간 소속 기업의 시가총액을 가장 많이 끌어올린 최고경영자로 나타났습니다.최근 기업분석연구소 리더스인덱스가 흥미로운 조사 결과를 내놨죠. 국내 매출 상위 500대 기업의 CEO 393명의 재임 기간 주식 시가총액 변화를 분석한 건데요.최정우 회장이 시가총액을 22조원 이상 끌어올려 1위에 올랐습니다.작년 3월 출범 당시 약 25조원이던 포스코홀딩스의 시총, 지난 1일 기준 약 47조3,000억원으로 무려 22조원 넘게 증가했죠.이어 약 21조원을 늘린 에코프로비엠의 주재환·최문호 대표가 공동 2위, 약 18조 7,000억원을 늘린 기아의 최준영 부사장이 4위에 자리했습니다.반면, 취임 후 시총이 가장 많이 줄어든 CEO는 네이버 최수연 대표였는데요. 취임한 지난해 3월 약 53조9,000억원이던 네이버 시총은 지난 1일엔 18조원 넘게 줄었습니다.홍민택 토스뱅크 대표. 최근 언론과 만나 전월세보증금 대출로 청년들의 거주 문제 해결에 기여하겠다고 밝혔습니다.2020년 출범 후 신용대출 상품만 취급하던 토스뱅크. 처음 내놓은 전월세보증금대출인 만큼 금융계와 부동산업계의 관심을 받았는데요.직접 설명에 나선 홍 대표는 "최근 청년들의 주거 문제가 심각한 사회 문제인 만큼 전세 사기 등으로부터 보호받을 수 있는 안전에 초점을 맞췄다"고 언급했습니다.하지만 홍 대표는 대출액이 크고, 부실 우려가 적어 '알짜사업'으로 불리는 주택담보대출에 대해서는 다각도로 검토 중이라며 말을 아꼈는데요.최근 금융당국이 급격한 가계대출 증가 원인으로 인터넷은행의 주택담보대출 중심 영업을 공개적으로 지목한 데 따른 것으로 보입니다.또 홍 대표는 7월에 출범 후 첫 월간 흑자를 기록한 만큼 3분기와 하반기에도 성장이 지속될 것이라고 자신했습니다.중국의 경기 침체가 길어지는 동시에 기업들의 탈중국 흐름이 가속화하면서 세계 4위 인구대국이자 자원 부국인 인도네시아의 중요성이 커지고 있죠.윤석열 대통령의 인도네시아 방문에 정의선 현대차그룹 회장 등 CEO 20여명이 동행한 이유인데요. 의미 있는 결과물이 나왔기를 기대해 보겠습니다. 지금까지 CEO 풍향계였습니다.연합뉴스TV 기사문의 및 제보 : 카톡/라인 jebo23</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023.09.07.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>핀다서 케이뱅크 4.63%·1억 개인사업자대출…1금융사 입점 지속</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000047449?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>(사진=핀다) 대출 중개·관리 핀테크 기업 핀다에 제1금융사(시중·지방·인터넷전문은행)의 상품 입점이 이어지고 있다. 핀다에 있는 대출중개 데이터와 상권분석 플랫폼을 활용해 금융사가 대출상품 판매 확대는 물론 다양한 협력이 가능한 점이 주효한 것으로 보인다. 금융시장에서 핀다의 구심력이 커지고 있다는 평가가 나온다.핀다는 인터넷전문은행인 케이뱅크와 손잡고 개인사업자를 위한 대출을 입점시켰다고 7일 밝혔다. 핀다는 케이뱅크의 합류로 업계 최다인 69개 제휴 금융사와 300여 개의 대출 상품을 보유하며 업계 1등 제휴력을 갖춘 대출비교플랫폼의 입지를 공고히 했다. 특히 개인사업자를 위한 비대면 대출 상품을 입점시켜 고금리 시기에 대출 문턱이 높아 어려움을 겪던 소상공인과 자영업자의 대출 편의성을 높였다.이번 제휴를 통해 입점한 상품은 케이뱅크의 개인사업자 전용 상품인 '사장님 신용대출'이다. 이 상품은 100% 비대면 상품으로 지점 방문이나 서류 제출 없이 3분 이내에 최저 금리 4.63%, 최대 대출한도 1억원까지 실행할 수 있으며 중도상환수수료가 없는 것이 특징이다.가입 대상은 사업기간이 1년 이상인 단독 명의의 개인사업자로, 휴∙폐업 없이 현재 3개월 이상 연속된 매출이 있고, 연소득 1000만원 이상의 조건을 충족해야 한다. 대출 기간은 만기일시 1년(최대 10년까지 연장 가능) 또는 원리금균등분할상환 최장 3년 중 선택할 수 있다.핀다는 사장님을 위한 금융 플랫폼으로 자리매김하고 있다. 지난달에는 개인사업자번호만 입력하면 개인이나 사업자로서 사용한 대출·카드 등 금융상품 이용 내역을 한 번에 확인하고, 개인사업자(SOHO) 신용점수도 관리할 수 있는 '개인사업자 신용관리 서비스'를 출시했다.또한 자영업자와 예비창업자 등 개인사업자들이 많이 이용하는 빅데이터 상권분석 서비스 '오픈업'을 무료로 제공하고 있다. 지난 3월에는 우아한형제들과 손잡고 배달의민족 라이더와 외식업 사장님을 위한 우대금리 혜택을 제공한 바 있다.여기에 개발 마무리 단계에 있는 대안신용평가모델(ACSS)을 바탕으로 상권 분석부터 대출, 신용관리, 상환까지 연결되는 '올인원' 사업자 대출 비교 서비스도 연내 론칭할 계획이다.핀다와 제휴한 금융사들은 자사의 대출상품이 이 같은 핀다의 경쟁력 있는 개인사업자 서비스와 유기적으로 연결되면서 다양한 효과를 기대할 수 있게 된다. 이는 하나은행, SC제일은행, 토스뱅크와 광주은행, 부산은행과 같은 지방은행 등 1금융사들이 핀다와 선제적으로 협력하고 있는 이유다.이혜민 핀다 공동대표는 "사업 운영으로 은행에 갈 시간이 턱없이 부족한 사장님이라면 핀다 앱에서 비대면 사업자 대출 상품을 가장 많이 확인할 수 있고 오픈업 서비스를 통해 가게 운영에 필요한 정보도 얻을 수 있다"며 "자영업자 대출 1000조 시대를 맞아 사업자 관련 상품과 서비스를 지속적으로 선보여 사장님을 위한 금융 플랫폼으로 자리매김하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>FTX, 가상자산 매각 가능해졌다…4.5조원 규모</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002305070?sid=105</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>美법원, 매각 승인…매주 1억 달러 규모 허용파산 절차를 밟고 있는 가상자산 거래소 FTX가 보유한 가상자산을 매각할 수 있게 됐다.코인데스크 등 외신에 따르면 미국 델라웨어 주 지방 법원은 13일(현지시간) FTX의 보유 자산을 매각해 채권자들에게 자금을 상환하도록 승인했다.FTX는 약 34억 달러(약 4조 5천186억원) 상당의 가상자산을 보유하고 있다. 이번 판결에 따라 FTX는 매주 최대 1억 달러 가량의 가상자산을 매각할 수 있게 됐다.샘 뱅크먼-프리드 FTX 전 CEO회사가 보유 중인 가상자산 종류는 비트코인(BTC), 이더리움(ETH), 솔라나(SOL), 앱토스(APT), 리플(XRP), 테더(USDT), 랩트비트코인(WBTC), 랩트이더(WETH), 스타게이트파이낸스(STG), 비트다오(BIT) 등으로 밝혀졌다.FTX는 지난해 11월 회사 준비금의 상당량을 자체 토큰으로 채우는 등 실질적으로 자산이 부족한 상태인 것으로 알려지면서 이용자들이 대거 이탈, 파산에 이르게 됐다. 법원에 챕터 11 파산을 신청한 뒤 운영 재개 준비를 하는 등 채권 상환을 위해 다각도로 준비를 해왔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>디지털플랫폼정부, 내년 예산안 1.2배 증액...”국민 체감 성과 창출 본격화”</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003785681?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>4일 대통령 직속 디지털플랫폼정부위원회는 출범 1주년을 맞아 한국프레스센터에서 기자간담회를 열고 성과, 계획 및 내년도 정부 예산안을 발표했다. 자료=디지털플랫폼정부위원회										대통령 직속 기구인 디지털플랫폼정부위원회가 정부 시스템 클라우드 전환, 공공서비스 통합 플랫폼 구축 등을 위해 내년 약 1조원 규모의 예산을 편성했다.위원회는 4일 서울 중구 한국프레스센터에서 출범 1주년 기자간담회를 열고, 행정안전부, 과학기술정보통신부 등 20개 부처가 요구한 사업을 검토해 내년 예산안으로 9262억원을 편성했다고 밝혔다. 이는 올해 예산(4192억원)보다 121% 늘어난 수준이다.주요 사업은 부처 간 데이터 장벽을 허물어 업무를 통합, 효율화하는 ‘하나의 정부’(1953억원), AI(인공지능)와 데이터를 활용해 국민 편의를 확대하는 ‘똑똑한 나의 정부’(1151억원), 민관·성장 플랫폼 구축(5065억원), 신뢰·안심 디지털플랫폼정부 구현(595억원) 등이다.세부 사업을 보면, 정부 시스템의 클라우드 전환(758억원), 행정서비스 통합창구 구축(163억원), 국민이 공공 서비스를 이용할 때 구비서류를 발급받지 않도록 하는 ‘마이데이터 구축’(121억원) 등에 많은 예산이 편성됐다.고진 디지털플랫폼정부위원회 위원장이 4일 오전 서울 중구 프레스센터에서 열린 디지털플랫폼정부위원회 출범 1주년 기념 기자간담회에서 발언하고 있다./뉴시스										이날 위원회는 지난해 9월 출범 이후 그간의 주요 성과를 설명했다. 위원회는 “2009년부터 답보상태였던 실손보험 청구 간소화 문제를 해결하기 위해 TF를 구성해 국회 입법을 성사시켰고, 국민의 이용 빈도 등을 고려해 23종의 공공서비스를 민간 앱·웹에서 제공할 수 있도록 개방했다”고 강조했다. 이어 “수출기업 무역금융 신청시 관련 서류를 전자적으로 제출토록 무역금융서비스 편의를 개선했고, 부동산원, LH 공사 등에 산재된 주택청약 정보를 민간 앱(토스)를 통해 안내 및 신청가능하도록 했다”고 덧붙였다.고진 위원장은 “앞으로 위원회는 논의 장을 회의실 중심에서 벗어나 현장으로 확대하려 한다”며 “민간위원, 담당 부처 공무원과 함께 정책 현장을 수시로 찾아가서 현장의 문제점을 확인하고 해결책을 찾겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>신입구직자 40% "중소기업도 괜찮아...사업 방향·가치관 맞으면”</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303724?sid=105</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>희망하는 신입 초봉 수준 '3천 이상 4천 미만'신입 구직자의 40%는 사업 방향과 가치관이 일치한다면 중소기업에도 지원할 의향이 있는 것으로 나타났다.취업 콘텐츠 플랫폼 캐치가 신입 구직자 1천435명을 대상으로 '하반기 지원 예정 기업'에 관해 조사를 진행한 결과, '대기업'이 73%로 가장 높게 나타났다. 이어 '중견기업'이 42%, '공기업/공공기관'이 27% 순이었다.추가로 하반기에 중소기업 지원 의향이 있는지도 물어봤는데 40% 비중이 '있다'고 답했다. 그 이유는 '사업 방향, 가치관 등이 일치하는 희망 기업이 있어서'가 32%였고, '다양한 업무 경험을 쌓을 수 있어서'가 22%, '빨리 취업하고 싶어서'가 20%로 뒤를 이었다.진학사 캐치_인포그래픽반면, 중소기업에 지원할 의향이 없는 이유로는 '연봉이 낮아서(42%)'를 가장 많이 꼽았고, '복지가 적어서'가 13%, '기업의 미래가 불확실해서'가 11% 순으로 나타났다. 이외에 '커리어 쌓기 어려울 것 같아서', '업무 범위가 명확하지 않아서' 등의 이유도 있었다.신입 구직자를 대상으로 희망하는 신입 초봉 수준에 대해서도 물어봤다. 그 결과, '3천 이상 4천 미만'을 희망하는 경우가 31%로 가장 많았고, '4천 이상 5천 미만'을 희망하는 경우도 23%에 달하는 것으로 나타났다.진학사 캐치 김정현 부장은 "신입 구직자들의 대기업 선호는 여전하지만, 사업방향과 가치관이 일치하는 경우에는 중소기업에도 지원할 의향이 충분히 있는 것으로 나타났다"며 "하반기에 기업 규모를 불문하고 기업과 구직자 간 정확한 매칭이 이뤄질 수 있도록 캐치도 콘텐츠와 AI 기술 등을 통해 지원할 것"이라고 말했다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근마켓 ▲라인 ▲무신사 ▲야놀자 ▲오늘의집 ▲직방 ▲토스CX 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2023.09.01~2023.09.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2023.09.01~2023.09.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>6월 말 국내은행 보통주자본비율 12.98%…3월 말 대비 소폭 상승</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003246887?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>은행권 건정성 지표인 국제결제은행(BIS) 기준 보통주자본비율이 올해 2분기 상승했다.금융감독원이 4일 발표한 ‘은행지주회사 및 은행 BIS기준 자본비율 현황(잠정)’에 따르면 6월 말 기준 국내은행의 BIS 보통주자본비율은 12.98%로 지난 3월말 대비 0.08%포인트 상승했다.보통주자본비율은 은행의 보통주자본을 위험가중자산으로 나눈 값이다. 비율이 높 수록 건전성이 양호함을 뜻한다. 금융당국은 은행들에 BIS 비율을 7.0% 이상으로 유지하도록 규제하고 있다.6월 말 기준 기본자본비율은 지난 3월보다 0.01%포인트 상승한 14.27%, 총자본비율도 0.01%포인트 상승한 15.62%를 기록했다. 같은 기간 단순기본자본비율은 0.04%포인트 상승한 5.53%로 집계됐다. 금융당국은 기본자본은 8.5%, 총자본비율은 10.5%, 단순기본자본비율 3.0%(은행지주는 미도입)을 유지하도록 규제하고 있다.금감원은 대출 증가 등으로 위험가중자산이 37조9000억원(1.7%) 늘었지만, 순이익 시현과 후순위채 발행 등으로 자본이 6조2000억원(1.8%) 증가하면서 자본비율이 소폭 상승했다고 설명했다.6월 말 기준으로 모든 국내은행이 규제비율 10.5%을 상회했다. 총자본이 소폭 감소하거나 상대적으로 위험가중자산 증가폭이 커서 총자본비율이 하락한 은행은 카카오, 토스, 수협, SC, JB, 우리, 기업, 하나, 신한, 농협, 케이 등 12곳이었다.금감원은 “6월말 국내은행의 자본비율은 전분기말 대비 소폭 상승했고, 모든 은행의 자본비율이 규제비율을 상회하는 등 양호한 수준을 유지했다”며 “다만, 최근 환율･금리가 상승하는 등 금융시장 불확실성이 여전하고 중국 부동산 경기 부진 등 대내외 경제여건도 악화되고 있는 만큼 충분한 자본여력을 확보할 필요가 있다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023.09.08.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SK텔레콤, KT, 토스모바일까지…롯데카드, 제휴카드 잇달아 선봬</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/382/0001074297?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>‘텔로 T라이트 할부카드’와 ‘KT DC 플러스 롯데카드’ 포스터. 사진제공 l 롯데카드 롯데카드가 통신사 제휴카드를 잇달아 선보이고 있다.‘텔로(TELLO) T라이트 할부카드’가 대표적이다. SK텔레콤 휴대폰 장기 할부 서비스(T라이트 할부 서비스) 이용 고객에게 전월 실적에 따라 캐시백으로 돌려준다. 연말까지 카드를 발급받은 고객에게는 프로모션 혜택으로 발급월부터 25개월 동안 전월 실적에 따라 캐시백 해준다.‘KT DC 플러스 롯데카드’는 KT 통신요금 자동납부 고객을 대상으로 전월 실적에 따라 결제일 할인해준다. 연말까지 카드 발급 시 전월 실적에 따라 결제일 할인해주는 프로모션을 진행한다.알뜰폰 사업자인 토스모바일의 통신요금을 할인해주는 ‘토스모바일X로카’도 내놓았다. 토스모바일 통신요금 자동이체 시 할인해준다. 발급월부터 24개월간 전월 실적에 따라 할인해준다. 여기에 프로모션 혜택으로 이용금액 구간별로 추가 할인해준다.  한편 롯데카드는 고용노동부가 주관하는 ‘2023년 대한민국 일자리 으뜸기업’에 선정됐다. 양질의 일자리 창출 및 질 개선에 앞장서 성과를 거둔 민간기업을 선정하는 제도다. 회사 측은 “일자리 질 개선은 물론 일하기 좋은 기업으로 자리 잡도록 근무 환경을 지속 강화한 것을 인정받았다”며 “실무중심 교육 과정 실시를 통해 직원의 직무능력을 높여 회사와 직원이 동반성장 하도록 최선을 다할 것”이라고 했다.정정욱 기자 jjay@donga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>해피톡, 챗GPT 기반 AI 상담 자동화 서비스 등 첫 공개</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004933950?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>채팅상담 SaaS(서비스형 소프트웨어) 솔루션 브랜드 '해피톡'이 'AI(인공지능) 기반 상담 자동화 서비스'와 '맞춤형 ARS(자동응답시스템) 세팅 서비스' 등을 처음으로 공개한다. 오는 6일부터 8일까지 서울 AT센터에서 열리는 '2023 스마트 워크 &amp; 스마트 컨택센터 엑스포'에서다.'2023 스마트 워크 &amp; 스마트 컨택센터 엑스포'는 AI(인공지능), 빅데이터, 클라우드 컴퓨팅 등으로 변화하는 스마트 워크 산업과 AICC(인공지능 컨택센터)를 한눈에 파악할 수 있는 행사다.해피톡이 이번 행사에서 선보이는 신제품은 챗GPT를 이용한 최신 AI 기반 상담 자동화 서비스 'hAI'(해피톡 AI)와 AICC 솔루션 상담콜의 'ARS Flow Builder(플로 빌더)'다.'hAI'는 쿠팡, 배민, 토스, 무신사, 현대홈쇼핑, 코레일 등 2만5000여개 기업의 맞춤 고객센터를 구축한 해피톡의 노하우를 토대로 챗GPT 등 최신 AI 기술을 더해 자체 개발한 서비스다. 'AI 학습' 'AI 자동응답 봇' 'AI 어시스턴트' 등 크게 세 가지 기능을 제공한다.'AI 학습'은 △문서 △홈페이지 △텍스트 △채팅상담 내용 △API 학습을 통해 맞춤형 학습을 제공하는 기능이다. 학습 데이터는 AI 자동응답 봇과 AI 어시스턴트에서 활용된다. 'AI 자동응답 봇'은 홈페이지 또는 카카오톡에서 고객 문의를 자동으로 답변, 고객센터로 들어오는 문의량을 줄이는 기능이다. 'AI 어시스턴트'는 고객 문의를 분석, 상담원에게 AI 추천 답변을 제공하는 기능이다. 해피톡 AI TFT 팀장은 "챗GPT 기능을 활용해 채팅상담에서도 생성형 AI 형태의 AI 어시스턴트를 이용할 수 있다"며 "신규 직원들도 보다 전문가적인 답변을 제공할 수 있어 인력 운용에 도움이 될 것"이라고 말했다.또 하나의 신제품인 상담콜의 'ARS Flow Builder'는 복잡한 컨택센터를 구축하지 않고도 그에 준하는 맞춤형 ARS를 세팅할 수 있는 서비스다. △DB(데이터베이스) 연동 △통화 종료 후 문자 메시지 및 알림톡 발송 △상담사 그룹핑 △고객 정보 입력 △TTS(텍스트 음성 변환) 등의 기능으로 맞춤 고객센터 도입을 돕는다.아울러 '드래그 앤 드롭' 형태의 UI(사용자 환경)로 간편히 쓸 수 있다. 실시간 수정이 가능해 기존 구축형의 불편함을 해소했다. 구축형처럼 유지보수 비용이 들지 않으며, 월 비용으로 구독할 수 있다.김범수 해피톡 대표는 "생성형 AI가 촉발한 AICC 혁신의 핵심은 옴니채널에서 발생하는 불필요한 반복 작업을 최대한 줄이는 것"이라고 말했다. 이어 "약 1년여 동안 AI TFT(테스크포스팀)를 꾸려 'hAI'와 'ARS Flow Builder'를 개발했는데 드디어 공개한다"고 말했다.사진제공=해피톡</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>인뱅 충당금 적립률, 1년새 80%P '뚝'…당국 "더 쌓아라"</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004233573?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>작년 2분기 296%서 올 215%잔액 늘어났지만 증가율 '주춤'부실채권 시중銀의 3배 웃돌아주담대 상반기만 5.4조원 급증중저신용 대출비중 높아 위험사진 제공=각 사[서울경제] 인터넷전문은행의 대손충당금 적립률이 4개 분기 연속 떨어지고 있는 것으로 나타났다. 발생하는 부실채권(NPL) 규모보다 적립하는 대손충당금 규모가 이에 미치지 못하고 있다는 의미다. 이런 와중에 인터넷은행의 부실채권 비율은 시중은행보다 3배 가까이 웃돌았다. 금융 당국은 인터넷은행들이 대손충당금 규모를 더 늘려야 한다고 지적했다.3일 금융권에 따르면 카카오·케이·토스뱅크 등 인터넷은행 3사의 올해 2분기 말 기준 대손충당금 잔액은 총 8432억 원으로 집계됐다. 1분기 말보다 11%(814억 원), 1년 전보다 120%(4619억 원) 늘었다. 대손충당금은 향후 부실한 대출이 발생할 가능성을 대비해 쌓는 일종의 ‘방파제’ 자금이다.언뜻 위기 대응 체력이 높아진 것처럼 보인다. 하지만 은행권에서는 인터넷은행의 충당금 잔액 증가세가 줄어들고 있음에 주목하고 있다. 실제로 올해 6월 말 기준 인터넷은행 3사의 직전 분기 대비 대손충당금 증가율은 10.7%로 3월 말 19.5%에서 ‘반 토막’이 났다. 보유한 부실채권에 비해 대손충당금을 얼마나 쌓아뒀는지를 알 수 있는 대손충당금 적립률도 매 분기 감소 중이다. 1년 전인 지난해 2분기 말 295.7%에서 지난해 말 255.6%, 올해 1분기 말 228.2%, 2분기 말 214.6%까지 떨어졌다. 6개 시중은행 적립률(233.2%)뿐 아니라 NH농협 등 특수은행 5곳(228.6%)보다도 낮다. 충당금을 쌓고는 있지만 늘어나는 부실채권 규모에 비해 갈수록 부족해지고 있다는 의미다. 반면 부실채권 비율은 은행 평균을 크게 상회했다. 올해 2분기 말 인터넷은행 3사의 부실채권 비율은 0.69%로 시중은행 6곳의 부실채권 비율(0.25%)보다 3배 가까이 높은 수치다.이에 대해 인터넷은행들은 “이미 충분히 쌓아뒀다”는 입장이다. 하지만 금융 당국은 “더 쌓아야 한다”고 요구하고 있다. 인터넷은행의 경우 전체 대출 포트폴리오에서 담보가 없는 신용대출 비중이 높고 특히 중저신용자 대상 신용대출 비중이 6월 말 기준 24~39%에 달하기 때문이다. 한 인터넷은행 관계자는 “당행의 대손충당금 적립률은 타행 대비 여전히 높은 수준을 유지하고 있고 부실채권 상·매각도 적극 나설 계획”이라고 말했다. 하지만 금융감독원 관계자는 “인터넷은행의 경우 중저신용자 대상 가계신용대출 비중이 높은 만큼 시중은행보다 대손충당금 적립률을 높여야 하는 건 당연하다”며 “대내외 불확실성 확대에 대비해 인터넷은행도 대손충당금 적립 확대 등 손실 흡수 능력을 강화할 필요가 있다”고 지적했다.한편 금감원은 4일부터 최근 주택담보대출을 폭발적으로 늘린 인터넷은행을 대상으로 가계대출 현장 점검에 나설 방침이다. 금감원이 인터넷은행의 가계대출 현장 점검에 나서는 건 처음으로 4~7일에는 카카오뱅크, 11~14일에는 케이뱅크의 점검이 예정돼 있다. 금감원은 카카오뱅크와 케이뱅크에서만 올 상반기 주택담보대출 잔액이 5조 4360억 원 급증한 만큼 여신 심사나 리스크 관리가 대출 규정에 따라 제대로 이뤄졌는지 등을 집중 점검할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>투자하는 청년 늘어나는데 금융 이해력은 떨어진다[법률·부동산·금융, 얼마나 아십니까]</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003247097?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>⑤ 교육은 없는데 일단 공격투자10대 주식계좌 326만개 ‘3년 새 3.7배’청소년들까지 ‘주식 투자’ 관심 높지만초·중·고 시절 경제교육 시간은 태부족20대 금융이해력, 노년층 다음으로 낮아부모 소득 따라 금융교육 양극화도 심각선진국 교육과정엔 ‘금융 과목’ 의무화한국은 가이드라인 그친 데다 이론 중심현실 상황에 맞는 실전적 내용 가르쳐야“200만원 투자한 하이브는 4% 손해봤지만 400만원씩 넣은 넷플릭스와 현대자동차가 각각 2%, 2.5%씩 오른 덕분에 수익이 났어요.”토스가 지난 7월 개최한 청소년 모의투자대회에는 만 7세부터 18세까지 총 15만6000여명의 청소년들이 참여했다. 이 중 15세 이하가 75%였다. 5일 동안 가상의 1000만원으로 넷플릭스·나이키·코카콜라·현대자동차·하이브 등 국내외 주식 일부에 투자해 수익금 순으로 순위가 매겨졌다.청소년의 실제 주식 투자도 늘고 있다. 한국예탁결제원이 집계한 ‘2022년 12월 결산 상장법인 개인 소유자’를 보면 국내 상장사 주식이 있는 미성년자는 전체의 5.3%인 75만5670명으로 나타났다.미성년자가 보유한 주식 계좌도 2019년 88만7000개에서 지난해 상반기 325만8000개로 3년도 안 돼 약 3.7배 늘어났다.10대들의 투자 관심도는 높아지고 있지만 이들의 투자교육 수요에 맞는 공급은 부족한 상황이다. 기획재정부가 지난해 10월부터 11월까지 초·중·고교생 각 5000명을 대상으로 실시한 ‘2022년 초·중·고 학생 경제이해력 조사 결과’를 보면 중학생의 45.4%와 고등학생의 51.4%는 “경제교육 시간이 부족하다”고 답했다. 초·중·고 교사 대부분(각각 64.9%, 55.7%, 61.8%)도 “학교 내 경제교육 시간이 부족하다”고 답했다.중학생과 고등학생은 가장 받고 싶은 교육 내용으로 금융상품을 꼽았다(중학생 46.1%·고등학생 52.3%). 2위는 기본 경제원리(중학생 34.4%·고등학생 30.9%)였다.학창 시절에 부족했던 금융교육은 20대까지 영향을 미치는 것으로 보인다. 금융감독원과 한국은행이 2년에 한 번씩 시행하는 ‘전 국민 금융이해력 조사’ 결과를 보면 지난해 20대(만 18~29세) 점수는 평균 65.8점으로 전체 평균(66.5점)보다 낮았다. 경제 활동을 본격적으로 하는 30대(69.0점) 점수가 가장 높았고 40대 이후부터 하락하는 것으로 나타났다.서울 홍연초등학교 학생들이 지난 5월18일 한국거래소 ‘참여형 증권교실’에 참석해 주식 매수·매도 보드게임을 하고 있다. 한국거래소 제공국내 금융교육 기관이 없는 것은 아니다. 금감원, 한국거래소, 서민금융진흥원 등 공공기관뿐 아니라 은행·보험사·증권사 등 각 금융사도 연령별·수준별로 온·오프라인 금융교육을 하고 있다.예컨대 금감원은 FSS어린이 금융스쿨, 대학 실용금융강좌, 금융사랑방버스 등 세대별 프로그램부터 군 장병, 다문화·북한이탈주민 등 계층별 교육까지 14개 프로그램을 운영하고 있다. 금융소비자보호처 내에 금융교육을 담당하는 별도 조직(금융교육국)도 있다. 금융정책을 총괄하는 금융위원회도 금융소비자정책과의 업무 중 하나로 ‘금융교육에 관한 사항’을 두고 있다.그러나 기관별 교육 프로그램이 산발적으로 진행되고 있고 대부분은 일회성인 경우가 많다. 특히 미성년자는 부모의 관심도에 따라 교육을 접하는 시기에 차이가 날 수밖에 없다.박형준 서울대 사회교육과 교수는 “금융교육도 상대적으로 유복한 가정에서 자란 학생이 양질의 금융교육을 받는 ‘양극화 현상’이 있는 만큼 제도권 교육 정착이 중요하다”고 말했다.실제 전 국민 금융이해력 조사에서 소득계층별 점수는 연봉 7000만원 이상인 고소득층(68.7점)의 점수가 3000만원 미만인 저소득층(63.2점)보다 높았다. 학력별 점수도 전문대 포함 대졸 이상(68.7점)이 고졸 미만(59.3점)보다 10점 가까이 높았다.한국보다 금융이 발달한 해외 주요국은 제도권 금융교육을 꾸준히 하고 있다. 미국은 경제교육을 표준교육과정에 포함해 12개 학년에 걸쳐 가르치고 있다. 고등학교 과정에 독립된 금융 과목이 있고 ‘학교은행(bank at school)’과 같은 상설 체험행사가 마련돼 있다. 대통령 직속의 금융교육자문위원회도 두고 있다.캐나다도 2004년부터 교육과정에 금융 과목을 의무화했다. 재무부, 금융소비자청 등이 담당하고 있다. 싱가포르는 2012년부터 초등 사회 교과에 금융교육을 포함했고, 중학생은 금융자산관리, 고등학생은 회계 및 경영원리를 각각 배운다. 영국도 2014년부터 모든 공립 중·고교 사회(시민) 교과에 금융을 포함하고 필수과목으로 지정했다.반면 국내 교육과정의 금융 분야는 경제 교과목의 ‘경제생활과 금융’ 단락이 유일하다. 지난해 교육과정을 개편해 2025년부터 고교 교과과정에 ‘금융과 경제생활’ 과목이 신설되지만 대학수학능력시험(수능)과 무관한 진로선택 과목이다.장경호 인하대 사회교육과 교수는 “새 교과과정에 신설되는 경제생활과 금융은 수능과 무관해 상대적으로 관심도가 낮을 것”이라면서 “대학의 선발 자율성을 높여서 예컨대 경제학 등 상경계열 학과는 금융 과목을 선택한 학생에게 가점을 주는 것과 같은 현실적인 방법을 고려해 볼 만하다”고 말했다.학계에서는 금융교육 가이드라인이 있지만 교육과정이 이를 따라가지 못하고 있다는 지적도 나온다.금감원과 한국교육과정평가원은 2010년에 ‘초·중·고 금융교육 표준안’을 제정했고 2020년에 개정해 학교 금융교육에서 다뤄야 하는 내용을 제안했다. 고교과정은 의사결정·수입, 지출관리·저축, 투자·신용, 부채관리·보험, 은퇴 설계 등 5개 영역에서 33개 표준안 성취기준을 제시했다.그러나 전문가들은 교육부가 2020년 개정안은 물론 2010년 제정안도 고교 교과과정에 제대로 반영하지 않고 있다고 비판한다. 한 교육계 관계자는 “금융교육 표준안이 가이드라인 성격에 그치고 강제사항은 아니다 보니 교육당국이 교과과정을 개편할 때 엄밀하게 반영하지 않는 것 같다”고 설명했다.김재근 대구교대 사회과교육과 교수는 “경제 교육과정은 지금까지 경제학원론의 틀을 그대로 가르치고 있어서 이론·모형 중심적이고 실용성이 떨어지는 측면이 있다”면서 “학생들이 실전적으로 마주하는 경제 상황에 대응할 수 있도록 금융교육 내용을 재구성할 필요가 있다”고 말했다.교육 대상의 성별·연령·학력·소득에 따른 ‘맞춤형’ 교육이 필요하다는 제안도 있다. 이석훈 자본시장연구원 선임연구위원은 “현재 선호 경향이 강한 학생과 청년층에는 즉시 얻을 수 있는 혜택을, 위험기피도가 높은 고령층에는 잘못된 선택으로 인한 손실 가능성을 파악하고 대응하는 방안을 각각 알려주는 게 좋다”고 말했다.&lt;시리즈 끝&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>25만원 ‘프리즈 티켓’ 부담된다면…‘프리 관전’으로 돌아갈까 [이번 주 미술가 ‘스윗스팟‘］</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005181157?sid=103</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>스윗스팟(sweet spot)이란 배트로 공을 치기에 가장 효율적인 곳, 최적의 상황을 뜻합니다. 화랑과 미술관 밀집된 지역을 중심으로 이 시기 놓치지 말아야 할 주요 전시를 효율적인 동선 위주로 안내합니다. 종종 전시 이야기를 나눌 만한 맛집이나 카페 공간 정보도 곁들입니다. 참고로 매일경제 사이트에서 기사가 먼저 뜬다는 점 기억해 주시기 바랍니다.프리즈 서울 효과 더 키우자해외 갤러리 개관 잇따르고지점 못 낸 곳들은 ‘팝업’전 열어올해로 두 번째 맞이하는 프리즈 서울과 키아프 서울 기간에 맞춰 서울 전역에서 미술 관련 전시가 쏟아지고 있습니다. 특히 올해도 해외 주요 갤러리들이 이때 맞춰서 한국에 진출하고 갤러리 개관전을 여는 추세네요.영국계 화이트큐브와 일본계 화이트스톤이 대표 주자입니다. 페로탕이 작년 이맘때 도산공원 인근에 서울 2호점을 열었듯 포르투갈계 실력파 갤러리 두아르트 스퀘이라는 강남에 이어 2호 전시장 덕수궁점을 엽니다. 일본 건축 거장 구마 겐코가 설계한 공간 등 새로운 건축도 보고 미술 컬렉터들을 겨냥해 경쟁적으로 내놓는 알짜 작가들도 만날 수 있습니다. 올해 코엑스에서 열리는 프리즈 서울 티켓은 더 올라서 하루권이 8만원, 프리뷰권이 25만원으로 부담스러운 수준이니 미술 애호가들은 주요 갤러리 전시장에서 무료로 현대미술의 정수를 영접할 기회입니다. 다만 전시는 무료라도 예매해야 가는 경우가 많으니 서둘러야 할지도 모릅니다.도산공원 화랑가는 확장중yBa키운 영국계 화이트큐브 호림아트센터 서울점 개관 영국계 갤러리 화이트 큐브가 서울점을 개관할 호림아트센터 건물   &lt;화이트큐브&gt; 화이트 큐브에서 전시되는 카타리나 프리치의 ‘손’&lt;화이트큐브&gt;우선 영국계 화이트 큐브가 강남 (도산대로 45길 6) 호림아트센터 1층에 면적 300㎡ 규모로 전시장을 열며 서울에 본격 진출합니다. 9월 5일 시작애 12월 21일까지 여는 개관전에서는 ‘영혼의 형상’이라는 제목의 그룹전으로 전속 작가 트레이시 에민은 물론 루이스 지오바넬리와 이진주 등 젊은 작가들을 함께 소개합니다. 30년 전 미술상 제이 조플링이 런던에서 설립한 이 갤러리는 현대미술사에 한 획을 그은 데이미언 허스트 등 영국의 젊은 미술가들 그룹 yBa(young British artists)작가들을 발굴하고 함께 성장한 것으로 유명하지요.도산공원 인근에는 프랑스계 페로탕갤러리 도산파크도 있죠. 작년 프리즈때 솔로부스로 선보였던 뉴욕과 바하마 기반 작가 타바레스 스트라찬의 개인전 ‘Do and Be’가 9월 2일부터 10월 7일까지 열리네요. 올해는 자화상 연작을 새로 선보인다고 합니다. 타바레스 스트라찬 작품 ‘Self Portrait(Space Helmet)’(2023) &lt;페로탕갤러리&gt;그 바로 건너편에는 럭셔리 브랜드 에르메스 매장의 지하 전시장 아뜰리에 에르메스에서 중견 작가 박미나(50)의 개인전 ‘아홉 개의 색, 아홉 개의 가구’가 환상적인 공간 감각 때문에 입소문을 타고 있습니다. 10월 8일까지죠. 아 근처 프랑스계 오페라갤러리도 있네요. 이곳은 강렬한 색채와 에너지를 뿜어내는 작가 카렐 아펠과 니키 드 생팔 2인전을 9월 6일부터 10월 7일까지 열고 대표작들을 국내에 선보인답니다.강북은 역사·지역성 살린 공간 차별화 일본계 화이트스톤 진출 그룹전 남산 변 구마 겐코 건물로 눈길 일본 건축 거장 구마 겐코가 설계한 화이트스톤 서울 갤러리 이미지 &lt;화이트스톤&gt; 화이트스톤 서울 개관전에 참여하는 일본 작가 미와 코마츠 &lt;화이트스톤&gt;강북으로 넘어가면 고유의 장소성을 살린 새로운 갤러리를 만날 수 있습니다. 국내에 흔치 않은 일본 갤러리로 화이트스톤이 남산 옛 힐튼호텔과 백범광장 인근(용산구 소월로 70)에 개관합니다. 1967년 일본에서 출발한 이 갤러리는 최근 싱가포르에 이어 한국에 진출하며 총 7개 지점을 아시아에 냈지요. 지속가능성을 탐구해온 일본의 대표 건축가 구마 겐고가 설계해 자연친화적 소재인 나무를 사용했고 단색화를 연상시키는 외관이 독특하다. 갤러리는 지하 1층~지상 4층, 총 700㎡ 규모다. 이 갤러리는 개관을 기념해 동아시아 전후 아방가르드 예술가들과 세계적으로 주목받는 차세대 예술가들이 참여하는 그룹전 ‘We Love Korea’를 9월 2일부터 연다. 또 개관을 알리기 위해 이날 오전 11시부터 한 시간 동안 서울 강남구 삼성동 봉은사 미륵광장에서 개관전 참여작가인 미와 코마츠가 라이브 페인팅을 시연할 예정이다.포르투갈 실력파 갤러리 두아르트 스퀘이라 창의적 한식 콩두와 손잡고강남 이어 덕수궁 인근에 2호점 포르투갈 갤러리 두아르트 스퀘이라가 정동 인근에 서울 2호점을 낸 두아르트 스퀘이라 덕수궁 전경.  &lt;두아르트 스퀘이라&gt; 포르투갈 갤러리 두아르트 스퀘이라 덕수궁 개관전에 참여하는 작가 피터 술워스의 회화 ‘Snailzilla BodySwap (Rigged #47)’(2023)  &lt;두아르트 스퀘이라&gt;포르투갈계 갤러리 두아르트 스퀘이라(Duarte Sequesira)도 한국 기반을 확장하고 있습니다. 우고 론디노네, 안토니 곰리, 안젤름 키퍼 등 유명 작가들과 오랫동안 관계를 맺어온 포르투갈의 대표 화상 마리오 스퀘이라의 2세인 두아르트 스퀘이라가 자기 이름을 걸고 2019년 포르투갈 브라가에서 설립했지요. 줄리안 오피를 전속으로 두면서 재능있는 신진 작가들 발굴에 능한 것으로 알려졌습니다. 지난해 9월 강남 도산대로 54길27 유현준 건축사사무소 건물 2층에 서울점을 처음 연데 이어서 9월부터 덕수궁 인근 한식당 콩두가 있던 자리의 신축 건물의 지하층 문화복합공간 ‘스페이스 소포라’ 안에 약 200㎡ 규모를 추가합니다. 1970년생 미국 작가 피터 슐워스 개인전 ‘Displacement Map’을 9월 5일부터 10월 29일까지 펼칠 예정이랍니다. 컴퓨터 생성 이미지 등을 활용하는 작가는 점점 더 추상적인 사회적 관계를 맺고 살아가는 시대에 만들어지는 정체성 구축방식과 불안정성을 보여줍니다. 창의적인 한식을 선도했던 콩두와 파트너로 여는 데다가 과거 400년 전 인수대비의 집무실(정덕원)과 한국 최초 방송국인 경성방송국이 자리했던 지역성이 더해져 기대를 모읍니다. 인근 구세군회관 옆에 두손갤러리도 터를 잡고 이 기간 백남준 전시를 열어 한참 소외됐던 역사지구가 화랑가로 활기 띠는 분위기네요. 청담동 지갤러리에서 열리는 뉴욕 미첼이네스 앤 나쉬갤러리 3인전 전경. &lt;지갤러리&gt;‘에디 마르티네즈’ 키운 뉴욕 화랑 미첼이네스앤나쉬청담동 지갤러리 협업 3인전뉴욕 미첼이네스는 청담동(삼성로 748)  지갤러리와 손잡고 협업 전시 ‘physical spiritual gesture’를 9월 1일부터 23일까지 엽니다.1997년 소더비 현대미술 담당 출신인 루시와 데이비드 부부가 각자의 성을 따서 설립한 이 갤러리는 추상표현주의와 그라피티를 결합한 화풍으로 인기인 1977년생 화가 에디 마르티네즈를 키운 화랑으로 유명하지요.  마르티네즈처럼 생동감 넘치는 붓질로 통하는 미국 화가 제라시모스 플로라토스, 켈티 페리스, 크리스 요한슨의 신작을 함께 선보입니다. 켈티 페리스는 퀼트 같은 패턴 이미지 위에 풍부한 색채그림으로 유명하고 국내에서도 아모레퍼시픽 미술관에 소장된 작가입니다. 제라시모스 플로라토스는 현대 도시 생활의 신체적, 정서적 경험을 바탕으로 물질적 몸과 심리적 몸의 관계를 선과 형태, 재현과 추상 등으로 탐구하죠. 크리스 요한슨은 버려진 물수건과 옷가지, 자연적 안료로 무상함이나 유동성, 존재의 덧없는 본질에 대한 고찰을 소용돌이치는 비정형적 이미지로 표현합니다. 알렉스 카츠 신작. &lt;글래드스톤 갤러리&gt;인근에는 지난해 4월 개관한 뉴욕 기반 글래드스톤 갤러리가 이 기간 한국에서 인기가 뜨거운 96세 거장 알렉스 카츠의 개인전을 펼칩니다. 검은 바탕 위에 클로즈업된 꽃의 형상을 극적이면서 미니멀하게 표현한 최신작을 주로 소개한답니다.서울 진출 못 한 해외 갤러리프리즈 기간 팝업 전시도 줄줄이한남동 화랑가에 스푸르스 마거스 떴다 바바라 크루거, Untitled(Rug) (1991-93) &lt;스푸르스 마거스&gt;한남동 화랑가에도 역시나 팝업 전시가 추가됐네요. 독일계 갤러리 스푸르스 마거스(Spruth Magers)가 이 기간 한남동 스타벅스 리저브 건물(마이플레저 빌딩) 3층에서 팝업 전시를 엽니다. 기간은 8월 31일부터 9월 14일까지죠.1983년 독일 쾰른에서 시작해 런던, 뉴욕, LA 등에 진출한 이 갤러리는 조지 콘도와 안드레아 거스키, 제니 홀저, 바바라 크루거 등 쟁쟁한 작가군을 거느리고 있습니다. 프리즈 기간에 맞춘 갤러리 자체 기획 전시 ‘Mondi Possibili(가능한 세계들)’는 예술과 디자인의 상호작용을 보여주는 기획으로 1989년 쾰른에서 처음 선보이고 올해 4번째라네요. 집 등 일상공간에서 볼 수 있는 평범한 물건들이 기묘하고 흥미로운 형태로 변모하는 양상을 바바라 크루거의 러그 등에서 발견할 수 있답니다.바로 옆 현대카드 스토리지에서도 9월 5일부터 7일까지 크리스티 팝업을 굵고 짧게 엽니다. 20세기 미술을 대표하는 장미셸 바스키아와 앤디 워홀 강력한 2인전입니다. 전시작은 10여점뿐이지만 전체 가격이 1억5000만달러(2000억원) 넘는다지요. 바스키아의 1982년작으로 2021년 크리스티 홍콩 경매를 통해 약 472억원에 팔린 ‘전사(Warrior)’와 앤디 워홀의 상징 같은 ‘자화상(Self-Portrait)’을 만날 수 있습니다. 두 사람은 생전에 서로 영감을 주고받은 예술적 동지이기도 했죠. 관람은 무료지만 현대카드 앱이나 크리스티 페이지에서 예약해야 입장됩니다. 한남동 페이스갤러리는 나라 요시토모 개인전을 연다. &lt;페이스갤러리 서울&gt;이 근처 미국계 페이스갤러리에서는 인기 많은 일본 네오팝 주자 나라 요시토모의 개인전 ‘Ceramic Works’를 9월 5일부터 10월 21일까지 엽니다. 2005년 이후 오랜만에 국내에서 열리는 개인전으로 도자기 140점과 드로잉 30점을 선보입니다. 이 밖에도 작가의 사유와 감정을 표현할 설치와 개인 소장품도 함께 만나게 됩니다.이곳에서 살짝 거리는 있지만 길 건너 옥수동 방면으로 가다 보면 타데우스 로팍도 9월부터 한남동 갤러리 전시장을 확장하고 요셉 보이스와 도널드 저드 2인전(9월 4일~10월 20일)을 엽니다. 개념미술가인 요셉 보이스의 드로잉과 조각 작품을 국내에서 처음 집중 조명한답니다.삼청동 화랑가 겨냥해영국계 리슨 갤러리 북촌서 전시프리즈 출품 전속 작가 대거 홍보 쉬라제 후쉬아리, Time curve (2023) &lt;리슨갤러리&gt;삼청동 화랑가에서도 영국계 갤러리 리슨이 팝업 전시를 엽니다. 1967년 니콜라스 록스데일이 설립해 리처드 롱과 도널드 저드 등 미니멀리즘 작가와 줄리안 오피, 아니쉬 카푸어 등 조각가들, 마리나 아브라모비치 등과 함께 성장한 곳이죠. 서울 북촌의 이음 더 플레이스(서울 종로구 북촌로5나길 30)에서 9월 2일부터 9월 10일까지 여는 ‘Time Curve’전이죠. 아이 웨이웨이와 라이언 갠더, 쉬라제 후쉬아리, 로르 프루보, 션 스컬리 등 기성 작가와 신진 작가를 나란히 소개하죠. 우리가 시간에 부여하는 가치, 시간의 흐름에 대한 다양한 인식을 보여줄 예정이랍니다. 멋들어진 한옥 덕에 전시 매력이 배가된답니다. 북촌 한옥에서 펼쳐지는 리슨갤러리 팝업 전시 전경. &lt;리슨갤러리&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>중‧저신용자가 금리 15% 카드론으로 몰린 까닭 [마켓톡톡]</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/665/0000001616?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>더스쿠프 마켓톡톡건전성 확보한 한국 시중은행 중‧저신용 대출 위험 떠넘긴 덕 저신용자 대출 모두 줄여버린 저축은행·정책금융·대부업체 중‧저신용자 카드론으로 몰려 주택담보대출 크게 늘린 인전중·저신용층이 금융 시스템에서 밀려나는 현상이 관측됐다. 대형 금융회사들은 부실 위험을 떠넘기면서 건전성을 확보했지만, 저축은행, 대부업체는 물론 정책금융까지 저신용 대출 규모를 줄였다. 중·저신용자들은 15% 고금리 카드론으로 몰렸고, 불법 사금융 피해 사례도 급증하고 있다. 저신용층 배제가 우리 경제에 미칠 영향을 분석했다. 중·저신용자 대출이 자취를 감추면서 신용회복 신청 건수가 늘어났다. [사진=뉴시스]■ 연체율 다시 보기=지난 6월 말 19개 국내 은행들의 연체율은 1년 전보다 0.15%포인트 상승한 0.35%였다. 금융감독원 자료에 따르면, 올해 2분기 시중은행들의 주택담보대출 연체율은 1년 전보다 두배 치솟았는데도 0.21%에 불과하다. 이를 토대로 몇몇은 '한국의 금융이 건실하다'고 주장한다.  우리 은행들의 주택담보대출의 연체율은 얼마나 낮은 수준일까. 미국 모기지은행협회가 3개월마다 발표하는 자료에 따르면, 미국의 모기지(주택담보대출) 연체율은 지난 2분기 3.37%를 기록했다. 이는 협회가 관련 통계를 집계하기 시작한 1979년 이후 가장 낮은 수준이다. 미국은 은행 외에도 모기지 전문금융회사가 주담대를 취급한다. 미국 최대 은행인 JP모건의 올해 2분기 가계대출 연체율도 0.5% 이상이었다.우리나라 은행들의 건전성이란 확실히 받을 수 있는 사람들에게만 대출을 내주기 때문에 가능한 일이다. 중·저신용층 신용 대출로 발생하는 위험을 은행‧저축은행‧상호금융‧인터넷전문은행‧카드회사‧정책금융‧대부회사 순으로 떠넘겨왔다고 해도 과언이 아니다. ■ 연체율 줄이기 희생양 저신용자=금리 인상이 지속되고, 여러 부문에서 부실 가능성이 높아지면서, 금융권은 중·저신용자에게 내줬던 대출을 더 줄이고 있다. 이제 중·저신용, 저소득 가구들이 금융 시스템 안에서 빚을 낼 곳은 찾아보기 힘들다. 11일 김희곤 의원실(국민의힘)이 서민금융진흥원에 요청해 제출받은 자료에 따르면, 올해 상반기 대부업체들의 신규 가계신용대출은 6000억원에 불과했다. 대부업체들의 지난해 가계신용대출 규모는 4조1000억원이었다. 법정 최고금리가 20%인 상황에서 금리인상기가 길어졌기 때문에 벌어진 일이다. 저축은행도 지난해 가계신용대출로 17조2000억원을 풀었는데, 올해 상반기에는 5조8000억원으로 줄었다. 서민들을 위한 대표적 정책 금융상품인 '근로자햇살론'의 올해 공급 목표 역시 2조6000억원으로 지난해보다 1조2000억원이나 줄었다. 그나마도 상반기에 2조1991억원을 집행하면서 이제 여유가 없는 상황이다. 그러자 서민들은 카드회사의 최고 금리 15%짜리 카드론으로 몰렸다. 지난 8월 22일 여신금융협회는 8개 전업카드사의 지난 7월 말 카드론 잔액이 35조3952억원으로 2개월 전보다 무려 5483억원 증가했다고 발표했다. [자료 | 금융감독원]■ 자금 어디로 쏠렸나=중·저신용 서민들에게 나가야 하는 돈은 어디로 간 걸까. 답은 정부 정책에서 찾을 수 있다. 정부는 올해 부동산 연착륙을 위해 각종 규제를 풀었는데, 그 결과 가격 급락세가 멈추면서 주택담보대출이 늘어났다. 특히 중·저신용 대출을 약속하며 출범한 인터넷전문은행들이 공격적으로 주택담보대출을 늘렸다.지난 3월 카카오뱅크‧케이뱅크‧토스뱅크 3사는 올해 말까지 중·저신용자 대출 비중을 최고 44%까지 끌어올리겠다고 약속했다. 하지만 인터넷은행 3사가 최근 양경숙 의원실(더불어민주당)에 제출한 자료에 따르면, 카카오뱅크는 지난 6월 이후 두달 동안 주담대를 1조9950억원(11.5%), 케이뱅크는 같은 기간 3721억원(10.1%) 늘렸다. 5대 대형은행들의 주담대가 이 기간 3조5990억원(0.7%) 늘어난 것과 비교하면 막대한 규모다. 서민들은 이제 불법사금융으로 내몰리고 있다. 11일 국민의힘 서범수 의원실이 금융감독원에 요청해 제출받은 자료에 따르면, 올해 상반기에 불법사금융 관련 상담·신고 건수는 6784건으로 지난해 1만913건의 절반을 이미 넘어섰다. 결국 경제 시스템을 이탈할 가능성이 높은 사람들의 수가 폭증했다. 금융감독원이 지난 8월 양정숙 의원실(더불어민주당)에 제출한 자료에 따르면, 올해 상반기 신용회복 신청자 수는 9만1981명으로 폭증했다. 2022년 신청자 수는 13만8202명이었다. 금융 시스템에서 중·저신용자를 배제하면 좁게는 개인에서, 넓게는 한국 경제까지 상당한 영향을 받는다. 첫째, 중·저신용자들을 금융 시스템 외부로 축출해 이들이 개인회생 또는 파산하면 최소 10년은 신용 시스템에서 배제된다. 개인 파산자는 법원의 허락이 없으면 10년 후에야 복권된다. 개인 파산자는 직업의 선택부터 금융 거래까지 광범위한 제재를 받는다. 불법 사채업자들이 기승을 부리자 경기도가 지난 5월 집중단속에 나섰다. [사진=뉴시스]둘째, 올해 하반기 한국 경제를 지탱해줘야 하는 소비에 악영향을 준다. 올해 2분기 한국 경제는 민간소비와 정부소비가 위축되면서 전분기 대비 0.6% 성장에 그쳤다. 2분기 민간소비는 전분기 대비 0.1% 감소했다. 셋째, 소비심리가 악화하면서 초과저축 등 소비에 직결되는 지표에 악영향을 준다. 한국은행이 발표하는 소비자심리지수는 지난해 말부터 꾸준히 상승했지만, 8월 103.1로 전월보다 0.1포인트 감소했다. 3분기에도 소비심리가 회복되지 못하고 있다는 뜻이다. 일반적으로 고소득자들이 초과저축의 대부분을 차지할 것이라고 예단한다. 금액으로는 사실이지만, 저축률로 보면 저소득층의 초과저축도 축적돼 있다. 특히 지난 코로나19 팬데믹 기간인 2020년 1분기~2021년 3분기 월평균 초과저축률을 보면, 고소득자인 5분위의 초과저축률은 2.4%로 낮았지만, 저소득층인 1분위와 2분위 초과저축률은 각각 4.3%, 8.2%였다. 한정연 더스쿠프 기자jayhan0903@thescoop.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>"○○페이 대세" 상반기 간편결제, 일평균 8000억 넘게 썼다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000946958?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>사진=머니S DB 올 상반기 네이버·카카오페이 등 간편결제 서비스의 하루 이용금액이 8000억원을 넘어서며 사상 최대치를 기록했다.한국은행이 6일 발표한 '2023년 상반기 중 전자지급서비스 이용 현황'에 따르면 상반기 일평균 간편결제 서비스 이용건수는 2628만2000건, 이용금액은 8450억5000만원으로 조사됐다. 1년 전과 비교해 건수는 13.4%, 금액은 16.9% 증가했다.간편결제 서비스 이용금액을 제공업자별로 보면 전자금융업자가 가장 높은 비중을 차지하고 있는 가운데 휴대폰 제조사 비중이 점차 상승했다.네이버페이·카카오페이·토스 등 전자금융업자의 간편결제 건수와 금액은 각각 1462만6000건, 4156억5000만원으로 1년 전과 비교해 10.0%, 14.1% 각각 성장했다.삼성페이·애플페이 등 휴대폰 제조사의 간편결제 건수와 금액은 각각 23.0%, 24.3% 늘어난 812만6000건, 2117억9000만원으로 집계됐다.같은 기간 선불금 기반 간편송금 서비스의 이용건수와 금액은 상반기 609만6000건, 7460억7000만원으로 전년 동기 대비 각각 24.2%, 23.9% 증가했다.한은 관계자는 "이는 2022년 1월 마이데이터 서비스 시행 이후 전자금융업자를 통한금융소비자의 간편송금 서비스 이용이 확대되고 있는 데 기인한다"고 설명했다.전자지급결제대행(PG) 서비스의 상반기 이용액은 일평균 1조1845억원으로 전년 동기 대비 16.0% 증가했다. 2008년 관련 통계 작성 이후 반기 기준으로 사상 최대 규모로 이용건수는 2510만건으로 8.1% 증가했다.PG서비스는 전자상거래에서 구매자로부터 대금을 수취해 판매자에게 최종적으로 지급될 수 있도록 지급결제정보를 송·수신하거나 그 대가를 정산 대행 또는 매개하는 서비스로 주로 온라인쇼핑에서 활용된다.선불전자지급수단 이용금액과 이용건수는 일평균 9682억원, 2875만건으로 전년 동기 대비 각각 20.8%, 8.6% 증가했다. 선불전자지급수단은 계좌 연동을 통해 미리 충전한 선불금으로 상거래 대금이나 교통요금을 지급 및 송금 서비스로 교통카드를 비롯해 네이버페이 머니 충전 등이 해당된다.G마켓과 11번가 등 오픈마켓에서 거래 확정 후 결제대금을 판매자에게 제공하는 유형의 결제대금예치 서비스(에스크로) 이용금액은 일평균 1544억원으로 1년 전과 비교해 1.6% 감소했다. 이용건수는 319만건으로 0.5% 줄었다.아파트 관리비나 전기·가스 요금  납부를  이메일·앱 등을 통해 전자 방식으로 발행하고 대금 정산을 대행하는 전자고지결제 서비스 이용액은 663억원으로 전년 동기와 비교해 18.6% 늘었다. 이용건수는 26만5000건으로 10.7% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인뱅 최초 반환보증 더한 전월세 대출 출시…카카오·케이뱅크와 3파전</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002192922?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표가 전월세보증금대출 간담회에서 발언하고 있다.[토스뱅크 제공][헤럴드경제=홍승희 기자] 토스뱅크가 전월세보증금 대출을 내놓으면서 인터넷은행의 전월세 대출 경쟁이 격화될 전망이다. 토스뱅크는 금리 하단을 최저 수준으로 맞춰 전월세대출 수요를 끌어들인다는 포석이다. 여기에 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입했다.금리 하단 ‘최저 수준’…경쟁력 있는 금리로 고객 끌어올까5일 토스뱅크는 최대 2억200만원까지 대출을 받을 수 있는 토스뱅크 전월세보증금대출을 출시했다고 밝혔다. 이 상품은 ▷일반 ▷청년 ▷다자녀특례로 구성되며 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다. 일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88%한도로, 최대 2억2200만원까지 대출이 이뤄진다. 일반 대출은 소득과 부채 비중 등이 적용되고, 다자녀특례는 적용되지 않는다. 청년의 경우 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로 최대 2억원까지 대출할 수 있다.눈에 띄는 점은 금리다. 4일 기준 토스뱅크의 일반/다자녀특례 전월세보증금대출의 최저금리는 3.32%로 카카오뱅크(3.363%), 케이뱅크(3.67%)와 비교했을 때 최저수준이다. 청년 전월세보증금대출의 경우에도 최저금리가 3.42% 나머지 두 은행(3.69%·3.66%)보다 낮았다. 가산금리를 0.37%포인트까지 낮춰 청년들이 최대 금리를 적용 받아도 상대적으로 낮은 4.06%에 대출을 받을 수 있도록 했다.3개 은행 중 가장 늦게 전월세대출을 출시한 만큼 경쟁력 있는 금리를 통해 고객을 끌어오겠다는 계산으로 풀이된다. 특히 전월세대출의 경우 기준금리는 신규코픽스(변동주기 6개월)를 적용하는데, 최근 코픽스가 상승 추세라 고객들은 조금이라도 더 낮은 금리를 찾아 움직이고 있다.다만, 한도 면에서 토스뱅크가 다른 은행을 압도할 수 있을지는 미지수다. 카카오뱅크는 최근 최대 5억원까지 대출해주는 SGI전월세보증금 대출을 출시했는데, 부부 합산 1주택자의 경우에도 최대 3억원까지 빌릴 수 있어 인기를 끌고 있다.원스톱으로 전세지킴보증 신청…‘토스뱅크 케어’ 도입박신건 토스뱅크 전월세보증금대출 PO (프로덕트 오너)가 새 대출상품에 대해 설명하고 있다.[토스뱅크 제공]토스뱅크 전월세대출의 또 다른 특징은 ‘토스뱅크 케어’를 도입했다는 점이다. ‘토스뱅크가 고객이 겪는 어려움을 함께 고민하고 풀어나간다’는 의미가 담긴 토스뱅크 케어는 최근 사회적으로 곳곳에서 터진 전세사기를 예방하는 데 방점을 찍었다. ▷전세지킴보증 ▷등기변동알림 등의 시스템이 포함됐다.먼저 전세지킴보증 시스템은 고객들이 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 것이 특징이다. 반환보증은 전세계약 종료시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다. 고객들은 토스뱅크에서 대출을 받으며 동시에 보증에 가입할 수 있다.토스뱅크 관계자는 “그동안 고객들은 ‘깜빡했다, 몰랐다, 비싸다’ 등의 이유로 반환보증을 신청하지 않는 경우가 적지 않았다”며 “이 때문에 전세사기 등 피해를 겪고도 구제받지 못하는 등 특히 2030세대의 피해가 컸다. 토스뱅크는 대학생 사회초년생 신혼부부들의 꿈과 희망이 담겨야 할 보금자리가 감당하기 힘든 피해로 다가올 수 있다는 현실에 착안, 서비스를 기획했다”고 설명했다.토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. HF와 함께 최저 연 0.02~0.04%의 보증료를 적용해 보장 비용을 최소화했다는 설명이다.[토스뱅크 제공]동시에 전세보증 대상도 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 기존 비대면 반환보증이 시세의 명확성을 이유로 아파트, 오피스텔 등 집합건물에만 적용됐던 것과 다른 점이다.두 번째 토스뱅크 케어는 ‘등기변동알림’이다. 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 무료로 제공하는 서비스다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집에, 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다. 변동이 생긴 등기의 매 순간을 이미지로도 제공한다.토스뱅크 관계자는 “그동안 세입자들을 불안에 떨게 했던 것이 정보의 ‘불투명성’이라고 봤다”며 “내가 모르는 사이 집주인이 바뀌거나, 집에 가압류가 들어오는 등 집의 등기상 변동은 발생할 수 있지만 세입자 개개인이 등기부등본을 열람하지 않으면 알 수 없는 사실을 수시로 알려줌으로써 정보에 대한 투명성을 높였다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>한국금융연구원 "핀테크, 해외에서 돌파구 찾아야...스몰라이선스 통한 투자유치·인수합병 활성화도 중요"</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005066095?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>한국금융연구원(KIF), 1일 DDP서 '지속가능한 핀테크 혁신환경 조성을 위한 과제' 세미나 열어핀테크기업 한계 극복 방안으로 해외진출 지원 강화·규제 불확실성 완화·출구전략 마련 등 제시 1일 서울 동대문구 동대문디자인플라자(DDP) 컨퍼런스홀에서 열린 '지속가능한 핀테크 혁신환경 조성을 위한 과제' 세미나에서 관계자들이 패널토론을 하고 있다. (왼쪽부터) 이정두 한국금융연구원 전문위원, 서병호 한국금융연구원 금융혁신연구실장, 우시다 료스케 일본 금융청 금융혁신추진실장, 김지식 네이버파이낸셜 부사장, 안규찬 비바리퍼블리카 실장. 사진=김예지 기자 [파이낸셜뉴스] "핀테크 산업의 지속적인 발전을 위해서는 해외진출 지원 강화와 규제 불확실성 완화, 금융회사의 비금융회사 투자 및 인수·합병 활성화 등이 필요합니다."  1일 서병호 한국금융연구원 금융혁신연구실장은 서울 동대문구 동대문디자인플라자(DDP) 컨퍼런스홀에서 한국금융연구원이 주최한 '지속가능한 핀테크 혁신환경 조성을 위한 과제' 세미나를 통해 이같이 밝혔다.   서 실장에 따르면 핀테크 기업 수는 지난 2014년부터 2021년까지 연평균 22.8% 증가했다. 또 지난 2021년 말 기준 국내 톱 5 핀테크 기업(카카오페이, 네이버페이, 토스, 카카오뱅크, 페이코)의 모바일 앱 누적 가입자 수는 1억5000만명을 돌파하며 성장세를 기록했으며, 2019년부터 2021년까지 3년간 신규 상장 기업 수 대비 핀테크 기업 수 비중은 4.5%에서 7.5%로 늘었다.   그러나 지난해 신규 상장 기업 가운데 핀테크 기업의 비중이 3.2%에 그쳤던 데다가 △국내 금융시장 포화 △핀테크의 규제 샌드박스 승인 건수 감소 △시드(초기) 단계 이후 투자 부족 △물리적 망분리 규제 △경쟁제한적 환경 심화 △온라인투자연계금융업(P2P)대출업체·마이데이터 업체의 경영난 등 각종 요인이 핀테크 업계의 한계로 작용하는 양상이다.   실제로 핀테크 규제 샌드박스 승인 현황을 보면 금융규제 샌드박스 도입 첫해 83건에 달했던 혁신서비스 승인 건수는 지난해 9월 말 기준 41건으로 감소했으며, 핀테크와 보험사의 승인 건수는 지난해 1월부터 9월까지 한 건도 없었다. 아울러 지난 2019년 말 이전까지 초기단계 투자를 받은 국내 핀테크 기업의 62.2%는 지난해 9월 기준 여전히 초기단계에 머무르고 있다.   또 물리적 망분리가 금융보안 및 인증 관련 신기술 도입 지체 요인으로 작용하며 관련 산업의 국제경쟁력을 저하시키는 가운데, 핀테크 기업들이 활동하는 시장들의 집중도가 높아지면서 핀테크 생태계 훼손 우려가 증폭되는 상황이다. 여기에 마이데이터 업체의 경우 비즈니스모델 부족으로 난항을 겪는 중 내년부터 데이터에 과금을 실시해 부담이 가중될 것으로 보인다.   이에 서 실장은 핀테크 기업들이 한계를 극복할 수 있는 7가지 방안을 제시했다.     "금융사·공공기관, 해외 진출 시 핀테크 산업 연계해야"  먼저 서 실장은 "국내 규제완화 기간이 장기간 소요되고 금융시장이 포화돼 있는 만큼 해외에서 돌파구를 찾을 필요가 있다"며 해외진출 지원 강화를 대안으로 제시했다. 서 실장은 "금융사와 공공기관이 해외에 진출 시 현지 온라인 플랫폼 및 내부 IT 시스템을 구축하거나 현지에 정보통신기술(ICT) 인프라를 구축할 경우, 핀테크 산업을 연계하면 핀테크 수요를 창출할 수 있다"며 "금융당국 주도의 해외 투자 로드쇼를 개최하는 것도 핀테크 투자유치에 도움이 될 것"이라고 전했다.   규제 불확실성 완화를 통한 샌드박스 활용도 향상 또한 핀테크 산업의 발전에 필수적이다. 현재 샌드박스를 통과한 핀테크의 경우 초기투자가 활성화되는 상황이나, 규제적용 배제기간인 2년 내지 3년6개월 이후 제도화가 불투명한 상황이기에 스케일업을 위한 투자에 난항을 겪고 있다. 서 실장은 "샌드박스와 유권해석은 일시적이기 때문에 법적 불확실성을 내포하고 있다"며 "스몰라이선스를 도입해 핀테크의 업무가 정식으로 인가받을 확률을 높여야 스케일업 투자를 활성화하는 것이 가능하다"고 강조했다.   핀테크 투자가 초기단계에 집중돼 있다는 점을 감안해 스케일업 지원을 위한 금융회사 투자 활성화 노력이 필요하다는 지적과 핀테크 출구전략 차원에서 기업공개(IPO) 활성화를 넘어 인수·합병을 활성화해야 한다는 주장도 나왔다. 서 실장에 따르면 최근 금융지주회사의 비금융회사 출자한도를 5%에서 15%로 올리는 방안과 금융회사의 금융업 관련 부수업무 확대에 대한 논의가 이뤄지고 있는데, 이를 통해 핀테크 투자 활성화가 가능해질 전망이다.   또 은행·금융지주회사·보험사·카드사 등의 비금융 자회사 허용 논의가 금융사의 핀테크 인수합병 유인으로 작용할 경우 IPO를 추진할 만큼 성장하지 못한 핀테크의 출구전략으로 활용될 가능성이 높다.   서 실장은 이어 빅테크의 금융시장 진입에 따라 핀테크의 기업·소비자간 거래(B2C) 기회가 감소하는 점에 착안해 기업 간 거래(B2B) 시장 개척을 대안으로 내세웠다. 이외에도 △대학·연구원·공공기관·해외 전문인력과의 협업을 통한 혁신성 향상 △물리적 망분리 규제 완화를 통한 금융보안·인증 관련 핀테크 활성화 △핵심인력 빼가기·플랫폼 배제 등 경쟁제한적 환경 개선을 위한 금융당국의 감독수단 정립 등이 해결책으로 언급됐다.     "핀테크 인수합병 활성화, 금융자본 존속 심화" VS "투자 유치하고 봐야"  이후 진행된 패널토론 세션에서는 김지식 네이버파이낸셜 부사장과 안규찬 비바리퍼블리카 대외협력정책실장이 발언을 이어갔다. 김 부사장은 "스몰라이선스 제도의 경우 다양한 전문성과 기술적 배경을 가진 작은 기업들이 금융 영역으로 진입할 수 있게 해주는 방안"이라며 "망분리 제도 개선을 통해 핀테크 업계에서 우수한 개발 인력이 유출되는 사태도 방지할 수 있을 것"이라고 기대했다.   안 실장도 "핀테크 업권 자체가 B2C 측면에 집중되어 있는데, B2B 산업을 통해 새로운 기회가 창출될 수 있다는 점을 유념할 필요가 있다"며 "금융당국을 중심으로 이뤄지는 마이데이터 과금 관련 논의도 중소형 핀테크들에 부담이 될 수 있다는 점을 감안해 합리적으로 이뤄져야 한다"고 촉구했다.   다만 안 실장은 핀테크 출구전략을 위한 대안으로 인수합병 활성화가 제시된 것에 대해서는 "핀테크의 금융자본 존속 심화와 핀테크 사업 확장 저해 가능성을 대비하기 위한 논의도 같이 이뤄져야 한다"고 우려했다. 그러자 서 실장은 "금융사들의 핀테크 인수 사례가 해외에는 많은데, 아직 큰 문제가 발견되지는 않았다"며 "인수합병이 아예 불가능할 경우 오히려 핀테크에 대한 투자가 이뤄지지 않을 수도 있다"며 이를 반박했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>보험 비교·추천 서비스, 본격 경쟁 돌입…연동방식 ‘표준 API’로 확정</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007025037?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>보험사, 비교·추천 서비스 상품의 보험료·특약·할인 등 개정핀테크사, 쉽고 간편한 플랫폼 경험을 위한 UX·UI 개발보험영업인노동조합연대(보노련) 조합원들이 7일 오전 서울 종로구 정부서울청사 앞에서 '정부의 일방적 플랫폼 보험 비교·추천 서비스 철회 촉구 기자회견'을 하고 있다. 보노련은 이날 "보험설계사의 생존권을 위협하고 보험료 폭등과 불완전판매를 조장하는 플랫폼 보험 비교·추천 서비스 철회를 촉구한다＂고 주장했다. 2023.4.7/뉴스1 ⓒ News1 민경석 기자(서울=뉴스1) 박재찬 기자 = 보험상품 비교·추천 서비스 시스템 연동방식이 ‘표준 API’로 결정되면서, 보험사와 11개 핀테크사들이 본격적인 경쟁에 돌입했다. 이달부터 보험사들은 타사보다 경쟁력 높은 상품들을 비교·추천 서비스에 올려놓기 위해 보험료·특약·할인 등 개정에 나설 것으로 보인다. 또 핀테크사들도 소비자들의 쉽고 간편한 플랫폼 경험을 위한 UX·UI 개발 경쟁에 나설 전망이다. 3일 보험업계에 따르면 최근 보험사와 플랫폼사가 보험상품 비교·추천 서비스의 시스템 연동 방식을 ‘표준 API(전산망·Application Programming Interface)’로 확정했다. 보험업계와 핀테크업계는 보험 비교·추천 서비스 제공을 추진하는 과정에서 보험료·특약 등 상품 정보를 주고받으려면 필수적으로 필요한 API 도입 방식을 두고 갈등을 빚어왔다. API는 금융사(데이터 제공자)와 플랫폼의 프로그램이 데이터를 서로 주고받는 방법과 그 규격으로 ‘표준(통합) API’와 ‘개별 API’로 구분된다. 보험업계는 정보 통신 규격을 하나로 통일화한 방식인 ‘표준 API’ 도입을 원했지만, 핀테크업계는 회사별로 다른 정보 전송 방식을 쓰는 ‘개별 API’ 도입을 내세웠다. ‘표준 API’는 보험료·특약과 같은 정보의 종류·개수 등을 하나로 통합해 놓고, 핀테크사가 이를 요청하면 이 값을 그대로 전송하는 방식으로 보험사와 핀테크사가 전산을 따로 구축할 필요가 없어 비용을 아낄 수 있는 장점이 있다. 그러나 핀테크업계는 ‘표준API’를 사용한 경우 모든 플랫폼에서 똑같은 정보를 바탕으로 보험 비교·추천 서비스를 제공해야 해 차별성이 떨어진다고 주장해왔다.하지만 최근 보험업계와 핀테크업계의 타협으로 금융위원회는 법규에서 허용한 범위 내 정보를 ‘표준 API’에 담도록 수용했다.보험상품 비교·추천 서비스의 시스템이 ‘표준 API’로 결정되면서 이달부터 각 보험사와 11개 핀테크사의 본격적인 경쟁이 시작될 전망이다. 보험상품 비교·추천 서비스는 온라인 플랫폼에서 여러 보험사의 상품을 비교하고 가입까지 할 수 있는 규제 특례다. 네이버파이낸셜(네이버페이), 카카오페이, 비바리퍼블리카(토스), 핀다 등 11개 핀테크 업체가 참여하고, 단기보험(여행자·화재보험 등), 자동차보험, 실손보험, 저축성보험(연금 제외), 펫보험, 신용보험 등의 상품을 비교·추천 받을 수 있다. 금융위는 내년 서비스 도입을 목표로 하고 있다.  먼저, 각 보험사와 11개 핀테크사는 서비스 제공을 위한 전문설계서를 작성하고 업무협약(MOU)을 맺어야 한다. 그리고 보험사들은 비교·추천 서비스에 들어가는 상품들의 개정에 나설 것으로 보인다. 대부분 이미 기존에 온라인채널 판매하고 있는 상품이지만, 여러 보험사의 상품이 한 플랫폼에서 비교·추천되는 만큼 각 보험사가 보험료·특약·할인 등에서 타사보다 더 경쟁력 있는 상품을 내놓기 위해서다.또 핀테크업계도 11개사가 경쟁을 펼치는 만큼 소비자에게 더 쉽고 간편한 플랫폼 경험을 제공하기 위한 UX·UI 개발 경쟁에 나설 전망이다. 보험상품이 다른 금융상품 보다 어렵고 복잡한 만큼 사용하기 쉬운 플랫폼에 소비자들이 몰릴 수 있기 때문이다. 보험업계 관계자는 “보험상품 비교·추천 서비스의 시스템 연동 방식이 ‘표준 API’로 결정되면서 이달부터 보험사의 상품 개정 경쟁과 11개 핀테크사의 플랫폼 개발 경쟁이 본격적으로 시작될 것으로 보인다”고 말했다.  이어 “API를 결정하는 과정에서 보험업계와 핀테크업계의 이견으로 꽤 많은 시간이 지체됐다”며 “내년 보험 비교·추천 서비스 도입을 위해서는 보험사와 핀테크사에게 시간이 촉박한 상황이다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스뱅크 '전세패키지' 내놨다</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304047?sid=105</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>최대 2억2200만원 한도 대출+보증과 등기 변동 알림 서비스인터넷전문은행 '토스뱅크'가 전·월세를 구할 경우 필요한 모든 것을 서비스해주는 '전세패키지'를 출시했다.5일 서울 여의도 콘래드호텔서 토스뱅크는 기자간담회를 열고 전·월세보증금대출과 전세보증, 등기변동알림 등을 한 번에 누릴 수 있도록 하겠다고 밝혔다.일단 전·월세보증금대출은 ▲일반 ▲다자녀 특례 ▲청년으로 구성됐다. 일반과 다자녀 특례 상품은 임차보증금의 88% 한도로 최대 2억2천200만원까지 대출이 이뤄진다.다자녀 특례 상품의 경우 미성년 자녀 수가 2명인 고객이 대상이다.청년 전세보증금대출은 만 34세 이하 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90% 한도로 최대 2억원까지 대출이 가능하다.이날 기준으로 일반 전·월세보증금대출의 금리는 연 3.32~5.19%이며, 청년 대출 상품의 금리는 연 3.42~4.06%다.최근 전세사기가 큰 사회적 파장을 일으킴에 따라 토스뱅크는 전·월세보증금 대출을 받은 후 전세보증금 반환 보증을 바로 신청할 수 있게 했다. 반환 보증은 전세계약 종료 시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다.토스뱅크는 한국주택금융공사와 손잡고 최저 연 0.02~0.04%의 보증료를 적용했다. 반환 보증에 가입할 수 있는 주거 형태도 아파트와 오피스텔 외에도 단독주택, 빌라, 다가구주택을 포함시켰다.토스뱅크 관계자는 "올 연말까지 반환보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다"며 "전세보증금이 2억원인 고객의 경우 부담해야 할 보증료는 최저 8만원 수준으로 프로모션 기간 중에는 무료 가입이나 다름없다"고 설명했다.이밖에 토스뱅크는 전세로 구한 집의 소유자의 재산상 정보가 변동될 때마다 알려주는 등기 변동 알림 서비스도 운영한다. 부동산 권리 조사 서비스 기업인 '리파인'과 무료로 제공되며 집 주인 변동부터 담보 대출 실행, 가압류의 현황도 알려준다.토스뱅크 관계자는 "그동안 세입자들을 불안에 떨게 했던 것이 정보의 불투명성이었다"며 "세입자 개개인이 등기부등본을 열람하지 않으면 알 수 없는 사실을 수시로 알려줘 정부에 대한 투명성을 높인 것이 특징"이라고 부연했다.이어 이 관계자는 "첫 독립을 위한 보금자리, 첫 신혼집, 사회에 첫 발을 내딛은 공간 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께하겠다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[책&amp;생각] 인류지성의 타나토스적 충동</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002656764?sid=103</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>이권우의 인문산책아메리칸 프로메테우스 (특별판)카이 버드 외 지음, 최형섭 옮김 l 사이언스북스(2023)영화 ‘오펜하이머’를 보자마자 원작을 읽어보기로 한 것은 라비의 발언 때문이었다. 그는 오펜하이머에게 대량살상 무기 만드는 것으로 물리학 300년의 정점을 찍고 싶지는 않다고 말했다. 가만히 따져보니 파인만의 책에도 원폭실험이 끝난 후 모두 들떠 있을 때 한 과학자가 의기소침해 있었다는 내용이 떠올랐다. 확인해보니, 로버트 윌슨이었다. 대량살상 무기를 만들어놓고 마냥 좋아할 수만은 없었으리라. 루스벨트 대통령에게 핵무기 만드는 프로그램을 시작해야 한다고 처음으로 건의한 사레오 질라르드는 핵무기 사용을 막기 위해 노력했다. 호리병에서 핵이라는 지니 요정이 나오면 어떤 비극이 펼쳐질지 알았던 과학자가 있었던 셈이다.영화는 원폭 투하 이후 오펜하이머의 변화를 설명하는 데는 역부족이었다. 원작에는 이 대목이 소상히 나오는데, 닐스 보어한테 절대적인 영향을 받았다는 점을 힘주어 강조했다. 보어는 전쟁이 끝난 다음 미국과 소련이 경쟁적으로 핵 무장할 일을 염려했다. 이를 사전에 막으려면 맨해튼 프로젝트를 알리고, 이 무기가 소련을 위협하지 않을 거라며 안심시켜야 한다고 했다. 이 조치가 훗날 원자력 에너지의 국제 통제에 관한 조기 합의를 이루는 결정적인 조건이 될 거라고도 이야기했다. 핵무기가 인류문명을 끝장내는 프랑켄슈타인이 될 수도 있다는 위기의식이 있었고, 이 폭탄의 물리적 원리는 소련에도 곧 알려져 상당히 빠른 속도로 개발되리라 내다보았다. 천재적인 과학자들은 다 알고 있었고, 멍청한 정치인들만이 이를 무시했다.전쟁이 끝난 다음, 오펜하이머는 원자력 에너지와 관련된 모든 사항을 독점하는 국제기구를 세우자고 제안했다. 그는 원자력 에너지 부문에서만이라도 각국이 주권을 부분적으로 포기해야 한다고 주장했다. 일례로 원자력개발공사를 세워 전 세계의 모든 우라늄 광산, 핵발전소, 연구소를 소유하게 하자고 했다. 무척 이상적인 제안이지만 영구평화론을 내세운 칸트나, 국가폭력을 국제기구에 증여하자는 가라타니 고진과 유사한 면이 있어 흥미롭다. 이런 제안이 무시되자 현실은 예측대로 되었다. 1950년대말 미국의 핵탄두는 1만8000기에 이르렀고 “이후 50년 동안, 미국은 7만기 이상의 핵무기를 만들게 되고 핵무기 프로그램에 5.5조 달러라는 엄청난 자금을 쏟아붓게 된다.” 오펜하이머가 핵 경쟁이 심해지자 미국과 소련을 일러 마치 유리병에 든 두 마리 전갈과 같은데, “서로 상대방을 죽일 수 있는 능력을 가졌지만, 그러려면 자신의 목숨을 걸어야 하는 것이지요”라고 말한 이유다.분명히 오펜하이머의 몰락은 매카시즘이라는 시대 배경과 루이스 스트라우스의 복수심 탓인 면이 있다. 하지만 더 큰 이유가 있다. 그것은 오펜하이머가 핵이라는 지니 요정을 호리병에 가두려 애썼기 때문이다. 권력자는 손에 피가 묻었다는 오펜하이머를 울보 과학자라 조롱하며 오히려 그를 호리병에 가두어 내다버렸다. 아인슈타인, 보어, 하이젠베르크라는 영웅을 탄생시킨 300년 물리학의 결과가 원자폭탄이고, 그 지성의 힘이 권력에 종속되고 마는 역사는 오늘 우리에게 무엇을 말해주는가? 혹 인류지성의 타나토스적 충동이 아닐까 싶어 무척 씁쓸해졌다.이권우/도서평론가</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023.09.15.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>도봉구, 9월분 재산세 확정해 납세자에게 고지…“부과 금액 전년 대비 7.2% 감소”</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002656831?sid=102</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[한겨레] 도봉구가 올해 9월분 주택과 토지에 재산세 14만여 건, 396억원을 확정해 납세자에게 고지서를 발송했다. 재산세는 과세기준일인 매년 6월1일 현재 과세물건 소유자에게 7월과 9월에 부과된다. 7월에는 주택(1/2), 건축물, 선박, 항공기에 대해 과세하고 9월에는 나머지 주택(1/2)과 토지에 대해 과세한다.이번에 재산세 고지서를 받은 납세자의 납부기한은 이달 말일까지이나 올해는 30일이 토요일이고 10월2일 임시공휴일 지정으로 10월4일까지 납부할 수 있다. 납부 기한을 넘기면 3%의 가산금을 추가로 부담해야 한다.9월 재산세 부과 금액은 전년 대비 7.2% 감소했다. 이는 토지 및 주택의 재산세 과세표준이 되는 2023년 공시가격 산정 시 2020년 수준의 현실화율 적용 등으로 공시가격 변동률이 전년 대비 대폭 하락했기 때문이다. 개별공시지가는 6.16%가 하락했고 주택공시가격은 공동주택이 20.90%, 개별주택이 3.77%로 하락했다. 또 1세대1주택자의 재산세 부담을 덜기 위해 공정시장가액비율을 완화(공시가격 3억 이하 43%, 3억 초과 6억 이하 44%, 6억 초과 45%)한 것과 1세대1주택자 중 공시가격 9억원 이하에 대해 0.05%p 인하된 특례세율을 추가 적용해 세부담을 완화한 점이 이번 재산세 부과금액 감소로 나타났다. 구는 납세자가 납부기한 내에 편리하게 납부할 수 있도록 다양한 납부 편의 시책을 제공하고 있다. 종이고지서는 1회만 발송되기 때문에 깜빡하다 납부기한을 놓칠 수 있는데 전자송달은 신청하면 납부기한이 임박한 시점에 다시 한번 전자송달 받을 수 있어 납세자에게 유용하다. 전자송달 신청 시 알림톡을 함께 신청하면 전자송달과 별도로 문자알림을 받을 수 있다. 8월 말까지 전자송달과 자동납부(은행계좌, 신용카드) 중 한가지만 신청한 경우 건당 800원, 둘 다 신청한 경우 건당 1600원이 공제된다. 이 외에도 다양한 납부방법을 제공하고 있다. 인터넷(서울시 ETAX, etax.seoul.go.kr)납부, 모바일 앱(서울시 STAX) 납부, 간편결제사 앱(카카오페이, 네이버페이, 페이코, 토스, 신한카드, 하나카드) 납부, 전용계좌 납부, QR코드 납부, 은행 현금인출기(CD/ATM) 또는 무인공과금기 납부 방법 등이 있다.인터넷이나 모바일 앱 등을 활용하기 어려운 경우에는 ARS(전화 1599-3900번)를 이용해서 재산세를 납부할 수 있다. ETAX, STAX 납부와 관련된 상담 전화는 1566-3900번을 이용하면 된다.오언석 도봉구청장은 “구민들이 바쁜 일상과 추석연휴로 재산세 납부기한을 놓쳐 3%의 가산금 등 불이익을 받을 수 있으니 STAX(서울시 세금납부) 앱 등 다양한 납부 방법을 활용해 납부기한 내 재산세를 꼭 납부하시기 바란다”며 “전자송달 신청을 하면 납부가 편리하고 아울러 세액공제까지 받을 수 있으니 많이 신청해 주시기 바란다”고 말했다.서울&amp; 온라인편집팀도봉구청 전경. 도봉구청 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>인뱅에 Z세대 뺏긴 시중은행, 알파세대 선점 총력전</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003304696?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>시중은행들이 알파세대(초등학생)를 겨냥한 금융 서비스를 확대하고 있다. ‘Z세대’로 분류되는 중·고등학생들은 카카오뱅크·토스와 같은 인터넷전문은행 이용률이 높은 편인데, 상대적으로 부모에 대한 의존도가 더 높은 알파세대를 일찍이 공략해서 미래 고객으로 삼겠다는 전략이다.      31일 금융권에 따르면 신한은행은 9월부터 부모가 미성년 자녀통장을 비대면 방식으로 개설할 수 있도록 했다. 하나·우리은행도 지난 7월부터 가능해졌다. 기존에는 미성년 자녀의 계좌를 개설하려면 부모가 은행 영업점을 방문해 신분증, 가족관계증명서 등 필요서류를 제출해야만 했다. 지난 4월 금융위원회가 ‘비대면 실명확인 가이드라인’을 개편하면서 비대면 자녀 계좌 개설이 점차 확대되는 추세다.      김영희 디자이너           임산부나 영·유아 고객을 겨냥한 서비스도 늘고 있다. 신한은행은 지난 3월 ‘태아 미리 등록 서비스’를 출시했다. 임신중 태아 정보를 미리 등록하고 출생 후 자녀 계좌를 개설하면 입출금 통장 바우처 3만원, 청약 통장 바우처 2만원 등 최대 5만원을 지급한다. 하나은행은 지난 4월 야탑역금융센터 지점에 영유아 전용 수유실과 임산부 휴게실이 있는 ‘하나 맘케어 센터’ 1호점을 열었다. 지난달 수유역금융센터에 2호점을 여는 등 점차 늘려간다는 계획이다.      하나금융경영연구소의 ‘잘파세대(Z세대+알파세대)의 금융생활’ 보고서에 따르면 2010년 이후 태어나 알파세대라고 불리는 초등학교 4~6학년생 10명 중 6명(61%)은 첫 금융거래를 할 때 부모와 같은 시중은행을 이용하는 것으로 나타났다. 반면 Z세대(1990년 중반~2000년대 초반 출생)로 분류되는 중·고등학생은 부모보다 또래 집단의 영향을 더 받으면서 선호하는 금융회사가 달라졌다. 처음 거래를 시작한 곳이 인터넷전문은행이나 청소년 특화 어플리케이션인 유스앱이라는 응답이 46.2%로 시중은행(47.8%)과 비슷했다.      인터넷은행들이 선제적으로 내놓은 청소년 전용 용돈관리 서비스나 선불 충전카드의 영향력이 큰 것으로 분석된다. 선불 충전카드는 계좌가 없어도 쉽게 만들 수 있다는 게 큰 장점이다. 대부분 일 50만원·월 200만원 한도 내에서 온·오프라인 결제가 가능하고, 교통카드로도 쓸 수 있다.      김영희 디자이너           카카오뱅크는 2020년 10월 충전된 금액만큼 모바일 간편 결제나 카드 결제가 가능한 ‘미니’ 서비스를 출시했는데 3년 만에 가입자가 180만 명(지난 6월 말 기준)을 돌파했다. 그러자 지난 25일부터는 기존 가입 대상을 만 14세~18세에서 만 7세 이상으로 확대했다. 토스도 2021년 12월 만 7세~16세를 대상으로 ‘유스카드’ 서비스를 내놨다. 초등학교 1학년생도 쓸 수 있는 최초의 카드란 점에서 주목을 받았고, 지난 6월 말 기준 116만 장 이상이 발급됐다. 케이뱅크도 지난해 12월 ‘하이틴카드’를 출시했다.      카카오뱅크에 맞서기 위해 시중은행들도 ‘아이부자(하나은행)’ ‘리브 넥스트(KB국민은행)’와 같은 청소년 전용 금융 앱을 출시하고 각종 금융 혜택을 늘려가고 있다. 아이부자는 2021년 6월 출시 후 2년 만에 가입자 수 110만 명을 돌파했다. 황선경 하나금융경영연구소 수석연구원은 “미래 고객을 확보하기 위해선 알파부터 Z세대까지 시기별 변화 관리로 지속적인 관계를 형성하는 것이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>현직자 구독 채용 플랫폼 '디오(DIO)', 중기부 팁스 선정</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0005070988?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>스페이스와이 제공 [파이낸셜뉴스] 현직자 구독형 채용 플랫폼 '디오(DIO)' 운영사 스페이스와이가 중소벤처기업부 기술창업 지원 프로그램 팁스(TIPS)에 최종 선정됐다.   12일 스페이스와이에 따르면 팁스 프로그램은 정부와 민간투자사가 합심해 우수 기술을 보유한 유망 스타트업을 선발해 집중 지원하는 스타트업 육성 프로그램이다. 디오는 이번 팁스 선정으로 2년간 총 5억원의 연구개발비를 확보하게 됐다.   디오는 채용이 어려운 기업에 빅테크 및 유수 스타트업에서 일하는 현직 개발자, 마케터, 디자이너, 프로젝트 매니저(PM)를 연결하는 구독형 채용 플랫폼이다. 즉시 인력이 필요한 초기 스타트업도 빠른 시간 안에 검증된 현직자를 구독형으로 채용할 수 있고, N잡을 원하는 실력 있는 경력직 인재들은 정해진 근무 외에도 자신의 능력을 펼칠 수 있는 것이 디오 서비스의 핵심이다.   현재 디오에 소속된 경력직 전문가는 95% 이상이 현직자로 구성돼 있다. 특히 '네카라쿠배당토(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)' 등과 같은 빅테크나 유명 스타트업 등에서 일하는 5년차 이상의 현직자를 비롯해 팀장, 임원 직책의 현직자가 있다. 검증된 실력과 풍부한 경험을 가진 현직자들과 협업할 수 있다는 디오의 장점으로 현재 4600여곳의 기업이 디오 서비스를 이용 중이다.   디오는 이번 팁스 프로그램을 통해 △현직자 역량 검증 프로세스를 강화하고 △AI를 활용한 최적의 인재 매칭 서비스 도입 △업무 보조를 돕는 서비스형 소프트웨어(SaaS) 협업툴 고도화로 현직자 채용부터 매칭, 관리 전 영역에 걸쳐 서비스 품질을 한층 더 끌어올릴 계획이다.   황현태 스페이스와이 대표는 "이번 팁스를 통해 직장인들의 소득 향상에 도움을 주고 자신의 능력을 넓힐 수 있는 고용 문화를 보편화시키고 싶다"며 "이를 통해 인재 채용이 어려운 스타트업도 디오 서비스를 통해 채용에 경쟁력을 갖고 빠르게 성장할 수 있길 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>롯데카드, 토스모바일 통신비 할인 ‘토스모바일X로카’ 출시</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002745577?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ⓒ롯데카드[데일리안 = 이세미 기자] 롯데카드가 알뜰폰 사업자인 ‘토스모바일’의 통신요금을 할인해주는 ‘Toss Mobile X LOCA(토스모바일 X 로카)’를 출시했다고 4일 밝혔다.이 카드는 카드 혜택과 프로모션 혜택을 통해 토스모바일 통신요금 자동이체 시 월 최대 2만5000원을 할인해주는 것이 특징이다. 먼저, 카드 혜택으로 발급월부터 24개월 간 지난달 이용금액이 30‧70‧150만원 이상인 경우 월 1만‧1만5000원‧2만원을 할인해준다.여기에 프로모션 혜택으로 발급월 포함 24개월 동안 이용금액 구간별로 9000원‧7000원‧5000원 할인을 추가로 제공한다. 카드 혜택에 프로모션 혜택을 더하면 지난달 이용금액에 따라 월 1만9000원‧2만2000원‧2만5000원을 할인 받을 수 있다.발급월 포함 25개월부터는 지난달 이용금액이 30만원 이상인 경우 7000원 할인 혜택을 받을 수 있다. 프로모션 혜택은 2024년 7월 31일까지 가입한 고객에게 제공되며, 연장 시 재공지된다.롯데카드 관계자는 “고물가 시대에 통신비를 아끼려는 고객이 많아짐에 따라 알뜰폰을 찾는 수요도 점차 증가하는 추세”라며 “토스 앱을 통해 쉽고 간편하게 가입할 수 있는 토스모바일 요금제를 더욱 부담 없는 가격에 이용할 수 있도록 이번 상품을 출시했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>글로벌 블록체인 리더 총집결…'KBW2023:임팩트' 최종 라인업 공개</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007025676?sid=105</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>제레미 알레어 써클 창업자·마이크 벨시 비트고 CEO 등 비탈릭 부테린, 온라인으로 참여…위메이드 장현국 대표 기조연설KBW 2023 개최 이미지.(서울=뉴스1) 박현영 기자 = 전 세계 유명 블록체인 업계 인사들이 서울을 찾는다.웹3 커뮤니티 기업 팩트블록은 오는 5일부터 6일까지 진행되는 '코리안블록체인위크 2023(KBW 2023)'의 메인 콘퍼런스 '임팩트(IMPACT)'에 참가하는 최종 연사 라인업을 3일 공개했다. 임팩트에선 총 210명의 글로벌 블록체인 리더들이 연설에 나선다. 임팩트는 KBW의 메인 콘퍼런스로, 업계 유명 전문가들이 한 자리에 모여 블록체인 업계 트렌드와 인사이트를 공유하는 자리다. 9월 1일까지 진행된 KBW 2023 얼리버드 및 일반 예약 티켓은 전량 매진됐다. 최종 연사 리스트에는 △비탈릭 부테린 이더리움 창시자(온라인 참여) △마이크 벨시 비트고 최고경영자(CEO) △제레미 알레어 써클 공동 창업자 △장현국 위메이드 대표 △아서 헤이즈 비트맥스 공동창립자 △댄 헬드 트러스트 머신스 마케팅 고문 △파스칼 고티어 렛져 CEO △세르게이 나자로프 체인링크 공동설립자 △에드 펠튼 오프체인랩스 창업자(아비트럼) △모 샤이크 앱토스 공동창업자 등이 포함됐다.비탈릭 부테린 이더리움 창시자는 오는 5일 오전 화상으로 참여하는 기조강연에서 이더리움 생태계의 최근 동향에 대한 강연을 진행한다. 또 마이클 벨시 비트고 CEO는 '디지털 자산 커스터디(수탁)의 최근 추세'를 주제로 기조 연설에 나선다. 제레미 알레어 써클 공동창업자 겸 CEO는 '탈중앙화 경제에서 스테이블코인의 역할:화폐의 HTTP'를 주제로 발표한다. 미국 상품선물거래위원회(CFTC)의 캐롤라인 팸 위원도 이번 행사의 연사로 이름을 올렸다. 팸 위원은 오는 6일 오후 4시 30분 스테이지에서 '디지털자산 규정 준수: 규제 프레임워크에 대한 이해'라는 아젠다로 강연을 진행한다. 아울러 게임 '마비노기'와 '메이플스토리'의 디렉터를 역임했던 넥슨의 황선영 그룹장, CCP게임즈의 힐마 패터슨 대표도 블록체인 게임 산업에 대한 발표를 진행한다.올해 6회째를 맞는 'KBW 2023: 임팩트'는 팩트블록이 설립해 주최하고 있으며, 블록체인 벤처캐피탈 해시드가 공동 주최한다. 전선익 팩트블록 대표는 "KBW는 전 세계 블록체인 거장들의 인사이트가 가득한 이벤트로, 올해 유난히 행사 전부터 열기가 뜨겁다"며 "업계 리더들과 함께 블록체인의 현재를 진단하고 미래를 혁신하는 기술에 대해 공유할 수 있는 좋은 기회가 될 것"이라고 말했다.김서준 해시드 대표는 "올해 KBW 주간에는 전세계 웹3 산업에서 영향력 있는 많은 연사들이 참여하는 만큼 다양한 인사이트를 전달할 수 있을 것"이라고 말했다. 이어 "메인 컨퍼런스 뿐만 아니라 200개 이상의 사이드 이벤트를 통해 국내 웹3 커뮤니티와 해외 전문가들 간 의미있는 비즈니스 협업 기회가 만들어질 것으로 기대한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>9월 6일 채널A 라디오쇼 ‘정치시그널’ 인터뷰 전문</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/449/0000257081?sid=100</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>* 아래 텍스트는 실제 방송 내용과 차이가 있을 수 있습니다. 보다 정확한 내용은 방송을 통해 확인해주세요.* 인터뷰 내용을 인용 보도할 경우 프로그램명 '채널A 라디오쇼 &lt;정치시그널&gt;'을 밝혀주시기 바랍니다.* 본 방송 내용의 저작권은 채널A에 있습니다.◆프로그램 : 채널A 라디오쇼 &lt;정치시그널&gt; (오전 8시~8시 50분. 유튜브 ‘채널A 뉴스’)◆진행 : 노은지 정치부 차장◆출연 : 장예찬 국민의힘 청년최고위원, 김태우 전 강서구청장◆영상 : https://www.youtube.com/watch?v=1bqxYb8x2GU&amp;t=907s&lt;게임체인저&gt;▷ 노은지- &lt;라디오쇼 노은지의 정치시그널&gt;과 함께하고 계십니다. 매주 수요일의 코너는 &lt;게임체인저&gt;인데요. 남다른 촉으로 판을 흔들 시그널을 감지해보겠습니다. 오늘은 &lt;게임체인저&gt;로 장예찬 국민의힘 청년최고위원 모셨습니다. 어서 오세요. ▶ 장예찬 - 안녕하세요? 장예찬입니다. ▷ 노은지 -감사합니다. 보니까 저희 방송 시작하기 전에 장예찬 최고 팬들이 많더라고요. 좋아하는 사람이 나온다는 얘기를 하던데 오늘 &lt;게임체인저&gt;로 함께하신 소감 들어볼게요. ▶ 장예찬 - 게임에는 이기고 지는 승패가 있잖아요. 제가 &lt;게임체인저&gt;로서 이 지긋지긋한 좌파 가짜 뉴스 카르텔과 전쟁, 게임에서 승리하겠다는 결연한 각오를 말씀드리겠습니다. ▷ 노은지 - 알겠습니다. 가짜 뉴스를 얘기하셨는데 첫 번째 주제 역시 가짜 뉴스 논란이어서 지금 시끄러운 게 아까 이용환 앵커도 말씀하셨지만 대통령실이 희대의 대선 공작 사건이라고 규정한 김만배 씨의 허위 인터뷰 의혹입니다. 지금 어떻게 이걸 보고 계세요? ▶ 장예찬 - 저는 하나의 카르텔이 있다고 생각합니다. 예를 들면 이게 김만배와 뉴스타파만 대선 조작에 개입한 것이 아니라 최소한의 사실 확인도 하지 않고 무차별적으로 이걸 보도한 KBS, MBC 같은 윤석열 대통령 당선을 막고 싶었던 민노총 언론 노조가 장악한 언론도 카르텔의 일원이고 기다렸다는 듯이 민주당 주요 정치인들이 그 당시 이틀 동안 60건 이상의 SNS로 융단폭격을 하더라고요. 이재명 대표도 본인이 직접 2건 이상 게시물을 올리고. 처음부터 김만배가 기획했고 김만배가 토스하면 여러 MBC 같은 언론이나 민주당 정치인들이 슛을 때릴 준비를 하고 있었다. 이건 짜고 치는 고스톱이라는 측면에서 대선 조작 카르텔, 가짜 뉴스 카르텔이라고 봐도 무방할 것 같습니다. ▷ 노은지 - 보도를 했던 당사자인 뉴스타파 같은 경우는 어제 사과문도 냈고 국민의 알권리도 판단했다. 그리고 김만배, 신학림 두 사람의 금전 거래에 대해서 몰랐고 보도와도 무관하다고 설명하고 있어요. 민주당 의원들을 대신해서 질문을 드리자면 당시에 그런 의혹이 불거졌다면 본인들이 주장하는 것과 유사한 근거 자료가 나왔기 때문에 받아서 인용하고 그걸 근거로 주장을 하고 할 수 있는 거 아닐까요? ▶ 장예찬 - 일단 뉴스타파는 신학림이라는 사람이 외부인이 아니거든요 뉴스타파 내부에 소속되어서 연구용역비를 받아가던 사람입니다. 그런 사람의 인터뷰를 마치 외부인이 인터뷰한 것처럼 조작한 것부터가 언론 윤리 위반이라고 보고 있고요. 아무리 신학림 씨가 인터뷰를 해 왔어도 발화의 대상은 조우형 씨잖아요. 그러면 데스크 차원에서 조우형 씨에게 전화해서 확인하는 최소한의 교차 검증은 해야 한다고 봅니다. 그리고 이 인터뷰가 조작된 시점이 9월인데 이걸 해가 바뀐 3월, 대선 3일 전에 터뜨렸잖아요. 뉴스타파 측에서 내부 사람인 신학림에게 이거 6개월 넘게 묵혀놨냐, 무슨 의도가 있냐고 더 철저하게 검증하는 절차를 거쳐야 하는데 어떠한 사실관계 확인도 없이 기다렸다는 듯이 냅다 그냥 대대적 특종으로 보도했다는 것이 뉴스타파라는 매체의 순수성이나 자질을 의심하게 만드는 대목입니다. ▷ 노은지 - 오늘 보도된 내용을 보니까 김만배 씨가 조우형 씨에게 한 얘기인데 대선 끝나고 아니라고 하면 된다. 형이 광야로 끌고갈 거다, 이런 얘기를 하던데 김만배 씨가 말한 광야가 대체 어디 일까요? ▶ 장예찬 - 광야 대신 감옥에 갔다 왔죠. 그리고 이분은 감옥을 더 가야 할 것 같습니다. 이런 대선 조작에 대해서도 추가 수사가 진행될 것 같고요. 이게 결국 가짜 뉴스에 대한 배상이나 보상 책임이 너무 낮기 때문에 아무렇지 않게 생각하는 것 같아요. 나중에 잘못되면 벌금형으로 500만 원 나오겠지. 끽 해야 집행유예, 거기까지 안 가잖아요. 그러니까 단순 가짜 뉴스가 아니라 대선 조작, 대선 개입도 아주 가볍게 생각한 것 같고요. 문재인 정부 때 주요 인사들, 조국 전 장관이나 민주당 국회의원들이 징벌적배상제 도입해야 한다는 이야기 많이 했습니다. 이제는 언론사에 가짜 뉴스, 단순히 오보가 아니라 허위 조작 의도를 가지고 있었던 가짜 뉴스에 대해서 징벌적배상제라는 제도를 도입하는 걸 진지하게 검토할 시점이 된 것 같습니다. ▷ 노은지- 알겠습니다. 그런데 보니까 조직적인 허위 보도가 김만배 씨가 한 인터뷰 말고 더 있을 거라는 정황도 있더라고요. 남욱 측, 조우형 측, 측근을 이용한 보도가 상당히 많았거든요. 조우형 씨가 2021년 10월 방송사 인터뷰에서 유동규 개인 일탈 확률이 크다, 이런 얘기를 했어요. 이런 것도 조금 허위 인터뷰라고 의심을 할 만한 인터뷰인가요? ▶ 장예찬 - 이것도 김만배의 사주에 의한 허위 인터뷰를 조우형 씨 스스로가 진술을 통해서 밝혔습니다. 대장동 게이트가 화제를 이끌기 전에 천화동인 1호 누구 거냐, 이 사업은 누구랑 하는 거냐 하면 김만배 씨가 성남분들이랑 하는 거라고 말했다고 합니다. 성남이면 당연히 성남시장이었던 이재명 대표와 정진상 실장 등을 말하겠죠. 그러다 대장동 게이트가 보도되니까 그때 가서 유동규 개인 일탈로 몰아가자고 암묵적인 지시를 조우형 씨 등에게 김만배 씨가 내린 것으로 보이기 때문에 천화동인이 유동규 거의 거라고 하는 민주당의 말도 안 되는 주장도 결국에는 김만배가 사주한 가짜 뉴스라는 게 드러나고 있습니다. ▷ 노은지 -알겠습니다. 선거법 대선 개입 사건이라고 하려면 공직선거법 적용을 받아야 할 것 같은데 이미 6개월 지나서 대선 치른 지가 공소시효는 끝났잖아요. 그러면 어떤 혐의를 적용할 수 있는 거예요? ▶ 장예찬 - 허위사실에 의한 명예훼손도 적용할 수 있고요. 언론사는 법적인 처벌 여부와 무관하게 방심위 차원에서 긴급 심의가 들어갔습니다. 여기에 대해서 이동관 방통위원장이 원스트라이크 아웃도 고려하겠다고 한 만큼 하나 마나 한 징계가 아니라 언론사 문 닫을 수 있다는 경각심을 일깨워 줘야만. ▷ 노은지 - 지금 방심, 방통위 차원에서 폐관 조치가 가능한 상황은 아니지 않나요? ▶ 장예찬 - 법적 절차가 굉장히 복잡하다고 하더라고요. 다만 실체적으로 이 징계가 뼈아프게 느껴져야만 허위 조작 보도를 안 하지 않겠습니까? 그런 차원에서 고민은 필요할 것 같습니다. ▷ 노은지 - 알겠습니다. 다음 이슈로 넘어가겠습니다. 김만배, 신학림 씨뿐만 아니고 이분도 상당히 핫한 인물입니다. 윤미향 무소속 의원 어제 국회 대정부질문에 참석했더라고요 총련 행사에 다녀온 것을 두고 여러 차례 어제는 김어준 유튜브에 나가서 해명도 적극적으로 해명을 하고 있는데 조금씩 바뀌더라고요. ▶ 장예찬 - 총련 단체인지 몰랐다고 하다가 나중에 100개 중 하나였다고 하는데 전체적인 주관을 조총련이 했다는 게 드러나고 있고요. 윤미향 의원이 외교부에 보낸 공문이 있어요. 이것도 우리 국민 세금으로 외교부로부터 차량 의전 받고 싶어서 보낸 공문이거든요. 반국가단체 행사 가면서 우리나라 정부의 의전을 받겠다는 발상도 참 놀라운데 그 공문을 보면 해당 주최한 단체에서 간또대지진, 도꾜, 이런 북한식 표현을 노골적으로 쓰고 있는 게 공문에 나와 있어요. 공문 한 번만 봐도 배후에 북한 관련 단체가 있다는 걸 누구나 다 알 수 있습니다. 눈 가리고 아웅 하는 해명을 하기보다 본인의 잘못을 인정하고 어차피 2심에서 법정 구속될 가능성이 높아 보이는데 위안부 할머니들 횡령 사건으로 저의 견해입니다만 일찍 의원직이라도 정리하고 자숙하는 모습 보여주는 게 윤미향 의원의 우리 사회에 할 수 있는 마지막 기여라고 봅니다. ▷ 노은지 - 그리고 이 해명도 듣고 고개를 갸웃하게 됐는데 앉아 있다가 헌화하면 안 됩니까? 이게 윤 의원측에서 했던 반박인데 그러니까 총련 행사를 갔다고 쳐도 내가 총련 인사와 접촉은 하지 않았고 앉아 있다가 내 할 일만 하고 오면 되는 거 아니냐, 이런 식의 주장인 것 같아요. ▶ 장예찬 - 그런데 그 자리에서 조총련 인사가 축사하면서 우리 정부를 향해 남조선 괴뢰도당 운운했잖아요. 제가 만약 모르고 어느 행사를 갔는데 누가 남조선 괴뢰도당이라고 하면 저는 아마 뛰어나가서 멱살 잡을 것 같아요, 무슨 소리냐. 뛰어나가서 멱살을 못 잡으면 나오기라도 해야죠. 그게 대한민국 국민들로부터 세금을 받는 대한민국 국회의원이 갖춰야 할 최소한의 자세인데 그거 가만히 듣고 박수 치고 행사를 다 끝내고 왔다는 점에서도 실정법 위반이고 국가보안법 위반이고 여러모로 국회의원 자질이 없다는 게 증명된 것 같습니다. ▷ 노은지 - 윤미향 의원 출장 전에 외교부에 제출한 일정표표와 어제 해명하면서 제출한 입장무에 실제 참여한 일정표를 제공했는데 거기에 빠진 게 있어요. 조선학교 무상화 시위 참석이 있었는데 이거는 안 갔다. 이렇게 주장을 하는 상황인 거죠? ▶ 장예찬 - 갔나 안 갔나가 아니라 이런 일정, 반국가단체와 연관된 주요 일정에 참석하겠다고 우리나라 외교부에 공문을 제출한 그 뻔뻔함 이런 것 자체가 문제이고요. 일부에서는 심지어 보수 정당 내부에서도 이런 이념 문제를 확실히 하자는 것을 두고 철 지난 색깔론을 운운합니다. 2023년에 대한민국 국회의원이 이적 단체 행사에 가서 박수 치고 시위도 참석하겠다고 하는 일정을 내고 하는 걸 보면 철 지난 색깔론이 아니라 여전히 이념 전쟁은 현재진행형으로 계속되고 있다. 여기서 우리가 슬금슬금 밀리고 국가의 정체성이나 이념이나 철학을 확실히 하지 않으면 어느 순간 북한의 지령을 받는 사람들이 활개 치면서 우리 언론이나 국민들의 생각을 잠식하려고 노력할 것이라는 점에서 경각심을 가져야 한다는 걸 윤미향 의원이 몸소 보여준 것 같습니다. ▷ 노은지 - 지금도 민주당은 입장을 내지 않고 있더라고요. 윤미향 의원이 당 소속은 아니고 무소속 의원이니까 그럴 수 있다고 보는데 민주당이 침묵하는 건 어떻게 보세요? ▶ 장예찬 - 비겁한 침묵이라고 생각합니다. 윤미향 국회의원 배지를 민주당이 달아줬고요. 일본 항의 방문 등에 전부 다 윤미향 의원이 같이 동행하고 있거든요. 껍데기만 무소속이고 알맹이는 민주당이라고 생각하고 무려 민주당의 지도부인 장경태 최고위원이 조총련 약간 친북이다. 큰 문제없다고 말하지 않았습니까? 그러니까 약간 무소속인 것 같아요. 약간 무소속이고 실제로 민주당이고 이렇게 봐야겠죠. ▷ 노은지 - 알겠습니다. 마지막으로 이슈를 넘겨볼게요. 단식 7일 차 아까 이용환 앵커가 강조하면서 얘기하셨는데 이재명 민주당 대표가 본청 앞에서 천막 치고 단식하고 있잖아요. 드나들면서 매일 보시겠어요. ▶ 장예찬 - 국회 본청 앞에 천막을 쳐 놓으셨으니까요. 그런데 의석수가 적은 것도 아니고 과반 이상을 넘긴 다수당 당수가 단식을 했던 사례가 역사에 없는 것 같아요. 대부분 다 소수 정당이거나 1당이 아닌 경우에 단식을 많이 하죠, 야당일 때. 야당인데 거대 야당이라는 특이점이 있는데 단식할 게 아니라 정기 국회에서 일하는 모습을 보여줘야 하지 않나 싶고요. 단식 과정 생중계를 한다든가 여러 가지 소품들이 진열되어 있다든가 밤이면 대표실로 퇴근하는 것도 매우 이례적이라서 국민적 공감대를 사기는커녕 단식이라는 어떻게 보면 절박한 투쟁 행위가 이재명 대표 때문에 희화화가 되는 것 같아요. 이재명 대표는 무엇이든 파괴를 잘하는 분인데 이제는 단식이라는 투쟁 방식도 이재명 대표가 파괴해 버린 게 아닌가. 이 이후로는 단식을 하겠다고 나설 정치인이 별로 없을 것 같아요. ▷ 노은지 - 그런데 7일 차 일정이 5개였다는 얘기를 이용환 앵커가 하셨어요. 제가 보기에도 단식이 길어지면 일정을 최소화하고 움직임도 줄이고 누워 있기 마련이거든요. 그런데 너무 일정을 많이 하는 게 아닌가. 이거는 사실 그런 단식 방식에 대한 의아함이기도 하고 건강이 우려되는 상황이기도 해요. ▶ 장예찬 - 그래서 더더욱 이거 진짜 단식이 맞냐는 일각의 의혹을 스스로 초래하고 있는 셈이고요. 두 마리 토끼 잡으려다가 두 마리 토끼 다 놓치는 것 같습니다. 결연한 단식을 하던가 아니면 일을 하던가 둘 중에 하나만 하면 되는데 둘 다 하려고 무리수를 두다 보니까 오히려 의혹을 사고 있는 것 같은데요. 제1야당 대표가 단순 제1 야당이 아니라 거대 다수 야당이 있어야 할 곳은 단식 천막이나 퇴근하고 가는 대표실이 아니라 국회이고 민생의 현장이어야 한다는 점을 강조하고 싶습니다. ▷ 노은지 - 지금 촛불집회도 단식 천막 주변에서 열리고 있던데 어제저녁 본청 앞에도 많이 모이기는 했는데 국회 직원이랑 보좌관들이 올리는 SNS 글을 제가 봤더니 왜 국회 내에서 촛불집회를 하냐, 이런 글도 있더라고요. 이런 행태에 대해서 비판적인 얘기들이 국회 내 직원들 사이에서 나오는 것 같아요. ▶ 장예찬 - 민주당 당직자의 반응도 싸늘해요. 장외투쟁을 계속 하다 보면 사람을 모아야 하는 실무진들이나 당협위원장 국회의원은 지치거든요. 오는 당원, 열성팬덤도 한두 번이지, 계속 반복되고 매주 매일 지속되면 동력이 서서히 상실되지 않습니까? 지난 주말 대표가 단식까지 하면서 장외 투쟁했는데 5000명밖에 못 모았다고 경찰이 발표했잖아요. 5000명이면 저도 일주일 주면 모을 수 있을 것 같거든요. 이 정도로 이재명 대표의 리더십이 취약해지고 있기 때문에 취약한 리더십을 덮으려고 역설적으로 극단적인 단식을 하고 있는 것이다. 그래서 이 단식이 국가의 미래나 대의명분을 위한 단식이 아니라 본인의 대표직을 조금 더 오래 유지하기 위한 철저히 사리사욕을 위한 사욕 단식이라는 점이 부각되는 것 같습니다. ▷ 노은지 - 단식장을 찾는 사람이 다양하기는 하더라고요. 촛불집회 얘기도 해 주셨습니다만 어제 보니까 비명계 전해철 의원도 찾았고 출마 예정자들 이런 사람들도 가서 대화를 나눈다고 하고 비명계가 일단 전해철 의원이 간 걸 보면 그래도 약간의 당내 결집 그런 느낌은 내고 있는 거 아닐까요? ▶ 장예찬 - 물론 쓴 소리를 하시는 이상민 의원도 있지만 문재인 전 대통령의 격려 전화가 일종의 시그널, 야합 시그널이라고 표현하겠습니다. 이 단식을 계기로 이재명 대표직을 흔들지 않을 테니 친문들에게도 공천 주라는 일종의 야합 시그널을 문재인 전 대통령이 보냈고 전해철 의원의 방문으로 어느 정도 야합이 이루어지는 것 같거든요. 이 친문이라는 분들 안에서도 여전히 문 전 대통령과 가까운 분이 있고요. 이낙연 전 대표와 가까운 분은 결이 좀 달라요. 이재명 대표는 이번 단식을 계기로 친문에 해당하는 전해철, 윤건영, 고민정, 이런 분을 공천을 주는 방향으로 갈 것 같고 이낙연 전 대표와 가까운 설훈, 윤영찬 이런 분들은 정리하는 방향으로 갈 것 같아요. 그런 합의가, 당내 노선에 대한 정리가 이번 단식을 계기로 이루어지고 있다는 깊은 분석이 가능할 것 같고요. 결과적으로 단식장이 아니라 공천심사위원장 같아요. ▷ 노은지 -드나드는 방문자를 보면요? ▶ 장예찬 - 공천 심사 받으러 거기 가는 것 같아요. ▷ 노은지 - 하긴 힘들 때 와서 격려를 하면서 눈도장을 찍겠다고 하는 분도 있을 것 같네요. ▶ 장예찬 - 그러니까 단식이 대한민국 국민을 위한 단식이 아니라 민주당 내부를 위한 단식이다. 사리사욕 단식이라는 비판을 받을 수밖에 없는 겁니다. ▷ 노은지- 알겠습니다. 일단 오늘로 7일 차, 일주일 째 단식을 하다 보니까 그냥 지지자가 아닌 입장 그리고 상대 당에서 보기에도 저러다 건강을 해칠 것 같다. 이런 얘기도 나오고 단식을 끝낼 수 있는 출구전략이 궁금한데 최강욱 의원은 본인이 쓰러져야 끝난다고 했더라고요 ▶ 장예찬 - 입구가 없기 때문에 출구도 없습니다. 입구라는 것은 단식을 시작하는 명분이죠. 그 입구 없이 시작한 단식이기 때문에 출구가 주어지지 않을 겁니다. 그냥 내부 결속하고 친명, 친문 적당히 야합하고 이재명 대표 체포동의안 부결시키는 당내 여론을 만드는 것이 이재명 대표의 목적이기 때문에 그 정도 선에서 단식이 마무리될 것 같고요. 국민들에게 감동도, 동정심도 주지 못한 우리나라 민주화 이후 최악의 단식으로 기록될 것입니다. ▷ 노은지 - 아까 이상민 의원 얘기해 주셨는데 단식 중단하라는 얘기가 처음으로 공개적으로 나왔잖아요. 이상민 의원이 이렇게 말을 꺼냈으니까 비명계에서도 이런 목소리가 공개적으로 더 나올 수 있을 거라는 얘기가 있거든요. ▶ 장예찬- 보시면 비명계에서도 이낙연 전 대표와 가깝거나 마이웨이를 걷는 분 위주로 이런 얘기가 나오고요. 문재인 전 대통령과 가까운 분은 이 단식 가지고 공개적으로 비판 안 해요. 그래서 야합 시그널이 오갔다는 하나의 증거가 될 것 같고요. 이재명 대표 입장에서는 이미 본인이 원하는 것을 얻어가고 있기 때문에 단식까지 하는 대표 구속영장 심사 받게 할 거야라는 여론을 지금 조성했잖아요. 결국 가장 피하고 싶은 건 영장 심사이기 때문에 소기의 목적을 달성했다고 속으로 이미 판단하고 있을 것 같습니다. ▷ 노은지 -알겠습니다. &lt;게임체인저&gt; 여기까지 듣도록 하고요. 장예찬 최고위원은 다음에 다시 또 모시도록 하겠습니다. 감사합니다. ▶ 장예찬- 감사합니다. &lt;시그널 Pick&gt;▷ 노은지- 약 한 달 뒤 치러지는 서울 강서구청장 보궐선거. 민주당에서 이 자리에 진교훈 전 경찰청 차장을 전략 공천하겠다고 했고요. 국민의힘 역시도 공천을 하지 않겠다로 했다가 후보를 내기로 가닥을 잡았습니다. 지난달에 광복절 사면 복권을 받고 재출마를 선언한 김태우 전 구청장도 배제하지 않기로 했는데요. 오늘 &lt;시그널 Pick&gt;에서는 김태우 전 구청장을 직접 모셨습니다. 어서 오세요. ▶ 김태우 - 안녕하십니까? ▷ 노은지 - 방송 첫 출연이신 거죠? ▶ 김태우- 네, 방송 처음 나왔습니다. ▷ 노은지 - 감사합니다. 저희가 힘들게 모셨어요. 안 나오신다는 걸 많이 설득을 했는데 지금 딱 보니까 당에서 공천을 하겠다고 기류도 바뀌었고 그리고 들어보니까 김태우 전 구청장을 전략 공천할 수 있다. 이런 이야기도 당내에서 벌써부터 나오더라고요. 얘기를 들으신 게 있나요? ▶ 김태우 - 전혀 들은 바 없습니다. 언론을 통해서 알고 있습니다. ▷ 노은지 - 알겠습니다. 사실은 강서구청장 보궐선거 재출마하겠다고 하셨을 때 저는 사실 궁금했던 게 왜 또 구청장을 하시려고 하는지, 사실 당에서는 내년 총선에 나와도 되는 거 아니냐, 이런 얘기가 있었거든요. 왜 또 구청장 하셔야 하는 거예요? ▶ 김태우 - 사실 저도 당직자이고 선출직 공직자이다 보니까 많은 분과 교류가 있겠죠. 많은 분께서 사적인 의견을 얘기하시기로 내년 총선이 더 낫지 않겠느냐. 공적으로나 사적으로나 그렇게 얘기를 많이 주셨는데 제가 생각하는 것은 강서구민들과 약속입니다. 그것을 지키는 것이 훨씬 중요했습니다. 그러니까 선출직 공직자는 누구나 배지라고 하죠. 국회의원 배지를 다는 것이 꿈인데 저는 그것보다 우리 강서구민들과 약속했던 것을 제가 1년밖에 못했던 아쉬움이 큽니다. 1년 안에 정말 많은 일을 했는데 나머지 임기 동안 약속을 지킬 수 있다면 강서구민께 정말 많은 것을 해 드릴 수 있다는 확신이 있거든요. 그 약속을 지키는 것이 저에게는 더 명예롭다고 생각했고 그 약속을 지키면 오히려 총선에 큰 도움이 될 것으로 저는 보고 있습니다. ▷ 노은지 - 지금 사실 김진선 강서병 당협위원장이 일찌감치 뛰고 있었잖아요. 두 분 현장에서 자주 마주칠 것 같은데 어떠세요? 유력 경쟁자라서 그쪽에서 긴장할 것 같은데. ▶ 김태우 - 사이는 좋습니다. 제가 사적으로 형님 하니까 헝님 고생 많으십니다. 이렇게 서로 격려해 주고 있습니다. ▷ 노은지 - 당에서 들은 거 없다고 하시니까 제가 의견을 여쭙겠습니다. 당에서는 벌써부터 김태우 전 구청장의 경쟁력이 높다. 이래서 전략 공천 얘기를 하는 일부 사람들이 있어요. 그런데 보시기에 전략공천보다 경선이 낫다고 보시는지? 개인적으로 어떻게 판단하세요? ▶ 김태우 - 저는 어떤 쪽이든지 당에서 결정하는 대로 따르는 게 제 입장입니다. 그리고 자신이 어느 쪽이든 있습니다. ▷ 노은지 - 알겠습니다. 그리고 사실은 저희가 취재를 했을 때 공천 안 한다는, 공천을 하면 안 된다. 그리고 특히 김태우 전 구청장을 다시 공천하는 건 더 안 된다. 이런 목소리가 컸어요. 최근 들어서 기류가 바뀌었더라고요. 바뀐 이유가 어떤 게 있을까요? ▶ 김태우 - 정확한 이유를 생각하기 쉽지 않겠지만 강서구민의 여론이 서서히 반영이 된 것 같습니다. 그러니까 제가 1년 정도 가까이 강서구청장을 하면서 취임 이후 6개월 만에 숙원 사업을 2개를 다짐을 했거든요. 그런 것에 대한 민심, 이 지역을 낙후된 곳을 바꿔줄 사람은 김태우밖에 없다는 여론이 많이 알려진 것 같습니다. ▷ 노은지 - 공천을 그래도 했으면 하는 민심이 반영됐다. 알겠습니다. 그리고 이 질문은 안 드릴 수 없는데요. 사실 광복절 특별 사면을 받으신 게 유죄 선고를 받고 나서 직책이 떨어지고 3개월 뒤다 보니까 사실은 그렇게 빠른 시일 내에 특사는 흔치 않은 일이어서 여러 가지 논란이 있었어요. 거기에 대해서는 어떤 이유 때문에 됐다고 생각하세요? ▶ 김태우 - 사면은 헌법상 대통령의 결단이죠, 권한이고. 그런데 그냥 하는 것이 아니고 각계각층의 추천을 받고 그리고 여론을 살펴보고 나서 결정하는 것으로 알고 있습니다. 그래서 김태우의 여러 가지 양심선언, 공익 신고에 대해서 조국이 유죄면 김태우는 무죄다. 이런 인식을 많이 국민께서 가지고 계셨고 이런 부분이 여론이 반영이 돼서 너무하지 않느냐. 특히 재판이 내용과 절차 면에서 너무나 형평성에 어긋난 그런 부분이라는 인식이 많은 시민분의 여론 형성에 들어가서 반영이 된 것으로 그렇게 제가 판단합니다. ▷ 노은지 - 그런데 말씀하신 대로 대통령이 사면권을 갖고 있다 보니까 사면을 했던 자체가 김태우 전 구청장의 재출마, 이런 것에 있어서 윤심이 실린 게 아니냐는 얘기가 나왔거든요. ▶ 김태우 - 저는 외부적으로 나타난 현상으로 말씀드릴 수 있는데요. 대통령님의 결단, 국민의 여론을 청취해서 내린 결단에 대해서 감사한 상황이고요. 저는 이렇게 해석합니다. 이렇게 빠르게 결단을 내려주신 것은 강서구를, 낙후된 강서구를 다시 발전시켜 보라고 하는 여론이 그대로 반영이 된 것이라고 보고 있습니다. ▷ 노은지 - 대통령이랑 사면 이후에 통화? ▶ 김태우 - 전혀 안 했습니다. ▷ 노은지 - 알겠습니다. 윤심이 실렸다는 것에 대해서 말을 아끼고 계시니까 질문은 넘어가고요. 민주당에서 지금 엄청나게 공격을 하고 있더라고요. 어제 보니까 검찰 독재 탄압 대책위에서 기자회견을 열어서 본인 잘못으로 선거 다시 치르는 데 죄의식이 없다. 역사상 유례없는 점입가경 행보라고 표현을 썼는데 여기에 대해서 반박을? ▶ 김태우 - 할 말이 많죠. 저에 대해서 여러 가지 공격을 하는데 저는 그냥 단순하게 얘기하겠습니다. 진리는 단순하지 않습니까? 제가 비리 혐의로 재판을 받은 적이 있습니까? 없습니다. 기소조차 되지 않았어요. 문재인 정권이 어떤 정권이었습니까? 그 당시 제가 양심 선언, 공익 신고를 할 때 70%를 웃도는 70% 내외의 높은 지지율을 가지고 엄청나게 탄압을 받았고 제 입을 막기 위해서 정말 제 인생을 다 털어갔습니다. 그럼에도 불구하고 기소조차 하지 못했어요. 이런 사람을 보고 저와 관계없는 사람의 국토부 로비와 관련된, 저와 관계없는. 그것으로 인해서 재판 받고 있는데 그걸 저와 결부시키는 것은 그야말로 정책 없는 네거티브에 불과하다, 이렇게 제가 말씀드리겠습니다. ▷ 노은지 - 알겠습니다. 조국 전 장관도 지난달에 글을 올려서 김태우 전 구청장 사면은 법치의 사유화다. 이런 얘기를 하고 공익 신고자도 아니다, 이런 취지의 글을 올렸어요. ▶ 김태우 - 제가 그때 페이스북을 통해서 반박을 했는데요. 저는 문재인 정권의 국민권익위원회에서 저한테 공문을 보냈습니다. 공익 신고자 지위에 있다고. 공문으로 회신을 보냈어요. 공문을 첨부해서 SNS에 올렸는데 공익 신고자이면서 부패 신고자로 저는 확인을 받았어요. 법적으로 공익 신고자에 대한 지위에 대해서 유권 해석을 내리는 기관이 바로 국민권익위원회입니다. 거기에서 공문으로 공익 신고자로 회신을 받았습니다. 그런데 이거죠. 재판에서는 보호를 못해준다는 거지, 원래 공익 신고자 지위는 맞는데 보호를 해 주는 여부는 재판부에서 판단할 여부인데 형사 책임에 대해서 보호를 못해주겠다는 것으로 판단하시면 되겠습니다. ▷ 노은지 - 어제 한동훈 장관이렇게 얘기했더라고요 공익 신고 절차에 문제가 있어서 법원 판결에 공익 신고로 보호자로 보호를 못 받은 거지, 내용의 문제가 아니었다. 내용 자체가 틀린 건 아니었다, 이런 취지로 말을 했더라고요 ▶ 김태우 - 무슨 말이냐면 원래 공익신고자법에 의하면 국회의원, 수사기관, 권익위, 이 세 곳에 공익 신고를 접수하게 돼 있습니다. 그런데 그 무서운 문재인 청와대에서 거기에 접수하면 저는 하루아침에 사라지는 존재가 될 겁니다. 그래서 저는 국민께 이 사실을 알려야겠다고 해서 그전에 일부, 일부 내용을 제가 35건을 공익 신고했는데 일부 내용을 언론을 통해서 먼저 말씀을 드렸고요. 그중에 한 언론기관이 바로 채널A였습니다. 그렇게 제가 시작을 했습니다. ▷ 노은지 - 알겠습니다. ▶ 김태우 - 그러니까 왜 이 세 곳이 아닌 언론에 먼저 얘기를 했느냐? 사적으로 누군가에 이익을 주기 위해서 한 게 아니고 반대로 공익을 위해서 국민께 알린 거예요. 그야말로 공익에 부합한 내용이라고 제가 말씀드립니다. ▷ 노은지 - 알겠습니다. 민주당에서 진교훈 전 경찰청 차장을 구청장 후보로 전략공천을 했고 오늘은 공천장까지 받는다고 하더라고요. 제가 국회에서 나오는 얘기를 들어보니까 민주당 내에서는 경선 안 하고 전략공천 한 것 때문에 그동안 뛰고 있던 예비후보들 사이에서 여론이 좋지 않고 이것도 이재명 대표가 전략공천을 찍어서 내린 거여서 그런 반감이 있다고 하는데 실제로 지역 다녀 보시면 그런 기류가 있어요? ▶ 김태우 - 이재명이 아는 사람 그리고 강서구민이 아는 사람. 저는 이렇게 뚜렷이 구분이 된다고 보거든요. 지역을 제가 요새 인사하면서 다녀보니까 이런 얘기들을 주민들께서 하세요. 이번에 민주당 전략공천 됐다고 하던데 후보가. 그런데 누구야? 진교훈이라고 하니까 처음 듣는다, 누구냐? 그래서 다른 분이 한 얘기가 경찰이라고 하던데? 경찰 출신이라는 얘기겠죠. 경찰이라고 하던데라고 하시는 거예요. 그런데 경찰이 왜 나와? 그런 얘기를 하세요. 그러니까 강서구에는 여러 가지 행정 이슈가 많죠. 그런데 경찰 간부여서서 최근까지 치안 전문가죠. 치안 전문가가 강서구의 행정 수장으로 온다는 건데 이미 강서구에는 치안기관이 있어요. 강서경찰서가 있어요. 현 경찰서장이 굉장히 일을 잘하고 있어요. 그러면 경찰서장으로 올 게 아니잖아요. 이미 경찰서가 있는데 치안 전문가로서 강서구청장을 할 거냐? 경찰서장이 될 거냐? 그건 아니지 않습니까? 그런 면에서 굉장히 우려되는 공천이라고 저는 생각하고 그리고 강서구민의 민의가 반영된 공천은 아니라고 제가 판단하고 있습니다. ▷ 노은지 - 구민이 아는 사람이 아니라 이재명 대표가 아는 사람이 공천된 거다? 그래서 지금 언론에서 공천을 받으신 건 아닙니다만 예를 들면 성사가 됐을 때 검경 대결이다. 이런 식으로 표현을 해요. ▶ 김태우 - 정말 말도 안 되는 거예요. 갖다 붙이기 좋은 내용이에요. 검경이라고 하면 갈등 구조를 유발하는 재미있는 내용이거든요. 원래 싸움 구경이 제일 재밌잖아요. 그런데 제 직업이 전 강서구청장. 상대 후보는 전 경찰 간부였죠. 그렇게 강서구청장 대 경찰 간부. 이게 맞는 거지, 어떻게 검경이 됩니까? 검경은 정말 고생 많이 해요. 밤늦게까지 수사하고 조사하고 치안 유지하고 정말 고생하시는데 왜 자꾸 싸움을 붙입니까? 그리고 제 직업이 전 구청장이었고 그전에는 뭐였습니까? 그전에는 정치 시사 유튜버였어요, 평론가였어요. 법인 대표였고. 그리고 그전에 제가 검찰 수사관이었고요. 그러면 전 전 전 직업이 검찰 수사관이었어요. 저는 이미 선출직 공직자 출신이고 행정가입니다. 전전전 직업을 가지고 검경 프레임은 전혀 맞지 않습니다. 전직 구청장 대 전직 경찰. ▷ 노은지 - 후보가 있기 때문에 두 분이 경선하실 수 있어서 후보가 확정됐다는 말씀은 아닙니다만 아까 장예찬 최고가 결정이 됐다, 이런 식으로 얘기를 하고 가셔서. ▶ 김태우 - 저는 들은 바 없지만 자신이 있다는 정도만 말씀드리겠습니다. ▷ 노은지 - 알겠습니다. 민주당에서 진교훈 후보에 대해서 공천 기준을 도덕성이라고 하고 있어요. 그게 사실은 구청장님 겨냥한 얘기로 저는 읽히기는 하거든요. 아까 말씀 한번 해 주시기는 했는데 민주당이 지적하는 도덕성 문제에 대해서 반박을 하신다면요? ▶ 김태우 - 다시 말씀드리지만 그 무자비한 문재인 청와대에서, 문재인 정권, 문재인 검찰에서 이 잡듯이 아주 오랫동안 뒤졌습니다. 그런데 이만큼도 나온 게 없어서 기소조차 못했습니다. 재판을 받은 적도 없고 기소조차 못했어요. 저를 가지고 그런 식으로 프레임을 거는 건 그야말로 악의적인 네거티브라고 말씀드리고요. 그리고 청렴도에 대해서 말씀드리면 개인의 청렴도도 중요하고요. 그리고 조직 전반적인 청렴도가 중요합니다. 제가 강서구청장으로 작년 7월 1일에 부임한 이후에 작년 하반기 6개월이었죠. 10년 좀 안됐는데 7, 8년 정도 될 겁니다. 3등급이었던 청렴도가 2등급으로 올라갔습니다. 한 등급 올리기 정말 힘들거든요. 그걸 6개월 만에 강서구 전체 청렴도를 올린 사람이 접니다. 상납 문화를 제가 근절시켰어요. 부하 직원한테 얻어먹는 것은 그건 정말 XX라고 하면서 강하게 조직 문화를 바꿨습니다. 청렴도가 한 단계 상승한 바 있습니다. 6개월 만에. 그런 것만 봐도 강서구청을 청렴하게 이끌 사람이 누구인가라는 판단을 하실 수 있을 겁니다. ▷ 노은지 - 알겠습니다. 민주당, 강서구가 워낙 민주당의 우세 지역으로 알려져 있고 현역 의원들이 다 민주당 의원이기도 하고 그런 상태에서 구청장을 하실 때 힘드실 것 같기는 한데 조금 어떠셨어요? ▶ 김태우 - 저는 조금 생각이 다른데요. 저는 제가 했던 과거에 그런 투쟁, 그런 부분은 정치적인 행동이었어요, 어떻게 보면. 정치적인 것으로 판단할 수 있겠습니다. 그런데 강서구청장으로 왔을 때 강서구 내에서는 저는 정치를 한 바가 없습니다. 행정을 했습니다. 그래서 오랜 숙원 사업 두 가지를 6개월 안에 제가 달성한 것은 여야가 없는 거예요. 오로지 강서구민만의 민주당을 지지하든 국민의힘을 지지하든 오로지 강서구민입니다. 강서구민의 발전을 위해서 제가 노력을 했던 것이고요. 저는 이런 게 있어요. 제가 1심에서 공익 신고를 했던 그 투쟁, 그것으로 인해서 유죄를 받았죠. 1심 유죄가 나온 상황에서 제가 작년에 구청장 당선됐어요. 그러니까 얼마나 강서구민들로부터 은혜를 받았습니까? 그래서 그 은혜를 갚고 민심에 부합하게 제가 열심히 발전시키는 것이 저의 책무라고 봐요. 그래서 거기에는 민주당을 지지하는 국민이든 국힘을 지지하는 구민이든 상관없어요. 모두 저의 구민이고 저에게 은혜를 주신 거예요. 그 의뢰를 지키는 것이 가장 중요한 명예라고 생각합니다. ▷ 노은지 - 알겠습니다. 당에서 입장이 공천으로 바뀌어서 이런 질문이 의미가 없을 수 있어요. 그런데 제가 궁금했던 건 당에서 만약에 무공천을 한다고 하면 무소속으로까지 나올 그 정도 의지가 있으셨던 거죠? ▶ 김태우 - 제 인생에는 무소속, 탈당이 없습니다. 당과 의리를 지켜야 해요. 제가 설득은 하겠죠. 저는 여기서 많은 일을 했고 많은 국민들로부터 발전시켜달라는 부탁을 받았다. 여기에 부응해야 한다라면서 지지율도 좋다. 제가 얼마 전에 나온 거 보면 기대보다 훨씬 많이 나오지 않았습니까? 설득을 제가 끝까지 했겠죠. 그래서 어떤 경우든 저는 당의 결정을 수용하고 따를 겁니다. ▷ 노은지 - 그러면 이번에 기류 바뀐 거에 그간의 설득이 영향을 미쳤다, 이렇게 보시나요? ▶ 김태우 - 구민들께서 여론에 반영됐다고 아까 말씀드렸는데요. 제가 예비후보를 등록하고 나서 많은 시민분들을 벌써 만났습니다. 하루에 몇 만 명을 만나가면서 그렇게 일을 했던 것이 알려진 것 같습니다. 민심이 반영되어서 당의 기류가 바뀌었다고 저는 보고 있습니다. ▷ 노은지 - 알겠습니다. 제가 아까 계속해서 여쭤봤는데 넘어오지 않으시기는 했어요. 제가 여기저기 얘기를 듣고 취재를 하다 보니까 대통령이 특별 사면을 하면서 김태우 전 구청장에 대해서 살아 돌아와라, 이런 류의 얘기를 하셨다는 얘기는. ▶ 김태우 - 저는 전혀 들은 바 없습니다. 통화 한 번 한 적 없습니다. ▷ 노은지 - 대통령에게 고마운 마음? 이런 정도의 관계인가요? ▶ 김태우 - 제가 일관성 있게 얘기를 드리는 것은 저는 취임 후에 그 은혜를 받지 않았습니까? 거기에 대해서 정말 죽을 각오로 일을 했습니다. 6개월 만에 수십년 숙원 사업 가시적인 성과를 보였거든요. 목디스크가 생겼습니다. 오로지 그것밖에 없었어요. 거기에 대해서 제가 과거 16년 독재했던, 민주당이 독재했던 강서구에서 16년 동안 방치가 되었거든요. 강서구가 방치가 되어서 그러니까 전세 사기가 나올 정도로 빌라가 양산돼 있었고 그게 방치가 돼 있어요. 표밭 관리 때문에 주민이 바뀔까 봐, 성향이. 그렇다는 말도 있지 않습니까? 그런데 저는 6개월 만에 숙원 사업을 달성했거든요. 거기에 대한 많은 반향이 있었습니다. 주민들께서. 그래서 김태우가 어느 당이냐가 중요한 게 아니고 나를, 내 삶을 변화시키냐, 이 관점에서 굉장히 긍정적으로 저를 봐 주시는 거예요. 그래서 저는 지금 정당인으로서가 아니고 강서구민에 대한 은혜를 갚는 사람으로 저는 목숨을 걸고 이 일을 하겠다는 입장입니다. ▷ 노은지 - 지금은 행정가라고 얘기를 하셨고 그리고 구청장으로서 국민들과 했던 약속 때문에 나는 재출마를 하겠다고 말씀을 하셨는데 구청장에서 그치지 않고 다음 계획이 있을까요? ▶ 김태우 - 그런 걸 생각하면 국민들에게 얼굴을 못 들 사람이에요. 저는 아까도 말씀드렸지만 모든 선출직 공직자의 꿈은 배지예요. 저는 그게 중요한 게 아니고 저는 국민에게 은혜를 받았고 그 약속을 지키기 위해서 1년간 성과를 보였고요. 나머지 3년 동안 해야 하는 약속을 지키는 책임 있는 공직자가 되고 싶은 거예요. 그게 저한테 명예롭고 그 결과가 내년 총선 때 굉장히 우리에게 유리하게 작용이 될 겁니다. 저는 기본 입장이 이겁니다. 구민의 마음을 얻으면 모든 것이 끝난다. 내가 뭐가 되고 이런 건 중요하지 않습니다. 언제든지 할 수 있습니다. 마음을 얻는 여기 에만 관심을 가지고 있습니다. ▷ 노은지 - 알겠습니다. 아까도 얘기해 주셨는데 전략공천이 아니더라도 경선을 붙더라도 당에서 결정하는 데로 따르겠다. 알겠습니다. 김태우 전 강서구청장 얘기 여기까지 듣고요. 오늘 처음 방송 출연을 해 주셨는데 저희 채널A 정치시그널에 와 주셔서 감사합니다. 다음에 선거 활동하실 때도 다시 모시도록 하겠습니다. 고맙습니다. ▶ 김태우 - 감사합니다.▷ 노은지 - 채널A 아침을 여는 &lt;라디오쇼 노은지의 정치시그널&gt; 내일은 이재명 더불어민주당 대표의 최측근으로 뽑히는 민주당 정성호 대표가 그리고 여야 스피커 김성태, 정봉주 전 의원이 맞붙는 노른자 정치 첫 시간도 기대 많이 해 주시기 바랍니다. &lt;라디오쇼 노은지의 정치시그널&gt; 오늘 송신은 여기까지고요. 저는 내일 아침 8시에 다시 오겠습니다. 끝.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>디지털 원주민 ‘잘파세대’, 은행들이 주목하는 까닭은</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003247105?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>알파세대, 부모와 개설한 시중은행 계좌 의존Z세대 넘어가면 모바일·핀테크 앱 이용 급증카카오 ‘미니’·하나 ‘아이부자’ 등 잠재고객 공략[주간경향] 10~20대 초·중반의 ‘잘파세대’(Z세대+알파세대)가 은행권의 주목을 받고 있다. 잘파세대는 디지털 시장의 주고객층이자 소비 흐름을 주도한다. 시장과 기업이 마케팅 수단으로 세대를 구분하는 건 흔한 일이나 은행권에서 이들에 주목하는 이유는 따로 있다. 수익성만 따지면 당장은 유의미한 수준은 아니지만, 이들을 잡아두지 않고선 미래를 담보할 수 없어서다. 은행엔 위기이자 기회인 셈이다.디지털에 익숙한 잘파세대. 연합뉴스잘파세대 등장과 금융 마인드잘파세대는 1990년대 중반 이후 출생한 Z세대(1996~2009년생)와 2010년 이후 태어난 알파세대를 합친 세대를 통칭한다. 현시점에서 초등학생까지는 알파세대, 중학생 이후부터 20대 중반까지는 Z세대로 구분된다. 태어날 때부터 디지털에 익숙해 ‘디지털 원주민’으로 불린다. 최신 정보기술(IT)을 비교적 빠르게 습득하고 활용한다. IT, 사회관계망서비스(SNS), 게임, 엔터, 패션 등 여러 분야를 넘나드는 주력 소비층이다. 행정안전부 행정안전통계연보에 따르면 2022년 12월 31일 기준 알파세대는 530만여명, Z세대는 768만여명으로 국내 전체 인구의 각각 10%, 15%를 차지한다.은행권은 이들의 금융 마인드와 거래 행태에 주목한다. 잘파세대 내에서도 Z세대와 알파세대가 차이를 보이기 때문이다. 하나은행 하나금융경영연구소가 지난 8월 30일 발간한 ‘잘파세대의 금융 인식과 거래 특징의 이해’ 보고서를 보면, 미성년자 그룹에서 Z세대(중·고생)는 모바일뱅킹과 핀테크 앱에 대한 선호가 높은 반면, 알파세대(초등학생)는 시중은행 의존도가 높았다. 조사는 지난 6월 초·중·고 학생(600명)과 대학생(300명) 등 900명과 초등학생 학부모 300명을 대상으로 실시됐다.보고서에 따르면 인터넷은행이나 청소년 특화 유스앱을 첫 거래 금융기관으로 꼽은 비중은 중·고등학생의 경우 42.2%인 반면 초등학생은 18.0%에 그쳤다. 중학생 이상 Z세대 10명 중 9명은 (청소년 특화 금융) 유스앱 이용 경험이 있었다. 유스앱 만족 이유로는 메뉴 배치, 접근성 등 이용 편리성과 이벤트·혜택을 꼽았다. 보고서는 “2020년 만 14세 이상 청소년을 대상으로 한 카카오뱅크 미니 등 출시 후 중학생과 고등학생의 거래가 앱 기반으로 급변했다고 볼 수 있다”고 적었다.윤선영 하나금융연구소 연구위원은 “중·고생들은 주로 카카오뱅크와 토스 등 모바일 앱을 통해 금융거래를 시작하는 반면 초등생들은 부모와 함께 개설한 시중은행 계좌를 통해 금융거래를 시작하는 경우가 많았다”고 했다. 현행법상 만 14세 미만의 미성년자는 부모 동의하에 은행 계좌를 개설할 수 있다.‘향후 1~2년 내 주거래 은행을 바꿀 의향이 있느냐’는 물음에 전체 응답자의 14%만 ‘있다’라고 답했으며, 비중은 초등학생(4~6학년) 16.9%, 대학생 15.7%, 중·고등학생 12.7% 등 순으로 집계됐다. 모바일뱅킹은 중학생이 되면서 거래가 크게 늘었다. 모바일뱅킹을 이용한다는 응답은 초등학생이 19.0%인 반면 중학생은 74.0%로 나타나 큰 차이를 보였다. 고등학생은 82.7%, 대학생은 91.0%였다. 핀테크 앱 사용도 초등학생 20.0%에서 중학생 60.5%로 크게 뛰었다.반면 자동화기기(ATM) 이용률은 금융거래 이슈가 많지 않은 초등학생이 36.0%로 가장 높았다. 부모가 자녀 명의로 계좌를 만들어 용돈을 넣어두면 자녀가 체크카드로 ATM기에서 현금을 찾아 쓰는 방식이다.일러스트 김상민 기자잘파세대 잡기 위한 은행권 전략은보고서 설문 결과를 보면, 알파세대가 당장은 부모 판단에 따라 시중은행을 이용하지만, Z세대로 넘어가는 중학생부터는 모바일뱅킹이나 핀테크 앱으로 갈아탈 여지가 크다. 은행권이 잘파세대 등장을 위기로 보는 것도 이런 배경에서다.당국의 정책 기조도 기존 은행엔 위기감을 고조시킨다. 윤석열 정부 금융위원회는 은행권 경영과 영업 관행, 제도 개선 방안 중 하나로 은행권 경쟁 촉진을 위한 인터넷전문은행 등 신규 플레이어 진입을 허용한다는 방침이다. 한 은행권 관계자는 “알파세대 친화적인 모바일 콘텐츠는 상대적으로 인터넷은행이 흐름을 주도하고 있는 게 사실이다. 다만 최근엔 시중은행도 미성년 잘파세대, 특히 알파세대를 겨냥한 ‘키즈 패키지’ 등 이벤트와 전용 플랫폼을 확대하는 중이다. 또 온·오프라인 공간에서 금융 교육과 관련한 체험 교실을 열어 접촉을 늘리는 식으로 고객 확보에 주력하고 있다”고 말했다.지금이 알파세대를 잠재 고객으로 잡아둘 기회라는 분석도 있다. 시중은행은 맞춤형 플랫폼을 만들고 각종 이벤트나 콘텐츠 투자를 늘리고 있다. 카카오뱅크 ‘미니’를 포함한 하나은행 ‘아이부자’ 등이 대표적이다. 2020년 10월 선보인 카카오뱅크 미니는 선불충전 방식의 체크카드를 발급받아 결제와 ATM 출금, 자동이체 등이 가능하다. 스스로 용돈을 관리하면서 일상과 관련한 서비스를 이용할 수 있다. 지난 6월 말 기준 카드 결제액은 4375억원으로 1년 전보다 38% 증가했고, 가입자는 180만명을 넘어섰다. 만 14세 이상~18세 이하이던 가입 연령을 8월부터 만 7세 이상~18세 이하로 확대했다. 2021년 6월 내놓은 하나은행 아이부자는 체험형 금융 교육 플랫폼이다. 부모와 자녀가 각자의 휴대전화에 앱을 설치해 모바일로 용돈을 주고받는 등 각종 금융 활동을 할 수 있다. 선불카드인 ‘아이부자 카드’는 지난 5월 말 기준 누적 거래 건수와 누적 거래액이 각각 723만건, 235억원에 달했다.윤선영 연구위원은 “장기적인 관점에서 고객군을 안정적으로 확보하려면 은행별로 차별화를 통한 경쟁력 확보가 중요하다. 단편적인 관심 유발보다 이들이 은행에 기대하는 핵심가치, 즉 돈을 모으고 편리하게 쓸 수 있는 플랫폼을 만들어야 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023.09.02.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>"금융플랫폼 우리 것 쓰세요" [슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001122815?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>금융권, 앱 MAU 경쟁 치열 "비용 부담돼도 고객혜택 탑재""보험금 청구에 헬스케어 서비스까지 탑재…상품도 추천 받으세요"금융플랫폼이 나날이 진화하고 있습니다. 최근에는 마이데이터가 도입되면서 은행과 보험, 카드업권 경계가 무의미할 정도로 하나의 앱에서 모든 금융업무가 가능해졌죠. 각 금융사별로 여러 앱을 설치해 사용해도 되지만, 금융소비자 입장에서 너무나 많은 앱은 피로도를 높이기도 합니다. 때문에 웬만한 서비스가 한 번에 가능한 '만능 앱'이 소비자들의 사랑을 독차지할 수밖에 없습니다. 금융권에서 치열하게 진행 중인 플랫폼 경쟁, 들여다보겠습니다.◆ 너희 앱은 몇 명이나 써?플랫폼 앱 경쟁에서 가장 중요한 것은 당연히 금융사들이 보유하고 있는 고객 수입니다. 어떤 기업이든 '고객 수는 곧 실적'이라는 공식이 성립되죠. 하지만 최근 플랫폼 앱 경쟁의 기준이 되는 지표는 월간활성이용자수(MAU)입니다. 한 달간 얼마나 많은 사람들이 앱을 이용했는 지, 순수 이용자 수를 나타냅니다. 금융권에서는 토스 앱이 MAU 강자로 꼽힙니다. 토스는 계좌조회나 송금과 같은 토스뱅크를 통한 기본 금융서비스에 더해 보험청구서비스나 만보기, 행운퀴즈 등 포인트를 제공하는 다양한 부가서비스까지 탑재돼 있어 금융권의 대표 '만능앱'으로 불립니다. 앱 통계 분석기관인 모바일인덱스에 따르면 올 6월 기준으로 MAU 1,500만 명을 넘어서며 굳건한 1위를 지키고 있습니다.이 기간 경쟁사인 카카오뱅크 앱은 1,369만 명으로 2위를, KB국민은행의 스타뱅킹 앱은 1,222만 명, 신한은행의 SOL(쏠) 앱은 940만 명을 각각 나타냈습니다. 여기에 최근에는 네이버파이낸셜이 본격적인 '원스톱 금융플랫폼' 진출을 알리면서 더욱 치열한 경쟁이 예고되고 있습니다. 네이버의 MAU는 3,900만 명 수준으로 사실상 대부분의 국민이 사용하는 앱으로 꼽히는데, 네이버파이낸셜은 이 시너지를 통한 MAU 증대 효과를 기대하고 있습니다. ◆ 금융앱으로 만보기에 유전자검사까지금융앱은 어디까지 진화했을까요. 금융앱 강자인 토스는 만보기 기능을 통해 사용자들에게 혜택을 제공합니다. 일정 걸음 수를 충족할 때 마다 포인트를 주는 방식입니다. 내 차보험료를 조회할 수 있고, 금리가 낮은 대출로 비교와 갈아타기도 가능합니다. 토스증권 서비스를 비롯해 실손보험금 청구 서비스까지 탑재됐습니다.금융이 어촌과 만나다? 떠오르는 금융사가 있죠, 바로 수협은행입니다. 수협은행도 최근 치열하게 펼쳐지는 금융권 모바일 앱 주도권 경쟁에 참여했습니다. 어촌특화 비금융서비스 '바다GO!'입니다. 해안관광과 낚시 정보, 수산물 쇼핑 등에 대한 정보를 제공하는 것이 특징입니다.금융앱으로 유전자 검사가 가능해진다는 것, 알고 계셨나요. 금융서비스를 제공했던 뱅크샐러드 앱은 최근 탈모와 다이어트, 체질량, 영양소와 피부 등 63종의 유전자 검사 서비스까지 제공합니다. 검체키트가 배송되면 입안 양쪽을 긁어 용액에 넣고 회사로 보내주는 방식입니다. 여행자를 위한 금융앱도 등장합니다. 하나카드가 출시한 '트래블로그' 앱은 출시 1년 만에 가입자 수 200만명을 돌파하며 큰 인기를 얻고 있습니다. 트래블로그는 여행 특화 앱으로 18종의 통화 환전은 물론 여행비용 정산 기능, 해외여행과 관련된 쇼핑과 면세점 혜택, 여행자보험 가입까지 가능해 MZ세대 사이에서 여행 필수앱으로 꼽히고 있습니다.◆ 비용 들어도…"서비스 포기 못 해"금융앱에 다양한 서비스를 탑재하다보니 웃지 못할 해프닝도 벌어집니다. 토스앱의 '혜택' 탭을 누르면 이번주 미션, 행운복권, 라이브쇼핑, 행운퀴즈 등 소정의 미션만 수행하면 무료로 포인트를 주는 다양한 서비스들이 안내됩니다. 그 중 '친구와 함께 토스켜고'라는 일명 '함토켜' 서비스는 블루투스를 통해 주변 토스이용자를 검색해주고, 해당 이용자들을 클릭하면 포인트를 제공하는 토스의 대표 인기 서비스입니다.'함토켜'는 토스의 대표 인기 서비스인 동시에 대표적인 적자 서비스로도 알려져 있습니다. 이용자들의 앱 접속을 늘리기 위해 탑재한 서비스인데, 급격하게 늘어난 토스앱 이용자 수로 포인트 지급액이 점점 늘고 있어 웃지도, 울지도 못 할 상황에 놓였다는 설명입니다. 금융사 입장에선 MAU를 늘리기 위해 일정 부분 비용부담을 감내해야 하는 겁니다.플랫폼 주도권을 확보하기 위한 금융사간 기싸움도 감지됩니다. 최근 토스 앱 내에서 제공하는 '병원비 돌려받기(실손보험 청구)' 서비스 중 삼성화재 가입자들의 병원비 청구만 중단돼 있습니다. 삼성화재 측은 토스 서비스 중단 이유에 대해 "개인정보 보안과 보상서비스 품질향상을 위해 해당 서비스를 통한 접수를 받고 있지 않다"고 설명했습니다. 다만 일각에서는 삼성 금융계열사들이 힘을 합쳐 만든 금융앱 '모니모'가 별도로 있는 만큼, 모니모로 서비스를 집중해 효율성을 높이기 위한 전략도 내재돼 있을 것으로 보고 있습니다.★ 슬기로운 TIP생활서비스 외에 금융앱에서 쏠쏠하게 활용할 수 있는 서비스가 하나 더 있습니다. 바로 '국민비서' 서비스입니다. 국민비서는 건강검진 안내나 운전면허 적성검사 갱신, 교통범칙금과 교통과태료 납부기한 안내, 국세고지서 발송 등 정부부처가 발송하는 안내문이나 고지서 내용을 알려주는 서비스입니다. 종이 대신 앱으로 간편하게 확인이 가능해 행정처리 편의로 이어진다는 평가를 받고 있습니다. 행정정보 알림 종류는 지속 추가될 예정이며 나아가 국민비서 상담서비스까지 가능해질 전망입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>유니클로, 2023년 하반기 유니클로 신입사원 공개채용</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304738?sid=105</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>9월18일부터 서류 접수 가능패션 브랜드 유니클로가 9월18일부터 10월11일까지 2023년 하반기 신입사원 공채를 통해 UMC(유니클로 경영자 후보자, UNIQLO Manager Candidate)를 모집한다.유니클로 신입사원 채용 전형을 통해 선발되는 UMC는 영업 현장의 경험을 바탕으로 글로벌 경영자로 성장할 수 있는 직무다. 해당 직무 합격자에게는 매장관리, 상품관리, 손익 관리, 인사관리 등 유니클로의 경영자 후보자로서 성장할 수 있는 핵심 역량 교육이 병행되며, 이외에도 점장, 지역관리자, 본부 및 해외 근무 등 다양한 커리어를 쌓을 수 있는 기회가 주어진다.이번 공채를 통해 입사하는 신입 사원의 초봉은 상여금까지 포함해 약 5천만원 수준이다. 더불어, 리프레쉬 휴가, 포상금, 지방 근무 시 사택지원, 성과급 등의 다양한 복지 제도도 마련돼 있다.유니클로 하반기 채용유니클로는 이번 하반기 공채를 맞아 이달 19일부터 21일까지 3일간 인하대학교, 연세대학교, 동국대학교 등 6곳에서 캠퍼스 리크루팅을 진행한다. 10월 5일에는 취업 콘텐츠 플랫폼 '캐치'와 함께 유튜브 라이브 채용 설명회를 진행해 UMC 직무에 대한 소개 및 기업 철학과 문화, 복지 등에 대한 정보를 전달할 예정이다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근(구 당근마켓) ▲라인 ▲무신사 ▲야놀자 ▲오늘의집 ▲직방 ▲토스CX 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023.09.06.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>상반기 간편결제 하루 8400억원…삼성·애플페이 사용 늘었다</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004234868?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>상반기 전자지금서비스 이용 현황[서울경제] 올해 상반기 온라인 쇼핑 이용 규모가 급증하면서 간편결제 서비스 이용이 큰 폭으로 늘어난 것으로 나타났다. 애플페이가 3월 국내 도입된 데 이어 삼성페이 이용자 수도 늘어나면서 간편결제에서 휴대폰 제조사가 차지하는 비중도 점차 확대되고 있다. 6일 한국은행이 발표한 ‘2023년 상반기 중 전자지급서비스 이용 현황’에 따르면 올해 상반기 중 각종 페이 등 간편결제 서비스 이용 규모는 하루 평균 8451억 원으로 전년 동기 대비 16.9% 증가했다. 이용 규모는 2628만 건으로 13.4% 늘었다. 간편결제 서비스 이용이 늘어난 것은 온라인 쇼핑이 증가한 가운데 각종 페이로 결제하는 수요가 많아졌기 때문이다. 간편결제 서비스 이용금액을 제공업자별로 살펴보면 전자금융업자가 가장 높은 비중을 차지하고 있으나 휴대폰 제조사 비중이 2021년 상반기 22.1%에서 2022년 상반기 23.6%, 올해 상반기 25.1% 등으로 점차 확대됐다. 삼성페이와 애플페이, LG페이 이용자가 확대되는 양상이다. 토스, 네이버페이, 카카오페이 등 선불금을 기반으로 한 간편송금 서비스 이용 금액도 하루 평균 7461억 원으로 전년 동기 대비 23.9% 증가했다. 이용 규모도 610만 건으로 24.2% 늘었다. 지난해 1월 마이데이터 서비스 시행 이후 전자금융업자를 통한 금융소비자의 간편송금 서비스 이용이 확대된 영향이다. 전자지급결제대행 서비스(PG) 이용 규모도 빠르게 늘고 있다. 하루 이용 규모가 2510만 건으로 전년 동기 대비 8.1%, 이용 금액이 1조 1845억 원으로 16.0%씩 늘었다. PG 서비스 대부분을 차지하는 온라인 거래에서 신용카드 결제대행을 중심으로 이용 규모가 증가한 것으로 나타났다. 계좌 연동으로 미리 충전한 선불금으로 상거래 대금이나 교통요금을 지급하거나 송금할 수 있도록 하는 선불전자지급수단 서비스도 하루 평균 이용 금액이 9682억 원으로 전년 동기 대비 20.8% 급증했다. 전자금융업자의 간편결제나 간편송금 이용 규모가 성장세를 이어가고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>"MZ세대 개발자 모여"...점핏-삼성 강남, 개발자 클래스 연다</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002303874?sid=105</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>11월까지 매주 화요일 삼성 강남서 진행개발자 채용 플랫폼 점핏(대표 김용환)은 삼성전자와 함께 강남역 소재 '삼성 강남'에서 MZ세대 개발자를 위한 '점핏 클래스'를 개최한다고 4일 밝혔다.삼성 강남은 삼성전자가 운영하는 새로운 콘셉트의 체험형 플래그십 스토어다. MZ세대를 위한 플레이 그라운드를 콘셉트로, 제품 판매와 설명을 넘어 MZ세대를 위한 이벤트·클래스 등을 진행하며 MZ세대와 만나고 있다.11월까지 매주 화요일에 진행되는 점핏 클래스에서는 커리어 성장을 꿈꾸는 MZ세대 개발자 혹은 개발자로의 전직을 준비하는 직장인들을 위한 오프라인 강연이 이어질 예정이다.점핏9월에는 최인정 당근 앱 개발자가 '비전공자 출신 앱개발자 커리어 이야기'를 주제로 강연한다. 일반 사무직으로 근무하다가 당근 앱개발자로 직무를 바꾼 최인정 개발자는 비전공자가 개발 직무로 전환하기 위해 준비해야 할 점과 공부 노하우, 현업에 근무하면서 쌓은 성장 비결 등 비전공자의 성공적인 전직과 커리어 성장을 위한 실질적인 팁을 아낌없이 공유한다.10월부터 11월까지는 교보문고와 협업, 최신 IT 도서를 집필한 유명 시니어 개발자들이 번갈아 북콘서트 형식으로 강연을 펼친다. 도서 내용을 요약 정리하고, 기술 트렌드 소개 및 질의응답 등을 진행할 예정이다.점핏 클래스에 참여하고 싶은 인원은 점핏 또는 삼성닷컴의 삼성 강남 컬쳐랩 전용 페이지에서 사전 신청하면 된다. 한 회차에 20명을 선정한다. 강연 후 본인의 SNS에 클래스 참여 후기를 남기면 굿즈도 증정한다.점핏 강다슬 매니저는 "MZ세대 개발자들과 더 가까이에서 호흡하고, 실질적인 도움을 주고자 IT 업계 메카인 삼성 강남에서 정기 클래스 행사를 열게 됐다"며 "점핏 클래스가 MZ세대 개발자들과 예비 개발자들에게 커리어 성장의 꿈을 키우고, 실현하는 계기가 되길 바란다"고 말했다.잡테크 커넥팅 데이즈 이미지지디넷코리아는 9월25일부터 27일까지 삼성동 코엑스A 홀에서 ‘잡테크 커넥팅 데이즈’ 채용 브랜딩 페스티벌을 연다. 대중들에게 사랑받는 다수의 테크 기업들이 참여해 자사의 기업문화와 필요로 하는 인재상, 복지정책과 일하는 방식 등을 소개할 예정이다.국내·외 정보통신기술(ICT)의 미래를 한자리에서 확인할 수 있는 ‘대한민국 디지털 미래혁신대전 2023’과 함께 열리는 이번 채용 행사에는 ▲원티드랩 ▲제네시스랩 ▲나만의 닥터 ▲네이버 ▲당근(구 당근마켓) ▲라인 ▲무신사 ▲야놀자 ▲오늘의집 ▲직방 ▲토스CX 등이 참여한다.채용 정보와 직무 교육 등에 있어 인사이트를 주는 다양한 강연도 열릴 계획이다. 각 회사 인사/교육 담당자를 비롯해 취준생, 이직러 등이 참여해 서로 간의 정보 교류도 기대된다. 취준생들은 여러 기업들의 채용 관련 팁, 일하는 문화와 방식, 기업 철학 등을 파악해 자신의 진로를 선택하는 데 도움을 받을 수 있다. 이직을 생각하는 직장인들도 새로운 직장으로 옮기기 위해 필요한 업무 스킬과 자격 요건 등을 파악하는 기회가 될 수 있다.취업을 앞둔 대학생이나 휴직생, 이직을 고려하는 직장인들 모두 무료로 참석할 수 있다. 채용 브랜딩이 필요한 기업들은 [☞디지털 미래혁신대전 운영 사무국]을 통해 신청하면 된다. 관련 대학 또는 기관 참여도 가능하다. 보다 자세한 참여 안내는 네이버 검색창에서 '디지털 미래혁신대전'을 입력 후, 웹사이트에 방문하면 확인 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>토스뱅크, `전월세대출` 출시…인터넷銀 첫 `반환 보증·다자녀특례` 도입</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002823319?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>하반기 대출 라인업 강화최저 연 3.32%, 최대 2억2000만원 대출박신건 토스뱅크 PO가 5일 전월세보증금대출 출시 기자간담회에서 발표하고 있다. [사진=토스뱅크]    토스뱅크가 최대 2억2000만원까지 대출해 주는 '전월세보증금대출' 상품을 선보인다. 그동안 신용대출 중심으로 취급한 토스뱅크가 하반기 대출 라인업 강화에 나섰다.  토스뱅크는 인터넷전문은행 최초로 비대면으로 전세보증금반환보증까지 원스톱으로 신청할 수 있는 '전세지킴보증' 서비스와 함께 '다자녀 특례' 대출로 고객 선택권을 확대했다. 5일 토스뱅크에 따르면 이날 선보이는 전월세보증금대출에는 '토스뱅크 케어(Toss Bank Care)' 서비스를 도입했다. 토스뱅크 케어는 '토스뱅크가, 고객이 겪는 어려움을, 함께 고민하고 풀어나간다'는 의미가 담겼다. 해당 서비스는 △전세지킴보증 △다자녀 특례 대출 △등기변동알림 등 총 3가지로 구성됐다.우선 전세지킴보증은 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 한 서비스다. 해당 서비스는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 선보였다. 최저 연 0.02~0.04%의 보증료를 적용하며 고객의 안전을 보장하는 데 들어가는 비용을 최소화했다. 박신건 토스뱅크 PO(프로덕트 오너)는 "대학생 사회초년생 신혼부부들의 꿈과 희망이 담겨야 할 보금자리가 감당하기 힘든 전세사기 피해 등으로 다가올 수 있다는 현실에 착안해 해당 서비스를 기획했다"며 "전 은행권 중 비대면 서비스 최초 단독주택·빌라·다가구주택 등으로 전세지킴보증 보장의 범위도 넓혔다"고 설명했다.토스뱅크는 고객 선택권을 강화하기 위해 인터넷은행 최초로 '다자녀 특례' 대출도 시행한다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 고객이 대상으로, 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다.이번 대출 상품은 다자녀 특례 외에도 일반, 청년 등 맞춤형 상품이 있다. 이용자의 소득과 나이, 가족 구성원의 유무에 따라 최적화된 상품을 제안받을 수 있다.일반 대출은 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88% 한도로, 최대 2억2200만원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다. 일반 전월세보증금대출의 금리는 최저 3.32~5.19% 적용된다.청년의 경우 만 34세 이하이면서 동시에 무주택자를 대상으로 한다. 임차보증금의 90% 한도로, 최대 2억원의 대출이 이뤄진다. 청년 전월세보증금대출의 금리는 최저 3.42~4.06% 적용된다.토스뱅크는 등기변동알림 서비스를 통해 집주인의 재산상 정보 변동이 생길 때마다 토스 애플리케이션(앱)을 통해 푸시 알림을 제공한다. 집주인과의 계약이 체결된 이후 내가 살고 있는 집에, 혹은 살게 될 집에 변동사항이 생길 경우 고객에게 알림이 간다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다. 올 연말까지 전세지킴보증 가입 고객을 대상으로 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. 보증금이 2억원인 고객의 경우 부담해야 할 보증료는 최저 8만원에 달한다. 고객들은 프로모션 기간에 무료 가입할 수 있는 혜택을 받을 수 있다. 박신건 PO는 "토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획했다"며 "앞으로 '첫 독립을 위한 보금자리', '첫 신혼집', '사회에 첫 발을 내딛은 공간' 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께하겠다"고 말했다.토스뱅크가 최대 2억2000만원까지 대출해 주는 '전월세보증금대출'을 내놨다. [사진=토스뱅크]</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>토스, 포인트 정책 개편 예고...'짠테크족' 체감 혜택 달라지나</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003134823?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>현재 토스 만보기 서비스(왼쪽)화면과 개편 예정 화면토스가 포인트 리워드 정책 개편을 예고했다. '만보기' 서비스를 리뉴얼하고, '함께 토스 켜고 포인트 받기' 리워드 정책을 대폭 손질한다.토스는 이 달 14일부터 '만보기' 서비스를 일부 사용자를 대상으로 순차 리뉴얼을 시작, 10월 중순 전 사용자를 대상으로 서비스를 개편할 예정이다. 토스 만보기는 걸음 수 마다 토스 포인트를 지급하는 서비스로 2019년 출시됐다. '짠테크'족 인기를 끌며 지난해 기준 사용자 400만명을 돌파했다.이달 만보기 서비스는 사용자인터페이스(UI)·사용자경험(UX)을 중심으로 개편된다. 기존에는 1000·5000 ·10000걸음 기준 10·10·20원을 지급하던 방식이었다. 개편 이후에는 목표지점 마다 특정 걸음 수를 설정하고, 이를 달성하면 깃발이 생성되는 방식으로 변경된다. 생성된 깃발을 클릭해 랜덤 포인트를 지급받는 방식이다.만보기에서 주변 특정 장소를 방문해 포인트를 지급하던 '방문미션'과 쿠폰서비스는 종료된다. 대신 랜덤한 확률로 토스포인트 적립을 부스팅할 수 있는 아이템을 지급할 방침이다.함께 토스 켜고 포인트 받기 포인트 지급 정책도 개편할 예정이다. 해당 서비스는 반경 100m 안에서 토스를 켜고 주변에 함께 토스를 켠 사용자가 있으면 아이콘이 등장, 이를 클릭해 포인트를 획득하는 서비스다.두가지 서비스 정책 개편에 따라 고객 실질 체감 혜택이 줄어드는 것이 아닌가 하는 목소리가 나온다. 토스는 만보기 서비스 개편에 따라 기존 '고정 걸음 수·포인트 금액'이 아닌 매일 랜덤한 목표의 걸음 수와 이에 따른 랜덤한 액수의 토스 포인트를 지급하겠다고 밝혔다.최대 리워드는 현재 140원에서 1000원으로, 포인트 지급 횟수는 3번에서 7번으로 늘어나지만, 실제 리워드를 지급받는 금액은 크게 줄 전망이다.토스 관계자는 “단순한 걸음 수 보다 더 동기부여를 얻고 건강해질 수 있는 방안을 강구했다”며 “최종 걸음수를 1만보에서 2만보로 변경하고, 더 잦은 목표지점과 최대 리워드 기준을 상향해 고객이 만보기를 통해 건강해지는 즐거움을 얻을 수 있도록 개편했다”고 말했다.함께 토스 켜고 포인트 받기 포인트 혜택도 까다로워졌다는 평가다. 기존 20회 클릭까지 10원을 지급하던 방식에서, 개편 후 5회 클릭까지는 10원, 이후 20회까지는 친구 아이콘 10원, 비친구 아이콘은 3원으로 리워드 혜택 지급 조건이 변경된다. 친구 신청 조건 역시 '함께 토스 켜고 포인트 받기' 화면에서 2번 이상 만났을 때 가능하고, 상대방의 수락이 필요해 리워드 수령 요건이 훨씬 어려워질 것이라는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023.09.10.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>“닥터다이어리, 건강관리 즐겁게…헬스케어 슈퍼 앱 목표”</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000930864?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>[Interview] 송제윤 닥터다이어리 대표        “중학교 2학년 때 당뇨병 발병으로 인해 삶이 바뀌었다. 시작은 내가 가지고 있는 문제(질환)를 해결하기 위함이었지만, 이제는 동반 질환 전부를 아우르는 헬스케어 슈퍼 애플리케이션(앱)을 지향한다.”        디지털 헬스케어 스타트업인 닥터다이어리의 송제윤 대표는 최근 인터뷰에서 “본능을 참아야 한다는 건강관리의 특수성을 뛰어넘어 심각하지는 않으면서도 재미있게 건강관리를 돕는 헬스케어 앱이 되고자 한다”며 이같이 말했다. 구글 창구 프로그램 4기에 당선된 닥터다이어리는 당뇨·고혈압 환자의 혈압과 혈당을 기록하는 앱이다. 최근에는 B2B(기업 대 기업) 서비스인 기업 임직원 대상의 EAP(근로자 지원 프로그램)를 출시하고 비대면 일대일 코칭을 제공하는 등 한 단계 더 도약하고 있다.창업 계기는.”처음부터 창업을 목표로 했던 것은 아니다. 중학교 때 당뇨 진단을 받았던 게 인생의 전환점이었다. 모범생이었으나 질병 진단으로 결국 고등학교 2학년 때 자퇴했다. 막연하게 회사원이 되겠거니 싶었는데 대학 4학년 때 들었던 수업에서 관련 앱을 제작하면서 기왕이면 내가 가진 문제를 해결하는 플랫폼을 만들어 본 것이 시작이었다. 개인 스토리가 독특하다 보니 수십 개 대회에서 수상도 하고, 어느 순간 되돌릴 수 없는 강을 건너고 있었다. 이제는 당뇨뿐 아니라 동반 질환까지 전부를 아우르는 헬스케어 슈퍼 앱을 지향한다.”헬스케어 슈퍼 앱을 지향한 이유는.”우리나라엔 이른바 ‘슈퍼 앱’이 많다. 여행에서 마이리얼트립, 야놀자, 금융에서 토스 등 셀 수 없이 많은데 유독 헬스케어 부문에선 없다. 아마도 건강관리는 본능을 참아야 하기에 유저 유입이 제한적이기 때문이라고 생각했다. 우리가 한계를 넘어보고 싶다. 우리가 줄 수 있는 가치는 건강에 이상이 없는 일반인도 ‘건강해지고 있구나’라는 경험을 할 수 있도록 해주는 것이라고 생각한다. 심각하지는 않게, 더욱 재미있게 건강관리를 돕는 앱이 되려 한다.”스타트업을 운영하며 인상 깊었던 순간은.”코엑스에서 연간 한두 번씩 앱 유저들을 모아 전문 헬스케어 진단 등을 해준다. 당뇨라는 질병을 관리하는 건 너무 외롭고도 지루한 싸움이다. 여러 당뇨인이 만나서 소통할 수 있는 자리가 있다는 것을 좋아하는 사람이 많았다. 이런 모습을 볼 때마다 우리 회사가 존재할 만한 이유는 이 세상에 충분한 것 같다는 생각을 했다. 직원도 전원 ‘필참’이다. 이 행사를 할 때마다 자긍심을 느낀다.”구글 창구 프로그램을 통해 얻은 것은.”정부와 손잡고 글로벌 회사가 지원하는 프로그램이라서 많은 것을 얻을 수 있었다. 오프라인 모임을 통해서 선배들, 전문가들과 만나 도움이 되는 조언도 많이 얻었다. 직원들에게 동기부여도 됐다.”앞으로의 목표는.”기존엔 B2C(기업 대 소비자) 기반의 플랫폼이었던 반면에 올해 하반기부터는 B2B 확장도 적극적으로 하려 한다. 일본이나 미국과 달리 한국은 회사가 나서서 직원들의 삶의 질을 높이는 ‘건강 경영’이 시작 수준이다. 이와 관련한 좋은 경험을 선사하고 싶다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>토스뱅크, 최저 연 3.32% 전월세보증금 대출…맞춤형 제안</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000019275?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>[포토]소득·나이·구성원 따라 달라져인터넷전문은행 토스뱅크가 최저 연 3.32% 금리의 전월세보증금 대출을 출시한다. 토스뱅크는 5일 서울 여의도 콘래드호텔에서 간담회를 열고 이 같이 밝혔다.전월세보증금 대출은 일반, 청년, 다자녀특례로 구분되며 고객의 소득과 나이, 가족 구성원 유무에 따라 토스뱅크가 맞춤형으로 제안한다.일반은 고객 누구나 신청할 수 있는 상품이며, 다자녀특례는 미성년 자녀 수가 2명 이상인 고객이 대상이다. 다자녀특례는 소득, 부채수준과 무관하게 대출한도와 보증료를 우대한다.청년은 만 34세 이하 청년이면서 무주택자가 대상이다. 한도는 임차보증금 90% 범위에서 2억원까지다.이날 기준 대출금리는 일반·다자녀특례가 연 3.32%∼5.19%, 청년이 연 3.42∼4.06% 수준이다.토스뱅크는 '토스뱅크 케어'를 통해 전세보증금 반환보증 가입, 등기 변동 알림 서비스도 제공한다.토스뱅크는 올 연말까지 전세지킴보증 가입 고객을 대상으로 최대 10만원까지 보증료를 지원할 예정이다. 홍민택 토스뱅크 대표가 5일 오전 서울 영등포구 콘래드 서울에서 열린 '토스뱅크 전월세자금 대출 출시' 기자간담회에 참석해 경영 성과를 발표하고 있다./사진=이명근 기자 qwe123@ 박신건 토스뱅크 하우스론 프로덕트오너(PO)가 5일 여의도 콘래드호텔에서 열린 기자간담회에서 상품 발표를 하고 있다./사진=이명근 기자 qwe123@박신건 토스뱅크 하우스론 프로덕트오너(PO)가 5일 여의도 콘래드호텔에서 열린 기자간담회에서 상품 발표를 하고 있다./사진=이명근 기자 qwe123@박신건 토스뱅크 하우스론 프로덕트오너(PO)가 5일 여의도 콘래드호텔에서 열린 기자간담회에서 상품 발표를 하고 있다./사진=이명근 기자 qwe123@홍민택 토스뱅크 대표가 5일 오전 서울 영등포구 콘래드 서울에서 열린 '토스뱅크 전월세자금 대출 출시' 기자간담회에 참석해 경영 성과를 발표하고 있다./사진=이명근 기자 qwe123@홍민택 토스뱅크 대표가 5일 오전 서울 영등포구 콘래드 서울에서 열린 '토스뱅크 전월세자금 대출 출시' 기자간담회에 참석해 경영 성과를 발표하고 있다./사진=이명근 기자 qwe123@박신건 토스뱅크 하우스론 프로덕트오너(PO)가 5일 여의도 콘래드호텔에서 열린 기자간담회에서 상품 발표를 하고 있다./사진=이명근 기자 qwe123@</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>금융당국, 22일까지 5대 은행 주담대 등 가계대출 전방위 감독</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003300749?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14일 50년 만기 주담대와 관련해 DSR 산정 만기 개선 본격 압박50년 만기 주담대 취급액이 가장 많은 NH농협은행. 연합뉴스금융당국이 50년 만기 주택담보대출(주담대)을 취급한 은행들에 장기 대출의 총부채원리금상환비율(DSR) 산정 만기 개선을 본격적으로 압박하고 있다. 14일 금융권 등에 따르면 금융위원회는 장기 주담대의 DSR 산정 만기 개선 등 상환 능력심사와 관련한 행정 지도를 마련해 전날부터 시행에 들어갔다. 이는 은행들이 취급해온 50년 만기 주담대가 DSR 규제를 우회해 많은 대출을 받을 수 있다는 입소문이 나면서 가계 대출이 급증해 '가계 부채' 문제를 자극하고 있기 때문이다.금융위는 행정지도를 통해 은행들에 주택 및 오피스텔 등에 대해 대출 전 기간에 걸쳐 상환능력 확인이 어려운 경우 DSR 산정 만기를 최장 40년으로 제한하도록 했다. 차주별로 모든 대출 기간 중 상환능력이 명백히 인정되는 경우에는 50년 만기 등 실제 만기를 적용할 수 있도록 했다.다만 저축은행과 여신전문업, 상호금융의 경우 여신심사 가이드라인 및 자체 모범규준에 따라 실제 만기가 최대 30년으로 제한되는 만큼 DSR 산정 만기는 이를 초과할 수 없도록 했다.아울러 지난 12일까지 주택 또는 비주택 부동산의 매매 계약을 체결하고 계약금을 이미 납부한 사실을 증명한 차주나 금융사가 전산상 등록 등을 통해 대출 신청접수를 완료한 차주, 금융사로부터 대출만기 연장 통보를 받은 차주 등에 대해서는 종전 규정을 적용할 수 있도록 했다.금감원도 은행, 보험, 저축은행, 상호금융, 여신전문업의 관련 감독업무 시행 세칙 개정을 예고했다. 이번 세칙 개정은 DSR 산출 시 적용되는 만기 상한 도입, 장래 소득 관련 조문 등에 대한 정비를 위한 것이다.개정되는 세칙은 DSR 산출 시 부채 선정에 적용되는 대출 기간 중 충분한 상환 능력이 있는 경우 실제 대출 기간으로 하되 그렇지 않은 경우 최장 40년으로 설정하고 제도 변경에 따라 불이익이 생기는 경우를 막기 위해 경과 규정을 두기로 했다.또 금감원은 은행권의 가계대출 실태 점검에도 나서 오는 22일까지 국민은행, 신한은행, 우리은행, 하나은행, 농협은행, 수협은행, 카카오뱅크, 케이뱅크를 들여다보는 등 전방위 감독에 나섰다.이어 내달 11일부터 26일까지는 기업은행, 대구은행, 부산은행, 경남은행, 광주은행, 전북은행, SC제일은행, 토스뱅크의 대출 규제 준수 여부 등을 점검할 예정이다.한편 DSR 규제 우회 통로로 악용된 50년 만기 주담대를 가장 많이 신규 취급한 곳은 NH농협은행인 것으로 확인됐다.금감원이 더불어민주당 오기형 의원실에 제출한 자료에 따르면 8월 말 기준 50년 만기 주담대 신규 취급액은 총 8조3000억원이었다. 이 가운데 농협은행이 2조8000억원으로 전체의 33.7%를 차지했다.하나은행은 1조7000억원으로 전체의 20.5%로 집계됐다. 7월부터 이르게 50년 주담대를 도입한 농협은행과 하나은행의 취급액이 전체 50년 만기 주담대 신규 취급액의 절반을 넘을 정도로 집중됐다.김두용 기자 k2young@edaily.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>글로벌 웹3 리더가 온다…'KBW 2023' 최종 연사 라인업 공개</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004886884?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>사진=팩트블록글로벌 웹3.0 축제 '코리아 블록체인 위크 2023(KBW 2023)'의 최종 연사 라인업이 공개됐다.KBW 2023 주최사 팩트블록은 오는 9월 5~6일 양일 간 서울 신라호텔에서 개최되는 블록체인 콘퍼런스 'KBW 2023: 임팩트(IMPACT)'의 최종 연사 라인업 210명을 확정했다고 3일 밝혔다.'KBW2023: IMPACT'는 글로벌 블록체인 전문가들이 한 자리에 모여 업계 트렌드와 인사이트를 공유하는 자리다. 최종 연사에는 △비탈릭 부테린 이더리움 창시자(온라인 참여)  △ 마이크 벨시 비트고 최고경영자(CEO) △ 제레미 알레어 써클 공동 창업자 △장현국 위메이드 대표 △ 아서 헤이즈 비트맥스 공동창립자 △ 댄 헬드 트러스트 머신스 마케팅 고문 △ 파스칼 고티어 렛져 CEO △ 세르게이 나자로프 체인링크(LINK) 공동설립자 △에드 펠튼 오프체인랩스 창업자(아비트럼, ARB) △ 모 샤이크 앱토스(APT) 공동창업자 등이 포함됐다.비탈릭 부테린 이더리움 창시자는 오는 9월 5일 오전 기조연설을 통해 이더리움 생태계의 최근 동향에 대한 강연을 진행하며, 마이크 벨시 비트고 CEO는 디지털 자산 커스터디의 추세에 대한 강연에 나선다.미국 가상자산 규제 담당 기관으로 논의되고 있는 미 상품선물거래위원회(CFTC)의 캐롤라인 팸 위원도 연사로 참여한다. 팸 위원은 6일 오후 스테이지에서 '디지털자산 규정 준수, 규제 프레임워크에 대한 이해'라는 주제로 강연한다.이 외에도 마비노기, 메이플스토리 디렉터를 맡았던 황선영 넥슨 그룹장, 힐마 패터슨 CCP 게임즈 대표 등 블록체인 게임 산업 리더들의 발표도 이어진다. 올해 6회째 개최되는 'KBW2023: IMPACT'는 웹3.0 커뮤니티빌더 팩트블록이 설립해 주최하고 있으며, 블록체인 벤쳐캐피털 기업 해시드가 공동 주최한다.사진=팩트블록전선익 팩트블록 대표는 "KBW는 전 세계 블록체인 거장들의 인사이트가 가득한 축제"라며 "업계 리더들과 블록체인의 현재를 진단하고 미래를 혁신하는 기술에 대해 공유하는 좋은 기회가 될 것"이라고 밝혔다.김서준 해시드 대표는 "올해 KBW에는 전 세계 웹3.0 산업에서 가장 영향력 있는 연사들이 참여한다"라며 "메인 컨퍼런스 뿐 아니라 200개 이상의 사이드 이벤트를 통해 국내 웹3.0 커뮤니티와 해외 전문가들 사이에 의미 있는 비즈니스 협업 기회가 만들어 질 것으로 기대한다"고 말했다.한경닷컴 뉴스룸 open@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>멕시칸 ‘쌈, 마이웨이’[주식(酒食)탐구생활㉘]</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003246545?sid=103</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>여름 특식  타코 열풍여름을 대표하는 음식은? 이 질문에 자동 반사적으로 냉면, 콩국수 등을 떠올리겠지만 앞으로 여기에 하나를 더 추가해야 할 것 같다. 2030을 중심으로 큰 인기를 모으고 있는 ‘타코’다.타코는 동그랗고 납작한 토르티야(옥수수나 밀가루로 만드는 납작 빵의 일종)에 고기와 채소 따위를 싸서 먹는 멕시코 음식의 대표주자다. 고기와 채소를 푸짐하게 얹어 간편하고 든든한 끼니로 먹을 수 있는 음식. 길거리에 서서 먹어도 자연스러우며 시원한 맥주와 더할 나위 없는 궁합을 자랑한다. 이국적인 매콤함과 짭짤함이 어우러진 기름지고 자극적인 풍미는 나른하고 처지게 만드는 여름의 후텁지근함을 날려 버리기에도 좋다. 더위가 기승을 부린 올여름에도 서울 시내의 인기 타코 매장 앞에는 뙤약볕 아래 오픈런을 감행하는 사람들을 쉽게 발견할 수 있었다.타코가 생소한 메뉴는 아니다. 오래전부터 국내에서도 패밀리 레스토랑을 통해 타코를 비롯한 멕시코 음식이 알려졌다. 1990년대 초반 티지아이 프라이데이스, 칠리스 등 패밀리 레스토랑이 파히타, 타코 등 멕시코 음식들을 국내에 소개했다. 이후 패스트푸드 체인 타코벨이 들어왔고 2007년에는 케사디야, 엔칠라다, 부리토, 치미창가 등 낯선 메뉴들까지 다양하게 내놓은 온더보더 등이 문을 열었다. 서울 이태원이나 강남, 홍대 등지에 교포나 현지인이 운영하는 곳들도 생겨나며 멕시코 음식은 외식 메뉴의 한 장르로 자리 잡기 시작했다. 굳이 멕시코 음식 전문점이 아니더라도 캐주얼한 레스토랑이나 브런치카페, 호프, 심지어 이자카야에서도 멕시코 음식을 메뉴로 내놓는 곳을 쉽게 발견할 수 있다. 포만감을 주는 한 끼로 손색없는 데다 짭짤하고 자극적인 맛이 안주로도 그만이기 때문이다. 토르티야만 있으면 손쉽고 다양하게 변주할 수 있다. 토르티야를 튀기면 나초, 토르티야 위에 재료를 얹으면 타코, 속을 채워서 둘둘 말면 부리토, 속을 채워서 납작하게 접으면 케사디야, 토르티야에 마는 대신 내용물을 비빔밥처럼 비비면 부리토볼이 되는 식이다. 돈가스나 파스타, 떡볶이처럼 휘뚜루마뚜루 활용되어온 셈이다.슈가스컬의 타코 플래터그런데 최근 1~2년 사이에 전문화되고 생소한 메뉴를 선보이는 타케리아(타코를 파는 식당)가 많이 늘었다. 이는 미국 외식 트렌드와도 무관치 않다.타코는 미국에서 주류로 자리 잡은 메뉴다. 그중에서도 최근 몇년 사이 큰 인기를 얻으며 열풍을 일으키고 있는 것은 ‘비리아타코’다. ‘비리아’는 원래 멕시코 지역에서 고기와 향신료를 넣어 끓인 스튜를 말한다. 비리아타코는 스튜의 육즙이 풍부한 고기와 치즈, 채소 등을 토르티야에 싼 것으로, 철판에 바삭하게 굽거나 진한 스튜에 찍어 먹는다. 2000년대 초반 미국과 접한 멕시코 서북부 도시 티후아나의 가판대에서 시작되어 캘리포니아 지역 라틴계 커뮤니티에서 유행한 비리아타코는 인스타그램과 틱톡 등 사회관계망서비스를 통해 폭발적으로 확산되면서 2021년 미국 구글 검색 트렌드 1위를 차지했다. 당시 미국의 뉴스 매체 투데이닷컴의 표현에 따르면 “각계각층의 사람들이 비리아타코 한 입 먹고 싶어 아우성을 지르고 있다”고 할 정도였다.인스타그램에서 비리아타코를 검색하면 이를 즐기는 수많은 방법을 만날 수 있다.비리아 타코를 굽고 있는 모습서울 을지로 일대를 평정한 ‘올디스타코’는 미국 캘리포니아의 어느 골목에 온 듯한 외관으로 눈길을 끈다. 푸드트럭에서 파는 비리아타코를 맛보는 듯한 감성을 충족시켜주고 있어 2030세대의 취향을 제대로 저격한 곳으로 입소문이 났다. 종로와 반포에 매장을 둔 ‘슈가스컬’은 영화 &lt;코코&gt;에서 영감을 받은 독특한 인테리어로 방문객의 시선을 끈다. 저승과 이승을 콘셉트 삼아 공간을 분리해 마치 놀이공원에 방문한 듯한 재미와 호기심을 더해준다. 멕시코에서 직수입한 콘 토르티야를 사용해 내놓는 다양한 타코는 현지의 식감과 풍미를 느끼게 해준다. 비리아누들과 같은 흔치 않은 메뉴도 만날 수 있다. ‘살사리까’에서는 멕시코의 육개장 격인 포솔레, 전통 음료 오르차타, 고유의 칵테일 미첼라다 등을 맛볼 수 있다. ‘멕시칼리’는 비리아타코를 비롯해 흰 생선살로 만든 피시타코가 대표 메뉴다. 삼성동의 ‘비야게레로’는 돼지고기 및 껍질, 내장 등 다양한 부위를 토르티야에 싸 먹는 카르니타스 타코로 본토 맛을 구현했다는 평가를 받는 맛집이다. ‘라까예’ ‘타코스탠드’ 등도 ‘힙’한 타케리아로 꼽힌다. 라까예는 꼬치에 꿰어 익힌 돼지고기로 만드는 타코 알 파스토르를 내놓는다.비야게레로의 타코국내에서 쉽게 만날 수 있는 멕시코 음식은 미국인의 입맛에 맞게 변형된 텍스 멕스(텍사스 스타일 멕시코 음식)나 캘리 멕스(캘리포니아 스타일 멕시코 음식)가 상당수다. 멕시코 현지식은 상대적으로 드문 편이다. 멕시코에서는 주로 옥수수를 사용해 토르티야를 만든다면 미국식 멕시코 음식은 밀로 토르티야를 만드는 것이 일반적이다.납작한 토르티야에 고기·채소 싸 먹는 음식케사디야 등 손쉽고 다양하게 변주도 가능‘맵짠’ 자극적인 맛, 맥주와도 찰떡 궁합스튜에 찍어 먹는 ‘비리아타코’ 큰 인기 서울시내 유명 매장마다 오픈런은 필수멕시코 음식은 다양한 문화가 혼합되어 만들어낸 결과물이다. 라틴아메리카 고유의 음식에 스페인 및 유럽, 아랍의 요소들이 합쳐졌다. 최명호 부산외국어대 교수는 저서 &lt;멕시코를 맛보다&gt;에서 “1910년 멕시코 혁명은 멕시코의 여러 지역이 만나 본격적인 문화 교류가 시작된 분기점”이라면서 “이후 멕시코 음식이라는 보편적인 개념이 생겨나면서 세계 5대 요리로까지 발전, 확산됐다”고 썼다.앞서 언급했듯 타코는 가장 널리 알려진 멕시코 음식이다. 엄밀히 말하면 음식의 이름이라기보다는 무언가를 싸서 먹는 특정한 방식을 의미한다. 어떤 재료를 어떻게 조리했는지, 어떤 소스를 사용했는지에 따라 달라지므로 그 종류도 엄청나게 많다. 굽거나 튀기는 방식 대신 쪄서 만든 타코는 타코 카나스타, 김밥처럼 토르티야를 돌돌 말아 만든 것은 타코 도라도라고 한다. 싸는 재료로 주로 사용하는 것이 토르티야이나 다른 채소를 활용하기도 한다. 타코 데 레추가는 상추로 싸 먹는 타코로, 구글 검색을 통해 쉽게 레시피를 찾을 수 있다. 따지고 보면 우리식으로 쌈을 싸서 먹는 것도 큰 의미에선 타코인 셈이다.온갖 재료를 싸 먹는 타코타코 이상으로 멕시코 음식을 대표하는 키워드는 살사다. 스페인어로 소스를 의미하는 살사는 거의 모든 요리에 사용된다. 어떤 살사를 어떻게 사용해 먹는지에 따라 제각기 맛이 달라지므로 음식의 맛을 좌우한다고 해도 과언이 아니다. 타코만 해도 어떤 살사를 넣느냐에 따라 맛이 결정된다. 살사의 기본 재료는 토마토, 고추, 양파, 레몬 등으로 건강에 좋은 것으로 꼽히는 식재료다. 대체로 기름지고 열량이 높은 멕시코 음식의 단점을 상쇄하면서 풍미를 더해준다. 대표적인 살사로는 살사 메히카나, 살사 베르데, 치폴레, 과카몰레 등이 있다. 살사 메히카나는 토마토와 양파, 고추로 만든다. 멕시코의 국기를 구성하는 3가지 색깔(붉은색, 초록색, 흰색)과 같다 하여 살사 메히카나로 불린다. 재료들을 잘게 썰어 만드는데, 이 모양이 흡사 닭이 쪼아놓은 것 같다고 해서 피코 데 가이요라고도 한다. 상큼하고 매콤하며 시원한 맛을 낸다.살사 베르데는 녹색 토마토로 만든다. 일반 토마토보다 크기가 작고 조직이 단단하며 상큼한 맛이 강하다. 멕시코에서는 녹색 토마토를 토마티요라고 부른다.치폴레는 멕시코 원주민 말로 구운 고추, 혹은 훈제된 고추를 의미한다. 할라페뇨 고추를 주로 사용해 만드는 붉은색의 치폴레는 매콤한 맛을 내며, 핫소스의 원조로 여겨진다. 살사 로하(붉은 소스라는 뜻)라고도 한다. 과카몰레는 아보카도가 주재료다. 아보카도에 살사 메히카나를 섞거나 양파, 토마토, 고추를 원하는 스타일에 따라 넣어 섞어주면 된다.다양한 멕시코 요리. 과카몰레와 나초칩, 부리토, 화히타, 케사디야 (왼쪽 위부터 시계방향으로)시중에서 만날 수 있는 멕시코 음식 중 엔칠라다도 꽤 인기가 있다. 토르티야에 속을 채워 김밥처럼 만 뒤 매콤한 칠리소스를 발라 굽는다. 그 위에 치즈와 소스를 듬뿍 얹어 먹는다. 치미창가는 튀긴 부리토다. 패밀리 레스토랑을 통해 일찌감치 국내에 소개됐던 파히타는 각종 고기와 채소, 소스를 늘어놓고 직접 토르티야에 싸 먹는 요리를 말한다. 라이스페이퍼에 다양한 재료를 싸 먹는 월남쌈과 비슷한 개념으로 생각하면 된다.플라우타와 타키토스는 속을 채운 토르티야를 길고 가늘게 말아 튀겼다는 점에서 비슷하다. 굳이 차이를 따지자면 플라우타를 만드는 토르티야가 좀 더 크다. 타키토스용 토르티야는 옥수수로 만든 것을 사용한다. 이와 함께 반달 모양의 엠파나다는 만두와 비슷하다. 멕시코뿐 아니라 아르헨티나 등 라틴아메리카 전역과 스페인 등지에서도 많이 먹는다. 엠파나다는 프란치스코 교황이 좋아하는 음식으로도 잘 알려져 있다.을지로 올디스타코 앞에서 차례를 기다리는 사람들온더보더를 안착시킨 뒤 서울랜드 외식사업부로 옮겨 슈가스컬을 론칭한 김도형 상무는 “멕시코 음식은 매콤한 맛에 익숙한 한국인의 입맛에 잘 맞을 뿐 아니라 다양한 살사와 내용물을 어떻게 조합하고 선택하느냐에 따라 각자의 취향과 입맛에 맞는 수많은 버전을 즐길 수 있다”면서 “현지의 다양한 재료와 결합해 앞으로도 확장성이 더욱 커질 것으로 예상된다”고 말했다. 그는 이어 “미국의 외식 브랜드 중 ‘코자’는 한식의 인기가 높아지면서 불고기 등 한국 음식을 활용한 타코도 선보이고 있다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>토스 차세대 개발 프로젝트 '데우스' 추진…개발-디자인 모듈화 혁신 실험대</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003132364?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스가 신규 워크스페이스 '데우스(DEUS)' 프로젝트를 가동한다. 업계에 따르면 토스를 운영하는 비바리퍼블리카는 프로젝트 데우스를 구현할 UX 엔지니어 '데우스 에디터' 공개 모집을 개시했다.연극용어 '데우스 엑스 마키나'에서 따온 데우스 프로젝트는 디자이너와 개발자 생산성을 극대화하는 툴을 제작하는 것이 목표다. 디자인에서 상품 개발까지 과정을 최적화하고, 파격적인 이용자경험(UX)를 선사하는 '디지털 사옥'을 추구한다.데우스는 이용자인터페이스(UI) 디자인과 개발을 합친 개념이다. 자주 사용되는 UI 구성요소(컴포넌트)를 재활용 가능하고 조립가능한 형태로 공통화 해 라이브러리로 만든 것이다. 일종의 모듈화 시스템으로, 레고를 조립하는 것처럼 서비스를 구현하도록 지원하는 시스템을 의미한다.앞서 토스는 지난 2018년 말 내부적으로 'TDS(Toss design System)'라는 디자인 시스템을 구축했다. 토스는 TDS는 디자이너와 개발자가 동일한 UI 구성 요소를 사용해 소통 할 수 있도록 지원한다. 토스에 따르면 TDS는 토스 제품 개발 속도를 몇 배로 가속하는 효과로 이어졌고, 이용자에게도 일관되고 좋은 경험을 줄 수 있었다.토스는 데우스에서 한 단계 더 나아가 디자인 완성 즉시 그 결과물을 바로 사용 가능한 코드로 변경되도록 새 시스템을 구축했다. 분리되어 있던 UI 디자인과 UI개발을 사실상 한 단계로 압축한 것이다. 데우스에서 TDS를 진화시킨 것이다.토스는 디자이너 및 프론트엔드 개발자로 구성된 데우스 팀을 별도로 꾸려 지난 1년 동안 새로운 통합 제품 디자인 도구 개발에 매진해왔다. 데우스가 완성될 경우, 제품 개발 시간이 비약적으로 단축될 것으로 예상된다. AI 기반 화면 생성 등 다른 툴에서 구현할 수 없었던 기능이 포함되고, 데이터 애널리스트는 데이터를 확인하기 위한 설계를 디자인 과정에서 바로 구현 가능해진다.토스 관계자는 “데우스를 통해 비효율 발생 부분을 없애고, 토스는 사용자 경험에 훨씬 더 집중할 수 있을 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>금융당국, 카카오뱅크 등 인터넷銀 가계대출 현장점검 나서</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005308658?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>최근 주택담보대출을 폭발적으로 늘린 인터넷전문은행을 상대로 금융당국이 가계대출 현장 점검에 나선다. 금융감독원이 인터넷은행에 가계대출 현장점검을 나가는 것은 이번이 처음이다.3일 금융권에 따르면 금융감독원은 오는 4일부터 7일까지 카카오뱅크, 11일부터 14일까지 케이뱅크를 대상으로 가계대출 현장 점검을 실시한다.토스뱅크의 경우 주담대를 취급하지 않아 이번 현장점검 대상에서는 빠졌다. 토스뱅크는 이달 전·월세 대출을 출시할 예정이며, 내년 하반기쯤 주담대도 취급할 계획이다.금감원은 특히 인터넷은행의 주담대 대출 심사가 비대면으로 이뤄진다는 데 주목하고 있다. 금감원은 특히 여신 심사·리스크 관리가 대출 규정에 따라 제대로 이뤄지고 있는지, 주담대의 경우 평가 서류가 많은데 심사시스템이 잘 구현돼있는지를 집중적으로 들여다볼 계획으로 전해졌다.금융당국이 인터넷은행 주담대를 들여다보겠다고 나선 것은, 카카오뱅크와 케이뱅크가 올해 초 공격적인 영업을 이어가며 주담대 공급을 대폭 늘렸기 때문이다.이복현 금융감독원장은 지난달 "인터넷은행은 신파일러(금융거래 이력 부족자)에게 자금 공급한다는 정책적 목적이 있는데, 지금과 같은 주담대 쏠림이 제도와 합치되는지에 대해 비판적 시각이 있다"면서 "이런 것도 점검 대상이 될 것"이라고 말한 바 있다.은행권에 따르면 카카오뱅크의 주담대 잔액은 지난해 말 13조2960억원에서 6월 말 17조3220억원으로 4조260억원(30.3%) 불어났다. 케이뱅크의 주담대 잔액 역시 같은 기간 2조2930억원에서 3조7000억원으로 1조4070억원(61.4%) 늘었다. 카카오뱅크와 케이뱅크 두 곳에서만 상반기 동안 5조4360억원이 늘어난 셈이다.당국의 '주담대 압박'에 인터넷은행은 서둘러 대출 문턱을 높이고 있다. 카카오뱅크는 지난달 25일 50년 주담대 상품에 연령 조건을 신설한 데 이어, 지난달 30일부터 주택구입자금 주택담보대출 대상을 무주택자로 제한했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>금융당국, 은행권에 '장기대출 DSR 산정만기 개선' 압박</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002315722?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>금융위, 13일부터 금융권 행정지도 나서…12일까지 매매계약은 종전대로13일 금융당국 '가계부채 현황 점검회의'에서 50년만기 주담대 주범 지목이세훈 사무처장 "느슨한 대출형태 바로잡고, 과잉대출로 이어지지 않도록 해야"금감원도 은행권 가계대출 실태 점검 나서..."전방위 감독 예정" "최근 급증한 시중은행의 50년만기 주택담보대출(주담대)은 정책모기지와 무관하게 개별은행 자율적으로 출시한 상품으로 다주택자 등도 이용가능하고, 주로 혼합형 금리(약 92.9% 차지)로 취급되는 등 정책금융상품과 상이하게 운영되어 정책상품의 취지와 달리 DSR 우회수단으로 사용된 측면이 있다"...13일 금융위 관계자 발언   13일 금융위원회 이세훈 사무처장 주재로 기획재정부, 국토교통부, 한국은행, 금융감독원, 주택금융공사, 은행연합회, 금융연구원 등 유관기관과 함께 한 '가계부채 현황 점검회의'에서 참석자들은 은행권 주택담보대출 등을 중심으로 5~6조원 수준의 증가세가 지속되는 상황으로 진단하고 향후 가계부채 증가세가 보다 확대되지 않도록 면밀한 관리가 필요한 시점이라는 데에 의견을 같이한 것으로 전해졌다.   특히 이세훈 사무처장은 "가계부채 관리는 '상환능력 범위 내에서 빌리고, 처음부터 나누어 갚는' 기본적인 원칙을 일관되고 꾸준하게 이어가는 것이 무엇보다 중요하다"며 "50년 만기 대출 취급 등 과정에서 나타난 느슨한 대출행태를 바로잡기 위해서는 차주의 상환가능성을 면밀히 점검하고 과잉대출로 이어지지 않도록 세심히 관리하는 은행권의 역할이 무엇보다 필요하다"고 강조했다.   이에 금융당국이 과잉 대출을 야기하는 50년 만기 주담대를 취급한 은행들에 장기 대출의 총부채원리금상환비율(DSR) 산정 만기를 개선하라며 본격적으로 압박하고 나섰다.   14일 금융권 등에 따르면 금융위원회는 장기 주담대의 DSR 산정 만기 개선 등 상환 능력심사와 관련한 행정 지도를 마련해 전날부터 시행에 들어갔다.      ◆…5대 시중은행 사옥 전경［각사 제공 사진 합성］전날 금융위 관계자가 "원칙적으로 전 금융권(은행·보험·상호·여전·저축)에 적용된다. 13일부터 대출만기 설정 등과 관련한 전 금융권 행정지도를 실시할 예정"이라고 밝힌 부분이다.   금융위는 행정지도를 통해 은행들에 주택 및 오피스텔 등에 대해 대출 전 기간에 걸쳐 상환능력 확인이 어려운 경우 DSR 산정 만기를 최장 40년으로 제한하도록 했다. 다만, 저축은행과 여신전문업, 상호금융의 경우 여신심사 가이드라인 및 자체 모범규준에 따라 실제 만기가 최대 30년으로 제한되는 만큼 DSR 산정 만기는 이를 초과할 수 없도록 했다.   아울러 지난 12일까지 ▲주택 또는 비주택 부동산의 매매 계약을 체결하고 계약금을 이미 납부한 사실을 증명한 차주 ▲금융사가 전산상 등록 등을 통해 대출 신청접수를 완료한 차주 ▲금융사로부터 대출만기 연장 통보를 받은 차주 등에 대해서는 종전 규정을 적용할 수 있도록 했다.   금융감독원도 은행권의 가계대출 실태 점검에 나서 오는 22일까지 국민은행, 신한은행, 우리은행, 하나은행, 농협은행, 수협은행, 카카오뱅크, 케이뱅크를 들여다보는 등 전방위 감독에 나섰다.   이어 내달 11일부터 26일까지는 기업은행, 대구은행, 부산은행, 경남은행, 광주은행, 전북은행, SC제일은행, 토스뱅크의 대출 규제 준수 여부 등을 점검할 예정이다.   금감원 관계자는 "은행들의 가계대출 취급 실태를 점검해 내년 초에 은행권 대출 관행 제도 개선을 추진할 것"이라고 말했다.   한편 50년 만기 주담대를 가장 많이 신규 취급한 곳은 NH농협은행인 것으로 확인됐다.   금감원이 더불어민주당 오기형 의원실에 제출한 자료에 따르면 8월 말 기준 50년 만기 주담대 신규 취급액은 총 8조3천억원이었다. 이중 농협은행은 전체의 33.7%에 달하는 2조8천억원을 대출해 준 것으로 나타났다.   이어 하나은행이 1조7천억원(20.5%)으로 이들 두 은행에 집중된 것으로 드러났다. 수협은행(1조2천억원), KB국민은행(1조원), IBK기업은행(9천억원) 등도 1조원대 대출이 이루어졌다. 다만 5대 시중은행 가운데 신한은행과 우리은행은 1천억원으로 상대적으로 적었다. 지방은행의 경우 대구은행(2천억원), 경남은행(400억원), 전북은행(100억원), 광주은행(20억) 등의 순이었다.   연령별로 보면 40~50대가 4조7천억원으로 전체의 57.1%를 차지해 압도적으로 많았다. 30대 이하는 2조5천억원(29.9%)으로 집계됐다. 60대 이상에도 1조1천억원(12.9%) 판매됐다.   50년 만기 주담대는 지난해 10월 SC제일은행과 12월 광주은행이 도입했으며 올해 들어 상반기에 수협과 대구은행, 전북은행이 잇따라 취급하기 시작했다. 하반기 들어서는 농협은행, 국민은행, 기업은행, 부산은행, 카카오뱅크, 하나은행, 신한은행, 경남은행, 우리은행 등이 취급하면서 가계대출이 급증한 것으로 보인다.   다만, 당국의 압박에 농협은행과 기업은행, 경남은행, 부산은행 등이 50년만기 주담대 취급을 중단했고 하나은행도 이날부터 동참한다. SC제일은행과 광주은행, 카카오뱅크, 수협은행, 대구은행, 신한은행, 국민은행 등은 연령 제한 등을 두기로 했다.   전날 금융위 관계자는 '50년만기 주담대는 주택 매각 등으로 통상 만기 전에 상환한다. 대출 전 기간 상환능력을 감안하는 게 필요한가?'는 질문에 "주택 매각 등으로 중도 상환하는 걸 전제로 대출을 취급하는 건 적절한 여신 심사 관행으로 보기 어렵다"며 "스스로 상환하기 어려운 과도한 대출을 장기간에 걸쳐 이용할 경우 차주는 장기간 과도한 원리금 상환 부담을 지게 될 수 있고, 금리 상승·주택가격 하락이 이뤄질 경우 소득이나 주택매각으로도 대출 상환이 곤란한 상황에 처할 수 있다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023.09.10.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[전문가 기고] 핀테크가 화이트해커를 키우는 이유</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003134574?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>이종호 토스 보안기술 리더기업의 목표는 모든 분야에서 플러스(+)를 기록하는 것이다. 하지만 '제로(0)'를 목표로 하는 팀을 가진 기업이 있다. 구글이다. 구글에는 자체 해커팀 '프로젝트 제로(Project Zero)'가 있다. 프로젝트 제로팀은 모든 온라인 사용자의 안전과 보안을 향상시키기 위해 구글 제품 뿐만 아니라 세계적으로 사용되는 시스템에서 '제로 데이(Zero Day) 공격'을 찾아낸다.제로 데이 공격이란, 아직 알려지지 않았거나, 알려졌어도 해결되지 않은 보안 취약점을 이용한 해킹을 말한다. 프로젝트 제로팀은 이러한 취약점들을 보완해 세계 온라인 환경 안전성과 보안성을 향상시키는 연구를 진행한다.프로젝트 제로에는 세계 유수 해커들이 머리를 맞대고 있다. 이들은 악의적 목적으로 해킹을 진행하는 '블랙해커'가 아닌, 보안을 목적으로 해킹을 하는 '화이트해커'들이다. 화이트해커는 해킹으로 이어질 수 있는 단 하나의 문제라도 찾아내 고치기 위해 여러 시각에서 해킹을 시도하고, 가장 효율적 방법으로 보안을 지켜낸다.핀테크 업체 토스에도 화이트 해커로만 구성된 보안기술팀이 있다. 보안기술팀은 블랙해커 공격보다 한 발 앞서 잠재된 위협을 파악하고 보완하는 역할을 한다. 토스 앱 서비스뿐만 아니라 내부의 업무 시스템과 환경에서 발생할 수 있는 보안 위협까지 찾으며 이에 대한 대응을 진행한다. 해킹 기술을 이용하지만, 기술을 통해 서비스를 더 안전하게 만드는 것이다. 독립된 화이트해커 팀을 운영하는 것은 보안에 많은 투자를 하는 금융권에서도 보기 드문 사례다.때문에 보안기술팀은 해커의 공격자적 관점에서 서비스를 바라보며, 해킹이 발생할 수 있는 지점이라면 어디든 먼저 취약점을 찾고 대응 방안을 제시한다. 매일 레드팀(공격팀)과 블루팀(방어팀)으로 나눠 실전과 같은 공격과 방어 훈련을 실시하고, 언제 일어날지 모를 해킹에 대비해 출퇴근 시간도 정하지 않았다. 한밤중과 새벽에도 모의 해킹을 진행한다.공격은 곧 연구로 이어진다. 해외 해커들과 교류하며 새로운 해킹 기법을 파악하는 것이 대표적이다 토스 보안기술팀은 국내외 해킹대회와 컨퍼런스에도 주기적으로 참가해 해외 해커들과 교류하며 새로운 해킹 경향과 기술을 습득하는데 매진하고 있다.이러한 과정에서 때로 제품이 나오기도 한다. 대표적인 제품이 '토스 가드'다. 모의 해킹을 토대로 직접 개발한 보안 소프트웨어로, 토스 앱을 지키는 다양한 보안 기능을 갖췄다. '토스 가드' 기능 중 하나가 바로 악성 앱을 탐지하는 것이다. 토스 앱은 악성 앱을 자동 탐지하면 위험도에 따라 기능을 제한하거나 작동을 멈춘다. 그래서 일부 보이스 피싱 범죄자들은 피해자들에게 악성 앱 설치를 위해 토스 앱을 삭제할 것을 권고하기도 한다.토스 보안기술팀을 길게 소개한 이유는, 금융 서비스 보안 수준을 높이는 노력이 핀테크 업체 한 곳에 머물러서는 안되기 때문이다. 중요한 것은 우리나라 금융권 전반의 보안 수준이 향상되는 것이다.이를 위해서는 국가적으로 인력 양성이 필요하다. 많은 해커가 더 큰 시장과 좋은 조건을 찾아 미국 등 해외로 떠난다. 인력 유출을 막으려면 정부에서 관련 인력을 양성하고 국내 기업들이 화이트 해커를 많이 채용할 필요가 있다.토스가 최근 한국정보기술원과 업무 협약을 맺고, '차세대 보안리더 양성 프로그램(Best of the Best, BoB)'을 시작한 것은 이런 취지다.보안기술의 중요성이 더욱 대두되는 시대다. 특히 금융생활이 디지털화, 비대면화되면서 피싱, 스미싱, 파밍 등 해킹 용어들을 일반인들도 익숙하게 접하게 됐다. 블랙해커들은 목적 달성을 위해 수단과 방법을 가리지 않으며, 새로운 기술 변화에 맞게 학습하고 공격도 맞춤형으로 진화시켜 나가고 있다. 이들의 진화하는 공격에 효과적으로 대응하기 위해 업계 전반을 넘어 국가적인 노력이 반드시 필요하다.이종호 토스 보안기술 리더 securitytech@toss.im</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 "금융투자상품 광고, 새 수익원 실험 중"</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304086?sid=105</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>상반기 대출 연체율 1.56%…"예상한 수준"인터넷전문은행 '토스뱅크'가 새로운 수익모델로 금융투자 상품 광고를 활용하겠다는 전략을 밝혔다.또 토스뱅크는 올해 상반기 대출 연체율이 전년 동기 대비 올랐지만 관리 가능한 수준이고, 대손충당금 적립도 문제가 없다고 강조했다.5일 서울 여의도 콘래드호텔서 열린 기자간담회에서 홍민택 토스뱅크 대표는 "예대마진 외에 다양한 서비스를 제공하면서 발생하는 비이자 수익에 대한 사업 전략이 있는데, 고무적인 성과를 보이는 것이 자산관리 상품 광고"라고 말문을 열었다.토스뱅크 홍민택 대표가 5일 서울 여의도 콘래드호텔서 열린 기자간담회에서 말하고 있다.그는 이어 "토스뱅크의 현재 수신 잔액이 20조원이 넘는데 상대적으로 많은 예수금을 맡기는 고액자산가가 많다는 것을 출시 초기에 발견해 이에 맞는 투자상품을 소개하는 비즈니스 모델을 실험하고 있다"고 부연했따.현재 토스뱅크는 한국투자증권·삼성증권·미래에셋증궈 등과 투자상품 광고 제휴를 맺고 있는 상태다.홍 대표는 "토스뱅크 체크카드나 외환서비스, 공동대출 등 이제까지 존재한 부분서 다른 전략으로 접근하고 존재하지 않았던 부분을 발굴해 예대마진과 비이자이익을 늘리겠다"고 설명했다.토스뱅크 박신건 프로덕트오너(PO)는 외환서비스에 관해 "외국환거래 라이선스를 취득해 준비를 시작한지 오래됐다"며 "구체적으로 말하긴 어렵지만 외화를 바꾸고 사용하는 것을 단순한 형태로 간편하게 제공하는 것을 목적으로 진행 중"이라고 부연했다.토스뱅크 박신건 프로덕트오너가 5일 서울 여의도 콘래드호텔서 열린 기자간담회에서 말하고 있다.한편, 토스뱅크는 대출 연체율에 관해서 관리 가능한 수준이라고 답변했다. 올해 상반기 토스뱅크의 연체율은 1.56%로 전년 동기 대비 1.41%p 증가했다. 박 PO는 "연체율이 시중은행이나 타 인터넷전문은행에 비해 높은 숫자지만 토스뱅큐 연체율은 사업 초기 중·저신용자를 포용하겠다는 설립 취지에 따라 예상했던 수치"라고 말했다.이어 박 PO는 "연체율에도 불구하고 충당금을 쌓고 있고, 이익의 성장 기대할 수 있는지가 중요하다"며 "토스뱅크는 충당금 적립액은 높은 수준으로 하고 있고, 이익을 늘리고 있다"고 답했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023.09.14.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>'가계대출 주범' 50년 주담대, 농협은행이 가장 많이 팔았다</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000351134?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>금융당국이 가계대출 급증의 주범으로 지목한 50년 만기 주택담보대출을 가장 많이 신규로 취급한 곳은 NH농협은행이었던 것으로 나타났습니다.오늘(14일) 금융감독원이 더불어민주당 오기형 의원실에 제출한 자료에 따르면 지난달 말 기준 50년 만기 주담대 신규 취급액은 총 8조 3천억 원이었으며 이 가운데 농협은행이 2조 8천억 원으로 전체의 33.7%를 차지했습니다.하나은행은 1조 7천억 원으로 전체의 20.5%를 차지했고, 수협은행(1조 2천억 원), KB국민은행(1조 원), IBK기업은행(9천억 원) 등이 뒤를 이었습니다.5대 시중은행 중에선 신한은행과 우리은행은 1천억 원으로 50년 만기 주담대를 상대적으로 적게 취급했고, 지방은행에선 대구은행(2천억 원), 경남은행(400억 원), 전북은행(100억 원), 광주은행(20억 원) 등의 순이었습니다.연령별로 보면 40~50대가 4조 7천억 원, 전체의 57.1%로 절반 이상을 차지했고, 30대 이하는 2조 5천억 원(29.9%)으로 집계됐습니다. 60대 이상은 1조 1천억 원(12.9%)으로 나타났습니다.금융당국은 50년 만기 주담대가 상환해야 할 원리금을 낮춤으로써 총부채원리금상환비율(DSR) 규제를 우회하고 있다고 보고, 지난 13일 은행 등을 대상으로 대출 만기 설정 등과 관련한 행정 지도에 나선데 이어 관련 규정을 개정할 방침입니다.이와 함께 50년 만기 주담대와 관련해 금융권 자체 관리 강화를 요청하는 공문도 발송할 계획입니다. [금융감독원의 가계대출 점검 일정. (자료=금융감독원)]금감원은 오는 22일까지 국민은행, 신한은행, 우리은행, 하나은행, 농협은행, 수협은행, 카카오뱅크, 케이뱅크에 대한 가계대출 실태 점검에 나서고, 다음달 11~26일에는 기업은행, 대구은행, 부산은행, 경남은행, 광주은행, 전북은행, SC제일은행, 토스뱅크에 대한 점검을 진행할 예정입니다.금감원 관계자는 "은행들의 가계대출 취급 실태를 점검해 내년 초에 은행권 대출 관행 제도 개선을 추진할 것"이라고 말했습니다.당신의 제보가 뉴스로 만들어집니다.SBS Biz는 여러분의 제보를 기다리고 있습니다.홈페이지 = https://url.kr/9pghjn</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>롯데카드, 토스모바일 통신요금 할인 카드 출시</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314713?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>◆…롯데카드 제공롯데카드가 알뜰폰 사업자인 '토스모바일'의 통신요금을 할인해주는 'Toss Mobile X LOCA(토스모바일 X 로카)'를 출시했다고 4일 밝혔다.   이 카드는 카드 혜택과 프로모션 혜택을 통해 토스모바일 통신요금 자동이체 시 월 최대 2만5000원을 할인해주는 것이 특징이다.   발급월부터 24개월 간 지난달 이용금액이 30/70/150만원 이상인 경우 월 1만/1만5000/2만원을 할인해준다. 여기에 프로모션 혜택으로 발급월 포함 24개월 동안 이용금액 구간별로 9000/7000/5000원 할인을 추가로 제공한다.   카드 혜택에 프로모션 혜택을 더하면 지난달 이용금액에 따라 월 1만9000/2만2000/2만5000원을 할인 받을 수 있다. 발급월 포함 25개월부터는 지난달 이용금액이 30만원 이상인 경우 7000원 할인 혜택을 받을 수 있다.   프로모션 혜택은 내년 7월 31일까지 가입한 고객에게 제공되며, 연장 시 재공지된다.   연회비는 국내전용, 해외겸용 2만원이다. 카드 신청은 토스 앱과 롯데카드 홈페이지 및 디지로카앱에서 가능하다.   롯데카드 관계자는 "고물가 시대에 통신비를 아끼려는 고객이 많아짐에 따라 알뜰폰을 찾는 수요도 점차 증가하는 추세"라며 "토스 앱을 통해 쉽고 간편하게 가입할 수 있는 토스모바일 요금제를 더욱 부담 없는 가격에 이용할 수 있도록 이번 상품을 출시했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023.09.01.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>대통령실·안보실 퇴직자, 토스·쿠팡이츠行… 前서울시의원, 노원구공단이사장 취업 NO</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003389485?sid=102</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>퇴직공직자 4건 취업 불승인정부공직자윤리위원회가 지난 8월 퇴직 공직자의 재취업을 심사한 결과 2건에 대해 취업 제한, 4건은 취업 불승인 결정했다. 위원회는 퇴직 공직자가 취업 심사를 요청한 61건에 대한 심사 결과를 31일 공직윤리시스템 홈페이지에 공개했다.지난해 7월 국가안보실에서 퇴직한 전직 4급 상당 공무원은 쿠팡 계열사인 쿠팡이츠서비스로 취업을 신청해 ‘취업 가능’ 판단을 받았다. 퇴직 전 5년 동안 소속했던 부서·기관의 업무와 쿠팡이츠서비스에서의 업무 간 밀접한 관련성이 없는 것으로 판단됐다. 지난해 6월 퇴직한 대통령비서실 4급 상당 공무원은 토스 운영사 비바리퍼블리카에 취업 가능하다는 판정을 받았다.반면 퇴직 전 5년간 소속했던 부서 업무와 재취업하려는 기관 사이에 밀접한 업무 관련성이 있고 전문지식이나 공공이익 등을 고려해도 재취업을 승인할 사유가 없다고 판단된 4건은 ‘취업 불승인’ 결정됐다. 서울시 노원구서비스공단 이사장으로 재취업하려고 한 전직 서울시의회 의원, 한국정보통신진흥협회 사무국장으로 가려 한 전직 과학기술정보통신부 3급 공무원, 국방과학연구소 책임기술원으로 재취업을 원한 전직 해군 대령, 법무법인 ‘태평양’의 전문위원으로 재취업하려고 한 전직 검찰 5급 공무원 등 4명은 취업 불승인 통보를 받았다. DB손해보험 선임으로 재취업 심사를 요청한 전직 경찰청 경정 등 2명은 ‘취업 제한’이 결정됐다. 공직자윤리위는 취업 심사 대상임에도 사전 취업 심사를 거치지 않고 임의로 취업한 4건에 대해 관할 법원에 과태료 부과를 요청했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>은행권, 웹예능·드라마까지… '잘파' 잡기 총력전</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001231736?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>부산은행 '전준우를 이겨라' 등 웹예능 형태 콘텐츠 효자 노릇 시중은행선 아이돌 섭외하기도 미래 잠재 고객 확보 차원 풀이기성은행들이 새로운 경제 주류로 자리 잡고 있는 ‘잘파세대’를 겨냥한 유튜브 콘텐츠를 생산하고 있다. BNK부산은행 효자 콘텐츠로 자리매김한 ‘전준우를 이겨라’. BNK부산은행 유튜브 채널 캡처누적 3000만 뷰를 돌파한 KB국민은행 웹드라마. KB국민은행 유튜브 채널 캡처‘전준우를 이겨라 시즌2’ ‘짝사랑 끝내는 법’.전통적으로 금융 정보 위주의 콘텐츠를 게재해 오던 은행 공식 유튜브 채널에서 최근 인기를 끌고 있는 섬네일(미리보기) 화면 제목이다. 새로운 경제 주류로 자리 잡고 있는 ‘잘파세대(1990년대 중반부터 2000년대 초반 태어난 Z세대+2010년 이후 출생한 알파세대)’가 기성은행에 대한 관심도가 낮은 만큼 이를 극복하기 위해 총력전을 펼치고 있는 것이다.11일 BNK부산은행 공식 유튜브 채널에는 롯데 자이언츠와 협업한 ‘전준우를 이겨라 시즌2’ 영상이 다수 올라와 있다. 전준우, 김원중, 한동희, 박세웅, 최준용 등 롯데 자이언츠 소속 선수들이 출연해 PD가 내는 문제를 맞추는 웹예능이다. 해당 콘텐츠 조회수는 채널 구독자 5000여 명을 훌쩍 뛰어넘는 4만 회에 달할 정도로 효자 영상으로 자리매김한 모습이다. 이 외에도 부산 댄스팀 안무, 지역 가수 노래 영상 외에도 은행 내 직급별 브이로그 등의 다양한 컨셉의 영상들도 있다.BNK경남은행도 유튜브 주요 소비 계층인 잘파세대를 겨냥한 콘텐츠를 제작해오고 있다. 경남은행 신입 행원이 직접 출연해 출근길 소회부터 자신의 가방 또는 캐리어 안에 들어 있는 물건들을 소개해 주는 유튜브 문화 ‘왓츠 인 마이 백’, 연수 수업 내용까지 다양한 주제를 다뤘다.시중은행들은 지방은행보다 더욱 적극적으로 유튜브 콘텐츠 생산에 나서고 있는 분위기다. KB국민은행은 ‘글로벌 걸그룹’ 에스파가 출연한 웹드라마를 제작해 관심을 받았다. 국민은행을 이용하는 사람들의 데이터를 바탕으로 만들어진 가상 인물 ‘케이’가 살고있는 가상세계 ‘광야’에서 꿈과 사랑에 대해 고민하는 주인공들의 캠퍼스 판타지 로맨스를 다루고 있다. 총 누적 조회수 3000만 뷰를 넘어섰다. 또한 269만 구독 유튜버 ‘숏박스’와 협업해 ‘KB국민은행X숏박스’라는 콘텐츠도 제작했다.우리은행은 소개팅 형식을 빌려 젊은 세대의 경제 관념을 살펴보는 ‘초면에 실례지만’, 은행 약관을 백색소음(ASMR)으로 소개하는 ‘3초 딥슬립 ASMR’ 등을 제작했다.보수적인 성향이 강한 것으로 익히 알려진 은행권에서 이처럼 딱딱하지 않고 가벼운 주제의 영상 제작은 잘파세대를 향한 일종의 구애로 풀이된다. 하나은행 하나금융경영연구소가 지난 8월 30일 발간한 ‘잘파세대의 금융 인식과 거래 특징의 이해’ 보고서에 따르면, 미성년자 그룹에서 Z세대(중고생)는 주로 카카오뱅크와 토스 등 모바일 앱을 통해 금융거래를 시작했다. 실제 카카오뱅크의 청소년 선불카드 ‘미니’ 가입자 수는 지난 6월 말 기준 180만 명에 이른다. 토스의 청소년 선불카드인 ‘유스 카드’도 지난 6월 말 기준 116만 장이 발급됐다. 미니, 유스 카드 가입자 수는 각각 전체 14~18세 인구의 77%, 50%에 달한다.초등생들의 경우 부모와 함께 개설한 시중은행 계좌를 통해 금융거래를 시작하는 경우가 많았는데, 현행법상 14세 미만의 미성년자는 부모 동의하에 은행 계좌를 개설할 수 있다는 점을 감안하면 이들도 기성은행 이탈 가능성이 높을 것으로 보인다.이에 기존 은행들은 경쟁력 확보를 위해 미래 잠재 고객인 이들에 다가가는 것이 무엇보다 중요한 과제로 자리매김하게 된 상황이다. 지역 은행권 관계자는 “은행은 규제산업으로 불리는 만큼 미래 먹거리 확보에 있어 다양성에 제한될 수밖에 없는 상황”이라면서 “이에 결국 고객이 중요한데 지금 이미 미래 세대 확보를 향한 은행권 경쟁이 시작된 것 아니겠나”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023.09.03.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>거꾸로 가는 금융위 예산…가입 반감세 청년도약계좌에 1300억 증액?</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000047356?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>지난 6월 청년도약계좌 협약식 및 간담회에서 김주현 금융위원회 위원장(사진 앞줄 왼쪽), 박대출 국민의힘 정책위의장(사진 앞줄 가운데) 등이 참여하고 있다.(사진=블로터 강승혁 기자) 정부가 주도해 시중은행들이 내놓은 정책성 수신상품인 '청년도약계좌'의 가입자 수가 한 달만에 반감한 것과 달리, 해당 사업을 위한 금융위원회 예산은 되레 1000억원 넘게 늘었다. 수요와 역행하는 '예산 낭비'가 될 수 있다는 지적이 나온다.3일 서민금융진흥원에 따르면 올해 7월 청년도약계좌 가입신청자 중 가입이 가능하다고 안내받아 8월 7일부터 18일까지 계좌(1인 1계좌)를 개설한 청년은 총 12만5000명 규모다. 이는 7월 10일부터 21일까지의 청년도약계좌 개설자가 총 25만3000명인 것과 견줘 절반가량 줄어든 수치다.청년도약계좌는 월 최대 70만원씩 만기 5년 동안 납입할 경우 은행이 제공하는 연 6% 금리와 정부 지원금을 더해 5000만원의 목돈을 마련할 수 있다는 소구점을 내세우고 있다. 지난 6월 김소영 금융위원회 부위원장은 "청년도약계좌의 혜택을 합쳐서 합산하면 7~8% 후반으로 이는 일반 적금 수익률에 비해 최소 2배에서 2.5배 수준"이라고 강조한 바 있다.70만원이라는 목돈을 매달 5년간 꾸준히 입금하기 위해선 안정적인 소득이 요구된다. 그런데 청년층 고용불안은 갈수록 커져가는 실정이다. 통계청이 발표한 '2023년 1분기 임금근로 일자리동향' 자료를 보면 전체 임금근로 일자리는 2020만7000개로 1년 전보다 45만7000개 증가했지만, 연령대별로 △30대 3만8000개 △40대 3만5000개 △50대 14만1000개 △60대 이상 30만5000개로 고용시장이 고령층 위주로 활성화하는 모습이다. 오히려 20대 일자리는 6만1000개 감소했다.청년층 소득에 비해 부채의 증가 속도가 가파르다. 통계청의 가계금융복지조사에 따르면 29세 이하 가구주의 부채 보유액은 2021년 평균 3550만원에서 2022년 5014만원으로 1년 새 41.2% 급증했다. 같은 기간 29세 이하 가구주의 소득은 3648만원에서 3948만원으로 8.2% 늘었다.이러다보니 한도 100만원인 소액생계비대출도 정상상환이 이뤄지지 않는 실정이다. 김희곤 국민의힘 의원실이 서민금융진흥원에서 제출받은 자료에 따르면 지난달 4일 기준 소액생계비대출을 실행한 20대의 이자 미납률은 24.5%에 달했다. 이는 전 연령대서 가장 높은 수치다. 신용회복위원회에 따르면 개인워크아웃을 통해 채무 원금을 감면받은 20대는 올 상반기 기준 4654명으로 지난해 같은 기간보다 1145명 늘었다.짧은 만기 동안 낮은 예치액에도 높은 금리를 적용받을 수 있는 금융사 수신상품들이 잇따라 출시돼 청년들의 이목을 끌고 있다. 우리종합금융은 넷플릭스 인기 드라마 'DP'의 원작자인 김보통 작가와 손잡고 'DP 정기적금'을 내놨다. 최고 연 10% 금리를 제공하며 적금 만기는 6개월, 가입금액은 최고 20만원이다. 토스뱅크가 지난달 출시한 최고 연 5% '토스뱅크 자유 적금'은 MZ세대 호응에 힘입어 9일 만에 10만 계좌를 돌파했다.금융위는 청년도약계좌 가입 수요가 300만명에 달할 것으로 보고 올해 3678억원의 예산을 편성했다. 상품 출시 초창기로 관심이 몰리는 7~8월에 약 38만명의 가입 실적을 기록했다는 점에서 이 같은 수요 예측이 실패할 가능성이 거론된다. 청년층의 중장기 자산 형성을 지원한다는 정부의 정책 목표가 무색해질 수 있다는 뜻이다. 전 정부에서 출시된 '청년희망적금'의 전철을 밟을 수 있다는 우려도 제기된다.지난 29일 금융위는 내년 총 4조5000억원의 예산안을 편성하면서 청년도약계좌 예산으로 5000억원을 배정했다. 올해보다 약 1300억원 더 늘어난 규모다. 청년도약계좌 가입 확대를 위한 뚜렷한 대책을 내놓기도 전에 내년 예산을 더욱 확대했다는 점에서 금융위의 예산 편성과 기획재정부의 승인 절차가 제대로 건전하게 작동한 것이냐는 비판이 나온다.금융위 고위 관계자는 &lt;블로터&gt;로부터 가입자가 올해보다 늘어날 것이라는 걸 상정하고 증액을 한 것이냐는 질의를 받고 "그런 걸 생각해서 했을 것"이라며 "이자율을 더 준다든가 할 때 그 금액까지 산정해서 예산안에 반영을 한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2분기 은행 자본적정성 개선…보통주자본비율 0.08%p↑</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002314774?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>◆…서울 시내 은행 현금인출기 앞으로 시민이 지나가고 있다. [연합뉴스]6월말 국내은행의 자본비율이 3월말 대비 소폭 상승했다. 모든 은행의 자본비율이 규제비율을 웃돌며 양호한 수준을 유지한 것으로 나타났다.   금융감독원이 4일 발표한 '2023년 6월말 은행지주회사 및 은행 BIS기준 자본비율 현황'에 따르면 6월말 국내은행의 BIS(국내결제은행) 기준 보통주자본비율, 기본자본비율, 총자본비율, 단순기본자본비율은 각각 12.98%, 14.27%, 15.62%, 6.53%를 기록했다.   3월말 대비 각각 0.08%p, 0.01%p, 0.01%p, 0.04%p 상승한 수치다.   금감원은 "대출 증가로 위험가중자산이 확대(+1.7%)됐으나 분기순이익 시현, 후순위채 발행 등으로 자본도 증가(+1.8%)하면서 자본비율이 소폭 상승했다"고 분석했다.   모든 국내은행이 규제비율(보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%, 단순기본자본비율 3.0%)을 웃돌았다.   총자본 증가율이 위험가중자산 증가율을 상회한 5개 은행(씨티, 산업, 수출입, KB, DGB)은 전분기말 대비 총자본비율이 상승했다.   총자본이 소폭 감소하거나 상대적으로 위험가중자산 증가폭이 큰 12개 은행은 총자본비율이 하락했다. 카카오, 토스, 수협, SC, JB, BNK, 우리, 기업, 하나, 신한, 농협, 케이 등이다.   금감원 관계자는 "최근 환율·금리가 상승하는 등 금융시장 불확실성이 여전하고 중국 부동산 경기 부진 등 대내외 경제여건도 악화되고 있는 만큼 충분한 자본여력을 확보할 필요가 있다"며 "은행이 본연의 자금중개기능을 충실히 수행할 수 있도록 자본적정성 감독을 강화해 나갈 예정"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>베일 벗은 '토스뱅크 전월세대출'…지킴보증·등기변동알림·다자녀까지(종합)</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0007030531?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>세입자 보호 위한 안전장치 담아…다자녀 특례도 도입홍민택 대표 "주담대 출시는 아직…시장 환경 준비돼야 출시"출범 23개월을 맞은 토스뱅크가 최대 2억2200만원을 대출해주는 전월세보증금대출을 출시하며 포트폴리오 다변화에 나섰다.  홍민택 토스뱅크 대표. 2023.09.05./뉴스1 ⓒNews1 김정현 기자(서울=뉴스1) 김정현 문혜원 기자 = 출범 23개월을 맞은 토스뱅크가 최대 2억2200만원을 대출해주는 전월세보증금대출을 출시하며 포트폴리오 다변화에 나섰다. 토스뱅크는 이날 공동대출·외환 서비스·아이 서비스 등 차기 서비스 출시 계획도 함께 밝혔다.5일 토스뱅크는 서울 여의도 콘래드호텔에서 기자간담회를 열고 △전세지킴보증 △등기변동알림 △다자녀 특례 대출 등을 특징으로 하는 '토스뱅크 케어'를 도입한 전월세보증대출 상품을 발표했다.출범 23개월을 맞은 토스뱅크가 최대 2억2200만원을 대출해주는 전월세보증금대출을 출시하며 포트폴리오 다변화에 나섰다. 박신건 토스뱅크 하우스론 담당 프로덕트오너(PO). 2023.09.05./뉴스1 ⓒNews1 김정현 기자◇전세지킴보증·등기변동알림 등 세입자 보호하는 '토스뱅크 케어' 도입이번 상품의 '전세지킴보증'은 가입자들이 대출을 받은 후 '전세보증금반환보증'도 곧바로 신청할 수 있도록 했다.토스뱅크는 주택금융공사(HF)와 손잡고 비대면 서비스 최초로 단독주택, 빌라, 다가구주택까지 전세지킴보증 보장 범위를 넓혔으며, 최저 연 0.02~0.04%의 보증료를 적용해 기존 보증보험보다 최대 6분의 1 수준으로 저렴한 것이 특징이다.토스뱅크는 연말까지 전세지킴보증에 가입한 사람에게는 최대 10만원의 보증료를 지원하는 프로모션도 진행한다.부동산 권리 조사 서비스 기업인 ㈜리파인과 함께 무료로 제공하는 '등기변동알림'은 집주인과의 계약이 체결된 이후 내가 살고 있거나, 살게 될 집에 변동사항이 생길 경우 토스 애플리케이션(앱)을 통해 푸시 알림을 제공하는 서비스다.출범 23개월을 맞은 토스뱅크가 최대 2억2200만원을 대출해주는 전월세보증금대출을 출시하며 포트폴리오 다변화에 나섰다. 2023.09.05./뉴스1 ⓒNews1 김정현 기자◇토스 전월세대출, 인터넷은행 최초 다자녀 특례 도입…조달금리 미만도인터넷은행 최초로 '다자녀 특례 대출'도 도입했다. 다자녀 특례 대출은 미성년 자녀수가 2명 이상인 사람이 대상이며 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 소득이나 부채수준과 무관하게 대출한도 및 보증료 우대를 받을 수 있다.일반 대출은 누구나 신청할 수 있는 상품으로 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다.청년의 경우, 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로, 최대 2억원의 대출이 이뤄진다.일반·다자녀 특례 대출의 대출금리는 지난 4일 기준 연 3.32~5.19%, 청년 전월세보증금대출의 대출금리는 연 3.42~4.06% 수준으로, 가산금리는 각각 연 -0.37~1.50%, -0.27~0.37% 수준이었다.박신건 토스뱅크 하우스론 담당 프로덕트오너(PO)는 "금리의 경우 실수요자들이 부담없이 할 수 있도록 합리적 수준에서 결정했다"며 "토스뱅크에 무리가 가는 수준은 아니다"라고 밝혔다.88% 한도에 대해서도 "주택금융공사에서 보증하는 건 임차보증금의 80%까지"라며 "주금공이 대출금액의 90%를 보증서를 끊어주고 나머지 10%는 은행이 신용으로 커버하는데, 주금공의 임차보증 80%에 10%의 신용을 더해 88%를 제공하는 것"이라고 설명했다.출범 23개월을 맞은 토스뱅크가 최대 2억2200만원을 대출해주는 전월세보증금대출을 출시하며 포트폴리오 다변화에 나섰다. 2023.09.05./뉴스1 ⓒNews1 김정현 기자◇홍민택 대표 "주담대 시점 아직 미정…시장 환경 준비돼야"홍민택 토스뱅크 대표는 이날 수신과 여신, 결제 세 가지 분야에서 토스뱅크가 각각 준비 중으로 조만간 내놓을 △공동대출 △외환 서비스 △토스뱅크 아이 서비스 등도 공개했다공동대출은 토스뱅크의 고도화된 신용 평가 모형과 심사 전략을 활용해 지방은행들과 함께 하는 상생 모델인 '공동대출'은 토스뱅크와 제휴은행이 각각 50%를 담당해 대출을 실행하는 상품이다.또 환전과 해외 결제, 해외 송금, 외화통장·환전, 해외주식 연계계좌 등 '외환 관련 서비스'에서도 토스뱅크만의 해결책으로 제공할 수 있는 서비스를 준비하고 있다고 설명했다.마지막으로 소개한 '아이 서비스'는 부모가 아이를 위한 계좌나 금융상품을 개설하는 과정을 모두 토스 애플리케이션(앱) 안에서만 해결할 수 있도록 비대면으로 구현하는 서비스다. 적금 상품이나 체크카드 발급 등 포괄적인 서비스를 준비 중이다.이날 홍 대표는 주택담보대출 상품 출시에 대한 질문에 "구체적으로 공유할 수 있는 출시 계획이나 시점은 확정되지 않았다"며 "이미 많은 국민들께서 사용 중인 서비스라 시장도 크고, 전략적인 가치와 시장 환경이 준비돼 있을 때 출시할 수 있을 거라고 생각 중이다"라며 말을 아꼈다.가계부채 주담대에 포함되는 전월세보증금대출 상품 출시에 대해서는 "전월세보증금대출은 실거주 목적의 실수요 집중 상품이라 주담대와는 근본적으로 상품의 성격이 다르다"면서도 "가계부채 증가나 주담대가 급증하고 있는 상황에 대해 저희 팀도 잘 인지하고 있으며, 대출 실행 속도 등 여러가지 것들을 종합적으로 고려하며 진행할 예정"이라고 덧붙였다.또 최근 연체율 등 건전성 지표 대해서는 "2분기 연체율이 1.56%정도 되는데, 시중은행이나 타 인터넷은행에 비해 상대적으로 높아 우려가 있는 것을 인지하고 있다"면서도 "충당금을 가장 높은 수준으로 쌓고 있고, 이익을 낼 수 있고 성장하는 것을 증명했기 때문에 관리가 잘되고 있다고 말씀드리고 싶다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023.09.05.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>토스뱅크, 전월세대출 출시 “금리는 최저 연 3.32%”</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/243/0000049778?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>타행 대비 최대 87% 낮은 보증료집주인 재산 변동마다 ‘등기변동알림’인터넷은행 최초 다자녀특례 대출까지토스뱅크 본점 [사진 토스뱅크][이코노미스트 이용우 기자] 토스뱅크가 전월세보증금 대출을 선보인다. 비대면으로 전세보증금반환보증까지 원스톱으로 신청 가능한 서비스를 인터넷은행 최초로 도입하면서 고객들의 ‘전세사기’ 피해구제까지 빠르게 개선될 수 있을 것으로 보인다.5일 토스뱅크가 선보이는 전월세보증금대출은 ‘전세지킴보증’, ‘등기변동알림’, ‘다자녀 특례 대출’ 등 총 3가지로 구성됐다.토스뱅크는 일반 및 다자녀특례 전월세보증금대출 금리는 최저 3.32%(최고 5.19%), 청년 전월세보증금대출의 금리는 최저 3.42%(최고 4.06%)라고 밝혔다. 전세지킴보증으로 전세사기 구제 가능토스뱅크는 전월세보증금대출을 받은 후 전세보증금반환보증도 신청할 수 있도록 했다. 반환보증은 전세계약 종료 시 임대인이 임차인에게 전세보증금 반환을 책임지는 상품이다. 고객들은 토스뱅크에서 대출과 함께 보증에 가입하는 경험을 누릴 수 있다. 그동안 고객들은 반환보증을 신청하지 않는 경우가 적지 않았다. 이 때문에 전세사기 등 피해를 겪고도 구제받지 못하는 등 피해가 발생하고 있다. 토스뱅크는 대학생, 사회초년생, 신혼부부들이 감당하기 힘든 피해로 다가올 수 있다는 현실에 착안해 이 서비스를 기획했다.토스뱅크는 주택금융공사(HF)와 손잡고 인터넷은행 최초로 전세지킴보증을 도입했다. 고객의 혜택을 높이면서, 동시에 보증료를 절감해 고객 부담을 덜었다. 토스뱅크는 HF와 함께 최저 연 0.02~0.04%의 보증료를 적용해 고객의 안전을 보장하는 데 들어가는 비용을 최소화했다.올 연말까지 전세지킴보증 가입 고객을 대상으로 토스뱅크는 최대 10만원까지 보증료를 지원하는 프로모션도 진행한다. 서비스 대상은 대폭 확대했다. 전 은행권을 통틀어 비대면 서비스 최초 단독주택, 빌라, 다가구주택 등까지 전세지킴보증 보장의 범위를 넓혔다. 등기변동알림으로 정보 불투명성 사라져토스뱅크 집주인의 재산상 정보 변동이 생길 때마다 토스 앱을 통해 푸시 알림을 제공하는 서비스도 내놨다. 토스뱅크는 집주인이 바뀌거나, 집에 가압류가 들어오는 등의 변화가 있을 때 해당 변동을 수시로 알려주면서 정보에 대한 투명성을 높였다. 알림만으로는 안심하기 어려운 고객들을 위해 변동이 생긴 등기의 매 순간을 이미지로도 제공한다. 이 서비스는 토스뱅크가 부동산 권리 조사 서비스 기업인 ‘리파인’과 함께 무료로 제공한다. 인터넷은행 최초 ‘다자녀 특례’ 대출 선보여토스뱅크는 인터넷은행 최초로 ‘다자녀 특례 대출’을 통해 고객 선택권을 강화했다. 다자녀 특례 대출은 미성년 자녀 수가 2명 이상인 고객이 대상으로, 임차보증금의 88% 한도로 최대 2억2200만원까지 대출이 이뤄진다.토스뱅크 전월세보증금대출은 다자녀특례 외에 일반 및 청년으로 구성되지만, 고객의 소득과 나이, 가족 구성원의 유무에 따라 토스뱅크가 맞춤형으로 제안한다. 일반의 경우 고객 누구나 신청할 수 있는 상품으로 임차보증금의 88% 한도로, 최대 2억2200만원까지 대출이 이뤄진다. 단, 소득과 부채 비중 등이 적용된다. 청년의 경우, 만 34세 이하의 청년이면서 동시에 무주택자가 대상이다. 임차보증금의 90%한도로, 최대 2억원의 대출이 이뤄진다.이 같은 ‘맞춤형 대출 제안’에 따라 고객들은 자신에게 최적화된 대출서비스를 제안받고, 상품을 선택할 수 있게 된다. 가령 만 34세 이하이면서 무주택자이지만, 자녀를 2명 이상 둔 고객이라면 ‘청년’ ‘다자녀특례’ 상품을 모두 토스뱅크가 제안, 고객 스스로 선택할 수 있다.  토스뱅크 관계자는 “토스뱅크 케어를 통해 고객들의 불안감을 없애고 편리함과 안정감을 모두 지켜갈 수 있도록 이번 상품을 기획하게 됐다”며 “‘첫 독립을 위한 보금자리’ ‘첫 신혼집’ ‘사회에 첫발을 내딛은 공간’ 등 인생에서 눈부신 순간으로 기억될 수 있도록 토스뱅크가 함께 할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>먹방부터 웹드라마까지… 유튜브로 ‘잘파세대’ 공략하는 은행</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000930970?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>KB국민, 웹드라마 조회수 3000만회행원 토크쇼·스케치 코미디·먹방으로 소통 “딱딱한 이미지 탈피하고 미래 고객 선점”KB국민은행은 지난 7월 웹드라마 광야로 걸어가 2023를 공개했다. /KB국민은행 제공        최근 브이로그(V-log·일상을 동영상으로 촬영한 영상 콘텐츠)나 웹드라마 등 유튜브를 플랫폼으로 하는 콘텐츠를 제작하는 은행이 늘고 있다. 유튜브 영상에 친숙한 ‘잘파세대(1990년대 중반부터 2000년대 초반 태어난 Z세대와 2010년 이후 출생한 알파세대의 합성어)’ 고객을 겨냥해, 젊고 친근한 브랜드 이미지를 강조하려는 목적에서다.11일 은행권에 따르면 KB국민은행은 지난 7월 웹드라마 ‘광야로 걸어가 2023’을 공개했다. 이 드라마는 아바타 ‘케이’가 살고 있는 가상세계 광야를 배경으로 꿈과 사랑에 대해 고민하는 주인공의 로맨스 판타지를 다루고 있다. 이 드라마에는 SM엔터테인먼트 소속 걸그룹인 에스파 멤버들이 출연했다. KB국민은행은 드라마 출시 한 달 반 만에 누적 조회수가 3000만회를 넘어서며 큰 흥행을 거뒀다고 밝혔다.KB국민은행은 또 인기 유튜버 ‘숏박스’와 협업해 ‘KB국민은행X숏박스’라는 콘텐츠도 제작했다. 숏박스는 현실 커플, 남매 등을 생생히 묘사하는 ‘스케치 코미디’로 잘파세대 사이에서 큰 인기를 끌고 있다. KB국민은행은 숏박스 멤버들이 새내기, 이별, 직장인을 주제로 스케치 코미디를 하며 KB국민은행의 상품이나 서비스를 홍보하는 영상을 제작해 게재했다. 해당 시리즈 영상은 모두 조회 수 100만회를 넘기며 흥행에 성공했다.우리은행도 잘파세대를 타깃으로 유튜브 콘텐츠를 제작해 왔다. 우리은행에서 근무하는 행원들이 직접 출연하는 ‘은근남녀+’는 라이프스타일, 연애, 소비습관, 노후자금 등 다양한 주제를 다뤘다. 이 밖에도 우리은행은 소개팅을 통해 젊은 세대의 경제 관념을 소개하는 ‘초면에 실례지만’, 은행 약관을 백색소음(ASMR)으로 소개하는 ‘3초 딥슬립 ASMR’ 등도 제작했다.신한은행은 동네 배달 맛집을 검증하고 추천하는 먹방 콘텐츠 ‘식구땡’을 선보이고 있다. 신한은행은 자체 배달앱 ‘땡겨요’의 리뷰를 바탕으로 맛집을 선정한다. 출연진은 식당 음식에 대한 평가를 내리고 주문 요령 등을 소개한다.하나은행도 스케치 코미디 ‘하나연금닥터’를 통해 자사 제품을 홍보하고 있다. 또 두 룸메이트가 동고동락하는 웹드라마 ‘아슬아슬 룸메이트’, 하나은행 행원의 토크쇼인 ‘하나톡티비’ 등의 콘텐츠를 제작 중이다.왼쪽부터 하나은행 '아슬아슬 룸메이트', 우리은행 '은근남녀+', 신한은행 '식구땡'. /각 사 제공        시중은행이 제작하는 유튜브 콘텐츠의 주요 타깃은 잘파세대다. 잘파세대는 디지털 기기에 익숙한 환경에서 성장한 만큼 영상 매체가 친숙하다. 이들은 TV, 잡지 등 전통적인 매체보다 유튜브, 틱톡 등 스마트폰 기반 소셜미디어를 선호한다.모바일인덱스에 따르면 지난 7월 기준 유튜브 월간 활성 사용자 수(MAU)는 4115만명으로 나타났는데, 이 중 상당수 사용자들이 잘파세대인 것으로 집계됐다.시중은행이 잘파세대 공략에 공을 들이는 데는 인터넷전문은행과의 경쟁에서 승리하겠다는 목적도 있다.현재 잘파세대는 딱딱하고 오래된 이미지의 시중은행보다 젊은 감각을 내세운 인터넷은행에 더 친숙함을 느끼는 것으로 전해졌다. 실제 카카오뱅크의 청소년 선불카드 ‘미니’ 가입자 수는 지난 6월 말 기준 180만명에 이른다. 토스의 청소년 선불카드인 ‘유스 카드’도 지난 6월 말 기준 116만장이 발급됐다. 미니, 유스 카드 가입자 수는 각각 전체 만 14~18세 인구의 77%, 50%에 달한다.은행들은 미래 잠재 고객 확보를 위해 젊고 친근한 이미지를 만들어야 하는 상황이다. 청소년기에 첫 거래하는 은행이 성인이 된 후 주거래 은행으로 이어지는 경우가 많기 때문이다. 카카오뱅크의 경우 만 19~20세 미니 이용 고객 중 계좌까지 카카오뱅크에서 개설한 고객의 비중은 70%에 이르는 것으로 전해졌다.은행권 관계자는 “딱딱하고 어려운 금융 관련 정보나 지식은 잘파세대가 흥미를 느낄 만한 주제는 아니다”라며 “미래 잠재 고객이 될 이들을 공략하려면 흥미 위주의 콘텐츠로 접근하는 것이 효과적이다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023.09.12.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>"플랫폼-입점업체 상생이 비즈니스 핵심…규제 신중해야"</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002304863?sid=105</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>12일 한국인터넷기업협회 주최 굿인터넷클럽 개최…"플랫폼 입점, 선택 아닌 필수"‘네카쿠배당토(네이버·카카오·쿠팡·배달의민족·당근마켓·토스)’ 등 국내 플랫폼 기업들과 입점 사업자 간 상생 관계 구축이 곧, 회사 비즈니스모델(BM)로 직결될 만큼 중요한 키워드라고 학계 전문가들은 목소리를 높였다. 정치권 내 플랫폼 규제 움직임을 놓고 신중을 기해야 한다는 주장도 나왔다.12일 한국인터넷기업협회 주최로 열린 굿인터넷클럽에서는 ‘플랫폼 경제에서 함께 살아간다는 것’을 주제로 김민호 성균관대학교 법학전문대학원 교수가 사회를 맡아 업계 관계자들이 의견을 주고받는 자리를 가졌다. 박민수 성균관대 글로벌경제학과 교수와 엄영호 동의대 교수, 신순교 플랫폼입점사업자협회 정책국장이 참여했다.이들은 플랫폼이 입점업주 매출 증대와 판로 개척 등에 긍정적인 역할을 한다는 데 의견을 같이 했다. 신순교 국장은 “많은 (입점) 사업자가 온오프라인 병행 형태로 사업을 영위하고 있다”며 “플랫폼은 상대적으로 저렴한 비용으로 소비자들에게 기회를 제공하고, 중소상공인 수익성 증진과 서비스 개선에 이바지하고 있다”고 말했다.12일 한국인터넷기업협회 주최로 열린 '굿인터넷클럽'. 왼쪽부터 김민호 성균관대학교 법학전문대학원 교수, 박민수 성균관대 글로벌 경제학과 교수, 엄영호 동의대 교수, 신순교 플랫폼입점사업자협회 정책국장.플랫폼 입점이 선택이 아닌 필수라는 입장도 내비쳤다. 신 국장은 “플랫폼 입점에 대해 사업자들은 대개 ‘모두 좋다’고 대답한다”며 “영세 중소상공인 기준 플랫폼 병행 사업자와 오프라인만 운영하는 업주들 사이 매출 신장에서 큰 차이를 보인다”고 강조했다.플랫폼과 입점업체 상생이 이용자 규모를 늘리고, 결과적으로 사회적 가치를 제고한다는 견해도 있다. 엄영호 교수는 “플랫폼 기업들이 보유 기술만으로 성공하는 시대가 아니다”며 “외부 환경에 적응하고 이로부터 정당성을 확보한다는 점에서 상생 가치가 기업 생존으로 이어지는 형태”라고 했다.입점업체와 공생이 기업 BM으로 연결된다는 설명이다. 엄 교수는 “플랫폼 기업들에 팬데믹은 위기이자, 동시에 새로운 기회를 찾고 BM을 발굴하는 등 여러 전략을 모색할 수 있던 모멘텀”이라며 “그간 직접적인 관계 형성이 중요했다면, 상대적으로 이해관계가 낮던 주체들에게도 집중할 수 있게 됐다”고 했다.(사진=지디넷코리아)독거노인을 대상으로 한 인공지능(AI) 기반 스피커 등이 대표적인 예다. 이전에는 어르신들이 플랫폼 기업에 직접 판매와 연관되지 않은 이해관계자였다면, 이제는 사회적 가치 창출과 상생이라는 관점에서 중요한 소비층이 됐다는 얘기다."정부 규제, 국내 기업에 대한 역차별 초래…소상공인 설 곳 없어져"전문가들은 플랫폼 기업을 둘러싼 정치권 규제 칼날에 대한 시각도 드러냈다. 현재 국내에서는 플랫폼 기업을 겨냥한 20개 가까운 온라인 플랫폼 규제안이 국회 계류 중이다. 윤석열 정부 공정거래위원회는 올 초 ‘플랫폼 독과점 규율 개선 전문가 태스크포스(TF)’를 꾸렸다. 이 TF는 최근까지 제재 방안을 논의했으며, 조만간 주요 방향과 계획을 발표할 예정이다.유럽연합(EU) 디지털시장법(DMA)과 유사한 사전규제 방식이다. 정부 규제가 국내 기업에 대한 역차별을 초래할 것이라는 우려가 나온다. 박민수 교수는 “규제를 가하면 제약을 많이 받는 건 빅테크가 아닌 네이버, 카카오 등 국내 플랫폼”이라며 “규제 형평성에 어긋날 수 있다”고 제언했다.신순교 국장 역시 “무리한 규제로 내수 플랫폼 시장이 쇠퇴하면 소상공인들은 설 곳이 없어진다”며 “자율규제를 통한 수수료 동결과 비용 지원, 빠른 대금 정산 등 이들이 생계를 유지해 나갈 직접적인 지원책을 마련하는 데 정부와 국회에서 관심 두길 바란다”고 했다.(사진=지디넷코리아)규제로 인해 국내 기업들이 시장 주도권을 뺏긴 뒤 빅테크에 의존하는 구조로 흘러간다면, 생태계를 망가뜨릴 가능성이 농후하다는 지적이다. 박 교수는 “이미 국내에는 공정거래법을 비롯한 여러 제재안이 존재한다”며 “플랫폼이 시장 지위를 남용해 입점 사업자와 이용자에게 피해를 주면, 기존 법들로도도 해결 가능하다”고 했다.박 교수는 “현행법상 규제 불가능한 영역이 있는지 따져보고 법안을 내놓아야 하는데, 이는 경험해 본 결과 드물다”고도 했다. 엄 교수는 “규제와 사회 환경 변화에는 시차가 존재한다”며 “플랫폼 기업 특장점은 빠른 변화에 따른 대응력으로, 정부에서도 이를 극대화할 필요가 있다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>대출 라인업 강화 토스뱅크, 주담대는 언제쯤?</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005567145?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>5일 전·월세대출 발표…여신 포트폴리오 강화하반기 중 지방은행과 공동대출 출시 계획도카뱅 성장률 끌어올린 '주담대'…출시시점 고민[이데일리 정병묵 기자] 토스뱅크가 신규 여신 상품 출시를 통해 대출 포트폴리오를 강화한다. 인터넷뱅크 3사 중 유일하게 취급하고 있지 않은 주택담보대출(주담대) 카드도 언제 꺼낼 지 관심을 모은다.토스뱅크는 5일 서울 여의도 콘래드호텔에서 ‘전·월세자금 대출 상품’ 출시를 발표한다. 토스 측은 “기존 상품들과 차별화되고 그간 토스가 보여온 혁신과 도전의 노력이 반영되어 있는 상품이라고 자부한다”라고 전했다.토스는 동사는 하반기 중 신규 여신 출시를 통해 여신 포트폴리오를 강화할 계획이다. 이번 전·월세 대출 출시에 이어 하반기 중 지방은행과 함께하는 공동대출 출시를 목표로 하고 있는 것으로 알려졌다.은행업계에 따르면 토스뱅크의 대출 평균금리는 7.31%로 카카오뱅크 및 케이뱅크의 5.43%, 5.81% 대비 높다. 상대적으로 금리가 낮은 전·월세 대출 및 주택담보대출을 취급하지 않아 신용대출 비중이 높기 때문이다. 특히, 타행 대비 중저신용 차주 비중도 높다. 이번 신상품 출시는 토스뱅크에 대출 라인업 확대에 따라 타행과 대출금리 격차를 좁힐 기회다.대출 상품의 또다른 중요한 축인 주담대의 경우 고심이 깊다. 토스뱅크는 인터넷뱅크 3사 중 유일하게 주담대 상품을 취급하지 않고 있음. 주담대를 공격적으로 실행했던 카카오뱅크(323410)가 대출 성장률과 점유율을 빠르게 높여가고 있기 때문에 토스뱅크도 이를 두고 볼 수만은 없는 상황이다.금융업계 관계자는 “카카오뱅크가 주담대 판매를 통해 성장률 및 점유율을 확대는 물론, 상대적으로 안정성이 높은 주담대 비중을 높혀 건전성 지표 개선 등의 긍정적 효과를 누리고 있다”며 “토스뱅크도 포트폴리오 다변화 관점에서 충분히 출시를 고민할 여지가 크다”고 전했다.다만 토스뱅크는 최근 50년 만기 주담대와 관련된 논란에 부담을 느끼고 있을 것으로 보인다. 금융당국은 50년 만기 주담대를 가계부채 폭증 원흉으로 지목, 조만간 은행권에 만기 기간을 축소하도록 가이드라인을 내릴 방침이다. 한 금융권 고위 관계자는 “토스뱅크가 주담대에 관심을 갖고 있는 것은 맞으나 지금은 잇단 50년 만기 논란으로 시기가 좋지 않다”며 “추후 주담대 상품을 출시하게 된다면 대환 쪽으로 우선 시작할 가능성이 크다”라고 업급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>20년간 1500% 뛴 인도 증시…빌딩 높아진만큼 기업가치도 올라갔다</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004887532?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>印 성장세 타고…센섹스지수 '고공행진'국가기반시설 이제 막 구축해정유 등 구경제 기업이 증시 주도일각 "증시 과열" 진단 내놓지만장기적으로 보면 지금이 저점韓 증권사들 '직구 서비스' 준비지난달 21일 도착한 인도 금융도시 뭄바이는 거대한 건설 현장을 떠올리게 했다. 도시 곳곳에서 지하철 공사가 진행되고 있었고, 해안지구 너머로 보이는 스카이라인에서는 초고층 빌딩이 올라가고 있었다. 택시에서 만난 라훌씨(29)는 인도가 달 탐사선을 발사한다며 기대에 부풀어 있었다.인도 주식시장은 뭄바이의 발전상을 고스란히 반영하고 있다. 인도 대표 주가지수인 센섹스지수는 지난 20년간 15배 상승했다. 같은 기간 미국 S&amp;P500은 4.4배. 코스피지수는 3.3배 올랐다. 상승세는 구경제 기업이 주도하고 있었다. 한국전력이 대장주였던 한국의 1990년대와 비슷한 모습이다. 구경제가 주도하는 증시4일 인도거래소(NSE)에 따르면 인도 시가총액 1위는 정유·통신·유통 등의 사업을 하는 릴라이언스인더스트리다. 1일 종가 기준 시총은 256조원이다. 2위는 정보기술(IT) 아웃소싱업체 타타컨설턴시(197조원), 3·4위는 각각 시중은행인 HDFC뱅크(189조원)와 ICICI뱅크(108조원)다.5~10위는 차례대로 인포시스(IT아웃소싱·95조원), 힌두스탄유니레버(생활용품·94조원), ITC(유통·87조원), 바르티에어텔(통신·82조원), SBI(은행·81조원), 바자이파이낸스(금융·70조원)다. 인도 증시는 금융서비스 비중이 37%로 가장 높고 IT(14%)와 에너지(13%)가 뒤에 있다.벤처기업이 2021년 대거 증시에 입성했지만 아직은 존재감이 크지 않다. 기술주 대장인 음식배달업체 조마토가 시총 13조원으로 70위권에 있는 것이 단적인 사례다. ‘인도판 토스’로 불리는 페이티엠 모회사 원97커뮤니케이션도 시총이 8조6000억원 수준이다.구경제의 존재감이 큰 것은 기술력이 뒤처져서가 아니다. 인도는 달에 탐사선을 보낼 정도로 기술력이 뛰어나다. 다만 국가기반시설을 이제 깔기 시작한 인도 특성상 구경제 기업들이 성장을 주도하고 있다. 인도 증권업계 관계자는 “구경제 기업이 최소 10년은 고성장할 것”이라고 예상했다.은행이 대표적이다. 인도 최대 민간은행인 HDFC뱅크는 매년 순이익이 20% 증가하고 있다. 주가는 지난 10년간 다섯 배 가까이 올랐다. 인도 증권업계에서 일하는 바브야 씨는 “인도의 개발정책은 금융이 필요하기 때문에 은행들이 큰돈을 벌어들이고 있다”고 전했다. 미래는 밝지만 과열됐다인도 증시가 중장기적으로 상승을 이어가지만 단기적으로는 과열됐다는 진단이 나온다. 주가 과열 정도를 측정하는 주가수익비율(PER)이 대표적인 사례다. 인도의 PER은 23배다. 신흥국 평균(12배)의 두 배에 달한다.하지만 장기적으로 보면 인도만큼 유망한 투자처가 없다는 의견이 많다. 14억 명에 달하는 인구가 핵심 동력이다. 인도는 1인당 평균 25달러를 매달 주식에 투자하고 있다. 인구가 많다 보니 매월 인도 증시에 들어오는 신규 투자금이 20억달러(약 2조6000억원)에 달한다. 소득이 늘어나면서 투자금은 계속 증가하고 있다.인도에서 벤처캐피털(VC)을 이끌고 있는 아난드 루니아 인디아쿼션트 파트너는 “지난 10년간 인도 증시의 상승은 외국인 투자금이 이끌었지만, 이제는 내수 자금도 풍부하다”고 말했다. 현금 배당을 중시하는 주주친화방침, 15%에 달하는 높은 자기자본이익률(ROE) 등도 강점으로 꼽힌다.허재환 유진투자증권 연구원은 “코로나19 이후 인도 증시가 강하게 올라 조정이 나올 수 있지만, 중장기적으로는 지금이 저점이라고 볼 수 있다”고 설명했다. 미래에셋증권은 “인도의 성장 잠재력을 고려할 때 가격 부담에 따른 조정은 인도 주식을 살 좋은 기회”라고 강조했다.국내 증권사들은 인도 주식 직구 서비스를 준비하고 있다. 현재는 인도 개별 종목에 투자하지 못하지만 간접투자는 이미 급증하는 추세다. 인도 대표 기업에 투자하는 ‘TIGER인도니프티50’ 상장지수펀드(ETF)는 출시 5개월 만에 운용자산 1000억원을 돌파했다.뭄바이=박의명 기자 uimyung@hankyung.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023.09.11.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>카뱅·케뱅으로 쏠린 주담대 수요, 왜?</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0004054248?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>인터넷전문은행에 주택담보대출 수요가 급증하고 있다.특히 카카오뱅크 한 곳에서만 두달간 관련 잔액이 약 2조원 증가했는데, 이는 5대 시중은행(KB국민·신한·하나·우리·NH농협)과 비교해도 가파른 증가세다.▶인터넷은행 주담대 잔액 약 2조 증가…저금리 효과인터넷은행들이 국회 기획재정위원회 소속 양경숙 의원(더불어민주당)에게 제출한 자료에 따르면 카카오뱅크의 지난달 말 주담대(전월세대출 포함) 잔액은 약 19조3173억원으로 집계됐다. 지난 6월 말(17조3223억원)과 비교하면 1조9950억원(11.5%) 증가했다.케이뱅크의 주담대 잔액도 지난 6월 말 3조6934억원에서 8월 말 4조655억원으로 3721억원(10.1%) 늘었다.같은 기간 5대 은행의 주담대 잔액이 511조4007억원에서 514조9997억원으로 3조5990억원(0.7%) 늘어난 것과 비교해봤을 때 인터넷은행의 성장세는 두드러진다. 앞서 올해 상반기 카카오뱅크와 케이뱅크 두 곳에서만 주담대(전월세 대출 포함) 잔액이 5조4360억원(34.9%) 늘었다.인터넷은행으로 주담대 수요가 쏠리는 이유는 금리 경쟁력 때문이다. 카카오뱅크와 케이뱅크는 올해 다른 은행보다 낮은 금리를 내세워 주담대 영업을 이어갔다.은행연합회 공시에 따르면 카카오뱅크와 케이뱅크가 지난 7월 중 신규 취급한 분할상환방식 주담대 평균 금리는 각각 연 4.16%, 4.17%로 집계됐다.이들 인터넷은행 모두 지난 6월(4.02%, 4.14%)보다 평균 금리가 올랐지만, 5대 은행(4.28∼4.70%)보다는 낮았다. 지난 4∼5월 중에는 주담대 금리를 내리고 특판을 진행하면서 평균 금리가 3%대로 내리기도 했다.인터넷은행이 금리를 낮추자 시중은행 대출을 이용하다가 넘어온 대환 수요의 영향도 있다. 카카오뱅크와 케이뱅크는 최근 신규취급액 중 50∼60%는 대환 고객이라고 밝혔다. 한편 지난 5일 전월세보증금 대출을 출시한 토스뱅크도 내년에는 주담대 상품을 출시할 가능성이 큰 상태다.▶금융당국, 주담대 쏠림 현상 비판…현장 점검 나서 금융당국은 이같은 인터넷은행의 주담대 증가세에 주목하며 가계대출 현장 점검에 나섰다.금감원은 인터넷은행이 주담대를 늘리는 과정에서 비대면 여신 심사가 소홀히 이뤄졌을 가능성이 있다고 보고, 관련 절차를 살피는 중이다.정부와 금융권에서는 주담대를 빠르게 늘리는 인터넷은행의 영업 행태에 대해 문제가 있다는 지적도 나오고 있다. 인터넷은행이 '중저신용 대출'이라는 인가 취지에 맞지 않게 주담대 영업에 몰두하는 데 문제가 없는지 들여다보겠다는 것이다.이복현 금융감독원장도 지난달 인터넷은행은 신파일러(금융거래 이력 부족자)에게 자금을 공급한다는 정책적 목적이 있다고 밝혔다. 지금과 같은 주담대 쏠림은 제도와 합치되는지에 대해선 비판적 시각이 있을 수 있다는 입장이다.이처럼 금융당국이 본격적으로 점검에 나서자 인터넷은행은 부랴부랴 주담대 문턱을 높였다. 카카오뱅크와 케이뱅크의 8일 기준 주담대 변동금리(신규 취급액 코픽스 연동)는 연 4.063∼7.016%로 집계됐다. 5대 은행의 주담대 변동금리 연 4.05∼6.989%보다 높다.주담대 혼합형(고정) 금리도 카카오뱅크와 케이뱅크는 연 4.20∼6.721%, 5대 은행은 연 3.79∼6.203%로 인터넷은행이 더 높았다.카카오뱅크는 지난달 30일부터는 주택구입자금 주택담보대출 대상을 무주택자로 제한했다. 앞서 지난달 25일에는 50년 주담대 상품에 만 34세 이하로 연령 조건을 신설했다. 45년 만기는 만 35세∼39세만, 40년 만기는 만 40세 이상만 선택할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023.09.04.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>광주은행, 2분기 '총자본비율' 양호 수준이긴한데…</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000946419?sid=102</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>지난 2분기 BIS기준 광주은행의 각 자본비율은 규제비율을 크게 상회하며 양호한 수준을 유지한 것으로 나타났다. 그러나, 부실채권비율은 높아지고 대손충당금적립비율은 낮아졌다. 광주은행 본점/사진=머니S DB. 지난 2분기 BIS기준 광주은행의 각 자본비율은 규제비율을 크게 상회하며 양호한 수준을 유지한 것으로 나타났다. 그러나, 부실채권비율은 높아지고 대손충당금적립비율은 낮아졌다.4일 금융감독원이 내놓은 '2023년 6월말 국내은행 부실채권 현황(잠정)및 은행지주회사· 은행 BIS기준 자본비율 현황(잠정)'에 따르면 광주은행 총여신은 22조3000억원, 고정이하여신금액 1000억원, 고정이하여신비율 0.45%로 고정이하여신비율(부실채권비율)은 전년같은분기(0.29%)대비 0.27%포인트, 전분기말(0.38%)대비 0.07% 각각 상승했다. 6개 지방은행 부실채권비율은 ▲전북(0.88%)▲제주(0.76%)▲대구(0.58%)▲광주(0.45%)▲경남(0.37%)▲부산은행(0.32%)순으로 나타났다. '부실채권 비율'은 연체기간이 3개월 이상으로 금융기관의 대출금 가운데 회수가 불확실한 돈을 말한다.눈에 띄는점은 6개 시중은행(시티은행 0.89%)의 고정이하여신비율은 0.19~0.28% 수준인 반면 지방은행 그리고 ▲토스(1.26%)▲케이(0.98%)▲카카오(0.42%)등 인터넷뱅크(0.69%)는 높아졌다.  광주은행 같은분기 대손충당금적립비율은 180.3%로 전년같은분기(180.9%)대비 0.6%포인트 낮아졌고, 전분기말(191.2%)보다 10.0%포인트 하락했다. 6개 지방은행 중 대손충당금적립비율이 하락한 곳은 광주(-10.9%)와 부산(-7.7%)은행 두 곳이었다. '대손충당금'은 기업이 미래에 발생할 수 있는 갑작스러운 손실을 메우기 위해 미리 비용처리해 떼어 둔 돈을 의미하며, 은행 등 금융권에서는 대손충당금을 고정이하여신금액으로 나눈 비율인 대손충당금 적립비율(NPL 커버리지)을 경제상황 급변동 등을 대비한 위험관리 지표로 삼고 있다.광주은행 6월말 현재 보통주, 기본자본, 총자본, 단순기본자본비율은 각각 15.15%, 15.15%, 15.69%, 6.37%로 전분기대비 0.22%포인트, 0.22%포인트, 0.25%포인트, 0.17%포인트 상승했다. BIS 규제비율인 보통주자본 7.0%, 기본자본 8.5%, 총자본 10.5%, 단순기본자본비율 3.0%을 각각 크게 웃도는 양호한 수준이다. 금감원은 "최근 중국 부동산시장 불안 및 미국 국채금리 상승 등 대외 불확실성 확대에 대비해 선제적인 자산건전성 관리를 보다 강화할 필요가 있다"며 "은행이 충분한 손실흡수능력을 갖출 수 있도록 대손충당금 적립 확대를 지속 유도해 나갈 계획이다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
